--- a/results_ver2.xlsx
+++ b/results_ver2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GitHub\Transfer_Learning_HAR\Create-Synthetic-IMU-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8B1816-AFBC-4874-9890-B5E680F7A0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FA7366-B60B-44E3-9ABA-9437145966A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="9" xr2:uid="{12BA48A7-0233-4943-8246-0FE27207722F}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3653" uniqueCount="1817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="1828">
   <si>
     <t>Validation set</t>
   </si>
@@ -2008,39 +2008,18 @@
     <t>model_acc_up2_tf_2</t>
   </si>
   <si>
-    <t>68,65+1,61</t>
-  </si>
-  <si>
-    <t>64,44+0,532</t>
-  </si>
-  <si>
     <t>85.12+0.01</t>
   </si>
   <si>
     <t>84.88+0.011</t>
   </si>
   <si>
-    <t>65,02+0,697</t>
-  </si>
-  <si>
-    <t>61.78+0.014</t>
-  </si>
-  <si>
-    <t>66.77+0.693</t>
-  </si>
-  <si>
     <t>84.53+0.003</t>
   </si>
   <si>
     <t>84.12+0.003</t>
   </si>
   <si>
-    <t>58.42+0.010</t>
-  </si>
-  <si>
-    <t>64.94+0.586</t>
-  </si>
-  <si>
     <t>84.48+0.004</t>
   </si>
   <si>
@@ -2377,9 +2356,6 @@
     <t>63.5+0.48</t>
   </si>
   <si>
-    <t>62.06+0,014</t>
-  </si>
-  <si>
     <t>89.16+0.004</t>
   </si>
   <si>
@@ -5495,6 +5471,63 @@
   </si>
   <si>
     <t>Penn to Lara-Mb</t>
+  </si>
+  <si>
+    <t>75.24+0,02</t>
+  </si>
+  <si>
+    <t>75.21+0.01</t>
+  </si>
+  <si>
+    <t>74.85+0.01</t>
+  </si>
+  <si>
+    <t>76.31+0.02</t>
+  </si>
+  <si>
+    <t>76.05+0.02</t>
+  </si>
+  <si>
+    <t>73.01+0.02</t>
+  </si>
+  <si>
+    <t>67.42+0.02</t>
+  </si>
+  <si>
+    <t>60.50+0.01</t>
+  </si>
+  <si>
+    <t>74.78+0.014</t>
+  </si>
+  <si>
+    <t>73.94+0.586</t>
+  </si>
+  <si>
+    <t>69.14+0.03</t>
+  </si>
+  <si>
+    <t>62.80+0.02</t>
+  </si>
+  <si>
+    <t>75.15+0.01</t>
+  </si>
+  <si>
+    <t>74.03+0.01</t>
+  </si>
+  <si>
+    <t>71.85+0.01</t>
+  </si>
+  <si>
+    <t>76.01+0.02</t>
+  </si>
+  <si>
+    <t>76,65+0,01</t>
+  </si>
+  <si>
+    <t>72,02+0,03</t>
+  </si>
+  <si>
+    <t>74.65+0.03</t>
   </si>
 </sst>
 </file>
@@ -6012,7 +6045,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F1" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -6148,10 +6181,10 @@
         <v>132</v>
       </c>
       <c r="J8" t="s">
-        <v>1489</v>
+        <v>1481</v>
       </c>
       <c r="K8" t="s">
-        <v>1465</v>
+        <v>1457</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -6163,7 +6196,7 @@
         <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="Q8">
         <v>100</v>
@@ -6180,10 +6213,10 @@
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="K9" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="L9">
         <v>100</v>
@@ -6195,7 +6228,7 @@
         <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="Q9">
         <v>100</v>
@@ -6209,10 +6242,10 @@
         <v>134</v>
       </c>
       <c r="J10" t="s">
-        <v>1469</v>
+        <v>1461</v>
       </c>
       <c r="K10" t="s">
-        <v>1444</v>
+        <v>1436</v>
       </c>
       <c r="L10">
         <v>100</v>
@@ -6224,7 +6257,7 @@
         <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="Q10">
         <v>100</v>
@@ -6253,7 +6286,7 @@
         <v>100</v>
       </c>
       <c r="O11" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="Q11">
         <v>100</v>
@@ -6267,10 +6300,10 @@
         <v>413</v>
       </c>
       <c r="J12" t="s">
-        <v>1445</v>
+        <v>1437</v>
       </c>
       <c r="K12" t="s">
-        <v>1444</v>
+        <v>1436</v>
       </c>
       <c r="L12">
         <v>100</v>
@@ -6282,7 +6315,7 @@
         <v>100</v>
       </c>
       <c r="O12" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="Q12">
         <v>100</v>
@@ -6293,13 +6326,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="J14" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="K14" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="L14">
         <v>100</v>
@@ -6311,7 +6344,7 @@
         <v>10</v>
       </c>
       <c r="O14" t="s">
-        <v>1488</v>
+        <v>1480</v>
       </c>
       <c r="Q14">
         <v>200</v>
@@ -6322,13 +6355,13 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>1447</v>
+        <v>1439</v>
       </c>
       <c r="J15" t="s">
-        <v>1457</v>
+        <v>1449</v>
       </c>
       <c r="K15" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
       <c r="L15">
         <v>100</v>
@@ -6340,7 +6373,7 @@
         <v>10</v>
       </c>
       <c r="O15" t="s">
-        <v>1488</v>
+        <v>1480</v>
       </c>
       <c r="Q15">
         <v>200</v>
@@ -6351,13 +6384,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>1448</v>
+        <v>1440</v>
       </c>
       <c r="J16" t="s">
-        <v>1458</v>
+        <v>1450</v>
       </c>
       <c r="K16" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="L16">
         <v>100</v>
@@ -6369,7 +6402,7 @@
         <v>10</v>
       </c>
       <c r="O16" t="s">
-        <v>1488</v>
+        <v>1480</v>
       </c>
       <c r="Q16">
         <v>200</v>
@@ -6380,13 +6413,13 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>1449</v>
+        <v>1441</v>
       </c>
       <c r="J17" t="s">
-        <v>1459</v>
+        <v>1451</v>
       </c>
       <c r="K17" t="s">
-        <v>1455</v>
+        <v>1447</v>
       </c>
       <c r="L17">
         <v>100</v>
@@ -6398,7 +6431,7 @@
         <v>10</v>
       </c>
       <c r="O17" t="s">
-        <v>1488</v>
+        <v>1480</v>
       </c>
       <c r="Q17">
         <v>200</v>
@@ -6409,13 +6442,13 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>1450</v>
+        <v>1442</v>
       </c>
       <c r="J18" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="K18" t="s">
-        <v>1456</v>
+        <v>1448</v>
       </c>
       <c r="L18">
         <v>100</v>
@@ -6427,7 +6460,7 @@
         <v>10</v>
       </c>
       <c r="O18" t="s">
-        <v>1488</v>
+        <v>1480</v>
       </c>
       <c r="Q18">
         <v>200</v>
@@ -6438,13 +6471,13 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>1483</v>
+        <v>1475</v>
       </c>
       <c r="J20" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="K20" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="L20">
         <v>100</v>
@@ -6456,7 +6489,7 @@
         <v>35</v>
       </c>
       <c r="O20" t="s">
-        <v>1488</v>
+        <v>1480</v>
       </c>
       <c r="Q20">
         <v>200</v>
@@ -6467,13 +6500,13 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>1484</v>
+        <v>1476</v>
       </c>
       <c r="J21" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="K21" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="L21">
         <v>100</v>
@@ -6485,7 +6518,7 @@
         <v>35</v>
       </c>
       <c r="O21" t="s">
-        <v>1488</v>
+        <v>1480</v>
       </c>
       <c r="Q21">
         <v>200</v>
@@ -6496,13 +6529,13 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>1485</v>
+        <v>1477</v>
       </c>
       <c r="J22" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="K22" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
       <c r="L22">
         <v>100</v>
@@ -6514,7 +6547,7 @@
         <v>35</v>
       </c>
       <c r="O22" t="s">
-        <v>1488</v>
+        <v>1480</v>
       </c>
       <c r="Q22">
         <v>200</v>
@@ -6525,13 +6558,13 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>1486</v>
+        <v>1478</v>
       </c>
       <c r="J23" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="K23" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="L23">
         <v>100</v>
@@ -6543,7 +6576,7 @@
         <v>35</v>
       </c>
       <c r="O23" t="s">
-        <v>1488</v>
+        <v>1480</v>
       </c>
       <c r="Q23">
         <v>200</v>
@@ -6554,13 +6587,13 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>1487</v>
+        <v>1479</v>
       </c>
       <c r="J24" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="K24" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="L24">
         <v>100</v>
@@ -6572,7 +6605,7 @@
         <v>35</v>
       </c>
       <c r="O24" t="s">
-        <v>1488</v>
+        <v>1480</v>
       </c>
       <c r="Q24">
         <v>200</v>
@@ -6583,13 +6616,13 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>1460</v>
+        <v>1452</v>
       </c>
       <c r="J26" t="s">
-        <v>1469</v>
+        <v>1461</v>
       </c>
       <c r="K26" t="s">
-        <v>1464</v>
+        <v>1456</v>
       </c>
       <c r="L26">
         <v>24</v>
@@ -6601,7 +6634,7 @@
         <v>100</v>
       </c>
       <c r="O26" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="Q26">
         <v>200</v>
@@ -6612,13 +6645,13 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>1461</v>
+        <v>1453</v>
       </c>
       <c r="J27" t="s">
-        <v>1470</v>
+        <v>1462</v>
       </c>
       <c r="K27" t="s">
-        <v>1465</v>
+        <v>1457</v>
       </c>
       <c r="L27">
         <v>24</v>
@@ -6630,7 +6663,7 @@
         <v>100</v>
       </c>
       <c r="O27" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="Q27">
         <v>200</v>
@@ -6641,13 +6674,13 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>1462</v>
+        <v>1454</v>
       </c>
       <c r="J28" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="K28" t="s">
-        <v>1466</v>
+        <v>1458</v>
       </c>
       <c r="L28">
         <v>24</v>
@@ -6659,7 +6692,7 @@
         <v>100</v>
       </c>
       <c r="O28" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="Q28">
         <v>200</v>
@@ -6670,13 +6703,13 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>1463</v>
+        <v>1455</v>
       </c>
       <c r="J29" t="s">
-        <v>1472</v>
+        <v>1464</v>
       </c>
       <c r="K29" t="s">
-        <v>1467</v>
+        <v>1459</v>
       </c>
       <c r="L29">
         <v>24</v>
@@ -6688,7 +6721,7 @@
         <v>100</v>
       </c>
       <c r="O29" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="Q29">
         <v>200</v>
@@ -6699,13 +6732,13 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="J30" t="s">
         <v>422</v>
       </c>
       <c r="K30" t="s">
-        <v>1468</v>
+        <v>1460</v>
       </c>
       <c r="L30">
         <v>24</v>
@@ -6717,7 +6750,7 @@
         <v>100</v>
       </c>
       <c r="O30" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="Q30">
         <v>200</v>
@@ -6728,13 +6761,13 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>1473</v>
+        <v>1465</v>
       </c>
       <c r="J32" t="s">
-        <v>1480</v>
+        <v>1472</v>
       </c>
       <c r="K32" t="s">
-        <v>1475</v>
+        <v>1467</v>
       </c>
       <c r="L32">
         <v>24</v>
@@ -6746,7 +6779,7 @@
         <v>104</v>
       </c>
       <c r="O32" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="Q32">
         <v>200</v>
@@ -6757,13 +6790,13 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
       <c r="J33" t="s">
-        <v>1481</v>
+        <v>1473</v>
       </c>
       <c r="K33" t="s">
-        <v>1476</v>
+        <v>1468</v>
       </c>
       <c r="L33">
         <v>24</v>
@@ -6775,7 +6808,7 @@
         <v>104</v>
       </c>
       <c r="O33" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="Q33">
         <v>200</v>
@@ -6789,10 +6822,10 @@
         <v>568</v>
       </c>
       <c r="J34" t="s">
-        <v>1470</v>
+        <v>1462</v>
       </c>
       <c r="K34" t="s">
-        <v>1477</v>
+        <v>1469</v>
       </c>
       <c r="L34">
         <v>24</v>
@@ -6804,7 +6837,7 @@
         <v>104</v>
       </c>
       <c r="O34" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="Q34">
         <v>200</v>
@@ -6818,10 +6851,10 @@
         <v>569</v>
       </c>
       <c r="J35" t="s">
-        <v>1482</v>
+        <v>1474</v>
       </c>
       <c r="K35" t="s">
-        <v>1478</v>
+        <v>1470</v>
       </c>
       <c r="L35">
         <v>24</v>
@@ -6833,7 +6866,7 @@
         <v>104</v>
       </c>
       <c r="O35" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="Q35">
         <v>200</v>
@@ -6844,13 +6877,13 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
+        <v>750</v>
+      </c>
+      <c r="J36" t="s">
         <v>757</v>
       </c>
-      <c r="J36" t="s">
-        <v>764</v>
-      </c>
       <c r="K36" t="s">
-        <v>1479</v>
+        <v>1471</v>
       </c>
       <c r="L36">
         <v>24</v>
@@ -6862,7 +6895,7 @@
         <v>104</v>
       </c>
       <c r="O36" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="Q36">
         <v>200</v>
@@ -6957,10 +6990,10 @@
         <v>386</v>
       </c>
       <c r="I41" t="s">
-        <v>1493</v>
+        <v>1485</v>
       </c>
       <c r="J41" t="s">
-        <v>1492</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -6994,7 +7027,7 @@
         <v>32</v>
       </c>
       <c r="E43" t="s">
-        <v>1490</v>
+        <v>1482</v>
       </c>
       <c r="I43" t="s">
         <v>39</v>
@@ -7017,10 +7050,10 @@
         <v>50</v>
       </c>
       <c r="I44" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="J44" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -7037,10 +7070,10 @@
         <v>630</v>
       </c>
       <c r="I45" t="s">
-        <v>1497</v>
+        <v>1489</v>
       </c>
       <c r="J45" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -7153,7 +7186,7 @@
         <v>297</v>
       </c>
       <c r="E53" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="I53" t="s">
         <v>57</v>
@@ -7196,10 +7229,10 @@
         <v>631</v>
       </c>
       <c r="I55" t="s">
-        <v>1499</v>
+        <v>1491</v>
       </c>
       <c r="J55" t="s">
-        <v>1498</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7216,10 +7249,10 @@
         <v>628</v>
       </c>
       <c r="I56" t="s">
-        <v>1501</v>
+        <v>1493</v>
       </c>
       <c r="J56" t="s">
-        <v>1500</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7250,13 +7283,13 @@
         <v>291</v>
       </c>
       <c r="H59" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="I59" t="s">
-        <v>1552</v>
+        <v>1544</v>
       </c>
       <c r="J59" t="s">
-        <v>1553</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7264,16 +7297,16 @@
         <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>1502</v>
+        <v>1494</v>
       </c>
       <c r="E60" t="s">
-        <v>1503</v>
+        <v>1495</v>
       </c>
       <c r="I60" t="s">
-        <v>1554</v>
+        <v>1546</v>
       </c>
       <c r="J60" t="s">
-        <v>1555</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7281,16 +7314,16 @@
         <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>1504</v>
+        <v>1496</v>
       </c>
       <c r="E61" t="s">
-        <v>1476</v>
+        <v>1468</v>
       </c>
       <c r="I61" t="s">
-        <v>1556</v>
+        <v>1548</v>
       </c>
       <c r="J61" t="s">
-        <v>1557</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7307,10 +7340,10 @@
         <v>467</v>
       </c>
       <c r="I62" t="s">
-        <v>1565</v>
+        <v>1557</v>
       </c>
       <c r="J62" t="s">
-        <v>1564</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7327,10 +7360,10 @@
         <v>472</v>
       </c>
       <c r="I63" t="s">
-        <v>1558</v>
+        <v>1550</v>
       </c>
       <c r="J63" t="s">
-        <v>1559</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7347,10 +7380,10 @@
         <v>474</v>
       </c>
       <c r="I64" t="s">
-        <v>1560</v>
+        <v>1552</v>
       </c>
       <c r="J64" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7367,10 +7400,10 @@
         <v>476</v>
       </c>
       <c r="I65" t="s">
-        <v>1562</v>
+        <v>1554</v>
       </c>
       <c r="J65" t="s">
-        <v>1563</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7381,7 +7414,7 @@
         <v>28</v>
       </c>
       <c r="D66" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="E66" t="s">
         <v>470</v>
@@ -7415,10 +7448,10 @@
         <v>285</v>
       </c>
       <c r="I69" t="s">
-        <v>1528</v>
+        <v>1520</v>
       </c>
       <c r="J69" t="s">
-        <v>1529</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7426,16 +7459,16 @@
         <v>25</v>
       </c>
       <c r="D70" t="s">
-        <v>1507</v>
+        <v>1499</v>
       </c>
       <c r="E70" t="s">
-        <v>1506</v>
+        <v>1498</v>
       </c>
       <c r="I70" t="s">
-        <v>1530</v>
+        <v>1522</v>
       </c>
       <c r="J70" t="s">
-        <v>1531</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7443,16 +7476,16 @@
         <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>1508</v>
+        <v>1500</v>
       </c>
       <c r="E71" t="s">
-        <v>1505</v>
+        <v>1497</v>
       </c>
       <c r="I71" t="s">
-        <v>1541</v>
+        <v>1533</v>
       </c>
       <c r="J71" t="s">
-        <v>1540</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7469,10 +7502,10 @@
         <v>492</v>
       </c>
       <c r="I72" t="s">
-        <v>1532</v>
+        <v>1524</v>
       </c>
       <c r="J72" t="s">
-        <v>1533</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7483,16 +7516,16 @@
         <v>30</v>
       </c>
       <c r="D73" t="s">
-        <v>1510</v>
+        <v>1502</v>
       </c>
       <c r="E73" t="s">
-        <v>1509</v>
+        <v>1501</v>
       </c>
       <c r="I73" t="s">
-        <v>1534</v>
+        <v>1526</v>
       </c>
       <c r="J73" t="s">
-        <v>1535</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7509,10 +7542,10 @@
         <v>498</v>
       </c>
       <c r="I74" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="J74" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7529,10 +7562,10 @@
         <v>500</v>
       </c>
       <c r="I75" t="s">
-        <v>1538</v>
+        <v>1530</v>
       </c>
       <c r="J75" t="s">
-        <v>1539</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7543,7 +7576,7 @@
         <v>28</v>
       </c>
       <c r="D76" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="E76" t="s">
         <v>496</v>
@@ -7571,13 +7604,13 @@
         <v>477</v>
       </c>
       <c r="E79" t="s">
-        <v>1513</v>
+        <v>1505</v>
       </c>
       <c r="I79" t="s">
         <v>411</v>
       </c>
       <c r="J79" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7591,13 +7624,13 @@
         <v>478</v>
       </c>
       <c r="E80" t="s">
-        <v>1514</v>
+        <v>1506</v>
       </c>
       <c r="I80" t="s">
-        <v>1567</v>
+        <v>1559</v>
       </c>
       <c r="J80" t="s">
-        <v>1568</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7605,16 +7638,16 @@
         <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
       <c r="E81" t="s">
-        <v>1511</v>
+        <v>1503</v>
       </c>
       <c r="I81" t="s">
-        <v>1578</v>
+        <v>1570</v>
       </c>
       <c r="J81" t="s">
-        <v>1577</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7625,16 +7658,16 @@
         <v>30</v>
       </c>
       <c r="D82" t="s">
-        <v>1521</v>
+        <v>1513</v>
       </c>
       <c r="E82" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
       <c r="I82" t="s">
-        <v>1569</v>
+        <v>1561</v>
       </c>
       <c r="J82" t="s">
-        <v>1570</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7645,16 +7678,16 @@
         <v>30</v>
       </c>
       <c r="D83" t="s">
-        <v>1520</v>
+        <v>1512</v>
       </c>
       <c r="E83" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>1571</v>
+        <v>1563</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>1572</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7665,16 +7698,16 @@
         <v>31</v>
       </c>
       <c r="D84" t="s">
-        <v>1519</v>
+        <v>1511</v>
       </c>
       <c r="E84" t="s">
-        <v>1516</v>
+        <v>1508</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>1573</v>
+        <v>1565</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>1574</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7685,19 +7718,19 @@
         <v>28</v>
       </c>
       <c r="D85" t="s">
-        <v>1522</v>
+        <v>1514</v>
       </c>
       <c r="E85" t="s">
-        <v>1515</v>
+        <v>1507</v>
       </c>
       <c r="G85" t="s">
         <v>30</v>
       </c>
       <c r="I85" t="s">
-        <v>1575</v>
+        <v>1567</v>
       </c>
       <c r="J85" t="s">
-        <v>1576</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7742,10 +7775,10 @@
         <v>285</v>
       </c>
       <c r="I89" t="s">
-        <v>1542</v>
+        <v>1534</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>1543</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7753,13 +7786,13 @@
         <v>25</v>
       </c>
       <c r="D90" t="s">
-        <v>1527</v>
+        <v>1519</v>
       </c>
       <c r="E90" t="s">
-        <v>1523</v>
+        <v>1515</v>
       </c>
       <c r="I90" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="J90" t="s">
         <v>197</v>
@@ -7770,16 +7803,16 @@
         <v>26</v>
       </c>
       <c r="D91" t="s">
-        <v>1526</v>
+        <v>1518</v>
       </c>
       <c r="E91" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="I91" t="s">
-        <v>1504</v>
+        <v>1496</v>
       </c>
       <c r="J91" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7796,10 +7829,10 @@
         <v>484</v>
       </c>
       <c r="I92" t="s">
-        <v>1544</v>
+        <v>1536</v>
       </c>
       <c r="J92" t="s">
-        <v>1545</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7819,7 +7852,7 @@
         <v>199</v>
       </c>
       <c r="J93" t="s">
-        <v>1546</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7833,13 +7866,13 @@
         <v>490</v>
       </c>
       <c r="E94" t="s">
-        <v>1524</v>
+        <v>1516</v>
       </c>
       <c r="I94" t="s">
-        <v>1547</v>
+        <v>1539</v>
       </c>
       <c r="J94" t="s">
-        <v>1548</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7853,13 +7886,13 @@
         <v>488</v>
       </c>
       <c r="E95" t="s">
-        <v>1525</v>
+        <v>1517</v>
       </c>
       <c r="I95" t="s">
-        <v>1549</v>
+        <v>1541</v>
       </c>
       <c r="J95" t="s">
-        <v>1550</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7878,7 +7911,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>1451</v>
+        <v>1443</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>29</v>
@@ -7895,19 +7928,19 @@
         <v>30</v>
       </c>
       <c r="D99" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="E99" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="G99" t="s">
         <v>277</v>
       </c>
       <c r="I99" t="s">
-        <v>1580</v>
+        <v>1572</v>
       </c>
       <c r="J99" t="s">
-        <v>1579</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7915,16 +7948,16 @@
         <v>25</v>
       </c>
       <c r="D100" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="E100" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="I100" t="s">
-        <v>1582</v>
+        <v>1574</v>
       </c>
       <c r="J100" t="s">
-        <v>1581</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7932,16 +7965,16 @@
         <v>26</v>
       </c>
       <c r="D101" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="E101" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="I101" t="s">
-        <v>1584</v>
+        <v>1576</v>
       </c>
       <c r="J101" t="s">
-        <v>1583</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7952,16 +7985,16 @@
         <v>31</v>
       </c>
       <c r="D102" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="E102" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="I102" t="s">
-        <v>1586</v>
+        <v>1578</v>
       </c>
       <c r="J102" t="s">
-        <v>1585</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7972,16 +8005,16 @@
         <v>30</v>
       </c>
       <c r="D103" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="E103" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="I103" t="s">
-        <v>1588</v>
+        <v>1580</v>
       </c>
       <c r="J103" t="s">
-        <v>1587</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7992,16 +8025,16 @@
         <v>28</v>
       </c>
       <c r="D104" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="E104" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="I104" t="s">
-        <v>1590</v>
+        <v>1582</v>
       </c>
       <c r="J104" t="s">
-        <v>1589</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8009,16 +8042,16 @@
         <v>44</v>
       </c>
       <c r="D105" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="E105" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="I105" t="s">
-        <v>1592</v>
+        <v>1584</v>
       </c>
       <c r="J105" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8026,24 +8059,24 @@
         <v>437</v>
       </c>
       <c r="C106" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="D106" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="E106" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="I106" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
       <c r="J106" t="s">
-        <v>1593</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
-        <v>1451</v>
+        <v>1443</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>29</v>
@@ -8060,19 +8093,19 @@
         <v>31</v>
       </c>
       <c r="D109" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="E109" t="s">
-        <v>1285</v>
+        <v>1277</v>
       </c>
       <c r="G109" t="s">
         <v>285</v>
       </c>
       <c r="I109" t="s">
-        <v>1596</v>
+        <v>1588</v>
       </c>
       <c r="J109" t="s">
-        <v>1595</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8080,16 +8113,16 @@
         <v>25</v>
       </c>
       <c r="D110" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="E110" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="I110" t="s">
-        <v>1598</v>
+        <v>1590</v>
       </c>
       <c r="J110" t="s">
-        <v>1597</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8097,16 +8130,16 @@
         <v>26</v>
       </c>
       <c r="D111" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="E111" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="I111" t="s">
-        <v>1600</v>
+        <v>1592</v>
       </c>
       <c r="J111" t="s">
-        <v>1599</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8117,16 +8150,16 @@
         <v>30</v>
       </c>
       <c r="D112" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="E112" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="I112" t="s">
-        <v>1601</v>
+        <v>1593</v>
       </c>
       <c r="J112" t="s">
-        <v>1602</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8137,16 +8170,16 @@
         <v>31</v>
       </c>
       <c r="D113" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="E113" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="I113" t="s">
-        <v>1604</v>
+        <v>1596</v>
       </c>
       <c r="J113" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8157,16 +8190,16 @@
         <v>31</v>
       </c>
       <c r="D114" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="E114" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="I114" t="s">
-        <v>1606</v>
+        <v>1598</v>
       </c>
       <c r="J114" t="s">
-        <v>1605</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8177,16 +8210,16 @@
         <v>30</v>
       </c>
       <c r="D115" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="E115" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="I115" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
       <c r="J115" t="s">
-        <v>1310</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8197,16 +8230,16 @@
         <v>28</v>
       </c>
       <c r="D116" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="E116" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="I116" t="s">
-        <v>1609</v>
+        <v>1601</v>
       </c>
       <c r="J116" t="s">
-        <v>1608</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8369,10 +8402,10 @@
         <v>31</v>
       </c>
       <c r="D125" t="s">
-        <v>1658</v>
+        <v>1650</v>
       </c>
       <c r="E125" t="s">
-        <v>1657</v>
+        <v>1649</v>
       </c>
       <c r="H125" t="s">
         <v>44</v>
@@ -8381,7 +8414,7 @@
         <v>63</v>
       </c>
       <c r="J125" t="s">
-        <v>1662</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8392,19 +8425,19 @@
         <v>31</v>
       </c>
       <c r="D126" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="E126" t="s">
-        <v>1659</v>
+        <v>1651</v>
       </c>
       <c r="H126" t="s">
         <v>437</v>
       </c>
       <c r="I126" t="s">
-        <v>1663</v>
+        <v>1655</v>
       </c>
       <c r="J126" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8478,7 +8511,7 @@
         <v>77</v>
       </c>
       <c r="E131" t="s">
-        <v>1660</v>
+        <v>1652</v>
       </c>
       <c r="H131" t="s">
         <v>26</v>
@@ -8593,7 +8626,7 @@
         <v>625</v>
       </c>
       <c r="E136" t="s">
-        <v>1661</v>
+        <v>1653</v>
       </c>
       <c r="H136" t="s">
         <v>437</v>
@@ -8601,7 +8634,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
-        <v>1665</v>
+        <v>1657</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>43</v>
@@ -8618,22 +8651,22 @@
         <v>31</v>
       </c>
       <c r="D139" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="E139" t="s">
-        <v>1288</v>
+        <v>1280</v>
       </c>
       <c r="G139" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="H139" t="s">
         <v>24</v>
       </c>
       <c r="I139" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="J139" t="s">
-        <v>1669</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8644,19 +8677,19 @@
         <v>30</v>
       </c>
       <c r="D140" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="E140" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="H140" t="s">
         <v>25</v>
       </c>
       <c r="I140" t="s">
-        <v>1674</v>
+        <v>1666</v>
       </c>
       <c r="J140" t="s">
-        <v>1670</v>
+        <v>1662</v>
       </c>
       <c r="K140" t="s">
         <v>30</v>
@@ -8670,19 +8703,19 @@
         <v>31</v>
       </c>
       <c r="D141" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="E141" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="H141" t="s">
         <v>26</v>
       </c>
       <c r="I141" t="s">
-        <v>1673</v>
+        <v>1665</v>
       </c>
       <c r="J141" t="s">
-        <v>1672</v>
+        <v>1664</v>
       </c>
       <c r="K141" t="s">
         <v>31</v>
@@ -8696,10 +8729,10 @@
         <v>31</v>
       </c>
       <c r="D142" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="E142" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="H142" t="s">
         <v>27</v>
@@ -8708,7 +8741,7 @@
         <v>115</v>
       </c>
       <c r="J142" t="s">
-        <v>1671</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8716,19 +8749,19 @@
         <v>37</v>
       </c>
       <c r="D143" t="s">
-        <v>1667</v>
+        <v>1659</v>
       </c>
       <c r="E143" t="s">
-        <v>1666</v>
+        <v>1658</v>
       </c>
       <c r="H143" t="s">
         <v>37</v>
       </c>
       <c r="I143" t="s">
-        <v>1680</v>
+        <v>1672</v>
       </c>
       <c r="J143" t="s">
-        <v>1676</v>
+        <v>1668</v>
       </c>
       <c r="K143" t="s">
         <v>30</v>
@@ -8742,19 +8775,19 @@
         <v>30</v>
       </c>
       <c r="D144" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="E144" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="H144" t="s">
         <v>38</v>
       </c>
       <c r="I144" t="s">
-        <v>1679</v>
+        <v>1671</v>
       </c>
       <c r="J144" t="s">
-        <v>1677</v>
+        <v>1669</v>
       </c>
       <c r="K144" t="s">
         <v>30</v>
@@ -8768,10 +8801,10 @@
         <v>31</v>
       </c>
       <c r="D145" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="E145" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="H145" t="s">
         <v>44</v>
@@ -8780,7 +8813,7 @@
         <v>116</v>
       </c>
       <c r="J145" t="s">
-        <v>1678</v>
+        <v>1670</v>
       </c>
       <c r="K145" t="s">
         <v>31</v>
@@ -8794,15 +8827,15 @@
         <v>31</v>
       </c>
       <c r="D146" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="E146" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
-        <v>1665</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -8816,10 +8849,10 @@
         <v>30</v>
       </c>
       <c r="D149" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="E149" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="G149" t="s">
         <v>285</v>
@@ -8828,10 +8861,10 @@
         <v>24</v>
       </c>
       <c r="I149" t="s">
-        <v>1688</v>
+        <v>1680</v>
       </c>
       <c r="J149" t="s">
-        <v>1681</v>
+        <v>1673</v>
       </c>
       <c r="K149" t="s">
         <v>31</v>
@@ -8845,19 +8878,19 @@
         <v>30</v>
       </c>
       <c r="D150" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="E150" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="H150" t="s">
         <v>25</v>
       </c>
       <c r="I150" t="s">
-        <v>1689</v>
+        <v>1681</v>
       </c>
       <c r="J150" t="s">
-        <v>1682</v>
+        <v>1674</v>
       </c>
       <c r="K150" t="s">
         <v>31</v>
@@ -8871,19 +8904,19 @@
         <v>31</v>
       </c>
       <c r="D151" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="E151" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="H151" t="s">
         <v>26</v>
       </c>
       <c r="I151" t="s">
-        <v>1690</v>
+        <v>1682</v>
       </c>
       <c r="J151" t="s">
-        <v>1683</v>
+        <v>1675</v>
       </c>
       <c r="K151" t="s">
         <v>30</v>
@@ -8897,19 +8930,19 @@
         <v>31</v>
       </c>
       <c r="D152" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="E152" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="H152" t="s">
         <v>27</v>
       </c>
       <c r="I152" t="s">
-        <v>1691</v>
+        <v>1683</v>
       </c>
       <c r="J152" t="s">
-        <v>1684</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -8920,19 +8953,19 @@
         <v>30</v>
       </c>
       <c r="D153" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="E153" t="s">
-        <v>1668</v>
+        <v>1660</v>
       </c>
       <c r="H153" t="s">
         <v>37</v>
       </c>
       <c r="I153" t="s">
-        <v>1692</v>
+        <v>1684</v>
       </c>
       <c r="J153" t="s">
-        <v>1685</v>
+        <v>1677</v>
       </c>
       <c r="K153" t="s">
         <v>31</v>
@@ -8946,19 +8979,19 @@
         <v>31</v>
       </c>
       <c r="D154" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="E154" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="H154" t="s">
         <v>38</v>
       </c>
       <c r="I154" t="s">
-        <v>1693</v>
+        <v>1685</v>
       </c>
       <c r="J154" t="s">
-        <v>1686</v>
+        <v>1678</v>
       </c>
       <c r="K154" t="s">
         <v>30</v>
@@ -8972,19 +9005,19 @@
         <v>30</v>
       </c>
       <c r="D155" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="E155" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="H155" t="s">
         <v>44</v>
       </c>
       <c r="I155" t="s">
-        <v>1694</v>
+        <v>1686</v>
       </c>
       <c r="J155" t="s">
-        <v>1687</v>
+        <v>1679</v>
       </c>
       <c r="K155" t="s">
         <v>30</v>
@@ -8998,10 +9031,10 @@
         <v>30</v>
       </c>
       <c r="D156" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="E156" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9035,7 +9068,7 @@
         <v>510</v>
       </c>
       <c r="J159" s="18" t="s">
-        <v>1724</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9055,10 +9088,10 @@
         <v>25</v>
       </c>
       <c r="I160" s="18" t="s">
-        <v>1713</v>
+        <v>1705</v>
       </c>
       <c r="J160" s="18" t="s">
-        <v>1714</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9066,19 +9099,19 @@
         <v>26</v>
       </c>
       <c r="D161" t="s">
-        <v>1700</v>
+        <v>1692</v>
       </c>
       <c r="E161" t="s">
-        <v>1699</v>
+        <v>1691</v>
       </c>
       <c r="H161" t="s">
         <v>26</v>
       </c>
       <c r="I161" s="18" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="J161" s="18" t="s">
-        <v>1716</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9098,10 +9131,10 @@
         <v>27</v>
       </c>
       <c r="I162" s="18" t="s">
-        <v>1710</v>
+        <v>1702</v>
       </c>
       <c r="J162" s="18" t="s">
-        <v>1717</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9121,10 +9154,10 @@
         <v>37</v>
       </c>
       <c r="I163" s="18" t="s">
-        <v>1718</v>
+        <v>1710</v>
       </c>
       <c r="J163" s="18" t="s">
-        <v>1719</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9144,10 +9177,10 @@
         <v>38</v>
       </c>
       <c r="I164" s="18" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="J164" s="18" t="s">
-        <v>1721</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9167,10 +9200,10 @@
         <v>44</v>
       </c>
       <c r="I165" s="18" t="s">
-        <v>1722</v>
+        <v>1714</v>
       </c>
       <c r="J165" s="18" t="s">
-        <v>1723</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9215,10 +9248,10 @@
         <v>24</v>
       </c>
       <c r="I169" t="s">
-        <v>1701</v>
+        <v>1693</v>
       </c>
       <c r="J169" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9226,10 +9259,10 @@
         <v>25</v>
       </c>
       <c r="D170" t="s">
-        <v>1697</v>
+        <v>1689</v>
       </c>
       <c r="E170" t="s">
-        <v>1695</v>
+        <v>1687</v>
       </c>
       <c r="F170" t="s">
         <v>285</v>
@@ -9238,10 +9271,10 @@
         <v>25</v>
       </c>
       <c r="I170" t="s">
-        <v>1702</v>
+        <v>1694</v>
       </c>
       <c r="J170" t="s">
-        <v>1703</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9249,19 +9282,19 @@
         <v>26</v>
       </c>
       <c r="D171" t="s">
-        <v>1698</v>
+        <v>1690</v>
       </c>
       <c r="E171" t="s">
-        <v>1696</v>
+        <v>1688</v>
       </c>
       <c r="H171" t="s">
         <v>26</v>
       </c>
       <c r="I171" t="s">
-        <v>1656</v>
+        <v>1648</v>
       </c>
       <c r="J171" t="s">
-        <v>1712</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9281,10 +9314,10 @@
         <v>27</v>
       </c>
       <c r="I172" t="s">
-        <v>1704</v>
+        <v>1696</v>
       </c>
       <c r="J172" t="s">
-        <v>1705</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9304,10 +9337,10 @@
         <v>37</v>
       </c>
       <c r="I173" t="s">
-        <v>1706</v>
+        <v>1698</v>
       </c>
       <c r="J173" t="s">
-        <v>1707</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9327,10 +9360,10 @@
         <v>38</v>
       </c>
       <c r="I174" t="s">
-        <v>1708</v>
+        <v>1700</v>
       </c>
       <c r="J174" t="s">
-        <v>1709</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9350,10 +9383,10 @@
         <v>44</v>
       </c>
       <c r="I175" t="s">
-        <v>1710</v>
+        <v>1702</v>
       </c>
       <c r="J175" t="s">
-        <v>1711</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9406,7 +9439,7 @@
         <v>30</v>
       </c>
       <c r="D180" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
       <c r="E180" t="s">
         <v>536</v>
@@ -9415,10 +9448,10 @@
         <v>24</v>
       </c>
       <c r="I180" t="s">
-        <v>1738</v>
+        <v>1730</v>
       </c>
       <c r="J180" t="s">
-        <v>1736</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9426,19 +9459,19 @@
         <v>25</v>
       </c>
       <c r="D181" t="s">
-        <v>1727</v>
+        <v>1719</v>
       </c>
       <c r="E181" t="s">
-        <v>1476</v>
+        <v>1468</v>
       </c>
       <c r="H181" t="s">
         <v>25</v>
       </c>
       <c r="I181" t="s">
-        <v>1732</v>
+        <v>1724</v>
       </c>
       <c r="J181" t="s">
-        <v>1729</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9446,19 +9479,19 @@
         <v>26</v>
       </c>
       <c r="D182" t="s">
-        <v>1728</v>
+        <v>1720</v>
       </c>
       <c r="E182" t="s">
-        <v>1725</v>
+        <v>1717</v>
       </c>
       <c r="H182" t="s">
         <v>26</v>
       </c>
       <c r="I182" t="s">
-        <v>1733</v>
+        <v>1725</v>
       </c>
       <c r="J182" t="s">
-        <v>1737</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9469,19 +9502,19 @@
         <v>31</v>
       </c>
       <c r="D183" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
       <c r="E183" t="s">
-        <v>1726</v>
+        <v>1718</v>
       </c>
       <c r="H183" t="s">
         <v>27</v>
       </c>
       <c r="I183" t="s">
-        <v>1746</v>
+        <v>1738</v>
       </c>
       <c r="J183" t="s">
-        <v>1739</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9492,7 +9525,7 @@
         <v>30</v>
       </c>
       <c r="D184" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
       <c r="E184" t="s">
         <v>537</v>
@@ -9501,10 +9534,10 @@
         <v>37</v>
       </c>
       <c r="I184" t="s">
-        <v>1745</v>
+        <v>1737</v>
       </c>
       <c r="J184" t="s">
-        <v>1740</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9515,7 +9548,7 @@
         <v>31</v>
       </c>
       <c r="D185" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="E185" t="s">
         <v>538</v>
@@ -9524,10 +9557,10 @@
         <v>38</v>
       </c>
       <c r="I185" t="s">
-        <v>1734</v>
+        <v>1726</v>
       </c>
       <c r="J185" t="s">
-        <v>1735</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9538,7 +9571,7 @@
         <v>28</v>
       </c>
       <c r="D186" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
       <c r="E186" t="s">
         <v>542</v>
@@ -9547,10 +9580,10 @@
         <v>44</v>
       </c>
       <c r="I186" t="s">
-        <v>1744</v>
+        <v>1736</v>
       </c>
       <c r="J186" t="s">
-        <v>1741</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9561,7 +9594,7 @@
         <v>31</v>
       </c>
       <c r="D187" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
       <c r="E187" t="s">
         <v>539</v>
@@ -9570,10 +9603,10 @@
         <v>437</v>
       </c>
       <c r="I187" t="s">
-        <v>1743</v>
+        <v>1735</v>
       </c>
       <c r="J187" t="s">
-        <v>1742</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9606,19 +9639,19 @@
         <v>25</v>
       </c>
       <c r="D191" t="s">
-        <v>1747</v>
+        <v>1739</v>
       </c>
       <c r="E191" t="s">
-        <v>1729</v>
+        <v>1721</v>
       </c>
       <c r="H191" t="s">
         <v>24</v>
       </c>
       <c r="I191" t="s">
-        <v>1749</v>
+        <v>1741</v>
       </c>
       <c r="J191" t="s">
-        <v>1750</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9626,19 +9659,19 @@
         <v>26</v>
       </c>
       <c r="D192" t="s">
-        <v>1748</v>
+        <v>1740</v>
       </c>
       <c r="E192" t="s">
-        <v>1730</v>
+        <v>1722</v>
       </c>
       <c r="H192" t="s">
         <v>25</v>
       </c>
       <c r="I192" t="s">
-        <v>1751</v>
+        <v>1743</v>
       </c>
       <c r="J192" t="s">
-        <v>1752</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -9652,16 +9685,16 @@
         <v>543</v>
       </c>
       <c r="E193" t="s">
-        <v>1731</v>
+        <v>1723</v>
       </c>
       <c r="H193" t="s">
         <v>26</v>
       </c>
       <c r="I193" t="s">
-        <v>1753</v>
+        <v>1745</v>
       </c>
       <c r="J193" t="s">
-        <v>1754</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -9681,10 +9714,10 @@
         <v>27</v>
       </c>
       <c r="I194" t="s">
-        <v>1755</v>
+        <v>1747</v>
       </c>
       <c r="J194" t="s">
-        <v>1756</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -9704,10 +9737,10 @@
         <v>37</v>
       </c>
       <c r="I195" t="s">
-        <v>1757</v>
+        <v>1749</v>
       </c>
       <c r="J195" t="s">
-        <v>1758</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -9727,10 +9760,10 @@
         <v>38</v>
       </c>
       <c r="I196" t="s">
-        <v>1759</v>
+        <v>1751</v>
       </c>
       <c r="J196" t="s">
-        <v>1760</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -9741,7 +9774,7 @@
         <v>28</v>
       </c>
       <c r="D197" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="E197" t="s">
         <v>544</v>
@@ -9750,10 +9783,10 @@
         <v>44</v>
       </c>
       <c r="I197" t="s">
-        <v>1761</v>
+        <v>1753</v>
       </c>
       <c r="J197" t="s">
-        <v>1762</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -9773,52 +9806,53 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7AC182E-5169-4094-9DE7-3B580E149E8E}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="14.1015625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.89453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.75">
       <c r="B1" s="15" t="s">
-        <v>727</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>720</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
-        <v>1767</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>1759</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>651</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1769</v>
+        <v>1761</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1768</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1769</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>1760</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>167</v>
       </c>
@@ -9829,56 +9863,66 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="E4" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>653</v>
       </c>
-      <c r="G4" t="s">
-        <v>1771</v>
-      </c>
+      <c r="G4" s="18"/>
       <c r="H4" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1763</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>1765</v>
+        <v>1757</v>
       </c>
       <c r="E5" t="s">
-        <v>1763</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1799</v>
+        <v>1755</v>
       </c>
       <c r="H5" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1791</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>1766</v>
+        <v>1758</v>
       </c>
       <c r="E6" t="s">
-        <v>1764</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1800</v>
+        <v>1756</v>
       </c>
       <c r="H6" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1792</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>27</v>
       </c>
@@ -9886,19 +9930,22 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="E7" t="s">
-        <v>673</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1801</v>
+        <v>666</v>
       </c>
       <c r="H7" t="s">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1793</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>517</v>
       </c>
@@ -9906,19 +9953,22 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="E8" t="s">
-        <v>679</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1772</v>
+        <v>672</v>
       </c>
       <c r="H8" t="s">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1764</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>518</v>
       </c>
@@ -9926,64 +9976,73 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="E9" t="s">
-        <v>677</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1774</v>
+        <v>670</v>
       </c>
       <c r="H9" t="s">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1766</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="E10" t="s">
-        <v>675</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1794</v>
+        <v>668</v>
       </c>
       <c r="H10" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>588</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1786</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="E11" t="s">
-        <v>670</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1792</v>
+        <v>663</v>
       </c>
       <c r="H11" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>426</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1784</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -9991,137 +10050,161 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>1784</v>
+        <v>1776</v>
       </c>
       <c r="E14" t="s">
-        <v>1776</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1809</v>
+        <v>1768</v>
       </c>
       <c r="H14" t="s">
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1801</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="E15" t="s">
-        <v>1783</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>1810</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>1775</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>1802</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>1785</v>
+        <v>1777</v>
       </c>
       <c r="E16" t="s">
-        <v>1777</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>1811</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>1769</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>1803</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>1786</v>
+        <v>1778</v>
       </c>
       <c r="E17" t="s">
-        <v>1778</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>1812</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>1770</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>1804</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
         <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>1787</v>
+        <v>1779</v>
       </c>
       <c r="E18" t="s">
-        <v>1779</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1813</v>
+        <v>1771</v>
       </c>
       <c r="H18" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>37</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1805</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>1788</v>
+        <v>1780</v>
       </c>
       <c r="E19" t="s">
-        <v>1780</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1814</v>
+        <v>1772</v>
       </c>
       <c r="H19" t="s">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1806</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
         <v>588</v>
       </c>
       <c r="D20" t="s">
-        <v>1789</v>
+        <v>1781</v>
       </c>
       <c r="E20" t="s">
-        <v>1781</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1815</v>
+        <v>1773</v>
       </c>
       <c r="H20" t="s">
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>588</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
         <v>426</v>
       </c>
       <c r="D21" t="s">
-        <v>1790</v>
+        <v>1782</v>
       </c>
       <c r="E21" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>1774</v>
+      </c>
+      <c r="H21" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>167</v>
       </c>
@@ -10132,26 +10215,65 @@
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>654</v>
+        <v>1825</v>
       </c>
       <c r="E24" t="s">
-        <v>655</v>
-      </c>
-      <c r="G24" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F24" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1825</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1810</v>
+      </c>
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1824</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1571</v>
+      </c>
+      <c r="H26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1827</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
         <v>27</v>
       </c>
@@ -10159,13 +10281,22 @@
         <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>658</v>
+        <v>1167</v>
       </c>
       <c r="E27" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>1811</v>
+      </c>
+      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1826</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
         <v>37</v>
       </c>
@@ -10173,29 +10304,62 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>659</v>
+        <v>1817</v>
       </c>
       <c r="E28" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>988</v>
+      </c>
+      <c r="H28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1817</v>
+      </c>
+      <c r="J28" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
         <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>664</v>
+        <v>1818</v>
       </c>
       <c r="E29" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>1814</v>
+      </c>
+      <c r="H29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1818</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D30" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1815</v>
+      </c>
+      <c r="H30" t="s">
+        <v>588</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1819</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
         <v>426</v>
       </c>
@@ -10203,21 +10367,30 @@
         <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>429</v>
+        <v>1820</v>
       </c>
       <c r="E31" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>1816</v>
+      </c>
+      <c r="H31" t="s">
+        <v>426</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1820</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>699</v>
-      </c>
-      <c r="G33" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>692</v>
+      </c>
+      <c r="I33" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>167</v>
       </c>
@@ -10228,26 +10401,26 @@
         <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E34" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="F34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" t="s">
         <v>27</v>
       </c>
@@ -10258,10 +10431,10 @@
         <v>411</v>
       </c>
       <c r="E37" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" t="s">
         <v>37</v>
       </c>
@@ -10269,13 +10442,13 @@
         <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E38" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" t="s">
         <v>38</v>
       </c>
@@ -10283,13 +10456,13 @@
         <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="E39" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="13" t="s">
         <v>588</v>
       </c>
@@ -10297,32 +10470,32 @@
         <v>28</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" t="s">
         <v>426</v>
       </c>
       <c r="D41" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="E41">
         <v>75.67</v>
       </c>
-      <c r="G41" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I41" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>167</v>
       </c>
@@ -10333,32 +10506,32 @@
         <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="E44" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="F44" t="s">
         <v>31</v>
       </c>
-      <c r="H44">
+      <c r="J44">
         <v>86.68</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" t="s">
         <v>25</v>
       </c>
-      <c r="G45" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I45" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" t="s">
         <v>27</v>
       </c>
@@ -10366,16 +10539,16 @@
         <v>31</v>
       </c>
       <c r="D47" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="E47" t="s">
-        <v>720</v>
-      </c>
-      <c r="H47" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>713</v>
+      </c>
+      <c r="J47" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" t="s">
         <v>37</v>
       </c>
@@ -10383,19 +10556,19 @@
         <v>30</v>
       </c>
       <c r="D48" t="s">
+        <v>718</v>
+      </c>
+      <c r="E48" t="s">
+        <v>719</v>
+      </c>
+      <c r="I48" t="s">
         <v>725</v>
       </c>
-      <c r="E48" t="s">
-        <v>726</v>
-      </c>
-      <c r="G48" t="s">
-        <v>732</v>
-      </c>
-      <c r="H48" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J48" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" t="s">
         <v>38</v>
       </c>
@@ -10403,13 +10576,13 @@
         <v>31</v>
       </c>
       <c r="D49" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="E49" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" t="s">
         <v>588</v>
       </c>
@@ -10417,19 +10590,19 @@
         <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E50" t="s">
-        <v>735</v>
-      </c>
-      <c r="G50" t="s">
-        <v>736</v>
-      </c>
-      <c r="H50" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>728</v>
+      </c>
+      <c r="I50" t="s">
+        <v>729</v>
+      </c>
+      <c r="J50" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" t="s">
         <v>426</v>
       </c>
@@ -10437,30 +10610,30 @@
         <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="E51" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="F51" t="s">
         <v>31</v>
       </c>
-      <c r="G51" t="s">
-        <v>734</v>
-      </c>
-      <c r="H51" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I51" t="s">
+        <v>727</v>
+      </c>
+      <c r="J51" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C57" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="E57" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="F57" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -10504,7 +10677,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E1" s="1" t="s">
-        <v>1351</v>
+        <v>1343</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>0</v>
@@ -10529,7 +10702,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
@@ -10582,7 +10755,7 @@
         <v>78.744</v>
       </c>
       <c r="K3" t="s">
-        <v>1626</v>
+        <v>1618</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -10617,7 +10790,7 @@
         <v>72.111000000000004</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -10661,7 +10834,7 @@
         <v>79.77</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>1628</v>
+        <v>1620</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -10702,7 +10875,7 @@
         <v>91.18</v>
       </c>
       <c r="K6" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -10740,7 +10913,7 @@
         <v>62.11</v>
       </c>
       <c r="K7" t="s">
-        <v>1614</v>
+        <v>1606</v>
       </c>
       <c r="L7">
         <v>100</v>
@@ -10784,7 +10957,7 @@
         <v>87.23</v>
       </c>
       <c r="K8" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -10816,22 +10989,22 @@
         <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>1635</v>
+        <v>1627</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>1634</v>
+        <v>1626</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>1633</v>
+        <v>1625</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>1632</v>
+        <v>1624</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>1631</v>
+        <v>1623</v>
       </c>
       <c r="K9" t="s">
-        <v>1630</v>
+        <v>1622</v>
       </c>
       <c r="L9">
         <v>100</v>
@@ -10872,7 +11045,7 @@
         <v>68</v>
       </c>
       <c r="K10" t="s">
-        <v>1615</v>
+        <v>1607</v>
       </c>
       <c r="L10">
         <v>100</v>
@@ -10895,7 +11068,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" s="1" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -10912,7 +11085,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -10959,10 +11132,10 @@
         <v>87.76</v>
       </c>
       <c r="J14" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="K14" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="L14">
         <v>100</v>
@@ -10979,19 +11152,19 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>1622</v>
+        <v>1614</v>
       </c>
       <c r="H15" t="s">
-        <v>1621</v>
+        <v>1613</v>
       </c>
       <c r="I15" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
       <c r="J15" t="s">
-        <v>1619</v>
+        <v>1611</v>
       </c>
       <c r="K15" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="L15">
         <v>100</v>
@@ -11020,7 +11193,7 @@
         <v>87.6</v>
       </c>
       <c r="K16" t="s">
-        <v>1636</v>
+        <v>1628</v>
       </c>
       <c r="L16">
         <v>100</v>
@@ -11052,7 +11225,7 @@
         <v>84.97</v>
       </c>
       <c r="K17" t="s">
-        <v>1637</v>
+        <v>1629</v>
       </c>
       <c r="L17">
         <v>100</v>
@@ -11082,7 +11255,7 @@
         <v>81.81</v>
       </c>
       <c r="K18" t="s">
-        <v>1638</v>
+        <v>1630</v>
       </c>
       <c r="L18">
         <v>100</v>
@@ -11112,7 +11285,7 @@
         <v>79.33</v>
       </c>
       <c r="K19" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="L19">
         <v>100</v>
@@ -11142,7 +11315,7 @@
         <v>78.84</v>
       </c>
       <c r="K20" t="s">
-        <v>1639</v>
+        <v>1631</v>
       </c>
       <c r="L20">
         <v>100</v>
@@ -11171,7 +11344,7 @@
         <v>74.48</v>
       </c>
       <c r="K21" t="s">
-        <v>1640</v>
+        <v>1632</v>
       </c>
       <c r="L21">
         <v>100</v>
@@ -11191,7 +11364,7 @@
         <v>42.625</v>
       </c>
       <c r="K22" t="s">
-        <v>1624</v>
+        <v>1616</v>
       </c>
       <c r="L22">
         <v>100</v>
@@ -11217,7 +11390,7 @@
         <v>44.375</v>
       </c>
       <c r="K23" t="s">
-        <v>1625</v>
+        <v>1617</v>
       </c>
       <c r="L23">
         <v>100</v>
@@ -11231,7 +11404,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E25" s="1" t="s">
-        <v>1344</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -11248,7 +11421,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -11298,7 +11471,7 @@
         <v>47.662100000000002</v>
       </c>
       <c r="K27" t="s">
-        <v>1641</v>
+        <v>1633</v>
       </c>
       <c r="L27">
         <v>100</v>
@@ -11331,7 +11504,7 @@
         <v>49.296900000000001</v>
       </c>
       <c r="K28" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
       <c r="L28">
         <v>100</v>
@@ -11363,7 +11536,7 @@
         <v>56.28</v>
       </c>
       <c r="K29" t="s">
-        <v>1643</v>
+        <v>1635</v>
       </c>
       <c r="L29">
         <v>100</v>
@@ -11383,19 +11556,19 @@
         <v>100</v>
       </c>
       <c r="G30" t="s">
-        <v>1646</v>
+        <v>1638</v>
       </c>
       <c r="H30" t="s">
-        <v>1645</v>
+        <v>1637</v>
       </c>
       <c r="I30" t="s">
-        <v>1648</v>
+        <v>1640</v>
       </c>
       <c r="J30" t="s">
-        <v>1647</v>
+        <v>1639</v>
       </c>
       <c r="K30" t="s">
-        <v>1644</v>
+        <v>1636</v>
       </c>
       <c r="L30">
         <v>100</v>
@@ -11427,7 +11600,7 @@
         <v>27.61</v>
       </c>
       <c r="K31" t="s">
-        <v>1649</v>
+        <v>1641</v>
       </c>
       <c r="L31">
         <v>100</v>
@@ -11459,7 +11632,7 @@
         <v>47</v>
       </c>
       <c r="K32" t="s">
-        <v>1650</v>
+        <v>1642</v>
       </c>
       <c r="L32">
         <v>100</v>
@@ -11494,7 +11667,7 @@
         <v>51.12</v>
       </c>
       <c r="K33" t="s">
-        <v>1651</v>
+        <v>1643</v>
       </c>
       <c r="L33">
         <v>100</v>
@@ -11515,19 +11688,19 @@
         <v>100</v>
       </c>
       <c r="G34" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
       <c r="H34" t="s">
-        <v>1654</v>
+        <v>1646</v>
       </c>
       <c r="I34" t="s">
-        <v>1653</v>
+        <v>1645</v>
       </c>
       <c r="J34" t="s">
-        <v>1652</v>
+        <v>1644</v>
       </c>
       <c r="K34" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
       <c r="L34">
         <v>100</v>
@@ -11601,7 +11774,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D1" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -11636,7 +11809,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>8</v>
@@ -11671,22 +11844,22 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="C4">
         <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>1428</v>
+        <v>1420</v>
       </c>
       <c r="I4" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
       <c r="L4" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="M4" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
       <c r="N4">
         <v>12</v>
@@ -11695,7 +11868,7 @@
         <v>200</v>
       </c>
       <c r="P4" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="R4">
         <v>100</v>
@@ -11704,25 +11877,25 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>1351</v>
+        <v>1343</v>
       </c>
       <c r="B5" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="C5">
         <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
       <c r="I5" t="s">
-        <v>1369</v>
+        <v>1361</v>
       </c>
       <c r="L5" t="s">
-        <v>1371</v>
+        <v>1363</v>
       </c>
       <c r="M5" t="s">
-        <v>1346</v>
+        <v>1338</v>
       </c>
       <c r="N5">
         <v>12</v>
@@ -11731,7 +11904,7 @@
         <v>200</v>
       </c>
       <c r="P5" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="R5">
         <v>100</v>
@@ -11739,22 +11912,22 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="C6">
         <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>1430</v>
+        <v>1422</v>
       </c>
       <c r="I6" t="s">
-        <v>1375</v>
+        <v>1367</v>
       </c>
       <c r="L6" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="M6" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="N6">
         <v>12</v>
@@ -11763,7 +11936,7 @@
         <v>200</v>
       </c>
       <c r="P6" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="R6">
         <v>100</v>
@@ -11771,22 +11944,22 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="C7">
         <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>1431</v>
+        <v>1423</v>
       </c>
       <c r="I7" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
       <c r="L7" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="M7" t="s">
-        <v>1349</v>
+        <v>1341</v>
       </c>
       <c r="N7">
         <v>12</v>
@@ -11795,7 +11968,7 @@
         <v>200</v>
       </c>
       <c r="P7" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="R7">
         <v>50</v>
@@ -11803,22 +11976,22 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="C8">
         <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
       <c r="I8" t="s">
-        <v>1377</v>
+        <v>1369</v>
       </c>
       <c r="L8" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="M8" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="N8">
         <v>12</v>
@@ -11827,7 +12000,7 @@
         <v>200</v>
       </c>
       <c r="P8" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="R8">
         <v>50</v>
@@ -11835,13 +12008,13 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="C9">
         <v>25</v>
       </c>
       <c r="M9" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="R9">
         <v>50</v>
@@ -11849,22 +12022,22 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
-        <v>1353</v>
+        <v>1345</v>
       </c>
       <c r="C10">
         <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>1433</v>
+        <v>1425</v>
       </c>
       <c r="I10" t="s">
-        <v>1366</v>
+        <v>1358</v>
       </c>
       <c r="L10" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
       <c r="M10" t="s">
-        <v>1355</v>
+        <v>1347</v>
       </c>
       <c r="N10">
         <v>12</v>
@@ -11873,7 +12046,7 @@
         <v>200</v>
       </c>
       <c r="P10" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="R10">
         <v>100</v>
@@ -11881,22 +12054,22 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>1353</v>
+        <v>1345</v>
       </c>
       <c r="C11">
         <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>1434</v>
+        <v>1426</v>
       </c>
       <c r="I11" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
       <c r="L11" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
       <c r="M11" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
       <c r="N11">
         <v>12</v>
@@ -11905,27 +12078,27 @@
         <v>200</v>
       </c>
       <c r="P11" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>1353</v>
+        <v>1345</v>
       </c>
       <c r="C12">
         <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>1435</v>
+        <v>1427</v>
       </c>
       <c r="I12" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="L12" t="s">
-        <v>1378</v>
+        <v>1370</v>
       </c>
       <c r="M12" t="s">
-        <v>1346</v>
+        <v>1338</v>
       </c>
       <c r="N12">
         <v>12</v>
@@ -11934,7 +12107,7 @@
         <v>200</v>
       </c>
       <c r="P12" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="R12">
         <v>100</v>
@@ -11942,22 +12115,22 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>1353</v>
+        <v>1345</v>
       </c>
       <c r="C13">
         <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>1436</v>
+        <v>1428</v>
       </c>
       <c r="I13" t="s">
-        <v>1382</v>
+        <v>1374</v>
       </c>
       <c r="L13" t="s">
-        <v>1380</v>
+        <v>1372</v>
       </c>
       <c r="M13" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="N13">
         <v>12</v>
@@ -11966,7 +12139,7 @@
         <v>200</v>
       </c>
       <c r="P13" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="R13">
         <v>50</v>
@@ -11974,22 +12147,22 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
-        <v>1353</v>
+        <v>1345</v>
       </c>
       <c r="C14">
         <v>100</v>
       </c>
       <c r="H14" t="s">
-        <v>1437</v>
+        <v>1429</v>
       </c>
       <c r="I14" t="s">
-        <v>1383</v>
+        <v>1375</v>
       </c>
       <c r="L14" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
       <c r="M14" t="s">
-        <v>1349</v>
+        <v>1341</v>
       </c>
       <c r="N14">
         <v>12</v>
@@ -11998,7 +12171,7 @@
         <v>200</v>
       </c>
       <c r="P14" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="R14">
         <v>50</v>
@@ -12006,22 +12179,22 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>1353</v>
+        <v>1345</v>
       </c>
       <c r="C15">
         <v>100</v>
       </c>
       <c r="H15" t="s">
-        <v>1438</v>
+        <v>1430</v>
       </c>
       <c r="I15" t="s">
-        <v>1385</v>
+        <v>1377</v>
       </c>
       <c r="L15" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
       <c r="M15" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="N15">
         <v>12</v>
@@ -12030,7 +12203,7 @@
         <v>200</v>
       </c>
       <c r="P15" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="R15">
         <v>50</v>
@@ -12038,25 +12211,25 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="B17" t="s">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="C17">
         <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>1439</v>
+        <v>1431</v>
       </c>
       <c r="I17" t="s">
-        <v>1387</v>
+        <v>1379</v>
       </c>
       <c r="L17" t="s">
-        <v>1386</v>
+        <v>1378</v>
       </c>
       <c r="M17" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -12065,30 +12238,30 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="B18" t="s">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="C18">
         <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>1440</v>
+        <v>1432</v>
       </c>
       <c r="I18" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="L18" t="s">
-        <v>1388</v>
+        <v>1380</v>
       </c>
       <c r="M18" t="s">
-        <v>1346</v>
+        <v>1338</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -12097,7 +12270,7 @@
         <v>50</v>
       </c>
       <c r="P18" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="R18">
         <v>200</v>
@@ -12105,22 +12278,22 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="C19">
         <v>100</v>
       </c>
       <c r="H19" t="s">
-        <v>1441</v>
+        <v>1433</v>
       </c>
       <c r="I19" t="s">
-        <v>1395</v>
+        <v>1387</v>
       </c>
       <c r="L19" t="s">
-        <v>1390</v>
+        <v>1382</v>
       </c>
       <c r="M19" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -12129,7 +12302,7 @@
         <v>50</v>
       </c>
       <c r="P19" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="R19">
         <v>100</v>
@@ -12137,22 +12310,22 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="C20">
         <v>100</v>
       </c>
       <c r="H20" t="s">
-        <v>1442</v>
+        <v>1434</v>
       </c>
       <c r="I20" t="s">
-        <v>1394</v>
+        <v>1386</v>
       </c>
       <c r="L20" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="M20" t="s">
-        <v>1349</v>
+        <v>1341</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -12161,7 +12334,7 @@
         <v>50</v>
       </c>
       <c r="P20" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="R20">
         <v>100</v>
@@ -12169,22 +12342,22 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="C21">
         <v>100</v>
       </c>
       <c r="H21" t="s">
-        <v>1443</v>
+        <v>1435</v>
       </c>
       <c r="I21" t="s">
-        <v>1393</v>
+        <v>1385</v>
       </c>
       <c r="L21" t="s">
-        <v>1392</v>
+        <v>1384</v>
       </c>
       <c r="M21" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -12193,7 +12366,7 @@
         <v>50</v>
       </c>
       <c r="P21" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="R21">
         <v>100</v>
@@ -12201,7 +12374,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -12214,13 +12387,13 @@
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="20" t="s">
-        <v>1396</v>
+        <v>1388</v>
       </c>
       <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1" t="s">
-        <v>1361</v>
+        <v>1353</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
@@ -12274,7 +12447,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="C27">
         <v>100</v>
@@ -12284,18 +12457,18 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="18" t="s">
-        <v>1416</v>
+        <v>1408</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>1417</v>
+        <v>1409</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="18" t="s">
-        <v>1410</v>
+        <v>1402</v>
       </c>
       <c r="M27" s="18" t="s">
-        <v>1409</v>
+        <v>1401</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -12306,31 +12479,31 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>1344</v>
+        <v>1336</v>
       </c>
       <c r="B28" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="C28">
         <v>100</v>
       </c>
       <c r="H28" t="s">
-        <v>1418</v>
+        <v>1410</v>
       </c>
       <c r="I28" t="s">
-        <v>1419</v>
+        <v>1411</v>
       </c>
       <c r="L28" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="M28" t="s">
-        <v>1346</v>
+        <v>1338</v>
       </c>
       <c r="N28">
         <v>12</v>
       </c>
       <c r="P28" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="R28">
         <v>50</v>
@@ -12338,28 +12511,28 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="C29">
         <v>100</v>
       </c>
       <c r="H29" t="s">
-        <v>1422</v>
+        <v>1414</v>
       </c>
       <c r="I29" t="s">
-        <v>1421</v>
+        <v>1413</v>
       </c>
       <c r="L29" t="s">
-        <v>1412</v>
+        <v>1404</v>
       </c>
       <c r="M29" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="N29">
         <v>12</v>
       </c>
       <c r="P29" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="R29">
         <v>50</v>
@@ -12367,28 +12540,28 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="C30">
         <v>100</v>
       </c>
       <c r="H30" t="s">
-        <v>1423</v>
+        <v>1415</v>
       </c>
       <c r="I30" t="s">
-        <v>1420</v>
+        <v>1412</v>
       </c>
       <c r="L30" t="s">
-        <v>1413</v>
+        <v>1405</v>
       </c>
       <c r="M30" t="s">
-        <v>1349</v>
+        <v>1341</v>
       </c>
       <c r="N30">
         <v>12</v>
       </c>
       <c r="P30" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="R30">
         <v>25</v>
@@ -12396,28 +12569,28 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="C31">
         <v>100</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>1424</v>
+        <v>1416</v>
       </c>
       <c r="I31" t="s">
-        <v>1425</v>
+        <v>1417</v>
       </c>
       <c r="L31" t="s">
-        <v>1414</v>
+        <v>1406</v>
       </c>
       <c r="M31" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="N31">
         <v>12</v>
       </c>
       <c r="P31" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="R31">
         <v>25</v>
@@ -12425,28 +12598,28 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="C32">
         <v>100</v>
       </c>
       <c r="H32" t="s">
-        <v>1426</v>
+        <v>1418</v>
       </c>
       <c r="I32" t="s">
-        <v>1427</v>
+        <v>1419</v>
       </c>
       <c r="L32" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="M32" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="N32">
         <v>12</v>
       </c>
       <c r="P32" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="R32">
         <v>25</v>
@@ -12454,19 +12627,19 @@
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="C33">
         <v>100</v>
       </c>
       <c r="M33" t="s">
-        <v>1360</v>
+        <v>1352</v>
       </c>
       <c r="N33">
         <v>12</v>
       </c>
       <c r="P33" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="R33">
         <v>25</v>
@@ -12474,45 +12647,45 @@
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="C34">
         <v>30</v>
       </c>
       <c r="H34" t="s">
-        <v>1397</v>
+        <v>1389</v>
       </c>
       <c r="I34" t="s">
-        <v>1404</v>
+        <v>1396</v>
       </c>
       <c r="L34" t="s">
-        <v>1397</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="C35">
         <v>30</v>
       </c>
       <c r="H35" t="s">
-        <v>1398</v>
+        <v>1390</v>
       </c>
       <c r="I35" t="s">
-        <v>1403</v>
+        <v>1395</v>
       </c>
       <c r="L35" t="s">
-        <v>1398</v>
+        <v>1390</v>
       </c>
       <c r="M35" t="s">
-        <v>1346</v>
+        <v>1338</v>
       </c>
       <c r="N35">
         <v>12</v>
       </c>
       <c r="P35" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="R35">
         <v>50</v>
@@ -12520,28 +12693,28 @@
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="C36">
         <v>30</v>
       </c>
       <c r="H36" t="s">
-        <v>1399</v>
+        <v>1391</v>
       </c>
       <c r="I36" t="s">
-        <v>1405</v>
+        <v>1397</v>
       </c>
       <c r="L36" t="s">
-        <v>1399</v>
+        <v>1391</v>
       </c>
       <c r="M36" t="s">
-        <v>1354</v>
+        <v>1346</v>
       </c>
       <c r="N36">
         <v>12</v>
       </c>
       <c r="P36" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="R36">
         <v>50</v>
@@ -12549,28 +12722,28 @@
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="C37">
         <v>30</v>
       </c>
       <c r="H37" t="s">
-        <v>1400</v>
+        <v>1392</v>
       </c>
       <c r="I37" t="s">
-        <v>1406</v>
+        <v>1398</v>
       </c>
       <c r="L37" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
       <c r="M37" t="s">
-        <v>1349</v>
+        <v>1341</v>
       </c>
       <c r="N37">
         <v>12</v>
       </c>
       <c r="P37" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="R37">
         <v>50</v>
@@ -12578,28 +12751,28 @@
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="C38">
         <v>30</v>
       </c>
       <c r="H38" t="s">
-        <v>1401</v>
+        <v>1393</v>
       </c>
       <c r="I38" t="s">
-        <v>1407</v>
+        <v>1399</v>
       </c>
       <c r="L38" t="s">
-        <v>1401</v>
+        <v>1393</v>
       </c>
       <c r="M38" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="N38">
         <v>12</v>
       </c>
       <c r="P38" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="R38">
         <v>50</v>
@@ -12607,28 +12780,28 @@
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="C39">
         <v>30</v>
       </c>
       <c r="H39" t="s">
-        <v>1402</v>
+        <v>1394</v>
       </c>
       <c r="I39" t="s">
-        <v>1408</v>
+        <v>1400</v>
       </c>
       <c r="L39" t="s">
-        <v>1402</v>
+        <v>1394</v>
       </c>
       <c r="M39" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="N39">
         <v>12</v>
       </c>
       <c r="P39" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="R39">
         <v>50</v>
@@ -12666,7 +12839,7 @@
   <sheetData>
     <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>117</v>
@@ -12674,28 +12847,28 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="D3" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="K3" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="L3" t="s">
         <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="N3" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12706,10 +12879,10 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="D4" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="K4">
         <v>75</v>
@@ -12718,10 +12891,10 @@
         <v>30</v>
       </c>
       <c r="M4" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="N4" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12732,10 +12905,10 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="D5" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
       <c r="K5">
         <v>50</v>
@@ -12744,10 +12917,10 @@
         <v>30</v>
       </c>
       <c r="M5" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="N5" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12758,10 +12931,10 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="D6" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="K6">
         <v>30</v>
@@ -12770,10 +12943,10 @@
         <v>30</v>
       </c>
       <c r="M6" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="N6" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12784,10 +12957,10 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="D7" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="K7">
         <v>10</v>
@@ -12796,18 +12969,18 @@
         <v>30</v>
       </c>
       <c r="M7" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="N7" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="J9" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="O9" t="s">
         <v>283</v>
@@ -12821,10 +12994,10 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
       <c r="E10" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
@@ -12842,10 +13015,10 @@
         <v>28</v>
       </c>
       <c r="M10" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="N10" t="s">
-        <v>1314</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12853,7 +13026,7 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="K11" t="s">
         <v>25</v>
@@ -12864,7 +13037,7 @@
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="K12" t="s">
         <v>26</v>
@@ -12875,7 +13048,7 @@
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>1286</v>
+        <v>1278</v>
       </c>
       <c r="F13" t="s">
         <v>28</v>
@@ -12889,10 +13062,10 @@
         <v>517</v>
       </c>
       <c r="D14" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="E14" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="F14" t="s">
         <v>30</v>
@@ -12904,10 +13077,10 @@
         <v>28</v>
       </c>
       <c r="M14" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="N14" t="s">
-        <v>1316</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12915,10 +13088,10 @@
         <v>518</v>
       </c>
       <c r="D15" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="E15" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="F15" t="s">
         <v>30</v>
@@ -12930,10 +13103,10 @@
         <v>28</v>
       </c>
       <c r="M15" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
       <c r="N15" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12941,10 +13114,10 @@
         <v>519</v>
       </c>
       <c r="D16" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="E16" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="F16" t="s">
         <v>30</v>
@@ -12956,10 +13129,10 @@
         <v>28</v>
       </c>
       <c r="M16" t="s">
-        <v>1321</v>
+        <v>1313</v>
       </c>
       <c r="N16" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12967,10 +13140,10 @@
         <v>516</v>
       </c>
       <c r="D17" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="E17" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
       <c r="F17" t="s">
         <v>30</v>
@@ -12982,21 +13155,21 @@
         <v>28</v>
       </c>
       <c r="M17" t="s">
-        <v>1323</v>
+        <v>1315</v>
       </c>
       <c r="N17" t="s">
-        <v>1322</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="G19" t="s">
         <v>285</v>
       </c>
       <c r="J19" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13010,10 +13183,10 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>1310</v>
+        <v>1302</v>
       </c>
       <c r="E20" t="s">
-        <v>1309</v>
+        <v>1301</v>
       </c>
       <c r="J20" t="s">
         <v>48</v>
@@ -13025,10 +13198,10 @@
         <v>31</v>
       </c>
       <c r="M20" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
       <c r="N20" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13055,10 +13228,10 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>1308</v>
+        <v>1300</v>
       </c>
       <c r="E23" t="s">
-        <v>1307</v>
+        <v>1299</v>
       </c>
       <c r="K23" t="s">
         <v>27</v>
@@ -13069,10 +13242,10 @@
         <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>1313</v>
+        <v>1305</v>
       </c>
       <c r="E24" t="s">
-        <v>1312</v>
+        <v>1304</v>
       </c>
       <c r="K24" t="s">
         <v>517</v>
@@ -13081,10 +13254,10 @@
         <v>31</v>
       </c>
       <c r="M24" t="s">
-        <v>1294</v>
+        <v>1286</v>
       </c>
       <c r="N24" t="s">
-        <v>1293</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13095,10 +13268,10 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="E25" t="s">
-        <v>1301</v>
+        <v>1293</v>
       </c>
       <c r="K25" t="s">
         <v>518</v>
@@ -13107,10 +13280,10 @@
         <v>31</v>
       </c>
       <c r="M25" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="N25" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13121,10 +13294,10 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>1304</v>
+        <v>1296</v>
       </c>
       <c r="E26" t="s">
-        <v>1303</v>
+        <v>1295</v>
       </c>
       <c r="K26" t="s">
         <v>519</v>
@@ -13133,10 +13306,10 @@
         <v>31</v>
       </c>
       <c r="M26" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
       <c r="N26" t="s">
-        <v>1297</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13147,10 +13320,10 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
       <c r="E27" t="s">
-        <v>1305</v>
+        <v>1297</v>
       </c>
       <c r="K27" t="s">
         <v>516</v>
@@ -13159,21 +13332,21 @@
         <v>31</v>
       </c>
       <c r="M27" t="s">
-        <v>1300</v>
+        <v>1292</v>
       </c>
       <c r="N27" t="s">
-        <v>1299</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="G29" t="s">
         <v>634</v>
       </c>
       <c r="J29" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13184,10 +13357,10 @@
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="E30" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="F30" t="s">
         <v>30</v>
@@ -13202,13 +13375,13 @@
         <v>31</v>
       </c>
       <c r="M30" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="N30" t="s">
-        <v>1334</v>
+        <v>1326</v>
       </c>
       <c r="O30" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13216,10 +13389,10 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
       <c r="E31" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
       <c r="K31" t="s">
         <v>25</v>
@@ -13230,10 +13403,10 @@
         <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
       <c r="E32" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="K32" t="s">
         <v>26</v>
@@ -13244,10 +13417,10 @@
         <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="E33" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="F33" t="s">
         <v>28</v>
@@ -13264,10 +13437,10 @@
         <v>517</v>
       </c>
       <c r="D34" t="s">
-        <v>1284</v>
+        <v>1276</v>
       </c>
       <c r="E34" t="s">
-        <v>1283</v>
+        <v>1275</v>
       </c>
       <c r="K34" t="s">
         <v>517</v>
@@ -13281,10 +13454,10 @@
         <v>518</v>
       </c>
       <c r="D35" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="E35" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
       <c r="F35" t="s">
         <v>30</v>
@@ -13296,10 +13469,10 @@
         <v>31</v>
       </c>
       <c r="M35" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
       <c r="N35" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13307,10 +13480,10 @@
         <v>519</v>
       </c>
       <c r="D36" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="E36" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
       <c r="F36" t="s">
         <v>30</v>
@@ -13322,10 +13495,10 @@
         <v>31</v>
       </c>
       <c r="M36" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
       <c r="N36" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13333,10 +13506,10 @@
         <v>516</v>
       </c>
       <c r="D37" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
       <c r="E37" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="F37" t="s">
         <v>30</v>
@@ -13348,18 +13521,18 @@
         <v>31</v>
       </c>
       <c r="M37" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
       <c r="N37" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="J40" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13370,16 +13543,16 @@
         <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="E41" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="F41" t="s">
         <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="J41" t="s">
         <v>48</v>
@@ -13391,13 +13564,13 @@
         <v>30</v>
       </c>
       <c r="M41" t="s">
-        <v>1325</v>
+        <v>1317</v>
       </c>
       <c r="N41" t="s">
-        <v>1324</v>
+        <v>1316</v>
       </c>
       <c r="O41" t="s">
-        <v>1311</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13405,10 +13578,10 @@
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="E42" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="K42" t="s">
         <v>25</v>
@@ -13419,10 +13592,10 @@
         <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
       <c r="E43" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="K43" t="s">
         <v>26</v>
@@ -13433,10 +13606,10 @@
         <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="E44" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
       <c r="F44" t="s">
         <v>31</v>
@@ -13453,10 +13626,10 @@
         <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
       <c r="E45" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="K45" t="s">
         <v>37</v>
@@ -13465,10 +13638,10 @@
         <v>30</v>
       </c>
       <c r="M45" t="s">
-        <v>1327</v>
+        <v>1319</v>
       </c>
       <c r="N45" t="s">
-        <v>1326</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13476,10 +13649,10 @@
         <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="E46" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="F46" t="s">
         <v>31</v>
@@ -13491,10 +13664,10 @@
         <v>30</v>
       </c>
       <c r="M46" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="N46" t="s">
-        <v>1328</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13502,10 +13675,10 @@
         <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="E47" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="F47" t="s">
         <v>31</v>
@@ -13517,10 +13690,10 @@
         <v>30</v>
       </c>
       <c r="M47" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="N47" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13528,10 +13701,10 @@
         <v>437</v>
       </c>
       <c r="D48" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="E48" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="F48" t="s">
         <v>31</v>
@@ -13543,21 +13716,21 @@
         <v>30</v>
       </c>
       <c r="M48" t="s">
-        <v>1333</v>
+        <v>1325</v>
       </c>
       <c r="N48" t="s">
-        <v>1332</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="G50" t="s">
         <v>653</v>
       </c>
       <c r="J50" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -13568,10 +13741,10 @@
         <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="E51" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
       <c r="F51" t="s">
         <v>30</v>
@@ -13588,10 +13761,10 @@
         <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="E52" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="K52" t="s">
         <v>25</v>
@@ -13602,10 +13775,10 @@
         <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="E53" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="K53" t="s">
         <v>26</v>
@@ -13616,10 +13789,10 @@
         <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="E54" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="F54" t="s">
         <v>30</v>
@@ -13633,10 +13806,10 @@
         <v>37</v>
       </c>
       <c r="D55" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="E55" t="s">
-        <v>1273</v>
+        <v>1265</v>
       </c>
       <c r="K55" t="s">
         <v>37</v>
@@ -13647,10 +13820,10 @@
         <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="E56" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="F56" t="s">
         <v>30</v>
@@ -13664,10 +13837,10 @@
         <v>44</v>
       </c>
       <c r="D57" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
       <c r="E57" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="F57" t="s">
         <v>30</v>
@@ -13681,10 +13854,10 @@
         <v>437</v>
       </c>
       <c r="D58" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
       <c r="E58" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
       <c r="F58" t="s">
         <v>30</v>
@@ -13695,13 +13868,13 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="G60" t="s">
         <v>279</v>
       </c>
       <c r="J60" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -13715,10 +13888,10 @@
         <v>28</v>
       </c>
       <c r="D61" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
       <c r="E61" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
       <c r="F61" t="s">
         <v>31</v>
@@ -13735,10 +13908,10 @@
         <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
       <c r="E62" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="K62" t="s">
         <v>25</v>
@@ -13749,10 +13922,10 @@
         <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="E63" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="F63" t="s">
         <v>31</v>
@@ -13769,10 +13942,10 @@
         <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="E64" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="F64" t="s">
         <v>31</v>
@@ -13786,10 +13959,10 @@
         <v>37</v>
       </c>
       <c r="D65" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
       <c r="E65" t="s">
-        <v>1280</v>
+        <v>1272</v>
       </c>
       <c r="F65" t="s">
         <v>31</v>
@@ -13803,10 +13976,10 @@
         <v>38</v>
       </c>
       <c r="D66" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="E66" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="F66" t="s">
         <v>31</v>
@@ -13820,10 +13993,10 @@
         <v>44</v>
       </c>
       <c r="D67" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="E67" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
       <c r="F67" t="s">
         <v>31</v>
@@ -13837,10 +14010,10 @@
         <v>437</v>
       </c>
       <c r="D68" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="E68" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
       <c r="F68" t="s">
         <v>31</v>
@@ -13851,13 +14024,13 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="G70" t="s">
         <v>280</v>
       </c>
       <c r="J70" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="N70" t="s">
         <v>281</v>
@@ -13871,10 +14044,10 @@
         <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="E71" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="F71" t="s">
         <v>30</v>
@@ -13894,10 +14067,10 @@
         <v>25</v>
       </c>
       <c r="D72" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="E72" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="K72" t="s">
         <v>25</v>
@@ -13908,10 +14081,10 @@
         <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="E73" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="K73" t="s">
         <v>26</v>
@@ -13922,10 +14095,10 @@
         <v>27</v>
       </c>
       <c r="D74" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="E74" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="F74" t="s">
         <v>28</v>
@@ -13939,10 +14112,10 @@
         <v>37</v>
       </c>
       <c r="D75" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
       <c r="E75" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="K75" t="s">
         <v>37</v>
@@ -13953,10 +14126,10 @@
         <v>38</v>
       </c>
       <c r="D76" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
       <c r="E76" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
       <c r="F76" t="s">
         <v>30</v>
@@ -13973,10 +14146,10 @@
         <v>44</v>
       </c>
       <c r="D77" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="E77" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
       <c r="F77" t="s">
         <v>30</v>
@@ -13993,10 +14166,10 @@
         <v>437</v>
       </c>
       <c r="D78" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="E78" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="F78" t="s">
         <v>30</v>
@@ -14010,10 +14183,10 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="J80" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="N80" t="s">
         <v>278</v>
@@ -14030,10 +14203,10 @@
         <v>28</v>
       </c>
       <c r="D81" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="E81" t="s">
-        <v>1287</v>
+        <v>1279</v>
       </c>
       <c r="F81" t="s">
         <v>31</v>
@@ -14051,10 +14224,10 @@
         <v>31</v>
       </c>
       <c r="M81" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="N81" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -14062,10 +14235,10 @@
         <v>25</v>
       </c>
       <c r="D82" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="E82" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="K82" t="s">
         <v>25</v>
@@ -14076,10 +14249,10 @@
         <v>26</v>
       </c>
       <c r="D83" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="E83" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="K83" t="s">
         <v>26</v>
@@ -14091,10 +14264,10 @@
       </c>
       <c r="C84" s="14"/>
       <c r="D84" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="E84" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
       <c r="F84" t="s">
         <v>30</v>
@@ -14106,10 +14279,10 @@
         <v>30</v>
       </c>
       <c r="M84" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="N84" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -14117,13 +14290,13 @@
         <v>37</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="D85" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="E85" t="s">
-        <v>1204</v>
+        <v>1196</v>
       </c>
       <c r="F85" t="s">
         <v>31</v>
@@ -14135,10 +14308,10 @@
         <v>31</v>
       </c>
       <c r="M85" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="N85" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -14146,13 +14319,13 @@
         <v>38</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="D86" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="E86" t="s">
-        <v>1206</v>
+        <v>1198</v>
       </c>
       <c r="F86" t="s">
         <v>31</v>
@@ -14164,10 +14337,10 @@
         <v>31</v>
       </c>
       <c r="M86" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="N86" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -14178,10 +14351,10 @@
         <v>28</v>
       </c>
       <c r="D87" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
       <c r="E87" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
       <c r="F87" t="s">
         <v>31</v>
@@ -14198,10 +14371,10 @@
         <v>31</v>
       </c>
       <c r="D88" t="s">
-        <v>1211</v>
+        <v>1203</v>
       </c>
       <c r="E88" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
       <c r="F88" t="s">
         <v>31</v>
@@ -14231,15 +14404,15 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="K1" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -14248,13 +14421,13 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="E3" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="I3" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="J3">
         <v>100</v>
@@ -14263,10 +14436,10 @@
         <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="M3" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -14277,10 +14450,10 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="E4" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="J4">
         <v>75</v>
@@ -14289,10 +14462,10 @@
         <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
       <c r="M4" t="s">
-        <v>1064</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -14303,10 +14476,10 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="E5" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="J5">
         <v>50</v>
@@ -14315,10 +14488,10 @@
         <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="M5" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -14329,10 +14502,10 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="E6" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="J6">
         <v>30</v>
@@ -14341,10 +14514,10 @@
         <v>31</v>
       </c>
       <c r="L6" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="M6" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -14355,10 +14528,10 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="E7" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="J7">
         <v>10</v>
@@ -14367,10 +14540,10 @@
         <v>31</v>
       </c>
       <c r="L7" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="M7" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -14389,10 +14562,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="E10" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="F10" t="s">
         <v>285</v>
@@ -14409,10 +14582,10 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="E11" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="I11" t="s">
         <v>48</v>
@@ -14424,10 +14597,10 @@
         <v>31</v>
       </c>
       <c r="L11" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
       <c r="M11" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -14435,19 +14608,19 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="E12" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="J12" t="s">
         <v>25</v>
       </c>
       <c r="L12" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
       <c r="M12" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -14458,19 +14631,19 @@
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="E13" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="J13" t="s">
         <v>26</v>
       </c>
       <c r="L13" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="M13" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -14481,19 +14654,19 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="E14" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="J14" t="s">
         <v>27</v>
       </c>
       <c r="L14" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="M14" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -14501,10 +14674,10 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="E15" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J15" t="s">
         <v>37</v>
@@ -14513,10 +14686,10 @@
         <v>31</v>
       </c>
       <c r="L15" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="M15" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -14527,10 +14700,10 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="E16" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="J16" t="s">
         <v>38</v>
@@ -14539,10 +14712,10 @@
         <v>31</v>
       </c>
       <c r="L16" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="M16" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14553,10 +14726,10 @@
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="E17" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="J17" t="s">
         <v>44</v>
@@ -14565,10 +14738,10 @@
         <v>31</v>
       </c>
       <c r="L17" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="M17" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14579,10 +14752,10 @@
         <v>31</v>
       </c>
       <c r="L18" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="M18" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14604,10 +14777,10 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="E20" t="s">
-        <v>1285</v>
+        <v>1277</v>
       </c>
       <c r="I20" t="s">
         <v>288</v>
@@ -14618,10 +14791,10 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="E21" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="I21" t="s">
         <v>47</v>
@@ -14633,10 +14806,10 @@
         <v>31</v>
       </c>
       <c r="L21" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="M21" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="N21" t="s">
         <v>283</v>
@@ -14647,19 +14820,19 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="E22" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="J22" t="s">
         <v>25</v>
       </c>
       <c r="L22" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="M22" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14670,19 +14843,19 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="E23" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="J23" t="s">
         <v>26</v>
       </c>
       <c r="L23" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="M23" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14693,10 +14866,10 @@
         <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="E24" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J24" t="s">
         <v>27</v>
@@ -14705,10 +14878,10 @@
         <v>31</v>
       </c>
       <c r="L24" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="M24" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14719,10 +14892,10 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="E25" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="J25" t="s">
         <v>37</v>
@@ -14731,10 +14904,10 @@
         <v>31</v>
       </c>
       <c r="L25" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="M25" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14745,10 +14918,10 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="E26" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="J26" t="s">
         <v>38</v>
@@ -14757,10 +14930,10 @@
         <v>28</v>
       </c>
       <c r="L26" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="M26" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14768,10 +14941,10 @@
         <v>437</v>
       </c>
       <c r="D27" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="E27" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="J27" t="s">
         <v>44</v>
@@ -14780,10 +14953,10 @@
         <v>31</v>
       </c>
       <c r="L27" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="M27" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14791,21 +14964,21 @@
         <v>437</v>
       </c>
       <c r="L28" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="M28" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="I30" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="O30" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14819,13 +14992,13 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="E31" t="s">
-        <v>1290</v>
+        <v>1282</v>
       </c>
       <c r="F31" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="I31" t="s">
         <v>47</v>
@@ -14837,10 +15010,10 @@
         <v>28</v>
       </c>
       <c r="L31" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="M31" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14848,19 +15021,19 @@
         <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="E32" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="J32" t="s">
         <v>25</v>
       </c>
       <c r="L32" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
       <c r="M32" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14868,19 +15041,19 @@
         <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="E33" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="J33" t="s">
         <v>26</v>
       </c>
       <c r="L33" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="M33" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14891,19 +15064,19 @@
         <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="E34" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="J34" s="14" t="s">
         <v>27</v>
       </c>
       <c r="L34" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
       <c r="M34" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14917,10 +15090,10 @@
         <v>28</v>
       </c>
       <c r="L35" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="M35" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14931,10 +15104,10 @@
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="E36" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="J36" t="s">
         <v>518</v>
@@ -14943,10 +15116,10 @@
         <v>28</v>
       </c>
       <c r="L36" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="M36" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14957,10 +15130,10 @@
         <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="E37" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="J37" t="s">
         <v>519</v>
@@ -14969,10 +15142,10 @@
         <v>28</v>
       </c>
       <c r="L37" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="M37" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14983,10 +15156,10 @@
         <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="E38" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="J38" t="s">
         <v>516</v>
@@ -14995,21 +15168,21 @@
         <v>28</v>
       </c>
       <c r="L38" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="M38" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="I41" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="O41" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -15023,13 +15196,13 @@
         <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="E42" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="F42" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="I42" t="s">
         <v>48</v>
@@ -15041,10 +15214,10 @@
         <v>30</v>
       </c>
       <c r="L42" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="M42" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -15052,19 +15225,19 @@
         <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="E43" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="J43" t="s">
         <v>25</v>
       </c>
       <c r="L43" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="M43" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -15072,19 +15245,19 @@
         <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="E44" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="J44" t="s">
         <v>26</v>
       </c>
       <c r="L44" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="M44" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -15095,19 +15268,19 @@
         <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="E45" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="J45" s="14" t="s">
         <v>27</v>
       </c>
       <c r="L45" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
       <c r="M45" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -15121,10 +15294,10 @@
         <v>30</v>
       </c>
       <c r="L46" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="M46" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -15135,10 +15308,10 @@
         <v>28</v>
       </c>
       <c r="D47" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="E47" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="J47" t="s">
         <v>38</v>
@@ -15147,10 +15320,10 @@
         <v>30</v>
       </c>
       <c r="L47" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="M47" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -15161,10 +15334,10 @@
         <v>28</v>
       </c>
       <c r="D48" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="E48" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="J48" t="s">
         <v>44</v>
@@ -15173,10 +15346,10 @@
         <v>30</v>
       </c>
       <c r="L48" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="M48" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15187,10 +15360,10 @@
         <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="E49" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="J49" t="s">
         <v>437</v>
@@ -15199,18 +15372,18 @@
         <v>30</v>
       </c>
       <c r="L49" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="M49" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="I51" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15224,10 +15397,10 @@
         <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="E52" t="s">
-        <v>1288</v>
+        <v>1280</v>
       </c>
       <c r="F52" t="s">
         <v>285</v>
@@ -15242,10 +15415,10 @@
         <v>28</v>
       </c>
       <c r="L52" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="M52" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="N52" t="s">
         <v>281</v>
@@ -15256,19 +15429,19 @@
         <v>25</v>
       </c>
       <c r="D53" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="E53" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="J53" t="s">
         <v>25</v>
       </c>
       <c r="L53" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="M53" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15276,19 +15449,19 @@
         <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="E54" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="J54" t="s">
         <v>26</v>
       </c>
       <c r="L54" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="M54" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15299,10 +15472,10 @@
         <v>28</v>
       </c>
       <c r="D55" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="E55" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="J55" t="s">
         <v>27</v>
@@ -15311,10 +15484,10 @@
         <v>28</v>
       </c>
       <c r="L55" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
       <c r="M55" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15328,10 +15501,10 @@
         <v>28</v>
       </c>
       <c r="L56" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
       <c r="M56" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15342,10 +15515,10 @@
         <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="E57" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="J57" t="s">
         <v>38</v>
@@ -15354,10 +15527,10 @@
         <v>28</v>
       </c>
       <c r="L57" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="M57" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15368,10 +15541,10 @@
         <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="E58" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="J58" t="s">
         <v>44</v>
@@ -15380,10 +15553,10 @@
         <v>28</v>
       </c>
       <c r="L58" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="M58" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15394,10 +15567,10 @@
         <v>30</v>
       </c>
       <c r="D59" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="E59" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="J59" t="s">
         <v>437</v>
@@ -15406,18 +15579,18 @@
         <v>28</v>
       </c>
       <c r="L59" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="M59" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="I61" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15431,13 +15604,13 @@
         <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="E62" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="F62" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="I62" t="s">
         <v>47</v>
@@ -15449,10 +15622,10 @@
         <v>30</v>
       </c>
       <c r="L62" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="M62" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15460,19 +15633,19 @@
         <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="E63" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="J63" t="s">
         <v>25</v>
       </c>
       <c r="L63" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="M63" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="N63" t="s">
         <v>278</v>
@@ -15483,22 +15656,22 @@
         <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="E64" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="F64" t="s">
-        <v>1350</v>
+        <v>1342</v>
       </c>
       <c r="J64" t="s">
         <v>26</v>
       </c>
       <c r="L64" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="M64" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -15509,10 +15682,10 @@
         <v>31</v>
       </c>
       <c r="D65" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="E65" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="J65" t="s">
         <v>27</v>
@@ -15521,10 +15694,10 @@
         <v>28</v>
       </c>
       <c r="L65" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="M65" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -15532,10 +15705,10 @@
         <v>517</v>
       </c>
       <c r="D66" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="E66" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="J66" t="s">
         <v>517</v>
@@ -15544,10 +15717,10 @@
         <v>30</v>
       </c>
       <c r="L66" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="M66" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -15558,10 +15731,10 @@
         <v>30</v>
       </c>
       <c r="D67" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="E67" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="J67" t="s">
         <v>518</v>
@@ -15570,10 +15743,10 @@
         <v>30</v>
       </c>
       <c r="L67" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="M67" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -15584,10 +15757,10 @@
         <v>31</v>
       </c>
       <c r="D68" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="E68" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="J68" t="s">
         <v>519</v>
@@ -15596,10 +15769,10 @@
         <v>30</v>
       </c>
       <c r="L68" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="M68" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -15610,10 +15783,10 @@
         <v>31</v>
       </c>
       <c r="D69" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="E69" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="J69" t="s">
         <v>516</v>
@@ -15622,10 +15795,10 @@
         <v>30</v>
       </c>
       <c r="L69" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="M69" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -15644,10 +15817,10 @@
         <v>31</v>
       </c>
       <c r="D72" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="E72" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="F72" t="s">
         <v>653</v>
@@ -15658,7 +15831,7 @@
         <v>25</v>
       </c>
       <c r="E73" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -15666,7 +15839,7 @@
         <v>26</v>
       </c>
       <c r="E74" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -15674,10 +15847,10 @@
         <v>27</v>
       </c>
       <c r="D75" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="E75" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -15685,7 +15858,7 @@
         <v>517</v>
       </c>
       <c r="E76" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -15696,10 +15869,10 @@
         <v>31</v>
       </c>
       <c r="D77" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="E77" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -15710,10 +15883,10 @@
         <v>31</v>
       </c>
       <c r="D78" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
       <c r="E78" t="s">
-        <v>1117</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -15724,10 +15897,10 @@
         <v>31</v>
       </c>
       <c r="D79" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
       <c r="E79" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -15749,10 +15922,10 @@
         <v>28</v>
       </c>
       <c r="D82" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
       <c r="E82" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -15760,7 +15933,7 @@
         <v>25</v>
       </c>
       <c r="E83" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -15768,7 +15941,7 @@
         <v>26</v>
       </c>
       <c r="E84" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -15779,10 +15952,10 @@
         <v>28</v>
       </c>
       <c r="D85" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="E85" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -15793,10 +15966,10 @@
         <v>28</v>
       </c>
       <c r="D86" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
       <c r="E86" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -15807,10 +15980,10 @@
         <v>28</v>
       </c>
       <c r="D87" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="E87" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -15821,10 +15994,10 @@
         <v>28</v>
       </c>
       <c r="D88" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="E88" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -15835,10 +16008,10 @@
         <v>28</v>
       </c>
       <c r="D89" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="E89" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
     </row>
   </sheetData>
@@ -16040,10 +16213,10 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="D8" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -16054,10 +16227,10 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="D9" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -16068,10 +16241,10 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="D10" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -17464,7 +17637,7 @@
         <v>28</v>
       </c>
       <c r="D128" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
       <c r="E128" t="s">
         <v>183</v>
@@ -17489,10 +17662,10 @@
         <v>437</v>
       </c>
       <c r="D130" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="E130" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -18122,10 +18295,10 @@
         <v>31</v>
       </c>
       <c r="D180" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="E180" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="F180" s="5"/>
     </row>
@@ -18343,10 +18516,10 @@
         <v>28</v>
       </c>
       <c r="D199" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="E199" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
     </row>
   </sheetData>
@@ -18436,10 +18609,10 @@
         <v>335</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1342</v>
+        <v>1334</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>1343</v>
+        <v>1335</v>
       </c>
       <c r="D4" s="12" t="e">
         <f t="shared" ref="D4:D14" si="0">2*B4*C4/(B4+C4)</f>
@@ -18721,7 +18894,7 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="J2" t="s">
         <v>641</v>
@@ -18735,41 +18908,41 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="J3" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="B4" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="E4" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
       <c r="E5" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -18788,10 +18961,10 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="E8" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="F8" t="s">
         <v>634</v>
@@ -18803,7 +18976,7 @@
         <v>636</v>
       </c>
       <c r="S8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -18811,7 +18984,7 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="J9" t="s">
         <v>167</v>
@@ -18834,7 +19007,7 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="K10" t="s">
         <v>25</v>
@@ -18848,10 +19021,10 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="E11" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="K11" t="s">
         <v>26</v>
@@ -18865,10 +19038,10 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="E12" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="K12" t="s">
         <v>27</v>
@@ -18891,10 +19064,10 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="E13" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="K13" t="s">
         <v>37</v>
@@ -18917,10 +19090,10 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="E14" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="K14" t="s">
         <v>38</v>
@@ -18943,13 +19116,13 @@
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="E15" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="F15" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="K15" t="s">
         <v>588</v>
@@ -18997,10 +19170,10 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="E18" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="J18" t="s">
         <v>633</v>
@@ -19011,10 +19184,10 @@
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="F19" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="J19" t="s">
         <v>48</v>
@@ -19026,13 +19199,13 @@
         <v>31</v>
       </c>
       <c r="M19" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="N19" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="O19" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -19051,10 +19224,10 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="E21" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="K21" t="s">
         <v>26</v>
@@ -19071,7 +19244,7 @@
         <v>479</v>
       </c>
       <c r="E22" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="K22" t="s">
         <v>27</v>
@@ -19080,10 +19253,10 @@
         <v>30</v>
       </c>
       <c r="M22" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="N22" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -19094,10 +19267,10 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="E23" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="K23" t="s">
         <v>37</v>
@@ -19106,10 +19279,10 @@
         <v>31</v>
       </c>
       <c r="M23" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="N23" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -19120,10 +19293,10 @@
         <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="E24" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="K24" t="s">
         <v>38</v>
@@ -19132,10 +19305,10 @@
         <v>30</v>
       </c>
       <c r="M24" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="N24" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -19143,10 +19316,10 @@
         <v>426</v>
       </c>
       <c r="D25" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="E25" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="K25" t="s">
         <v>588</v>
@@ -19155,10 +19328,10 @@
         <v>28</v>
       </c>
       <c r="M25" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="N25" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -19169,10 +19342,10 @@
         <v>28</v>
       </c>
       <c r="M26" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="N26" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -19181,7 +19354,7 @@
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -19203,7 +19376,7 @@
         <v>31</v>
       </c>
       <c r="N28" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -19231,10 +19404,10 @@
         <v>31</v>
       </c>
       <c r="M30" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="N30" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -19245,10 +19418,10 @@
         <v>31</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="K31" t="s">
         <v>25</v>
@@ -19262,10 +19435,10 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="E32" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="K32" t="s">
         <v>26</v>
@@ -19279,7 +19452,7 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="E33" t="s">
         <v>538</v>
@@ -19291,10 +19464,10 @@
         <v>31</v>
       </c>
       <c r="M33" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="N33" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -19305,10 +19478,10 @@
         <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="E34" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="K34" t="s">
         <v>37</v>
@@ -19317,10 +19490,10 @@
         <v>31</v>
       </c>
       <c r="M34" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="N34" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -19331,10 +19504,10 @@
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="E35" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="K35" t="s">
         <v>38</v>
@@ -19348,10 +19521,10 @@
         <v>30</v>
       </c>
       <c r="M36" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="N36" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -19359,7 +19532,7 @@
         <v>650</v>
       </c>
       <c r="E37" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="K37" t="s">
         <v>426</v>
@@ -19368,10 +19541,10 @@
         <v>28</v>
       </c>
       <c r="M37" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="N37" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -19385,13 +19558,13 @@
         <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="E38" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="F38" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -19416,13 +19589,13 @@
         <v>31</v>
       </c>
       <c r="M40" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="N40" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="O40" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -19433,10 +19606,10 @@
         <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="E41" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="K41" t="s">
         <v>25</v>
@@ -19450,7 +19623,7 @@
         <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="E42" t="s">
         <v>142</v>
@@ -19467,10 +19640,10 @@
         <v>28</v>
       </c>
       <c r="D43" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="E43" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
       <c r="K43" t="s">
         <v>27</v>
@@ -19479,10 +19652,10 @@
         <v>31</v>
       </c>
       <c r="M43" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="N43" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="O43" t="s">
         <v>30</v>
@@ -19490,16 +19663,16 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="C44" t="s">
         <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="E44" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="K44" t="s">
         <v>37</v>
@@ -19508,24 +19681,24 @@
         <v>30</v>
       </c>
       <c r="M44" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="N44" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C45" t="s">
         <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="E45" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="K45" t="s">
         <v>38</v>
@@ -19539,10 +19712,10 @@
         <v>28</v>
       </c>
       <c r="M46" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="N46" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -19553,21 +19726,21 @@
         <v>28</v>
       </c>
       <c r="M47" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="N47" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="J49" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="O49" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -19581,10 +19754,10 @@
         <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="E50" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="J50" t="s">
         <v>167</v>
@@ -19596,10 +19769,10 @@
         <v>30</v>
       </c>
       <c r="M50" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="N50" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -19626,10 +19799,10 @@
         <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="E53" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="K53" t="s">
         <v>27</v>
@@ -19638,10 +19811,10 @@
         <v>31</v>
       </c>
       <c r="M53" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="N53" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -19652,10 +19825,10 @@
         <v>31</v>
       </c>
       <c r="D54" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="E54" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="K54" t="s">
         <v>517</v>
@@ -19664,10 +19837,10 @@
         <v>31</v>
       </c>
       <c r="M54" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="N54" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -19684,73 +19857,73 @@
         <v>28</v>
       </c>
       <c r="M55" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="N55" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="C56" t="s">
         <v>31</v>
       </c>
       <c r="D56" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="E56" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="K56" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="L56" t="s">
         <v>30</v>
       </c>
       <c r="M56" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="N56" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C57" t="s">
         <v>31</v>
       </c>
       <c r="D57" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="E57" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="K57" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="L57" t="s">
         <v>31</v>
       </c>
       <c r="M57" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="N57" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="J59" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="O59" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -19764,13 +19937,13 @@
         <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="E60" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="F60" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="J60" t="s">
         <v>48</v>
@@ -19782,7 +19955,7 @@
         <v>31</v>
       </c>
       <c r="M60" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="N60" t="s">
         <v>417</v>
@@ -19812,10 +19985,10 @@
         <v>31</v>
       </c>
       <c r="D63" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="E63" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="K63" t="s">
         <v>27</v>
@@ -19824,13 +19997,13 @@
         <v>31</v>
       </c>
       <c r="M63" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="N63" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="O63" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -19838,10 +20011,10 @@
         <v>517</v>
       </c>
       <c r="D64" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="E64" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="K64" t="s">
         <v>517</v>
@@ -19850,10 +20023,10 @@
         <v>31</v>
       </c>
       <c r="M64" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="N64" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -19861,10 +20034,10 @@
         <v>38</v>
       </c>
       <c r="D65" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="E65" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="K65" t="s">
         <v>518</v>
@@ -19873,10 +20046,10 @@
         <v>31</v>
       </c>
       <c r="M65" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="N65" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -19884,22 +20057,22 @@
         <v>588</v>
       </c>
       <c r="D66" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="E66" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="K66" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="L66" t="s">
         <v>28</v>
       </c>
       <c r="M66" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="N66" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -19907,33 +20080,33 @@
         <v>426</v>
       </c>
       <c r="D67" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="E67" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="K67" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="L67" t="s">
         <v>31</v>
       </c>
       <c r="M67" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="N67" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="J70" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="O70" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -19947,13 +20120,13 @@
         <v>30</v>
       </c>
       <c r="D71" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="E71" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="F71" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="J71" t="s">
         <v>167</v>
@@ -19965,10 +20138,10 @@
         <v>30</v>
       </c>
       <c r="M71" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="N71" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -19995,10 +20168,10 @@
         <v>30</v>
       </c>
       <c r="D74" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="E74" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="K74" t="s">
         <v>27</v>
@@ -20007,10 +20180,10 @@
         <v>31</v>
       </c>
       <c r="M74" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="N74" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -20021,10 +20194,10 @@
         <v>30</v>
       </c>
       <c r="D75" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="E75" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="K75" t="s">
         <v>517</v>
@@ -20033,10 +20206,10 @@
         <v>28</v>
       </c>
       <c r="M75" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="N75" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -20047,13 +20220,13 @@
         <v>30</v>
       </c>
       <c r="D76" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="E76" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="F76" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="K76" t="s">
         <v>38</v>
@@ -20062,73 +20235,73 @@
         <v>28</v>
       </c>
       <c r="M76" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="N76" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="C77" t="s">
         <v>30</v>
       </c>
       <c r="D77" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="E77" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="K77" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="L77" t="s">
         <v>28</v>
       </c>
       <c r="M77" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="N77" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C78" t="s">
         <v>30</v>
       </c>
       <c r="D78" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="E78" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="K78" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="L78" t="s">
         <v>28</v>
       </c>
       <c r="M78" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="N78" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="J80" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="O80" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -20142,13 +20315,13 @@
         <v>31</v>
       </c>
       <c r="D81" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="E81" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="F81" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="H81" t="s">
         <v>28</v>
@@ -20163,10 +20336,10 @@
         <v>31</v>
       </c>
       <c r="M81" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="N81" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -20193,10 +20366,10 @@
         <v>31</v>
       </c>
       <c r="D84" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="E84" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="F84" s="14"/>
       <c r="K84" t="s">
@@ -20206,10 +20379,10 @@
         <v>31</v>
       </c>
       <c r="M84" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="N84" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -20220,13 +20393,13 @@
         <v>28</v>
       </c>
       <c r="D85" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="E85" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="K85" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -20239,16 +20412,16 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
       </c>
       <c r="D87" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="E87" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="K87" t="s">
         <v>588</v>
@@ -20257,15 +20430,15 @@
         <v>28</v>
       </c>
       <c r="M87" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="N87" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="K88" t="s">
         <v>426</v>

--- a/results_ver2.xlsx
+++ b/results_ver2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GitHub\Transfer_Learning_HAR\Create-Synthetic-IMU-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FA7366-B60B-44E3-9ABA-9437145966A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A977E5-1738-4760-AB08-D6BCBAFBDB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="9" xr2:uid="{12BA48A7-0233-4943-8246-0FE27207722F}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="1828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3767" uniqueCount="1869">
   <si>
     <t>Validation set</t>
   </si>
@@ -2635,12 +2635,6 @@
     <t>53.90+0.005</t>
   </si>
   <si>
-    <t>87,24+0,005</t>
-  </si>
-  <si>
-    <t>88.42+0.002</t>
-  </si>
-  <si>
     <t>52.94</t>
   </si>
   <si>
@@ -2719,15 +2713,6 @@
     <t>56,66+0,03</t>
   </si>
   <si>
-    <t>56.5</t>
-  </si>
-  <si>
-    <t>51.02</t>
-  </si>
-  <si>
-    <t>Pamap2 on theia</t>
-  </si>
-  <si>
     <t>58.42+0.02</t>
   </si>
   <si>
@@ -5528,13 +5513,151 @@
   </si>
   <si>
     <t>74.65+0.03</t>
+  </si>
+  <si>
+    <t>88.67+0.01</t>
+  </si>
+  <si>
+    <t>88.58+0.01</t>
+  </si>
+  <si>
+    <t>87.92+0.002</t>
+  </si>
+  <si>
+    <t>87,34+0,01</t>
+  </si>
+  <si>
+    <t>75,67+0.02</t>
+  </si>
+  <si>
+    <t>88.69+0.02</t>
+  </si>
+  <si>
+    <t>88.96+0.01</t>
+  </si>
+  <si>
+    <t>88.53+0.01</t>
+  </si>
+  <si>
+    <t>88.12+0.01</t>
+  </si>
+  <si>
+    <t>87.21+0.02</t>
+  </si>
+  <si>
+    <t>87.52+0.01</t>
+  </si>
+  <si>
+    <t>85.02+0.02</t>
+  </si>
+  <si>
+    <t>75.67+0.02</t>
+  </si>
+  <si>
+    <t>89.11+0.01</t>
+  </si>
+  <si>
+    <t>88.79+0.02</t>
+  </si>
+  <si>
+    <t>88.43+0.01</t>
+  </si>
+  <si>
+    <t>87.69+0.01</t>
+  </si>
+  <si>
+    <t>87.96+0.01</t>
+  </si>
+  <si>
+    <t>86.14+0.02</t>
+  </si>
+  <si>
+    <t>89.27+0.0014</t>
+  </si>
+  <si>
+    <t>89.20+0.002</t>
+  </si>
+  <si>
+    <t>87.75+0.0026</t>
+  </si>
+  <si>
+    <t>85.77+0.0021</t>
+  </si>
+  <si>
+    <t>88.06+0.002</t>
+  </si>
+  <si>
+    <t>87.68+0.002</t>
+  </si>
+  <si>
+    <t>86.60+0.001</t>
+  </si>
+  <si>
+    <t>89.17+0.01</t>
+  </si>
+  <si>
+    <t>88.82+0.02</t>
+  </si>
+  <si>
+    <t>87.05+0.04</t>
+  </si>
+  <si>
+    <t>83.37+0.03</t>
+  </si>
+  <si>
+    <t>88.16+0.01</t>
+  </si>
+  <si>
+    <t>87.73+0.02</t>
+  </si>
+  <si>
+    <t>86.39+0.01</t>
+  </si>
+  <si>
+    <t>84.60+0.01</t>
+  </si>
+  <si>
+    <t>86.35+0.01</t>
+  </si>
+  <si>
+    <t>87.31+0.02</t>
+  </si>
+  <si>
+    <t>81.60+0.02</t>
+  </si>
+  <si>
+    <t>88.57+0.02</t>
+  </si>
+  <si>
+    <t>88.84+0.01</t>
+  </si>
+  <si>
+    <t>85.82+0.02</t>
+  </si>
+  <si>
+    <t>88.67+0.02</t>
+  </si>
+  <si>
+    <t>86.72+0.03</t>
+  </si>
+  <si>
+    <t>87.11+0.02</t>
+  </si>
+  <si>
+    <t>82.56+0.02</t>
+  </si>
+  <si>
+    <t>86.85+0.01</t>
+  </si>
+  <si>
+    <t>84.0+0.01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5567,6 +5690,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5661,7 +5790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -5678,9 +5807,10 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5708,7 +5838,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6053,14 +6183,14 @@
         <v>122</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="19" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="19"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1" t="s">
@@ -6181,10 +6311,10 @@
         <v>132</v>
       </c>
       <c r="J8" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
       <c r="K8" t="s">
-        <v>1457</v>
+        <v>1452</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -6196,7 +6326,7 @@
         <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="Q8">
         <v>100</v>
@@ -6213,10 +6343,10 @@
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="K9" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="L9">
         <v>100</v>
@@ -6228,7 +6358,7 @@
         <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="Q9">
         <v>100</v>
@@ -6242,10 +6372,10 @@
         <v>134</v>
       </c>
       <c r="J10" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="K10" t="s">
-        <v>1436</v>
+        <v>1431</v>
       </c>
       <c r="L10">
         <v>100</v>
@@ -6257,7 +6387,7 @@
         <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="Q10">
         <v>100</v>
@@ -6286,7 +6416,7 @@
         <v>100</v>
       </c>
       <c r="O11" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="Q11">
         <v>100</v>
@@ -6300,10 +6430,10 @@
         <v>413</v>
       </c>
       <c r="J12" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
       <c r="K12" t="s">
-        <v>1436</v>
+        <v>1431</v>
       </c>
       <c r="L12">
         <v>100</v>
@@ -6315,7 +6445,7 @@
         <v>100</v>
       </c>
       <c r="O12" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="Q12">
         <v>100</v>
@@ -6326,13 +6456,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="J14" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="K14" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="L14">
         <v>100</v>
@@ -6344,7 +6474,7 @@
         <v>10</v>
       </c>
       <c r="O14" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="Q14">
         <v>200</v>
@@ -6355,13 +6485,13 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>1439</v>
+        <v>1434</v>
       </c>
       <c r="J15" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="K15" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
       <c r="L15">
         <v>100</v>
@@ -6373,7 +6503,7 @@
         <v>10</v>
       </c>
       <c r="O15" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="Q15">
         <v>200</v>
@@ -6384,13 +6514,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
       <c r="J16" t="s">
-        <v>1450</v>
+        <v>1445</v>
       </c>
       <c r="K16" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="L16">
         <v>100</v>
@@ -6402,7 +6532,7 @@
         <v>10</v>
       </c>
       <c r="O16" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="Q16">
         <v>200</v>
@@ -6413,13 +6543,13 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>1441</v>
+        <v>1436</v>
       </c>
       <c r="J17" t="s">
-        <v>1451</v>
+        <v>1446</v>
       </c>
       <c r="K17" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
       <c r="L17">
         <v>100</v>
@@ -6431,7 +6561,7 @@
         <v>10</v>
       </c>
       <c r="O17" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="Q17">
         <v>200</v>
@@ -6442,13 +6572,13 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>1442</v>
+        <v>1437</v>
       </c>
       <c r="J18" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="K18" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="L18">
         <v>100</v>
@@ -6460,7 +6590,7 @@
         <v>10</v>
       </c>
       <c r="O18" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="Q18">
         <v>200</v>
@@ -6471,13 +6601,13 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>1475</v>
+        <v>1470</v>
       </c>
       <c r="J20" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="K20" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="L20">
         <v>100</v>
@@ -6489,7 +6619,7 @@
         <v>35</v>
       </c>
       <c r="O20" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="Q20">
         <v>200</v>
@@ -6500,13 +6630,13 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>1476</v>
+        <v>1471</v>
       </c>
       <c r="J21" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="K21" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="L21">
         <v>100</v>
@@ -6518,7 +6648,7 @@
         <v>35</v>
       </c>
       <c r="O21" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="Q21">
         <v>200</v>
@@ -6529,13 +6659,13 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="J22" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="K22" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="L22">
         <v>100</v>
@@ -6547,7 +6677,7 @@
         <v>35</v>
       </c>
       <c r="O22" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="Q22">
         <v>200</v>
@@ -6558,13 +6688,13 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>1478</v>
+        <v>1473</v>
       </c>
       <c r="J23" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="K23" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="L23">
         <v>100</v>
@@ -6576,7 +6706,7 @@
         <v>35</v>
       </c>
       <c r="O23" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="Q23">
         <v>200</v>
@@ -6587,13 +6717,13 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="J24" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="K24" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="L24">
         <v>100</v>
@@ -6605,7 +6735,7 @@
         <v>35</v>
       </c>
       <c r="O24" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="Q24">
         <v>200</v>
@@ -6616,13 +6746,13 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
       <c r="J26" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="K26" t="s">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="L26">
         <v>24</v>
@@ -6634,7 +6764,7 @@
         <v>100</v>
       </c>
       <c r="O26" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="Q26">
         <v>200</v>
@@ -6645,13 +6775,13 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="J27" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="K27" t="s">
-        <v>1457</v>
+        <v>1452</v>
       </c>
       <c r="L27">
         <v>24</v>
@@ -6663,7 +6793,7 @@
         <v>100</v>
       </c>
       <c r="O27" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="Q27">
         <v>200</v>
@@ -6674,13 +6804,13 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="J28" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="K28" t="s">
-        <v>1458</v>
+        <v>1453</v>
       </c>
       <c r="L28">
         <v>24</v>
@@ -6692,7 +6822,7 @@
         <v>100</v>
       </c>
       <c r="O28" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="Q28">
         <v>200</v>
@@ -6703,13 +6833,13 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>1455</v>
+        <v>1450</v>
       </c>
       <c r="J29" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="K29" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="L29">
         <v>24</v>
@@ -6721,7 +6851,7 @@
         <v>100</v>
       </c>
       <c r="O29" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="Q29">
         <v>200</v>
@@ -6738,7 +6868,7 @@
         <v>422</v>
       </c>
       <c r="K30" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="L30">
         <v>24</v>
@@ -6750,7 +6880,7 @@
         <v>100</v>
       </c>
       <c r="O30" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="Q30">
         <v>200</v>
@@ -6761,13 +6891,13 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
       <c r="J32" t="s">
-        <v>1472</v>
+        <v>1467</v>
       </c>
       <c r="K32" t="s">
-        <v>1467</v>
+        <v>1462</v>
       </c>
       <c r="L32">
         <v>24</v>
@@ -6779,7 +6909,7 @@
         <v>104</v>
       </c>
       <c r="O32" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="Q32">
         <v>200</v>
@@ -6790,13 +6920,13 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="J33" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
       <c r="K33" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
       <c r="L33">
         <v>24</v>
@@ -6808,7 +6938,7 @@
         <v>104</v>
       </c>
       <c r="O33" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="Q33">
         <v>200</v>
@@ -6822,10 +6952,10 @@
         <v>568</v>
       </c>
       <c r="J34" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="K34" t="s">
-        <v>1469</v>
+        <v>1464</v>
       </c>
       <c r="L34">
         <v>24</v>
@@ -6837,7 +6967,7 @@
         <v>104</v>
       </c>
       <c r="O34" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="Q34">
         <v>200</v>
@@ -6851,10 +6981,10 @@
         <v>569</v>
       </c>
       <c r="J35" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="K35" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="L35">
         <v>24</v>
@@ -6866,7 +6996,7 @@
         <v>104</v>
       </c>
       <c r="O35" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="Q35">
         <v>200</v>
@@ -6883,7 +7013,7 @@
         <v>757</v>
       </c>
       <c r="K36" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
       <c r="L36">
         <v>24</v>
@@ -6895,7 +7025,7 @@
         <v>104</v>
       </c>
       <c r="O36" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="Q36">
         <v>200</v>
@@ -6990,10 +7120,10 @@
         <v>386</v>
       </c>
       <c r="I41" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
       <c r="J41" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -7027,7 +7157,7 @@
         <v>32</v>
       </c>
       <c r="E43" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="I43" t="s">
         <v>39</v>
@@ -7050,10 +7180,10 @@
         <v>50</v>
       </c>
       <c r="I44" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
       <c r="J44" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -7070,10 +7200,10 @@
         <v>630</v>
       </c>
       <c r="I45" t="s">
-        <v>1489</v>
+        <v>1484</v>
       </c>
       <c r="J45" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -7186,7 +7316,7 @@
         <v>297</v>
       </c>
       <c r="E53" t="s">
-        <v>1483</v>
+        <v>1478</v>
       </c>
       <c r="I53" t="s">
         <v>57</v>
@@ -7229,10 +7359,10 @@
         <v>631</v>
       </c>
       <c r="I55" t="s">
-        <v>1491</v>
+        <v>1486</v>
       </c>
       <c r="J55" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7249,10 +7379,10 @@
         <v>628</v>
       </c>
       <c r="I56" t="s">
-        <v>1493</v>
+        <v>1488</v>
       </c>
       <c r="J56" t="s">
-        <v>1492</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7286,10 +7416,10 @@
         <v>747</v>
       </c>
       <c r="I59" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
       <c r="J59" t="s">
-        <v>1545</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7297,16 +7427,16 @@
         <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>1494</v>
+        <v>1489</v>
       </c>
       <c r="E60" t="s">
-        <v>1495</v>
+        <v>1490</v>
       </c>
       <c r="I60" t="s">
-        <v>1546</v>
+        <v>1541</v>
       </c>
       <c r="J60" t="s">
-        <v>1547</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7314,16 +7444,16 @@
         <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>1496</v>
+        <v>1491</v>
       </c>
       <c r="E61" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
       <c r="I61" t="s">
-        <v>1548</v>
+        <v>1543</v>
       </c>
       <c r="J61" t="s">
-        <v>1549</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7340,10 +7470,10 @@
         <v>467</v>
       </c>
       <c r="I62" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="J62" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7360,10 +7490,10 @@
         <v>472</v>
       </c>
       <c r="I63" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="J63" t="s">
-        <v>1551</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7380,10 +7510,10 @@
         <v>474</v>
       </c>
       <c r="I64" t="s">
-        <v>1552</v>
+        <v>1547</v>
       </c>
       <c r="J64" t="s">
-        <v>1553</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7400,10 +7530,10 @@
         <v>476</v>
       </c>
       <c r="I65" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="J65" t="s">
-        <v>1555</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7414,7 +7544,7 @@
         <v>28</v>
       </c>
       <c r="D66" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="E66" t="s">
         <v>470</v>
@@ -7448,10 +7578,10 @@
         <v>285</v>
       </c>
       <c r="I69" t="s">
-        <v>1520</v>
+        <v>1515</v>
       </c>
       <c r="J69" t="s">
-        <v>1521</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7459,16 +7589,16 @@
         <v>25</v>
       </c>
       <c r="D70" t="s">
-        <v>1499</v>
+        <v>1494</v>
       </c>
       <c r="E70" t="s">
-        <v>1498</v>
+        <v>1493</v>
       </c>
       <c r="I70" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="J70" t="s">
-        <v>1523</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7476,16 +7606,16 @@
         <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>1500</v>
+        <v>1495</v>
       </c>
       <c r="E71" t="s">
-        <v>1497</v>
+        <v>1492</v>
       </c>
       <c r="I71" t="s">
-        <v>1533</v>
+        <v>1528</v>
       </c>
       <c r="J71" t="s">
-        <v>1532</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7502,10 +7632,10 @@
         <v>492</v>
       </c>
       <c r="I72" t="s">
-        <v>1524</v>
+        <v>1519</v>
       </c>
       <c r="J72" t="s">
-        <v>1525</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7516,16 +7646,16 @@
         <v>30</v>
       </c>
       <c r="D73" t="s">
-        <v>1502</v>
+        <v>1497</v>
       </c>
       <c r="E73" t="s">
-        <v>1501</v>
+        <v>1496</v>
       </c>
       <c r="I73" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
       <c r="J73" t="s">
-        <v>1527</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7542,10 +7672,10 @@
         <v>498</v>
       </c>
       <c r="I74" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="J74" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7562,10 +7692,10 @@
         <v>500</v>
       </c>
       <c r="I75" t="s">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="J75" t="s">
-        <v>1531</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7576,7 +7706,7 @@
         <v>28</v>
       </c>
       <c r="D76" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="E76" t="s">
         <v>496</v>
@@ -7604,13 +7734,13 @@
         <v>477</v>
       </c>
       <c r="E79" t="s">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="I79" t="s">
         <v>411</v>
       </c>
       <c r="J79" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7624,13 +7754,13 @@
         <v>478</v>
       </c>
       <c r="E80" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="I80" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="J80" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7638,16 +7768,16 @@
         <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>1504</v>
+        <v>1499</v>
       </c>
       <c r="E81" t="s">
-        <v>1503</v>
+        <v>1498</v>
       </c>
       <c r="I81" t="s">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="J81" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7658,16 +7788,16 @@
         <v>30</v>
       </c>
       <c r="D82" t="s">
-        <v>1513</v>
+        <v>1508</v>
       </c>
       <c r="E82" t="s">
-        <v>1510</v>
+        <v>1505</v>
       </c>
       <c r="I82" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="J82" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7678,16 +7808,16 @@
         <v>30</v>
       </c>
       <c r="D83" t="s">
-        <v>1512</v>
+        <v>1507</v>
       </c>
       <c r="E83" t="s">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7698,16 +7828,16 @@
         <v>31</v>
       </c>
       <c r="D84" t="s">
-        <v>1511</v>
+        <v>1506</v>
       </c>
       <c r="E84" t="s">
-        <v>1508</v>
+        <v>1503</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7718,19 +7848,19 @@
         <v>28</v>
       </c>
       <c r="D85" t="s">
-        <v>1514</v>
+        <v>1509</v>
       </c>
       <c r="E85" t="s">
-        <v>1507</v>
+        <v>1502</v>
       </c>
       <c r="G85" t="s">
         <v>30</v>
       </c>
       <c r="I85" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="J85" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7775,10 +7905,10 @@
         <v>285</v>
       </c>
       <c r="I89" t="s">
-        <v>1534</v>
+        <v>1529</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>1535</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7786,10 +7916,10 @@
         <v>25</v>
       </c>
       <c r="D90" t="s">
-        <v>1519</v>
+        <v>1514</v>
       </c>
       <c r="E90" t="s">
-        <v>1515</v>
+        <v>1510</v>
       </c>
       <c r="I90" t="s">
         <v>709</v>
@@ -7803,16 +7933,16 @@
         <v>26</v>
       </c>
       <c r="D91" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
       <c r="E91" t="s">
         <v>847</v>
       </c>
       <c r="I91" t="s">
-        <v>1496</v>
+        <v>1491</v>
       </c>
       <c r="J91" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7829,10 +7959,10 @@
         <v>484</v>
       </c>
       <c r="I92" t="s">
-        <v>1536</v>
+        <v>1531</v>
       </c>
       <c r="J92" t="s">
-        <v>1537</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7852,7 +7982,7 @@
         <v>199</v>
       </c>
       <c r="J93" t="s">
-        <v>1538</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7866,13 +7996,13 @@
         <v>490</v>
       </c>
       <c r="E94" t="s">
-        <v>1516</v>
+        <v>1511</v>
       </c>
       <c r="I94" t="s">
-        <v>1539</v>
+        <v>1534</v>
       </c>
       <c r="J94" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7886,13 +8016,13 @@
         <v>488</v>
       </c>
       <c r="E95" t="s">
-        <v>1517</v>
+        <v>1512</v>
       </c>
       <c r="I95" t="s">
-        <v>1541</v>
+        <v>1536</v>
       </c>
       <c r="J95" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7911,7 +8041,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>29</v>
@@ -7928,19 +8058,19 @@
         <v>30</v>
       </c>
       <c r="D99" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="E99" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="G99" t="s">
         <v>277</v>
       </c>
       <c r="I99" t="s">
-        <v>1572</v>
+        <v>1567</v>
       </c>
       <c r="J99" t="s">
-        <v>1571</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7948,16 +8078,16 @@
         <v>25</v>
       </c>
       <c r="D100" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="E100" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="I100" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="J100" t="s">
-        <v>1573</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7965,16 +8095,16 @@
         <v>26</v>
       </c>
       <c r="D101" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="E101" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="I101" t="s">
-        <v>1576</v>
+        <v>1571</v>
       </c>
       <c r="J101" t="s">
-        <v>1575</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7985,16 +8115,16 @@
         <v>31</v>
       </c>
       <c r="D102" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="E102" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="I102" t="s">
-        <v>1578</v>
+        <v>1573</v>
       </c>
       <c r="J102" t="s">
-        <v>1577</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8005,16 +8135,16 @@
         <v>30</v>
       </c>
       <c r="D103" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="E103" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="I103" t="s">
-        <v>1580</v>
+        <v>1575</v>
       </c>
       <c r="J103" t="s">
-        <v>1579</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8025,16 +8155,16 @@
         <v>28</v>
       </c>
       <c r="D104" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="E104" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="I104" t="s">
-        <v>1582</v>
+        <v>1577</v>
       </c>
       <c r="J104" t="s">
-        <v>1581</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8042,16 +8172,16 @@
         <v>44</v>
       </c>
       <c r="D105" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="E105" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="I105" t="s">
-        <v>1584</v>
+        <v>1579</v>
       </c>
       <c r="J105" t="s">
-        <v>1583</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8062,21 +8192,21 @@
         <v>721</v>
       </c>
       <c r="D106" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="E106" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="I106" t="s">
-        <v>1586</v>
+        <v>1581</v>
       </c>
       <c r="J106" t="s">
-        <v>1585</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>29</v>
@@ -8093,19 +8223,19 @@
         <v>31</v>
       </c>
       <c r="D109" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="E109" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="G109" t="s">
         <v>285</v>
       </c>
       <c r="I109" t="s">
-        <v>1588</v>
+        <v>1583</v>
       </c>
       <c r="J109" t="s">
-        <v>1587</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8113,16 +8243,16 @@
         <v>25</v>
       </c>
       <c r="D110" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="E110" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="I110" t="s">
-        <v>1590</v>
+        <v>1585</v>
       </c>
       <c r="J110" t="s">
-        <v>1589</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8130,16 +8260,16 @@
         <v>26</v>
       </c>
       <c r="D111" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="E111" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="I111" t="s">
-        <v>1592</v>
+        <v>1587</v>
       </c>
       <c r="J111" t="s">
-        <v>1591</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8150,16 +8280,16 @@
         <v>30</v>
       </c>
       <c r="D112" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="E112" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="I112" t="s">
-        <v>1593</v>
+        <v>1588</v>
       </c>
       <c r="J112" t="s">
-        <v>1594</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8170,16 +8300,16 @@
         <v>31</v>
       </c>
       <c r="D113" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="E113" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="I113" t="s">
-        <v>1596</v>
+        <v>1591</v>
       </c>
       <c r="J113" t="s">
-        <v>1595</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8190,16 +8320,16 @@
         <v>31</v>
       </c>
       <c r="D114" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="E114" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="I114" t="s">
-        <v>1598</v>
+        <v>1593</v>
       </c>
       <c r="J114" t="s">
-        <v>1597</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8210,16 +8340,16 @@
         <v>30</v>
       </c>
       <c r="D115" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="E115" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="I115" t="s">
-        <v>1599</v>
+        <v>1594</v>
       </c>
       <c r="J115" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8230,16 +8360,16 @@
         <v>28</v>
       </c>
       <c r="D116" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="E116" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="I116" t="s">
-        <v>1601</v>
+        <v>1596</v>
       </c>
       <c r="J116" t="s">
-        <v>1600</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8402,10 +8532,10 @@
         <v>31</v>
       </c>
       <c r="D125" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="E125" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="H125" t="s">
         <v>44</v>
@@ -8414,7 +8544,7 @@
         <v>63</v>
       </c>
       <c r="J125" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8428,16 +8558,16 @@
         <v>717</v>
       </c>
       <c r="E126" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="H126" t="s">
         <v>437</v>
       </c>
       <c r="I126" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="J126" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8511,7 +8641,7 @@
         <v>77</v>
       </c>
       <c r="E131" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="H131" t="s">
         <v>26</v>
@@ -8626,7 +8756,7 @@
         <v>625</v>
       </c>
       <c r="E136" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="H136" t="s">
         <v>437</v>
@@ -8634,7 +8764,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>43</v>
@@ -8651,22 +8781,22 @@
         <v>31</v>
       </c>
       <c r="D139" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="E139" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="G139" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H139" t="s">
         <v>24</v>
       </c>
       <c r="I139" t="s">
-        <v>1667</v>
+        <v>1662</v>
       </c>
       <c r="J139" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8677,19 +8807,19 @@
         <v>30</v>
       </c>
       <c r="D140" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="E140" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="H140" t="s">
         <v>25</v>
       </c>
       <c r="I140" t="s">
-        <v>1666</v>
+        <v>1661</v>
       </c>
       <c r="J140" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="K140" t="s">
         <v>30</v>
@@ -8703,19 +8833,19 @@
         <v>31</v>
       </c>
       <c r="D141" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="E141" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="H141" t="s">
         <v>26</v>
       </c>
       <c r="I141" t="s">
-        <v>1665</v>
+        <v>1660</v>
       </c>
       <c r="J141" t="s">
-        <v>1664</v>
+        <v>1659</v>
       </c>
       <c r="K141" t="s">
         <v>31</v>
@@ -8729,10 +8859,10 @@
         <v>31</v>
       </c>
       <c r="D142" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="E142" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="H142" t="s">
         <v>27</v>
@@ -8741,7 +8871,7 @@
         <v>115</v>
       </c>
       <c r="J142" t="s">
-        <v>1663</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8749,19 +8879,19 @@
         <v>37</v>
       </c>
       <c r="D143" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="E143" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="H143" t="s">
         <v>37</v>
       </c>
       <c r="I143" t="s">
-        <v>1672</v>
+        <v>1667</v>
       </c>
       <c r="J143" t="s">
-        <v>1668</v>
+        <v>1663</v>
       </c>
       <c r="K143" t="s">
         <v>30</v>
@@ -8775,19 +8905,19 @@
         <v>30</v>
       </c>
       <c r="D144" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="E144" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="H144" t="s">
         <v>38</v>
       </c>
       <c r="I144" t="s">
-        <v>1671</v>
+        <v>1666</v>
       </c>
       <c r="J144" t="s">
-        <v>1669</v>
+        <v>1664</v>
       </c>
       <c r="K144" t="s">
         <v>30</v>
@@ -8801,10 +8931,10 @@
         <v>31</v>
       </c>
       <c r="D145" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="E145" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="H145" t="s">
         <v>44</v>
@@ -8813,7 +8943,7 @@
         <v>116</v>
       </c>
       <c r="J145" t="s">
-        <v>1670</v>
+        <v>1665</v>
       </c>
       <c r="K145" t="s">
         <v>31</v>
@@ -8827,15 +8957,15 @@
         <v>31</v>
       </c>
       <c r="D146" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="E146" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -8849,10 +8979,10 @@
         <v>30</v>
       </c>
       <c r="D149" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="E149" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="G149" t="s">
         <v>285</v>
@@ -8861,10 +8991,10 @@
         <v>24</v>
       </c>
       <c r="I149" t="s">
-        <v>1680</v>
+        <v>1675</v>
       </c>
       <c r="J149" t="s">
-        <v>1673</v>
+        <v>1668</v>
       </c>
       <c r="K149" t="s">
         <v>31</v>
@@ -8878,19 +9008,19 @@
         <v>30</v>
       </c>
       <c r="D150" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="E150" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="H150" t="s">
         <v>25</v>
       </c>
       <c r="I150" t="s">
-        <v>1681</v>
+        <v>1676</v>
       </c>
       <c r="J150" t="s">
-        <v>1674</v>
+        <v>1669</v>
       </c>
       <c r="K150" t="s">
         <v>31</v>
@@ -8904,19 +9034,19 @@
         <v>31</v>
       </c>
       <c r="D151" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="E151" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="H151" t="s">
         <v>26</v>
       </c>
       <c r="I151" t="s">
-        <v>1682</v>
+        <v>1677</v>
       </c>
       <c r="J151" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="K151" t="s">
         <v>30</v>
@@ -8930,19 +9060,19 @@
         <v>31</v>
       </c>
       <c r="D152" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="E152" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="H152" t="s">
         <v>27</v>
       </c>
       <c r="I152" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="J152" t="s">
-        <v>1676</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -8953,19 +9083,19 @@
         <v>30</v>
       </c>
       <c r="D153" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="E153" t="s">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="H153" t="s">
         <v>37</v>
       </c>
       <c r="I153" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
       <c r="J153" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
       <c r="K153" t="s">
         <v>31</v>
@@ -8979,19 +9109,19 @@
         <v>31</v>
       </c>
       <c r="D154" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="E154" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="H154" t="s">
         <v>38</v>
       </c>
       <c r="I154" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="J154" t="s">
-        <v>1678</v>
+        <v>1673</v>
       </c>
       <c r="K154" t="s">
         <v>30</v>
@@ -9005,19 +9135,19 @@
         <v>30</v>
       </c>
       <c r="D155" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="E155" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="H155" t="s">
         <v>44</v>
       </c>
       <c r="I155" t="s">
-        <v>1686</v>
+        <v>1681</v>
       </c>
       <c r="J155" t="s">
-        <v>1679</v>
+        <v>1674</v>
       </c>
       <c r="K155" t="s">
         <v>30</v>
@@ -9031,10 +9161,10 @@
         <v>30</v>
       </c>
       <c r="D156" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="E156" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9064,11 +9194,11 @@
       <c r="H159" t="s">
         <v>24</v>
       </c>
-      <c r="I159" s="18" t="s">
+      <c r="I159" s="19" t="s">
         <v>510</v>
       </c>
-      <c r="J159" s="18" t="s">
-        <v>1716</v>
+      <c r="J159" s="19" t="s">
+        <v>1711</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9087,11 +9217,11 @@
       <c r="H160" t="s">
         <v>25</v>
       </c>
-      <c r="I160" s="18" t="s">
-        <v>1705</v>
-      </c>
-      <c r="J160" s="18" t="s">
-        <v>1706</v>
+      <c r="I160" s="19" t="s">
+        <v>1700</v>
+      </c>
+      <c r="J160" s="19" t="s">
+        <v>1701</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9099,19 +9229,19 @@
         <v>26</v>
       </c>
       <c r="D161" t="s">
-        <v>1692</v>
+        <v>1687</v>
       </c>
       <c r="E161" t="s">
-        <v>1691</v>
+        <v>1686</v>
       </c>
       <c r="H161" t="s">
         <v>26</v>
       </c>
-      <c r="I161" s="18" t="s">
-        <v>1707</v>
-      </c>
-      <c r="J161" s="18" t="s">
-        <v>1708</v>
+      <c r="I161" s="19" t="s">
+        <v>1702</v>
+      </c>
+      <c r="J161" s="19" t="s">
+        <v>1703</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9130,11 +9260,11 @@
       <c r="H162" t="s">
         <v>27</v>
       </c>
-      <c r="I162" s="18" t="s">
-        <v>1702</v>
-      </c>
-      <c r="J162" s="18" t="s">
-        <v>1709</v>
+      <c r="I162" s="19" t="s">
+        <v>1697</v>
+      </c>
+      <c r="J162" s="19" t="s">
+        <v>1704</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9153,11 +9283,11 @@
       <c r="H163" t="s">
         <v>37</v>
       </c>
-      <c r="I163" s="18" t="s">
-        <v>1710</v>
-      </c>
-      <c r="J163" s="18" t="s">
-        <v>1711</v>
+      <c r="I163" s="19" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J163" s="19" t="s">
+        <v>1706</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9176,11 +9306,11 @@
       <c r="H164" t="s">
         <v>38</v>
       </c>
-      <c r="I164" s="18" t="s">
-        <v>1712</v>
-      </c>
-      <c r="J164" s="18" t="s">
-        <v>1713</v>
+      <c r="I164" s="19" t="s">
+        <v>1707</v>
+      </c>
+      <c r="J164" s="19" t="s">
+        <v>1708</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9199,11 +9329,11 @@
       <c r="H165" t="s">
         <v>44</v>
       </c>
-      <c r="I165" s="18" t="s">
-        <v>1714</v>
-      </c>
-      <c r="J165" s="18" t="s">
-        <v>1715</v>
+      <c r="I165" s="19" t="s">
+        <v>1709</v>
+      </c>
+      <c r="J165" s="19" t="s">
+        <v>1710</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9248,7 +9378,7 @@
         <v>24</v>
       </c>
       <c r="I169" t="s">
-        <v>1693</v>
+        <v>1688</v>
       </c>
       <c r="J169" t="s">
         <v>708</v>
@@ -9259,10 +9389,10 @@
         <v>25</v>
       </c>
       <c r="D170" t="s">
-        <v>1689</v>
+        <v>1684</v>
       </c>
       <c r="E170" t="s">
-        <v>1687</v>
+        <v>1682</v>
       </c>
       <c r="F170" t="s">
         <v>285</v>
@@ -9271,10 +9401,10 @@
         <v>25</v>
       </c>
       <c r="I170" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="J170" t="s">
-        <v>1695</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9282,19 +9412,19 @@
         <v>26</v>
       </c>
       <c r="D171" t="s">
-        <v>1690</v>
+        <v>1685</v>
       </c>
       <c r="E171" t="s">
-        <v>1688</v>
+        <v>1683</v>
       </c>
       <c r="H171" t="s">
         <v>26</v>
       </c>
       <c r="I171" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="J171" t="s">
-        <v>1704</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9314,10 +9444,10 @@
         <v>27</v>
       </c>
       <c r="I172" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
       <c r="J172" t="s">
-        <v>1697</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9337,10 +9467,10 @@
         <v>37</v>
       </c>
       <c r="I173" t="s">
-        <v>1698</v>
+        <v>1693</v>
       </c>
       <c r="J173" t="s">
-        <v>1699</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9360,10 +9490,10 @@
         <v>38</v>
       </c>
       <c r="I174" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="J174" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9383,10 +9513,10 @@
         <v>44</v>
       </c>
       <c r="I175" t="s">
-        <v>1702</v>
+        <v>1697</v>
       </c>
       <c r="J175" t="s">
-        <v>1703</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9439,7 +9569,7 @@
         <v>30</v>
       </c>
       <c r="D180" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="E180" t="s">
         <v>536</v>
@@ -9448,10 +9578,10 @@
         <v>24</v>
       </c>
       <c r="I180" t="s">
-        <v>1730</v>
+        <v>1725</v>
       </c>
       <c r="J180" t="s">
-        <v>1728</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9459,19 +9589,19 @@
         <v>25</v>
       </c>
       <c r="D181" t="s">
-        <v>1719</v>
+        <v>1714</v>
       </c>
       <c r="E181" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
       <c r="H181" t="s">
         <v>25</v>
       </c>
       <c r="I181" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="J181" t="s">
-        <v>1721</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9479,19 +9609,19 @@
         <v>26</v>
       </c>
       <c r="D182" t="s">
-        <v>1720</v>
+        <v>1715</v>
       </c>
       <c r="E182" t="s">
-        <v>1717</v>
+        <v>1712</v>
       </c>
       <c r="H182" t="s">
         <v>26</v>
       </c>
       <c r="I182" t="s">
-        <v>1725</v>
+        <v>1720</v>
       </c>
       <c r="J182" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9502,19 +9632,19 @@
         <v>31</v>
       </c>
       <c r="D183" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="E183" t="s">
-        <v>1718</v>
+        <v>1713</v>
       </c>
       <c r="H183" t="s">
         <v>27</v>
       </c>
       <c r="I183" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="J183" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9525,7 +9655,7 @@
         <v>30</v>
       </c>
       <c r="D184" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="E184" t="s">
         <v>537</v>
@@ -9534,10 +9664,10 @@
         <v>37</v>
       </c>
       <c r="I184" t="s">
-        <v>1737</v>
+        <v>1732</v>
       </c>
       <c r="J184" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9548,7 +9678,7 @@
         <v>31</v>
       </c>
       <c r="D185" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="E185" t="s">
         <v>538</v>
@@ -9557,10 +9687,10 @@
         <v>38</v>
       </c>
       <c r="I185" t="s">
-        <v>1726</v>
+        <v>1721</v>
       </c>
       <c r="J185" t="s">
-        <v>1727</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9571,7 +9701,7 @@
         <v>28</v>
       </c>
       <c r="D186" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="E186" t="s">
         <v>542</v>
@@ -9580,10 +9710,10 @@
         <v>44</v>
       </c>
       <c r="I186" t="s">
-        <v>1736</v>
+        <v>1731</v>
       </c>
       <c r="J186" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9594,7 +9724,7 @@
         <v>31</v>
       </c>
       <c r="D187" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="E187" t="s">
         <v>539</v>
@@ -9603,10 +9733,10 @@
         <v>437</v>
       </c>
       <c r="I187" t="s">
-        <v>1735</v>
+        <v>1730</v>
       </c>
       <c r="J187" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9639,19 +9769,19 @@
         <v>25</v>
       </c>
       <c r="D191" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
       <c r="E191" t="s">
-        <v>1721</v>
+        <v>1716</v>
       </c>
       <c r="H191" t="s">
         <v>24</v>
       </c>
       <c r="I191" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="J191" t="s">
-        <v>1742</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9659,19 +9789,19 @@
         <v>26</v>
       </c>
       <c r="D192" t="s">
-        <v>1740</v>
+        <v>1735</v>
       </c>
       <c r="E192" t="s">
-        <v>1722</v>
+        <v>1717</v>
       </c>
       <c r="H192" t="s">
         <v>25</v>
       </c>
       <c r="I192" t="s">
-        <v>1743</v>
+        <v>1738</v>
       </c>
       <c r="J192" t="s">
-        <v>1744</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -9685,16 +9815,16 @@
         <v>543</v>
       </c>
       <c r="E193" t="s">
-        <v>1723</v>
+        <v>1718</v>
       </c>
       <c r="H193" t="s">
         <v>26</v>
       </c>
       <c r="I193" t="s">
-        <v>1745</v>
+        <v>1740</v>
       </c>
       <c r="J193" t="s">
-        <v>1746</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -9714,10 +9844,10 @@
         <v>27</v>
       </c>
       <c r="I194" t="s">
-        <v>1747</v>
+        <v>1742</v>
       </c>
       <c r="J194" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -9737,10 +9867,10 @@
         <v>37</v>
       </c>
       <c r="I195" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="J195" t="s">
-        <v>1750</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -9760,10 +9890,10 @@
         <v>38</v>
       </c>
       <c r="I196" t="s">
-        <v>1751</v>
+        <v>1746</v>
       </c>
       <c r="J196" t="s">
-        <v>1752</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -9774,7 +9904,7 @@
         <v>28</v>
       </c>
       <c r="D197" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="E197" t="s">
         <v>544</v>
@@ -9783,10 +9913,10 @@
         <v>44</v>
       </c>
       <c r="I197" t="s">
-        <v>1753</v>
+        <v>1748</v>
       </c>
       <c r="J197" t="s">
-        <v>1754</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -9806,10 +9936,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7AC182E-5169-4094-9DE7-3B580E149E8E}">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -9817,22 +9947,23 @@
     <col min="1" max="1" width="14.1015625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.89453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.75">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>720</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="29" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
-        <v>1759</v>
+        <v>1754</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1762</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -9840,16 +9971,16 @@
         <v>651</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1761</v>
+        <v>1756</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1761</v>
+        <v>1756</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1760</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9868,18 +9999,18 @@
       <c r="E4" t="s">
         <v>665</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>653</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="19"/>
       <c r="H4" t="s">
         <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>1763</v>
+        <v>1758</v>
       </c>
       <c r="J4" t="s">
-        <v>1790</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9887,19 +10018,19 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>1757</v>
+        <v>1752</v>
       </c>
       <c r="E5" t="s">
-        <v>1755</v>
+        <v>1750</v>
       </c>
       <c r="H5" t="s">
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>1791</v>
+        <v>1786</v>
       </c>
       <c r="J5" t="s">
-        <v>1787</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9907,19 +10038,19 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>1758</v>
+        <v>1753</v>
       </c>
       <c r="E6" t="s">
-        <v>1756</v>
+        <v>1751</v>
       </c>
       <c r="H6" t="s">
         <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="J6" t="s">
-        <v>1788</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9939,10 +10070,10 @@
         <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>1793</v>
+        <v>1788</v>
       </c>
       <c r="J7" t="s">
-        <v>1789</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9962,10 +10093,10 @@
         <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>1764</v>
+        <v>1759</v>
       </c>
       <c r="J8" t="s">
-        <v>1765</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9985,10 +10116,10 @@
         <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>1766</v>
+        <v>1761</v>
       </c>
       <c r="J9" t="s">
-        <v>1767</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10008,10 +10139,10 @@
         <v>588</v>
       </c>
       <c r="I10" t="s">
-        <v>1786</v>
+        <v>1781</v>
       </c>
       <c r="J10" t="s">
-        <v>1785</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10031,10 +10162,10 @@
         <v>426</v>
       </c>
       <c r="I11" t="s">
-        <v>1784</v>
+        <v>1779</v>
       </c>
       <c r="J11" t="s">
-        <v>1783</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10050,19 +10181,19 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>1776</v>
+        <v>1771</v>
       </c>
       <c r="E14" t="s">
-        <v>1768</v>
+        <v>1763</v>
       </c>
       <c r="H14" t="s">
         <v>24</v>
       </c>
       <c r="I14" t="s">
-        <v>1801</v>
+        <v>1796</v>
       </c>
       <c r="J14" t="s">
-        <v>1794</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10070,19 +10201,19 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E15" t="s">
-        <v>1775</v>
+        <v>1770</v>
       </c>
       <c r="H15" t="s">
         <v>25</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>1802</v>
+        <v>1797</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>1795</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10090,19 +10221,19 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>1777</v>
+        <v>1772</v>
       </c>
       <c r="E16" t="s">
-        <v>1769</v>
+        <v>1764</v>
       </c>
       <c r="H16" t="s">
         <v>26</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>1803</v>
+        <v>1798</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>1796</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10110,19 +10241,19 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>1778</v>
+        <v>1773</v>
       </c>
       <c r="E17" t="s">
-        <v>1770</v>
+        <v>1765</v>
       </c>
       <c r="H17" t="s">
         <v>27</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>1804</v>
+        <v>1799</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>1797</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10130,19 +10261,19 @@
         <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>1779</v>
+        <v>1774</v>
       </c>
       <c r="E18" t="s">
-        <v>1771</v>
+        <v>1766</v>
       </c>
       <c r="H18" t="s">
         <v>37</v>
       </c>
       <c r="I18" t="s">
-        <v>1805</v>
+        <v>1800</v>
       </c>
       <c r="J18" t="s">
-        <v>1798</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10150,19 +10281,19 @@
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>1780</v>
+        <v>1775</v>
       </c>
       <c r="E19" t="s">
-        <v>1772</v>
+        <v>1767</v>
       </c>
       <c r="H19" t="s">
         <v>38</v>
       </c>
       <c r="I19" t="s">
-        <v>1806</v>
+        <v>1801</v>
       </c>
       <c r="J19" t="s">
-        <v>1799</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10170,19 +10301,19 @@
         <v>588</v>
       </c>
       <c r="D20" t="s">
-        <v>1781</v>
+        <v>1776</v>
       </c>
       <c r="E20" t="s">
-        <v>1773</v>
+        <v>1768</v>
       </c>
       <c r="H20" t="s">
         <v>588</v>
       </c>
       <c r="I20" t="s">
-        <v>1807</v>
+        <v>1802</v>
       </c>
       <c r="J20" t="s">
-        <v>1800</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10190,10 +10321,10 @@
         <v>426</v>
       </c>
       <c r="D21" t="s">
-        <v>1782</v>
+        <v>1777</v>
       </c>
       <c r="E21" t="s">
-        <v>1774</v>
+        <v>1769</v>
       </c>
       <c r="H21" t="s">
         <v>426</v>
@@ -10201,7 +10332,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>1808</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10215,10 +10346,10 @@
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>1825</v>
+        <v>1820</v>
       </c>
       <c r="E24" t="s">
-        <v>1809</v>
+        <v>1804</v>
       </c>
       <c r="F24" t="s">
         <v>653</v>
@@ -10227,10 +10358,10 @@
         <v>24</v>
       </c>
       <c r="I24" t="s">
-        <v>1825</v>
+        <v>1820</v>
       </c>
       <c r="J24" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10238,19 +10369,19 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>1812</v>
+        <v>1807</v>
       </c>
       <c r="E25" t="s">
-        <v>1810</v>
+        <v>1805</v>
       </c>
       <c r="H25" t="s">
         <v>25</v>
       </c>
       <c r="I25" t="s">
-        <v>1824</v>
+        <v>1819</v>
       </c>
       <c r="J25" t="s">
-        <v>1821</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10258,19 +10389,19 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="E26" t="s">
-        <v>1571</v>
+        <v>1566</v>
       </c>
       <c r="H26" t="s">
         <v>26</v>
       </c>
       <c r="I26" t="s">
-        <v>1827</v>
+        <v>1822</v>
       </c>
       <c r="J26" t="s">
-        <v>1822</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10281,19 +10412,19 @@
         <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="E27" t="s">
-        <v>1811</v>
+        <v>1806</v>
       </c>
       <c r="H27" t="s">
         <v>27</v>
       </c>
       <c r="I27" t="s">
-        <v>1826</v>
+        <v>1821</v>
       </c>
       <c r="J27" t="s">
-        <v>1823</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10304,19 +10435,19 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>1817</v>
+        <v>1812</v>
       </c>
       <c r="E28" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="H28" t="s">
         <v>37</v>
       </c>
       <c r="I28" t="s">
-        <v>1817</v>
+        <v>1812</v>
       </c>
       <c r="J28" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10324,19 +10455,19 @@
         <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>1818</v>
+        <v>1813</v>
       </c>
       <c r="E29" t="s">
-        <v>1814</v>
+        <v>1809</v>
       </c>
       <c r="H29" t="s">
         <v>38</v>
       </c>
       <c r="I29" t="s">
-        <v>1818</v>
+        <v>1813</v>
       </c>
       <c r="J29" t="s">
-        <v>1814</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10344,19 +10475,19 @@
         <v>588</v>
       </c>
       <c r="D30" t="s">
-        <v>1819</v>
+        <v>1814</v>
       </c>
       <c r="E30" t="s">
-        <v>1815</v>
+        <v>1810</v>
       </c>
       <c r="H30" t="s">
         <v>588</v>
       </c>
       <c r="I30" t="s">
-        <v>1819</v>
+        <v>1814</v>
       </c>
       <c r="J30" t="s">
-        <v>1815</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10367,19 +10498,19 @@
         <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>1820</v>
+        <v>1815</v>
       </c>
       <c r="E31" t="s">
-        <v>1816</v>
+        <v>1811</v>
       </c>
       <c r="H31" t="s">
         <v>426</v>
       </c>
       <c r="I31" t="s">
-        <v>1820</v>
+        <v>1815</v>
       </c>
       <c r="J31" t="s">
-        <v>1816</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10406,19 +10537,55 @@
       <c r="E34" t="s">
         <v>708</v>
       </c>
-      <c r="F34" t="s">
-        <v>30</v>
+      <c r="H34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>1849</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>1861</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
         <v>25</v>
       </c>
+      <c r="D35" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1823</v>
+      </c>
+      <c r="H35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>1850</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>1860</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
         <v>26</v>
       </c>
+      <c r="D36" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1824</v>
+      </c>
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>1851</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>1862</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" t="s">
@@ -10433,6 +10600,15 @@
       <c r="E37" t="s">
         <v>709</v>
       </c>
+      <c r="H37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>1852</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>1859</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" t="s">
@@ -10445,7 +10621,16 @@
         <v>710</v>
       </c>
       <c r="E38" t="s">
-        <v>864</v>
+        <v>1825</v>
+      </c>
+      <c r="H38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>1853</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>1858</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10459,21 +10644,40 @@
         <v>711</v>
       </c>
       <c r="E39" t="s">
-        <v>863</v>
+        <v>1826</v>
+      </c>
+      <c r="H39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>1854</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>1857</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="13" t="s">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="14" t="s">
         <v>758</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="14" t="s">
         <v>759</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>1855</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10481,159 +10685,305 @@
         <v>426</v>
       </c>
       <c r="D41" t="s">
-        <v>689</v>
-      </c>
-      <c r="E41">
-        <v>75.67</v>
-      </c>
-      <c r="I41" t="s">
-        <v>714</v>
+        <v>875</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1827</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
         <v>24</v>
       </c>
-      <c r="C44" t="s">
-        <v>30</v>
-      </c>
       <c r="D44" t="s">
-        <v>723</v>
+        <v>1836</v>
       </c>
       <c r="E44" t="s">
-        <v>722</v>
-      </c>
-      <c r="F44" t="s">
-        <v>31</v>
-      </c>
-      <c r="J44">
-        <v>86.68</v>
+        <v>1829</v>
+      </c>
+      <c r="H44" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>1842</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>1505</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" t="s">
         <v>25</v>
       </c>
-      <c r="I45" t="s">
-        <v>694</v>
+      <c r="D45" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1830</v>
+      </c>
+      <c r="H45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>1843</v>
+      </c>
+      <c r="J45" s="19" t="s">
+        <v>1863</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" t="s">
         <v>26</v>
       </c>
+      <c r="D46" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1831</v>
+      </c>
+      <c r="H46" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>1844</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>1864</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" t="s">
         <v>27</v>
       </c>
-      <c r="C47" t="s">
-        <v>31</v>
-      </c>
       <c r="D47" t="s">
-        <v>712</v>
+        <v>1507</v>
       </c>
       <c r="E47" t="s">
-        <v>713</v>
-      </c>
-      <c r="J47" t="s">
-        <v>749</v>
+        <v>1506</v>
+      </c>
+      <c r="H47" t="s">
+        <v>27</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>1845</v>
+      </c>
+      <c r="J47" s="19" t="s">
+        <v>1866</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" t="s">
         <v>37</v>
       </c>
-      <c r="C48" t="s">
-        <v>30</v>
-      </c>
       <c r="D48" t="s">
-        <v>718</v>
+        <v>1839</v>
       </c>
       <c r="E48" t="s">
-        <v>719</v>
-      </c>
-      <c r="I48" t="s">
-        <v>725</v>
-      </c>
-      <c r="J48" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+        <v>1832</v>
+      </c>
+      <c r="H48" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>1846</v>
+      </c>
+      <c r="J48" s="19" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" t="s">
         <v>38</v>
       </c>
-      <c r="C49" t="s">
-        <v>31</v>
-      </c>
       <c r="D49" t="s">
-        <v>715</v>
+        <v>1840</v>
       </c>
       <c r="E49" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" t="s">
+        <v>1833</v>
+      </c>
+      <c r="H49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>1847</v>
+      </c>
+      <c r="J49" s="19" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="C50" t="s">
-        <v>31</v>
-      </c>
       <c r="D50" t="s">
-        <v>729</v>
+        <v>1841</v>
       </c>
       <c r="E50" t="s">
-        <v>728</v>
-      </c>
-      <c r="I50" t="s">
-        <v>729</v>
-      </c>
-      <c r="J50" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+        <v>1834</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J50" s="19" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" t="s">
         <v>426</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>875</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
         <v>30</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D54" t="s">
+        <v>723</v>
+      </c>
+      <c r="E54" t="s">
+        <v>722</v>
+      </c>
+      <c r="F54" t="s">
+        <v>31</v>
+      </c>
+      <c r="J54">
+        <v>86.68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" t="s">
+        <v>712</v>
+      </c>
+      <c r="E57" t="s">
+        <v>713</v>
+      </c>
+      <c r="J57" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" t="s">
+        <v>718</v>
+      </c>
+      <c r="E58" t="s">
+        <v>719</v>
+      </c>
+      <c r="I58" t="s">
+        <v>725</v>
+      </c>
+      <c r="J58" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" t="s">
+        <v>715</v>
+      </c>
+      <c r="E59" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" t="s">
+        <v>588</v>
+      </c>
+      <c r="C60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" t="s">
+        <v>729</v>
+      </c>
+      <c r="E60" t="s">
+        <v>728</v>
+      </c>
+      <c r="I60" t="s">
+        <v>729</v>
+      </c>
+      <c r="J60" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" t="s">
+        <v>426</v>
+      </c>
+      <c r="C61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" t="s">
         <v>727</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E61" t="s">
         <v>726</v>
       </c>
-      <c r="F51" t="s">
-        <v>31</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="F61" t="s">
+        <v>31</v>
+      </c>
+      <c r="I61" t="s">
         <v>727</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J61" t="s">
         <v>726</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C57" t="s">
-        <v>893</v>
-      </c>
-      <c r="E57" t="s">
-        <v>891</v>
-      </c>
-      <c r="F57" t="s">
-        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -10677,16 +11027,16 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E1" s="1" t="s">
-        <v>1343</v>
-      </c>
-      <c r="G1" s="20" t="s">
+        <v>1338</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21" t="s">
+      <c r="H1" s="21"/>
+      <c r="I1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="21"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
@@ -10702,7 +11052,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
@@ -10755,7 +11105,7 @@
         <v>78.744</v>
       </c>
       <c r="K3" t="s">
-        <v>1618</v>
+        <v>1613</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -10789,8 +11139,8 @@
       <c r="J4">
         <v>72.111000000000004</v>
       </c>
-      <c r="K4" s="27" t="s">
-        <v>1619</v>
+      <c r="K4" s="28" t="s">
+        <v>1614</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -10833,8 +11183,8 @@
       <c r="J5">
         <v>79.77</v>
       </c>
-      <c r="K5" s="27" t="s">
-        <v>1620</v>
+      <c r="K5" s="28" t="s">
+        <v>1615</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -10875,7 +11225,7 @@
         <v>91.18</v>
       </c>
       <c r="K6" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -10913,7 +11263,7 @@
         <v>62.11</v>
       </c>
       <c r="K7" t="s">
-        <v>1606</v>
+        <v>1601</v>
       </c>
       <c r="L7">
         <v>100</v>
@@ -10957,7 +11307,7 @@
         <v>87.23</v>
       </c>
       <c r="K8" t="s">
-        <v>1621</v>
+        <v>1616</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -10982,29 +11332,29 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="24" t="s">
         <v>47</v>
       </c>
       <c r="B9">
         <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>1627</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>1626</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>1625</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>1624</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>1623</v>
+        <v>1622</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>1620</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>1619</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>1618</v>
       </c>
       <c r="K9" t="s">
-        <v>1622</v>
+        <v>1617</v>
       </c>
       <c r="L9">
         <v>100</v>
@@ -11045,7 +11395,7 @@
         <v>68</v>
       </c>
       <c r="K10" t="s">
-        <v>1607</v>
+        <v>1602</v>
       </c>
       <c r="L10">
         <v>100</v>
@@ -11068,7 +11418,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" s="1" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -11085,7 +11435,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -11132,10 +11482,10 @@
         <v>87.76</v>
       </c>
       <c r="J14" t="s">
-        <v>1608</v>
+        <v>1603</v>
       </c>
       <c r="K14" t="s">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="L14">
         <v>100</v>
@@ -11152,19 +11502,19 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>1614</v>
+        <v>1609</v>
       </c>
       <c r="H15" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
       <c r="I15" t="s">
-        <v>1612</v>
+        <v>1607</v>
       </c>
       <c r="J15" t="s">
-        <v>1611</v>
+        <v>1606</v>
       </c>
       <c r="K15" t="s">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="L15">
         <v>100</v>
@@ -11193,7 +11543,7 @@
         <v>87.6</v>
       </c>
       <c r="K16" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="L16">
         <v>100</v>
@@ -11206,7 +11556,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="26" t="s">
         <v>47</v>
       </c>
       <c r="B17">
@@ -11225,7 +11575,7 @@
         <v>84.97</v>
       </c>
       <c r="K17" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="L17">
         <v>100</v>
@@ -11238,7 +11588,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="25"/>
+      <c r="A18" s="26"/>
       <c r="B18">
         <v>100</v>
       </c>
@@ -11255,7 +11605,7 @@
         <v>81.81</v>
       </c>
       <c r="K18" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="L18">
         <v>100</v>
@@ -11268,7 +11618,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="25"/>
+      <c r="A19" s="26"/>
       <c r="B19">
         <v>100</v>
       </c>
@@ -11285,7 +11635,7 @@
         <v>79.33</v>
       </c>
       <c r="K19" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
       <c r="L19">
         <v>100</v>
@@ -11298,7 +11648,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="25"/>
+      <c r="A20" s="26"/>
       <c r="B20">
         <v>100</v>
       </c>
@@ -11315,7 +11665,7 @@
         <v>78.84</v>
       </c>
       <c r="K20" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="L20">
         <v>100</v>
@@ -11344,7 +11694,7 @@
         <v>74.48</v>
       </c>
       <c r="K21" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="L21">
         <v>100</v>
@@ -11364,7 +11714,7 @@
         <v>42.625</v>
       </c>
       <c r="K22" t="s">
-        <v>1616</v>
+        <v>1611</v>
       </c>
       <c r="L22">
         <v>100</v>
@@ -11390,7 +11740,7 @@
         <v>44.375</v>
       </c>
       <c r="K23" t="s">
-        <v>1617</v>
+        <v>1612</v>
       </c>
       <c r="L23">
         <v>100</v>
@@ -11404,7 +11754,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E25" s="1" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -11421,7 +11771,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -11471,7 +11821,7 @@
         <v>47.662100000000002</v>
       </c>
       <c r="K27" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="L27">
         <v>100</v>
@@ -11487,7 +11837,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="25"/>
+      <c r="A28" s="26"/>
       <c r="B28">
         <v>100</v>
       </c>
@@ -11504,7 +11854,7 @@
         <v>49.296900000000001</v>
       </c>
       <c r="K28" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="L28">
         <v>100</v>
@@ -11536,7 +11886,7 @@
         <v>56.28</v>
       </c>
       <c r="K29" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="L29">
         <v>100</v>
@@ -11556,19 +11906,19 @@
         <v>100</v>
       </c>
       <c r="G30" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="H30" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="I30" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="J30" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="K30" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="L30">
         <v>100</v>
@@ -11600,7 +11950,7 @@
         <v>27.61</v>
       </c>
       <c r="K31" t="s">
-        <v>1641</v>
+        <v>1636</v>
       </c>
       <c r="L31">
         <v>100</v>
@@ -11632,7 +11982,7 @@
         <v>47</v>
       </c>
       <c r="K32" t="s">
-        <v>1642</v>
+        <v>1637</v>
       </c>
       <c r="L32">
         <v>100</v>
@@ -11648,7 +11998,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="27" t="s">
         <v>47</v>
       </c>
       <c r="B33">
@@ -11667,7 +12017,7 @@
         <v>51.12</v>
       </c>
       <c r="K33" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
       <c r="L33">
         <v>100</v>
@@ -11683,24 +12033,24 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="26"/>
+      <c r="A34" s="27"/>
       <c r="B34">
         <v>100</v>
       </c>
       <c r="G34" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="H34" t="s">
-        <v>1646</v>
+        <v>1641</v>
       </c>
       <c r="I34" t="s">
-        <v>1645</v>
+        <v>1640</v>
       </c>
       <c r="J34" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="K34" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="L34">
         <v>100</v>
@@ -11716,7 +12066,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="26"/>
+      <c r="A35" s="27"/>
       <c r="B35">
         <v>100</v>
       </c>
@@ -11782,14 +12132,14 @@
         <v>122</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="21"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="1" t="s">
@@ -11809,7 +12159,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>8</v>
@@ -11844,22 +12194,22 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="C4">
         <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
       <c r="I4" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="L4" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="M4" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="N4">
         <v>12</v>
@@ -11868,7 +12218,7 @@
         <v>200</v>
       </c>
       <c r="P4" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="R4">
         <v>100</v>
@@ -11877,25 +12227,25 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="B5" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="C5">
         <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
       <c r="I5" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="L5" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="M5" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="N5">
         <v>12</v>
@@ -11904,7 +12254,7 @@
         <v>200</v>
       </c>
       <c r="P5" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="R5">
         <v>100</v>
@@ -11912,22 +12262,22 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="C6">
         <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
       <c r="I6" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="L6" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="M6" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="N6">
         <v>12</v>
@@ -11936,7 +12286,7 @@
         <v>200</v>
       </c>
       <c r="P6" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="R6">
         <v>100</v>
@@ -11944,22 +12294,22 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="C7">
         <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
       <c r="I7" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="L7" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="M7" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="N7">
         <v>12</v>
@@ -11968,7 +12318,7 @@
         <v>200</v>
       </c>
       <c r="P7" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="R7">
         <v>50</v>
@@ -11976,22 +12326,22 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="C8">
         <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
       <c r="I8" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="L8" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="M8" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="N8">
         <v>12</v>
@@ -12000,7 +12350,7 @@
         <v>200</v>
       </c>
       <c r="P8" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="R8">
         <v>50</v>
@@ -12008,13 +12358,13 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="C9">
         <v>25</v>
       </c>
       <c r="M9" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="R9">
         <v>50</v>
@@ -12022,22 +12372,22 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="C10">
         <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="I10" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="L10" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="M10" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="N10">
         <v>12</v>
@@ -12046,7 +12396,7 @@
         <v>200</v>
       </c>
       <c r="P10" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="R10">
         <v>100</v>
@@ -12054,22 +12404,22 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="C11">
         <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="I11" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="L11" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="M11" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="N11">
         <v>12</v>
@@ -12078,27 +12428,27 @@
         <v>200</v>
       </c>
       <c r="P11" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="C12">
         <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
       <c r="I12" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="L12" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="M12" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="N12">
         <v>12</v>
@@ -12107,7 +12457,7 @@
         <v>200</v>
       </c>
       <c r="P12" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="R12">
         <v>100</v>
@@ -12115,22 +12465,22 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="C13">
         <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>1428</v>
+        <v>1423</v>
       </c>
       <c r="I13" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="L13" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="M13" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="N13">
         <v>12</v>
@@ -12139,7 +12489,7 @@
         <v>200</v>
       </c>
       <c r="P13" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="R13">
         <v>50</v>
@@ -12147,22 +12497,22 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="C14">
         <v>100</v>
       </c>
       <c r="H14" t="s">
-        <v>1429</v>
+        <v>1424</v>
       </c>
       <c r="I14" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="L14" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="M14" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="N14">
         <v>12</v>
@@ -12171,7 +12521,7 @@
         <v>200</v>
       </c>
       <c r="P14" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="R14">
         <v>50</v>
@@ -12179,22 +12529,22 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="C15">
         <v>100</v>
       </c>
       <c r="H15" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
       <c r="I15" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="L15" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="M15" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="N15">
         <v>12</v>
@@ -12203,7 +12553,7 @@
         <v>200</v>
       </c>
       <c r="P15" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="R15">
         <v>50</v>
@@ -12211,25 +12561,25 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="B17" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="C17">
         <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
       <c r="I17" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="L17" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="M17" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -12238,30 +12588,30 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="B18" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="C18">
         <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="I18" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="L18" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="M18" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -12270,7 +12620,7 @@
         <v>50</v>
       </c>
       <c r="P18" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="R18">
         <v>200</v>
@@ -12278,22 +12628,22 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="C19">
         <v>100</v>
       </c>
       <c r="H19" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
       <c r="I19" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="L19" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M19" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -12302,7 +12652,7 @@
         <v>50</v>
       </c>
       <c r="P19" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="R19">
         <v>100</v>
@@ -12310,22 +12660,22 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="C20">
         <v>100</v>
       </c>
       <c r="H20" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="I20" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="L20" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="M20" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -12334,7 +12684,7 @@
         <v>50</v>
       </c>
       <c r="P20" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="R20">
         <v>100</v>
@@ -12342,22 +12692,22 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="C21">
         <v>100</v>
       </c>
       <c r="H21" t="s">
-        <v>1435</v>
+        <v>1430</v>
       </c>
       <c r="I21" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="L21" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="M21" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -12366,7 +12716,7 @@
         <v>50</v>
       </c>
       <c r="P21" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="R21">
         <v>100</v>
@@ -12382,18 +12732,18 @@
         <v>122</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20" t="s">
-        <v>1388</v>
-      </c>
-      <c r="K25" s="20"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21" t="s">
+        <v>1383</v>
+      </c>
+      <c r="K25" s="21"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
@@ -12447,7 +12797,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="C27">
         <v>100</v>
@@ -12456,19 +12806,19 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="18" t="s">
-        <v>1408</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>1409</v>
+      <c r="H27" s="19" t="s">
+        <v>1403</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>1404</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="18" t="s">
-        <v>1402</v>
-      </c>
-      <c r="M27" s="18" t="s">
-        <v>1401</v>
+      <c r="L27" s="19" t="s">
+        <v>1397</v>
+      </c>
+      <c r="M27" s="19" t="s">
+        <v>1396</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -12479,31 +12829,31 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="B28" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="C28">
         <v>100</v>
       </c>
       <c r="H28" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="I28" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="L28" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="M28" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="N28">
         <v>12</v>
       </c>
       <c r="P28" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="R28">
         <v>50</v>
@@ -12511,28 +12861,28 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="C29">
         <v>100</v>
       </c>
       <c r="H29" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="I29" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="L29" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
       <c r="M29" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="N29">
         <v>12</v>
       </c>
       <c r="P29" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="R29">
         <v>50</v>
@@ -12540,28 +12890,28 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="C30">
         <v>100</v>
       </c>
       <c r="H30" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="I30" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="L30" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
       <c r="M30" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="N30">
         <v>12</v>
       </c>
       <c r="P30" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="R30">
         <v>25</v>
@@ -12569,28 +12919,28 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="C31">
         <v>100</v>
       </c>
-      <c r="H31" s="17" t="s">
-        <v>1416</v>
+      <c r="H31" s="18" t="s">
+        <v>1411</v>
       </c>
       <c r="I31" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
       <c r="L31" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="M31" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="N31">
         <v>12</v>
       </c>
       <c r="P31" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="R31">
         <v>25</v>
@@ -12598,28 +12948,28 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="C32">
         <v>100</v>
       </c>
       <c r="H32" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="I32" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="L32" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="M32" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="N32">
         <v>12</v>
       </c>
       <c r="P32" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="R32">
         <v>25</v>
@@ -12627,19 +12977,19 @@
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="C33">
         <v>100</v>
       </c>
       <c r="M33" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="N33">
         <v>12</v>
       </c>
       <c r="P33" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="R33">
         <v>25</v>
@@ -12647,45 +12997,45 @@
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="C34">
         <v>30</v>
       </c>
       <c r="H34" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="I34" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="L34" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="C35">
         <v>30</v>
       </c>
       <c r="H35" t="s">
+        <v>1385</v>
+      </c>
+      <c r="I35" t="s">
         <v>1390</v>
       </c>
-      <c r="I35" t="s">
-        <v>1395</v>
-      </c>
       <c r="L35" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="M35" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="N35">
         <v>12</v>
       </c>
       <c r="P35" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="R35">
         <v>50</v>
@@ -12693,28 +13043,28 @@
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="C36">
         <v>30</v>
       </c>
       <c r="H36" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="I36" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="L36" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="M36" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="N36">
         <v>12</v>
       </c>
       <c r="P36" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="R36">
         <v>50</v>
@@ -12722,28 +13072,28 @@
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="C37">
         <v>30</v>
       </c>
       <c r="H37" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="I37" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="L37" t="s">
-        <v>1602</v>
+        <v>1597</v>
       </c>
       <c r="M37" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="N37">
         <v>12</v>
       </c>
       <c r="P37" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="R37">
         <v>50</v>
@@ -12751,28 +13101,28 @@
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="C38">
         <v>30</v>
       </c>
       <c r="H38" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="I38" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="L38" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="M38" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="N38">
         <v>12</v>
       </c>
       <c r="P38" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="R38">
         <v>50</v>
@@ -12780,28 +13130,28 @@
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="C39">
         <v>30</v>
       </c>
       <c r="H39" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="I39" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="L39" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="M39" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="N39">
         <v>12</v>
       </c>
       <c r="P39" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="R39">
         <v>50</v>
@@ -12847,28 +13197,28 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="D3" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="K3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="L3" t="s">
         <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="N3" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12879,10 +13229,10 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="D4" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="K4">
         <v>75</v>
@@ -12891,10 +13241,10 @@
         <v>30</v>
       </c>
       <c r="M4" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="N4" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12905,10 +13255,10 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="D5" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="K5">
         <v>50</v>
@@ -12917,10 +13267,10 @@
         <v>30</v>
       </c>
       <c r="M5" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="N5" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12931,10 +13281,10 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="D6" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="K6">
         <v>30</v>
@@ -12943,10 +13293,10 @@
         <v>30</v>
       </c>
       <c r="M6" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="N6" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12957,10 +13307,10 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="D7" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="K7">
         <v>10</v>
@@ -12969,10 +13319,10 @@
         <v>30</v>
       </c>
       <c r="M7" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="N7" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12994,10 +13344,10 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="E10" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
@@ -13015,10 +13365,10 @@
         <v>28</v>
       </c>
       <c r="M10" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="N10" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13026,7 +13376,7 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="K11" t="s">
         <v>25</v>
@@ -13037,7 +13387,7 @@
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="K12" t="s">
         <v>26</v>
@@ -13048,7 +13398,7 @@
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="F13" t="s">
         <v>28</v>
@@ -13062,10 +13412,10 @@
         <v>517</v>
       </c>
       <c r="D14" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="E14" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="F14" t="s">
         <v>30</v>
@@ -13077,10 +13427,10 @@
         <v>28</v>
       </c>
       <c r="M14" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="N14" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13088,10 +13438,10 @@
         <v>518</v>
       </c>
       <c r="D15" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="E15" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="F15" t="s">
         <v>30</v>
@@ -13103,10 +13453,10 @@
         <v>28</v>
       </c>
       <c r="M15" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="N15" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13114,10 +13464,10 @@
         <v>519</v>
       </c>
       <c r="D16" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="E16" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="F16" t="s">
         <v>30</v>
@@ -13129,10 +13479,10 @@
         <v>28</v>
       </c>
       <c r="M16" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="N16" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13140,10 +13490,10 @@
         <v>516</v>
       </c>
       <c r="D17" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="E17" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="F17" t="s">
         <v>30</v>
@@ -13155,10 +13505,10 @@
         <v>28</v>
       </c>
       <c r="M17" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="N17" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13183,10 +13533,10 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="E20" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="J20" t="s">
         <v>48</v>
@@ -13198,10 +13548,10 @@
         <v>31</v>
       </c>
       <c r="M20" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="N20" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13228,10 +13578,10 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="E23" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="K23" t="s">
         <v>27</v>
@@ -13242,10 +13592,10 @@
         <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="E24" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="K24" t="s">
         <v>517</v>
@@ -13254,10 +13604,10 @@
         <v>31</v>
       </c>
       <c r="M24" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="N24" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13268,10 +13618,10 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="E25" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="K25" t="s">
         <v>518</v>
@@ -13280,10 +13630,10 @@
         <v>31</v>
       </c>
       <c r="M25" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="N25" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13294,10 +13644,10 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="E26" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="K26" t="s">
         <v>519</v>
@@ -13306,10 +13656,10 @@
         <v>31</v>
       </c>
       <c r="M26" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="N26" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13320,10 +13670,10 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="E27" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="K27" t="s">
         <v>516</v>
@@ -13332,10 +13682,10 @@
         <v>31</v>
       </c>
       <c r="M27" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="N27" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13357,10 +13707,10 @@
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="E30" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="F30" t="s">
         <v>30</v>
@@ -13375,10 +13725,10 @@
         <v>31</v>
       </c>
       <c r="M30" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="N30" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="O30" t="s">
         <v>792</v>
@@ -13389,10 +13739,10 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="E31" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="K31" t="s">
         <v>25</v>
@@ -13403,10 +13753,10 @@
         <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="E32" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="K32" t="s">
         <v>26</v>
@@ -13417,10 +13767,10 @@
         <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="E33" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="F33" t="s">
         <v>28</v>
@@ -13437,10 +13787,10 @@
         <v>517</v>
       </c>
       <c r="D34" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="E34" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="K34" t="s">
         <v>517</v>
@@ -13454,10 +13804,10 @@
         <v>518</v>
       </c>
       <c r="D35" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="E35" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="F35" t="s">
         <v>30</v>
@@ -13469,10 +13819,10 @@
         <v>31</v>
       </c>
       <c r="M35" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="N35" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13480,10 +13830,10 @@
         <v>519</v>
       </c>
       <c r="D36" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="E36" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="F36" t="s">
         <v>30</v>
@@ -13495,10 +13845,10 @@
         <v>31</v>
       </c>
       <c r="M36" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="N36" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13506,10 +13856,10 @@
         <v>516</v>
       </c>
       <c r="D37" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="E37" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="F37" t="s">
         <v>30</v>
@@ -13521,10 +13871,10 @@
         <v>31</v>
       </c>
       <c r="M37" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="N37" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13543,10 +13893,10 @@
         <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="E41" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="F41" t="s">
         <v>31</v>
@@ -13564,13 +13914,13 @@
         <v>30</v>
       </c>
       <c r="M41" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="N41" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="O41" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13578,10 +13928,10 @@
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="E42" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="K42" t="s">
         <v>25</v>
@@ -13592,10 +13942,10 @@
         <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="E43" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="K43" t="s">
         <v>26</v>
@@ -13606,10 +13956,10 @@
         <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="E44" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="F44" t="s">
         <v>31</v>
@@ -13626,10 +13976,10 @@
         <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="E45" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="K45" t="s">
         <v>37</v>
@@ -13638,10 +13988,10 @@
         <v>30</v>
       </c>
       <c r="M45" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="N45" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13649,10 +13999,10 @@
         <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="E46" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="F46" t="s">
         <v>31</v>
@@ -13664,10 +14014,10 @@
         <v>30</v>
       </c>
       <c r="M46" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="N46" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13675,10 +14025,10 @@
         <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="E47" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="F47" t="s">
         <v>31</v>
@@ -13690,10 +14040,10 @@
         <v>30</v>
       </c>
       <c r="M47" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="N47" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13701,10 +14051,10 @@
         <v>437</v>
       </c>
       <c r="D48" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="E48" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="F48" t="s">
         <v>31</v>
@@ -13716,10 +14066,10 @@
         <v>30</v>
       </c>
       <c r="M48" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="N48" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -13741,10 +14091,10 @@
         <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="E51" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="F51" t="s">
         <v>30</v>
@@ -13761,10 +14111,10 @@
         <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="E52" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="K52" t="s">
         <v>25</v>
@@ -13775,10 +14125,10 @@
         <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="E53" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="K53" t="s">
         <v>26</v>
@@ -13789,10 +14139,10 @@
         <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="E54" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="F54" t="s">
         <v>30</v>
@@ -13806,10 +14156,10 @@
         <v>37</v>
       </c>
       <c r="D55" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="E55" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="K55" t="s">
         <v>37</v>
@@ -13820,10 +14170,10 @@
         <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="E56" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F56" t="s">
         <v>30</v>
@@ -13837,10 +14187,10 @@
         <v>44</v>
       </c>
       <c r="D57" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="E57" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F57" t="s">
         <v>30</v>
@@ -13854,10 +14204,10 @@
         <v>437</v>
       </c>
       <c r="D58" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="E58" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="F58" t="s">
         <v>30</v>
@@ -13884,14 +14234,14 @@
       <c r="B61" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D61" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="E61" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="F61" t="s">
         <v>31</v>
@@ -13908,10 +14258,10 @@
         <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="E62" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="K62" t="s">
         <v>25</v>
@@ -13922,10 +14272,10 @@
         <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="E63" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="F63" t="s">
         <v>31</v>
@@ -13938,14 +14288,14 @@
       <c r="B64" t="s">
         <v>27</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="E64" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="F64" t="s">
         <v>31</v>
@@ -13959,10 +14309,10 @@
         <v>37</v>
       </c>
       <c r="D65" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="E65" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
       <c r="F65" t="s">
         <v>31</v>
@@ -13976,10 +14326,10 @@
         <v>38</v>
       </c>
       <c r="D66" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="E66" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="F66" t="s">
         <v>31</v>
@@ -13993,10 +14343,10 @@
         <v>44</v>
       </c>
       <c r="D67" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="E67" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="F67" t="s">
         <v>31</v>
@@ -14010,10 +14360,10 @@
         <v>437</v>
       </c>
       <c r="D68" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="E68" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="F68" t="s">
         <v>31</v>
@@ -14024,13 +14374,13 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="G70" t="s">
         <v>280</v>
       </c>
       <c r="J70" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="N70" t="s">
         <v>281</v>
@@ -14044,10 +14394,10 @@
         <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="E71" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="F71" t="s">
         <v>30</v>
@@ -14067,10 +14417,10 @@
         <v>25</v>
       </c>
       <c r="D72" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="E72" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="K72" t="s">
         <v>25</v>
@@ -14081,10 +14431,10 @@
         <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="E73" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="K73" t="s">
         <v>26</v>
@@ -14095,10 +14445,10 @@
         <v>27</v>
       </c>
       <c r="D74" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="E74" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="F74" t="s">
         <v>28</v>
@@ -14112,10 +14462,10 @@
         <v>37</v>
       </c>
       <c r="D75" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="E75" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="K75" t="s">
         <v>37</v>
@@ -14126,10 +14476,10 @@
         <v>38</v>
       </c>
       <c r="D76" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="E76" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="F76" t="s">
         <v>30</v>
@@ -14146,10 +14496,10 @@
         <v>44</v>
       </c>
       <c r="D77" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="E77" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="F77" t="s">
         <v>30</v>
@@ -14169,7 +14519,7 @@
         <v>830</v>
       </c>
       <c r="E78" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="F78" t="s">
         <v>30</v>
@@ -14183,10 +14533,10 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="J80" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="N80" t="s">
         <v>278</v>
@@ -14199,14 +14549,14 @@
       <c r="B81" t="s">
         <v>24</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D81" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="E81" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="F81" t="s">
         <v>31</v>
@@ -14224,10 +14574,10 @@
         <v>31</v>
       </c>
       <c r="M81" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="N81" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -14235,10 +14585,10 @@
         <v>25</v>
       </c>
       <c r="D82" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="E82" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="K82" t="s">
         <v>25</v>
@@ -14249,10 +14599,10 @@
         <v>26</v>
       </c>
       <c r="D83" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="E83" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="K83" t="s">
         <v>26</v>
@@ -14262,12 +14612,12 @@
       <c r="B84" t="s">
         <v>27</v>
       </c>
-      <c r="C84" s="14"/>
+      <c r="C84" s="15"/>
       <c r="D84" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="E84" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="F84" t="s">
         <v>30</v>
@@ -14279,24 +14629,24 @@
         <v>30</v>
       </c>
       <c r="M84" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="N84" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="14" t="s">
-        <v>898</v>
+      <c r="C85" s="15" t="s">
+        <v>893</v>
       </c>
       <c r="D85" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="E85" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="F85" t="s">
         <v>31</v>
@@ -14308,24 +14658,24 @@
         <v>31</v>
       </c>
       <c r="M85" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="N85" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" t="s">
         <v>38</v>
       </c>
-      <c r="C86" s="14" t="s">
-        <v>898</v>
+      <c r="C86" s="15" t="s">
+        <v>893</v>
       </c>
       <c r="D86" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="E86" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="F86" t="s">
         <v>31</v>
@@ -14337,24 +14687,24 @@
         <v>31</v>
       </c>
       <c r="M86" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="N86" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" t="s">
         <v>44</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C87" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D87" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="E87" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="F87" t="s">
         <v>31</v>
@@ -14367,14 +14717,14 @@
       <c r="B88" t="s">
         <v>437</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C88" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D88" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="E88" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="F88" t="s">
         <v>31</v>
@@ -14407,12 +14757,12 @@
         <v>720</v>
       </c>
       <c r="K1" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -14421,13 +14771,13 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="E3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="I3" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="J3">
         <v>100</v>
@@ -14436,10 +14786,10 @@
         <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="M3" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -14450,10 +14800,10 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="E4" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="J4">
         <v>75</v>
@@ -14462,10 +14812,10 @@
         <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="M4" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -14476,10 +14826,10 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="E5" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="J5">
         <v>50</v>
@@ -14488,10 +14838,10 @@
         <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="M5" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -14502,10 +14852,10 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="E6" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="J6">
         <v>30</v>
@@ -14514,10 +14864,10 @@
         <v>31</v>
       </c>
       <c r="L6" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="M6" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -14528,10 +14878,10 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="E7" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="J7">
         <v>10</v>
@@ -14540,10 +14890,10 @@
         <v>31</v>
       </c>
       <c r="L7" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="M7" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -14562,10 +14912,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="E10" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="F10" t="s">
         <v>285</v>
@@ -14582,10 +14932,10 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="E11" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="I11" t="s">
         <v>48</v>
@@ -14597,10 +14947,10 @@
         <v>31</v>
       </c>
       <c r="L11" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="M11" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -14608,19 +14958,19 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="E12" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="J12" t="s">
         <v>25</v>
       </c>
       <c r="L12" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="M12" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -14631,19 +14981,19 @@
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="E13" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="J13" t="s">
         <v>26</v>
       </c>
       <c r="L13" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="M13" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -14654,19 +15004,19 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="E14" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="J14" t="s">
         <v>27</v>
       </c>
       <c r="L14" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="M14" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -14674,10 +15024,10 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="E15" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="J15" t="s">
         <v>37</v>
@@ -14686,10 +15036,10 @@
         <v>31</v>
       </c>
       <c r="L15" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="M15" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -14700,10 +15050,10 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="E16" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="J16" t="s">
         <v>38</v>
@@ -14712,10 +15062,10 @@
         <v>31</v>
       </c>
       <c r="L16" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="M16" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14726,10 +15076,10 @@
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="E17" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="J17" t="s">
         <v>44</v>
@@ -14738,10 +15088,10 @@
         <v>31</v>
       </c>
       <c r="L17" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="M17" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14752,10 +15102,10 @@
         <v>31</v>
       </c>
       <c r="L18" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="M18" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14777,10 +15127,10 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="E20" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="I20" t="s">
         <v>288</v>
@@ -14791,10 +15141,10 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="E21" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="I21" t="s">
         <v>47</v>
@@ -14806,10 +15156,10 @@
         <v>31</v>
       </c>
       <c r="L21" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="M21" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N21" t="s">
         <v>283</v>
@@ -14820,19 +15170,19 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="E22" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="J22" t="s">
         <v>25</v>
       </c>
       <c r="L22" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="M22" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14843,19 +15193,19 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="E23" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="J23" t="s">
         <v>26</v>
       </c>
       <c r="L23" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="M23" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14866,10 +15216,10 @@
         <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="E24" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="J24" t="s">
         <v>27</v>
@@ -14878,10 +15228,10 @@
         <v>31</v>
       </c>
       <c r="L24" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="M24" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14892,10 +15242,10 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="E25" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="J25" t="s">
         <v>37</v>
@@ -14904,10 +15254,10 @@
         <v>31</v>
       </c>
       <c r="L25" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="M25" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14918,10 +15268,10 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="E26" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="J26" t="s">
         <v>38</v>
@@ -14930,10 +15280,10 @@
         <v>28</v>
       </c>
       <c r="L26" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="M26" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14941,10 +15291,10 @@
         <v>437</v>
       </c>
       <c r="D27" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="E27" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="J27" t="s">
         <v>44</v>
@@ -14953,10 +15303,10 @@
         <v>31</v>
       </c>
       <c r="L27" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="M27" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14964,10 +15314,10 @@
         <v>437</v>
       </c>
       <c r="L28" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="M28" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14992,10 +15342,10 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="E31" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="F31" t="s">
         <v>844</v>
@@ -15010,10 +15360,10 @@
         <v>28</v>
       </c>
       <c r="L31" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="M31" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -15021,19 +15371,19 @@
         <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="E32" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="J32" t="s">
         <v>25</v>
       </c>
       <c r="L32" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="M32" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -15041,19 +15391,19 @@
         <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="E33" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="J33" t="s">
         <v>26</v>
       </c>
       <c r="L33" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="M33" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -15064,19 +15414,19 @@
         <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="E34" t="s">
-        <v>929</v>
-      </c>
-      <c r="J34" s="14" t="s">
+        <v>924</v>
+      </c>
+      <c r="J34" s="15" t="s">
         <v>27</v>
       </c>
       <c r="L34" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="M34" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -15090,10 +15440,10 @@
         <v>28</v>
       </c>
       <c r="L35" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="M35" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -15104,10 +15454,10 @@
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="E36" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="J36" t="s">
         <v>518</v>
@@ -15116,10 +15466,10 @@
         <v>28</v>
       </c>
       <c r="L36" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M36" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -15130,10 +15480,10 @@
         <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="E37" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="J37" t="s">
         <v>519</v>
@@ -15142,10 +15492,10 @@
         <v>28</v>
       </c>
       <c r="L37" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="M37" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -15156,10 +15506,10 @@
         <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="E38" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="J38" t="s">
         <v>516</v>
@@ -15168,10 +15518,10 @@
         <v>28</v>
       </c>
       <c r="L38" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="M38" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -15196,10 +15546,10 @@
         <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="E42" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="F42" t="s">
         <v>674</v>
@@ -15214,10 +15564,10 @@
         <v>30</v>
       </c>
       <c r="L42" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="M42" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -15225,10 +15575,10 @@
         <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="E43" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="J43" t="s">
         <v>25</v>
@@ -15237,7 +15587,7 @@
         <v>781</v>
       </c>
       <c r="M43" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -15245,19 +15595,19 @@
         <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="E44" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="J44" t="s">
         <v>26</v>
       </c>
       <c r="L44" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="M44" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -15268,19 +15618,19 @@
         <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="E45" t="s">
-        <v>935</v>
-      </c>
-      <c r="J45" s="14" t="s">
+        <v>930</v>
+      </c>
+      <c r="J45" s="15" t="s">
         <v>27</v>
       </c>
       <c r="L45" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="M45" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -15294,10 +15644,10 @@
         <v>30</v>
       </c>
       <c r="L46" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="M46" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -15308,10 +15658,10 @@
         <v>28</v>
       </c>
       <c r="D47" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="E47" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="J47" t="s">
         <v>38</v>
@@ -15320,10 +15670,10 @@
         <v>30</v>
       </c>
       <c r="L47" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="M47" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -15334,10 +15684,10 @@
         <v>28</v>
       </c>
       <c r="D48" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="E48" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="J48" t="s">
         <v>44</v>
@@ -15346,10 +15696,10 @@
         <v>30</v>
       </c>
       <c r="L48" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="M48" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15360,10 +15710,10 @@
         <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="E49" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="J49" t="s">
         <v>437</v>
@@ -15372,18 +15722,18 @@
         <v>30</v>
       </c>
       <c r="L49" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="M49" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="I51" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15397,10 +15747,10 @@
         <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="E52" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="F52" t="s">
         <v>285</v>
@@ -15415,10 +15765,10 @@
         <v>28</v>
       </c>
       <c r="L52" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="M52" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="N52" t="s">
         <v>281</v>
@@ -15429,19 +15779,19 @@
         <v>25</v>
       </c>
       <c r="D53" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="E53" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="J53" t="s">
         <v>25</v>
       </c>
       <c r="L53" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="M53" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15449,19 +15799,19 @@
         <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="E54" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="J54" t="s">
         <v>26</v>
       </c>
       <c r="L54" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="M54" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15472,10 +15822,10 @@
         <v>28</v>
       </c>
       <c r="D55" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="E55" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="J55" t="s">
         <v>27</v>
@@ -15484,10 +15834,10 @@
         <v>28</v>
       </c>
       <c r="L55" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="M55" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15501,10 +15851,10 @@
         <v>28</v>
       </c>
       <c r="L56" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="M56" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15515,10 +15865,10 @@
         <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="E57" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="J57" t="s">
         <v>38</v>
@@ -15527,10 +15877,10 @@
         <v>28</v>
       </c>
       <c r="L57" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="M57" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15541,10 +15891,10 @@
         <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="E58" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="J58" t="s">
         <v>44</v>
@@ -15553,10 +15903,10 @@
         <v>28</v>
       </c>
       <c r="L58" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="M58" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15567,10 +15917,10 @@
         <v>30</v>
       </c>
       <c r="D59" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="E59" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="J59" t="s">
         <v>437</v>
@@ -15579,18 +15929,18 @@
         <v>28</v>
       </c>
       <c r="L59" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="M59" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="I61" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15604,13 +15954,13 @@
         <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="E62" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="F62" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="I62" t="s">
         <v>47</v>
@@ -15622,10 +15972,10 @@
         <v>30</v>
       </c>
       <c r="L62" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="M62" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -15633,19 +15983,19 @@
         <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="E63" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="J63" t="s">
         <v>25</v>
       </c>
       <c r="L63" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="M63" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="N63" t="s">
         <v>278</v>
@@ -15656,22 +16006,22 @@
         <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="E64" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="F64" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="J64" t="s">
         <v>26</v>
       </c>
       <c r="L64" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="M64" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -15682,10 +16032,10 @@
         <v>31</v>
       </c>
       <c r="D65" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="E65" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="J65" t="s">
         <v>27</v>
@@ -15694,10 +16044,10 @@
         <v>28</v>
       </c>
       <c r="L65" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="M65" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -15705,10 +16055,10 @@
         <v>517</v>
       </c>
       <c r="D66" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="E66" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="J66" t="s">
         <v>517</v>
@@ -15717,10 +16067,10 @@
         <v>30</v>
       </c>
       <c r="L66" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="M66" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -15731,10 +16081,10 @@
         <v>30</v>
       </c>
       <c r="D67" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="E67" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="J67" t="s">
         <v>518</v>
@@ -15743,10 +16093,10 @@
         <v>30</v>
       </c>
       <c r="L67" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="M67" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -15757,10 +16107,10 @@
         <v>31</v>
       </c>
       <c r="D68" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="E68" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="J68" t="s">
         <v>519</v>
@@ -15769,10 +16119,10 @@
         <v>30</v>
       </c>
       <c r="L68" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="M68" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -15783,10 +16133,10 @@
         <v>31</v>
       </c>
       <c r="D69" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="E69" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="J69" t="s">
         <v>516</v>
@@ -15795,10 +16145,10 @@
         <v>30</v>
       </c>
       <c r="L69" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="M69" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -15817,10 +16167,10 @@
         <v>31</v>
       </c>
       <c r="D72" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="E72" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="F72" t="s">
         <v>653</v>
@@ -15831,7 +16181,7 @@
         <v>25</v>
       </c>
       <c r="E73" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -15839,7 +16189,7 @@
         <v>26</v>
       </c>
       <c r="E74" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -15847,10 +16197,10 @@
         <v>27</v>
       </c>
       <c r="D75" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="E75" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -15858,7 +16208,7 @@
         <v>517</v>
       </c>
       <c r="E76" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -15869,10 +16219,10 @@
         <v>31</v>
       </c>
       <c r="D77" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="E77" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -15883,10 +16233,10 @@
         <v>31</v>
       </c>
       <c r="D78" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="E78" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -15897,10 +16247,10 @@
         <v>31</v>
       </c>
       <c r="D79" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="E79" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -15922,10 +16272,10 @@
         <v>28</v>
       </c>
       <c r="D82" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="E82" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -15933,7 +16283,7 @@
         <v>25</v>
       </c>
       <c r="E83" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -15941,7 +16291,7 @@
         <v>26</v>
       </c>
       <c r="E84" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -15952,10 +16302,10 @@
         <v>28</v>
       </c>
       <c r="D85" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="E85" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -15966,10 +16316,10 @@
         <v>28</v>
       </c>
       <c r="D86" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="E86" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -15980,10 +16330,10 @@
         <v>28</v>
       </c>
       <c r="D87" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="E87" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -15994,10 +16344,10 @@
         <v>28</v>
       </c>
       <c r="D88" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="E88" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -16008,10 +16358,10 @@
         <v>28</v>
       </c>
       <c r="D89" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="E89" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
     </row>
   </sheetData>
@@ -16046,26 +16396,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="E2" s="1"/>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21" t="s">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="21"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1" t="s">
@@ -16213,10 +16563,10 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D8" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -16227,10 +16577,10 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D9" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -16241,10 +16591,10 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D10" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -17637,7 +17987,7 @@
         <v>28</v>
       </c>
       <c r="D128" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="E128" t="s">
         <v>183</v>
@@ -18549,15 +18899,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="C1" s="21"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="21"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
@@ -18609,10 +18959,10 @@
         <v>335</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="D4" s="12" t="e">
         <f t="shared" ref="D4:D14" si="0">2*B4*C4/(B4+C4)</f>
@@ -18878,11 +19228,11 @@
     <col min="13" max="14" width="10.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="16" customFormat="1" ht="23.1" x14ac:dyDescent="0.85">
-      <c r="C1" s="16" t="s">
+    <row r="1" spans="1:19" s="17" customFormat="1" ht="23.1" x14ac:dyDescent="0.85">
+      <c r="C1" s="17" t="s">
         <v>632</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="17" t="s">
         <v>635</v>
       </c>
     </row>
@@ -18916,7 +19266,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="B4" t="s">
         <v>842</v>
@@ -18925,10 +19275,10 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="E4" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -18939,10 +19289,10 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="E5" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -19352,8 +19702,8 @@
       <c r="A27" t="s">
         <v>650</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14" t="s">
+      <c r="D27" s="15"/>
+      <c r="E27" s="15" t="s">
         <v>786</v>
       </c>
     </row>
@@ -19367,8 +19717,8 @@
       <c r="C28" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
       <c r="F28" t="s">
         <v>634</v>
       </c>
@@ -19417,10 +19767,10 @@
       <c r="C31" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="15" t="s">
         <v>784</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="15" t="s">
         <v>785</v>
       </c>
       <c r="K31" t="s">
@@ -19452,7 +19802,7 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="E33" t="s">
         <v>538</v>
@@ -19478,7 +19828,7 @@
         <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="E34" t="s">
         <v>861</v>
@@ -19504,7 +19854,7 @@
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="E35" t="s">
         <v>862</v>
@@ -19640,10 +19990,10 @@
         <v>28</v>
       </c>
       <c r="D43" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="E43" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="K43" t="s">
         <v>27</v>
@@ -19669,7 +20019,7 @@
         <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="E44" t="s">
         <v>824</v>
@@ -19857,10 +20207,10 @@
         <v>28</v>
       </c>
       <c r="M55" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="N55" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -19909,10 +20259,10 @@
         <v>31</v>
       </c>
       <c r="M57" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="N57" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -20046,10 +20396,10 @@
         <v>31</v>
       </c>
       <c r="M65" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="N65" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -20123,7 +20473,7 @@
         <v>850</v>
       </c>
       <c r="E71" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F71" t="s">
         <v>844</v>
@@ -20171,7 +20521,7 @@
         <v>858</v>
       </c>
       <c r="E74" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="K74" t="s">
         <v>27</v>
@@ -20197,7 +20547,7 @@
         <v>859</v>
       </c>
       <c r="E75" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="K75" t="s">
         <v>517</v>
@@ -20220,10 +20570,10 @@
         <v>30</v>
       </c>
       <c r="D76" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E76" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F76" t="s">
         <v>714</v>
@@ -20249,10 +20599,10 @@
         <v>30</v>
       </c>
       <c r="D77" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E77" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="K77" t="s">
         <v>682</v>
@@ -20275,10 +20625,10 @@
         <v>30</v>
       </c>
       <c r="D78" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E78" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="K78" t="s">
         <v>683</v>
@@ -20371,7 +20721,7 @@
       <c r="E84" t="s">
         <v>762</v>
       </c>
-      <c r="F84" s="14"/>
+      <c r="F84" s="15"/>
       <c r="K84" t="s">
         <v>27</v>
       </c>

--- a/results_ver2.xlsx
+++ b/results_ver2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GitHub\Transfer_Learning_HAR\Create-Synthetic-IMU-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849055EE-FC34-4DD5-B554-A53C3A2C2BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AA277B-DEE9-48EA-9AAF-D5A32314957F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{12BA48A7-0233-4943-8246-0FE27207722F}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3542" uniqueCount="1818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="1853">
   <si>
     <t>Validation set</t>
   </si>
@@ -3075,6 +3075,9 @@
     <t>76.80+0,003</t>
   </si>
   <si>
+    <t>71.10+0.02</t>
+  </si>
+  <si>
     <t>73,51+0,002</t>
   </si>
   <si>
@@ -5497,6 +5500,108 @@
   </si>
   <si>
     <t>85.95+0.01</t>
+  </si>
+  <si>
+    <t>90.91+0.01</t>
+  </si>
+  <si>
+    <t>90.34+0.01</t>
+  </si>
+  <si>
+    <t>86.98+0.02</t>
+  </si>
+  <si>
+    <t>89.66+0.01</t>
+  </si>
+  <si>
+    <t>90.73+0.01</t>
+  </si>
+  <si>
+    <t>89.89+0.02</t>
+  </si>
+  <si>
+    <t>91.11+0.02</t>
+  </si>
+  <si>
+    <t>90.71+0.02</t>
+  </si>
+  <si>
+    <t>91.05+0.02</t>
+  </si>
+  <si>
+    <t>90.37+0.01</t>
+  </si>
+  <si>
+    <t>90.87+0.01</t>
+  </si>
+  <si>
+    <t>89.01+0.02</t>
+  </si>
+  <si>
+    <t>89.76+0.02</t>
+  </si>
+  <si>
+    <t>87.12+0.03</t>
+  </si>
+  <si>
+    <t>88.15+0.02</t>
+  </si>
+  <si>
+    <t>89.89+0.03</t>
+  </si>
+  <si>
+    <t>86.23+0.02</t>
+  </si>
+  <si>
+    <t>87.15+0.02</t>
+  </si>
+  <si>
+    <t>82.13+0.02</t>
+  </si>
+  <si>
+    <t>83.11+0.02</t>
+  </si>
+  <si>
+    <t>89.26+0.01</t>
+  </si>
+  <si>
+    <t>89.70+0.02</t>
+  </si>
+  <si>
+    <t>88.13+0.02</t>
+  </si>
+  <si>
+    <t>85.34+0.02</t>
+  </si>
+  <si>
+    <t>89.22+0.02</t>
+  </si>
+  <si>
+    <t>88.31+0.01</t>
+  </si>
+  <si>
+    <t>87.24+0.02</t>
+  </si>
+  <si>
+    <t>88.29+0.02</t>
+  </si>
+  <si>
+    <t>89.31+0.02</t>
+  </si>
+  <si>
+    <t>86.48+0.02</t>
+  </si>
+  <si>
+    <t>86.59+0.01</t>
+  </si>
+  <si>
+    <t>69.29+0.02</t>
+  </si>
+  <si>
+    <t>50.39+0.02</t>
+  </si>
+  <si>
+    <t>54.67+0.02</t>
   </si>
 </sst>
 </file>
@@ -5999,10 +6104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF442EC-F269-48B6-8B87-B8B625C6CEEA}">
-  <dimension ref="A1:R207"/>
+  <dimension ref="A1:R217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="E205" sqref="E205"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="J217" sqref="J217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6157,10 +6262,10 @@
         <v>132</v>
       </c>
       <c r="J8" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="K8" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -6172,7 +6277,7 @@
         <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="Q8">
         <v>100</v>
@@ -6204,7 +6309,7 @@
         <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="Q9">
         <v>100</v>
@@ -6218,10 +6323,10 @@
         <v>134</v>
       </c>
       <c r="J10" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="K10" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="L10">
         <v>100</v>
@@ -6233,7 +6338,7 @@
         <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="Q10">
         <v>100</v>
@@ -6262,7 +6367,7 @@
         <v>100</v>
       </c>
       <c r="O11" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="Q11">
         <v>100</v>
@@ -6276,10 +6381,10 @@
         <v>413</v>
       </c>
       <c r="J12" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K12" t="s">
         <v>1338</v>
-      </c>
-      <c r="K12" t="s">
-        <v>1337</v>
       </c>
       <c r="L12">
         <v>100</v>
@@ -6291,7 +6396,7 @@
         <v>100</v>
       </c>
       <c r="O12" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="Q12">
         <v>100</v>
@@ -6302,13 +6407,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="J14" t="s">
+        <v>1347</v>
+      </c>
+      <c r="K14" t="s">
         <v>1346</v>
-      </c>
-      <c r="K14" t="s">
-        <v>1345</v>
       </c>
       <c r="L14">
         <v>100</v>
@@ -6320,7 +6425,7 @@
         <v>10</v>
       </c>
       <c r="O14" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="Q14">
         <v>200</v>
@@ -6331,13 +6436,13 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="J15" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="K15" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="L15">
         <v>100</v>
@@ -6349,7 +6454,7 @@
         <v>10</v>
       </c>
       <c r="O15" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="Q15">
         <v>200</v>
@@ -6360,10 +6465,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="J16" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="K16" t="s">
         <v>900</v>
@@ -6378,7 +6483,7 @@
         <v>10</v>
       </c>
       <c r="O16" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="Q16">
         <v>200</v>
@@ -6389,13 +6494,13 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="J17" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="K17" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="L17">
         <v>100</v>
@@ -6407,7 +6512,7 @@
         <v>10</v>
       </c>
       <c r="O17" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="Q17">
         <v>200</v>
@@ -6418,13 +6523,13 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="J18" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="K18" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="L18">
         <v>100</v>
@@ -6436,7 +6541,7 @@
         <v>10</v>
       </c>
       <c r="O18" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="Q18">
         <v>200</v>
@@ -6447,13 +6552,13 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="J20" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K20" t="s">
         <v>1031</v>
-      </c>
-      <c r="K20" t="s">
-        <v>1030</v>
       </c>
       <c r="L20">
         <v>100</v>
@@ -6465,7 +6570,7 @@
         <v>35</v>
       </c>
       <c r="O20" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="Q20">
         <v>200</v>
@@ -6476,13 +6581,13 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="J21" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K21" t="s">
         <v>1033</v>
-      </c>
-      <c r="K21" t="s">
-        <v>1032</v>
       </c>
       <c r="L21">
         <v>100</v>
@@ -6494,7 +6599,7 @@
         <v>35</v>
       </c>
       <c r="O21" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="Q21">
         <v>200</v>
@@ -6505,13 +6610,13 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="J22" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K22" t="s">
         <v>1035</v>
-      </c>
-      <c r="K22" t="s">
-        <v>1034</v>
       </c>
       <c r="L22">
         <v>100</v>
@@ -6523,7 +6628,7 @@
         <v>35</v>
       </c>
       <c r="O22" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="Q22">
         <v>200</v>
@@ -6534,13 +6639,13 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="J23" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K23" t="s">
         <v>1037</v>
-      </c>
-      <c r="K23" t="s">
-        <v>1036</v>
       </c>
       <c r="L23">
         <v>100</v>
@@ -6552,7 +6657,7 @@
         <v>35</v>
       </c>
       <c r="O23" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="Q23">
         <v>200</v>
@@ -6563,13 +6668,13 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="J24" t="s">
+        <v>1040</v>
+      </c>
+      <c r="K24" t="s">
         <v>1039</v>
-      </c>
-      <c r="K24" t="s">
-        <v>1038</v>
       </c>
       <c r="L24">
         <v>100</v>
@@ -6581,7 +6686,7 @@
         <v>35</v>
       </c>
       <c r="O24" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="Q24">
         <v>200</v>
@@ -6592,13 +6697,13 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="J26" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="K26" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="L26">
         <v>24</v>
@@ -6610,7 +6715,7 @@
         <v>100</v>
       </c>
       <c r="O26" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="Q26">
         <v>200</v>
@@ -6621,13 +6726,13 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="J27" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="K27" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="L27">
         <v>24</v>
@@ -6639,7 +6744,7 @@
         <v>100</v>
       </c>
       <c r="O27" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="Q27">
         <v>200</v>
@@ -6650,13 +6755,13 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="J28" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="K28" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="L28">
         <v>24</v>
@@ -6668,7 +6773,7 @@
         <v>100</v>
       </c>
       <c r="O28" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="Q28">
         <v>200</v>
@@ -6679,13 +6784,13 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="J29" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="K29" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="L29">
         <v>24</v>
@@ -6697,7 +6802,7 @@
         <v>100</v>
       </c>
       <c r="O29" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="Q29">
         <v>200</v>
@@ -6714,7 +6819,7 @@
         <v>422</v>
       </c>
       <c r="K30" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="L30">
         <v>24</v>
@@ -6726,7 +6831,7 @@
         <v>100</v>
       </c>
       <c r="O30" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="Q30">
         <v>200</v>
@@ -6737,13 +6842,13 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="J32" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="K32" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="L32">
         <v>24</v>
@@ -6755,7 +6860,7 @@
         <v>104</v>
       </c>
       <c r="O32" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="Q32">
         <v>200</v>
@@ -6766,13 +6871,13 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="J33" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="K33" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="L33">
         <v>24</v>
@@ -6784,7 +6889,7 @@
         <v>104</v>
       </c>
       <c r="O33" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="Q33">
         <v>200</v>
@@ -6798,10 +6903,10 @@
         <v>568</v>
       </c>
       <c r="J34" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="K34" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="L34">
         <v>24</v>
@@ -6813,7 +6918,7 @@
         <v>104</v>
       </c>
       <c r="O34" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="Q34">
         <v>200</v>
@@ -6827,10 +6932,10 @@
         <v>569</v>
       </c>
       <c r="J35" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="K35" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="L35">
         <v>24</v>
@@ -6842,7 +6947,7 @@
         <v>104</v>
       </c>
       <c r="O35" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="Q35">
         <v>200</v>
@@ -6859,7 +6964,7 @@
         <v>753</v>
       </c>
       <c r="K36" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="L36">
         <v>24</v>
@@ -6871,7 +6976,7 @@
         <v>104</v>
       </c>
       <c r="O36" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="Q36">
         <v>200</v>
@@ -6966,10 +7071,10 @@
         <v>386</v>
       </c>
       <c r="I41" t="s">
+        <v>1387</v>
+      </c>
+      <c r="J41" t="s">
         <v>1386</v>
-      </c>
-      <c r="J41" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -7003,7 +7108,7 @@
         <v>32</v>
       </c>
       <c r="E43" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="I43" t="s">
         <v>39</v>
@@ -7026,10 +7131,10 @@
         <v>50</v>
       </c>
       <c r="I44" t="s">
+        <v>1389</v>
+      </c>
+      <c r="J44" t="s">
         <v>1388</v>
-      </c>
-      <c r="J44" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -7046,10 +7151,10 @@
         <v>630</v>
       </c>
       <c r="I45" t="s">
+        <v>1391</v>
+      </c>
+      <c r="J45" t="s">
         <v>1390</v>
-      </c>
-      <c r="J45" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -7162,7 +7267,7 @@
         <v>297</v>
       </c>
       <c r="E53" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="I53" t="s">
         <v>57</v>
@@ -7205,10 +7310,10 @@
         <v>631</v>
       </c>
       <c r="I55" t="s">
+        <v>1393</v>
+      </c>
+      <c r="J55" t="s">
         <v>1392</v>
-      </c>
-      <c r="J55" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7225,10 +7330,10 @@
         <v>628</v>
       </c>
       <c r="I56" t="s">
+        <v>1395</v>
+      </c>
+      <c r="J56" t="s">
         <v>1394</v>
-      </c>
-      <c r="J56" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7262,10 +7367,10 @@
         <v>744</v>
       </c>
       <c r="I59" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="J59" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7273,16 +7378,16 @@
         <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="E60" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="I60" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="J60" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7290,16 +7395,16 @@
         <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="E61" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="I61" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="J61" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7316,10 +7421,10 @@
         <v>467</v>
       </c>
       <c r="I62" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J62" t="s">
         <v>1458</v>
-      </c>
-      <c r="J62" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7336,10 +7441,10 @@
         <v>472</v>
       </c>
       <c r="I63" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="J63" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7356,10 +7461,10 @@
         <v>474</v>
       </c>
       <c r="I64" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="J64" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7376,10 +7481,10 @@
         <v>476</v>
       </c>
       <c r="I65" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="J65" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7390,7 +7495,7 @@
         <v>28</v>
       </c>
       <c r="D66" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="E66" t="s">
         <v>470</v>
@@ -7424,10 +7529,10 @@
         <v>285</v>
       </c>
       <c r="I69" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="J69" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7435,16 +7540,16 @@
         <v>25</v>
       </c>
       <c r="D70" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E70" t="s">
         <v>1400</v>
       </c>
-      <c r="E70" t="s">
-        <v>1399</v>
-      </c>
       <c r="I70" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="J70" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7452,16 +7557,16 @@
         <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="E71" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="I71" t="s">
+        <v>1435</v>
+      </c>
+      <c r="J71" t="s">
         <v>1434</v>
-      </c>
-      <c r="J71" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7478,10 +7583,10 @@
         <v>492</v>
       </c>
       <c r="I72" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="J72" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7492,16 +7597,16 @@
         <v>30</v>
       </c>
       <c r="D73" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E73" t="s">
         <v>1403</v>
       </c>
-      <c r="E73" t="s">
-        <v>1402</v>
-      </c>
       <c r="I73" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="J73" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7518,10 +7623,10 @@
         <v>498</v>
       </c>
       <c r="I74" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="J74" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7538,10 +7643,10 @@
         <v>500</v>
       </c>
       <c r="I75" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="J75" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7552,7 +7657,7 @@
         <v>28</v>
       </c>
       <c r="D76" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E76" t="s">
         <v>496</v>
@@ -7580,13 +7685,13 @@
         <v>477</v>
       </c>
       <c r="E79" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="I79" t="s">
         <v>411</v>
       </c>
       <c r="J79" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7600,13 +7705,13 @@
         <v>478</v>
       </c>
       <c r="E80" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="I80" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="J80" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7614,16 +7719,16 @@
         <v>26</v>
       </c>
       <c r="D81" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E81" t="s">
         <v>1405</v>
       </c>
-      <c r="E81" t="s">
-        <v>1404</v>
-      </c>
       <c r="I81" t="s">
+        <v>1472</v>
+      </c>
+      <c r="J81" t="s">
         <v>1471</v>
-      </c>
-      <c r="J81" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7634,16 +7739,16 @@
         <v>30</v>
       </c>
       <c r="D82" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="E82" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="I82" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="J82" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7654,16 +7759,16 @@
         <v>30</v>
       </c>
       <c r="D83" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="E83" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7674,16 +7779,16 @@
         <v>31</v>
       </c>
       <c r="D84" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="E84" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7694,19 +7799,19 @@
         <v>28</v>
       </c>
       <c r="D85" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="E85" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="G85" t="s">
         <v>30</v>
       </c>
       <c r="I85" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="J85" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7751,10 +7856,10 @@
         <v>285</v>
       </c>
       <c r="I89" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7762,10 +7867,10 @@
         <v>25</v>
       </c>
       <c r="D90" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="E90" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="I90" t="s">
         <v>708</v>
@@ -7779,16 +7884,16 @@
         <v>26</v>
       </c>
       <c r="D91" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="E91" t="s">
         <v>844</v>
       </c>
       <c r="I91" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="J91" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7805,10 +7910,10 @@
         <v>484</v>
       </c>
       <c r="I92" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="J92" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7828,7 +7933,7 @@
         <v>199</v>
       </c>
       <c r="J93" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7842,13 +7947,13 @@
         <v>490</v>
       </c>
       <c r="E94" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="I94" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="J94" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7862,13 +7967,13 @@
         <v>488</v>
       </c>
       <c r="E95" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="I95" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="J95" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7887,7 +7992,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>29</v>
@@ -7913,10 +8018,10 @@
         <v>277</v>
       </c>
       <c r="I99" t="s">
+        <v>1474</v>
+      </c>
+      <c r="J99" t="s">
         <v>1473</v>
-      </c>
-      <c r="J99" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7930,10 +8035,10 @@
         <v>981</v>
       </c>
       <c r="I100" t="s">
+        <v>1476</v>
+      </c>
+      <c r="J100" t="s">
         <v>1475</v>
-      </c>
-      <c r="J100" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7947,10 +8052,10 @@
         <v>982</v>
       </c>
       <c r="I101" t="s">
+        <v>1478</v>
+      </c>
+      <c r="J101" t="s">
         <v>1477</v>
-      </c>
-      <c r="J101" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7967,10 +8072,10 @@
         <v>911</v>
       </c>
       <c r="I102" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J102" t="s">
         <v>1479</v>
-      </c>
-      <c r="J102" t="s">
-        <v>1478</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7987,10 +8092,10 @@
         <v>913</v>
       </c>
       <c r="I103" t="s">
+        <v>1482</v>
+      </c>
+      <c r="J103" t="s">
         <v>1481</v>
-      </c>
-      <c r="J103" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8001,16 +8106,16 @@
         <v>28</v>
       </c>
       <c r="D104" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E104" t="s">
         <v>1147</v>
       </c>
-      <c r="E104" t="s">
-        <v>1146</v>
-      </c>
       <c r="I104" t="s">
+        <v>1484</v>
+      </c>
+      <c r="J104" t="s">
         <v>1483</v>
-      </c>
-      <c r="J104" t="s">
-        <v>1482</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8024,10 +8129,10 @@
         <v>915</v>
       </c>
       <c r="I105" t="s">
+        <v>1486</v>
+      </c>
+      <c r="J105" t="s">
         <v>1485</v>
-      </c>
-      <c r="J105" t="s">
-        <v>1484</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8044,15 +8149,15 @@
         <v>917</v>
       </c>
       <c r="I106" t="s">
+        <v>1488</v>
+      </c>
+      <c r="J106" t="s">
         <v>1487</v>
-      </c>
-      <c r="J106" t="s">
-        <v>1486</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>29</v>
@@ -8072,16 +8177,16 @@
         <v>904</v>
       </c>
       <c r="E109" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="G109" t="s">
         <v>285</v>
       </c>
       <c r="I109" t="s">
+        <v>1490</v>
+      </c>
+      <c r="J109" t="s">
         <v>1489</v>
-      </c>
-      <c r="J109" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8095,10 +8200,10 @@
         <v>985</v>
       </c>
       <c r="I110" t="s">
+        <v>1492</v>
+      </c>
+      <c r="J110" t="s">
         <v>1491</v>
-      </c>
-      <c r="J110" t="s">
-        <v>1490</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8112,10 +8217,10 @@
         <v>986</v>
       </c>
       <c r="I111" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J111" t="s">
         <v>1493</v>
-      </c>
-      <c r="J111" t="s">
-        <v>1492</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8132,10 +8237,10 @@
         <v>919</v>
       </c>
       <c r="I112" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="J112" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8152,10 +8257,10 @@
         <v>909</v>
       </c>
       <c r="I113" t="s">
+        <v>1498</v>
+      </c>
+      <c r="J113" t="s">
         <v>1497</v>
-      </c>
-      <c r="J113" t="s">
-        <v>1496</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8172,10 +8277,10 @@
         <v>907</v>
       </c>
       <c r="I114" t="s">
+        <v>1500</v>
+      </c>
+      <c r="J114" t="s">
         <v>1499</v>
-      </c>
-      <c r="J114" t="s">
-        <v>1498</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8192,10 +8297,10 @@
         <v>905</v>
       </c>
       <c r="I115" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="J115" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8206,16 +8311,16 @@
         <v>28</v>
       </c>
       <c r="D116" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E116" t="s">
         <v>1149</v>
       </c>
-      <c r="E116" t="s">
-        <v>1148</v>
-      </c>
       <c r="I116" t="s">
+        <v>1503</v>
+      </c>
+      <c r="J116" t="s">
         <v>1502</v>
-      </c>
-      <c r="J116" t="s">
-        <v>1501</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8378,10 +8483,10 @@
         <v>31</v>
       </c>
       <c r="D125" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E125" t="s">
         <v>1551</v>
-      </c>
-      <c r="E125" t="s">
-        <v>1550</v>
       </c>
       <c r="H125" t="s">
         <v>44</v>
@@ -8390,7 +8495,7 @@
         <v>63</v>
       </c>
       <c r="J125" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8404,16 +8509,16 @@
         <v>715</v>
       </c>
       <c r="E126" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="H126" t="s">
         <v>437</v>
       </c>
       <c r="I126" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="J126" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8487,7 +8592,7 @@
         <v>77</v>
       </c>
       <c r="E131" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="H131" t="s">
         <v>26</v>
@@ -8602,7 +8707,7 @@
         <v>625</v>
       </c>
       <c r="E136" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="H136" t="s">
         <v>437</v>
@@ -8610,7 +8715,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>43</v>
@@ -8630,7 +8735,7 @@
         <v>944</v>
       </c>
       <c r="E139" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="G139" t="s">
         <v>871</v>
@@ -8639,10 +8744,10 @@
         <v>24</v>
       </c>
       <c r="I139" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="J139" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8662,10 +8767,10 @@
         <v>25</v>
       </c>
       <c r="I140" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="J140" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="K140" t="s">
         <v>30</v>
@@ -8688,10 +8793,10 @@
         <v>26</v>
       </c>
       <c r="I141" t="s">
+        <v>1567</v>
+      </c>
+      <c r="J141" t="s">
         <v>1566</v>
-      </c>
-      <c r="J141" t="s">
-        <v>1565</v>
       </c>
       <c r="K141" t="s">
         <v>31</v>
@@ -8717,7 +8822,7 @@
         <v>115</v>
       </c>
       <c r="J142" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8725,19 +8830,19 @@
         <v>37</v>
       </c>
       <c r="D143" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E143" t="s">
         <v>1560</v>
-      </c>
-      <c r="E143" t="s">
-        <v>1559</v>
       </c>
       <c r="H143" t="s">
         <v>37</v>
       </c>
       <c r="I143" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="J143" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="K143" t="s">
         <v>30</v>
@@ -8760,10 +8865,10 @@
         <v>38</v>
       </c>
       <c r="I144" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="J144" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="K144" t="s">
         <v>30</v>
@@ -8789,7 +8894,7 @@
         <v>116</v>
       </c>
       <c r="J145" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="K145" t="s">
         <v>31</v>
@@ -8811,7 +8916,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -8837,10 +8942,10 @@
         <v>24</v>
       </c>
       <c r="I149" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="J149" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="K149" t="s">
         <v>31</v>
@@ -8863,10 +8968,10 @@
         <v>25</v>
       </c>
       <c r="I150" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="J150" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="K150" t="s">
         <v>31</v>
@@ -8889,10 +8994,10 @@
         <v>26</v>
       </c>
       <c r="I151" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="J151" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="K151" t="s">
         <v>30</v>
@@ -8915,10 +9020,10 @@
         <v>27</v>
       </c>
       <c r="I152" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="J152" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -8929,19 +9034,19 @@
         <v>30</v>
       </c>
       <c r="D153" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="E153" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="H153" t="s">
         <v>37</v>
       </c>
       <c r="I153" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="J153" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="K153" t="s">
         <v>31</v>
@@ -8964,10 +9069,10 @@
         <v>38</v>
       </c>
       <c r="I154" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="J154" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="K154" t="s">
         <v>30</v>
@@ -8990,10 +9095,10 @@
         <v>44</v>
       </c>
       <c r="I155" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="J155" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="K155" t="s">
         <v>30</v>
@@ -9044,7 +9149,7 @@
         <v>510</v>
       </c>
       <c r="J159" s="19" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9064,10 +9169,10 @@
         <v>25</v>
       </c>
       <c r="I160" s="19" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="J160" s="19" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9075,19 +9180,19 @@
         <v>26</v>
       </c>
       <c r="D161" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E161" t="s">
         <v>1593</v>
-      </c>
-      <c r="E161" t="s">
-        <v>1592</v>
       </c>
       <c r="H161" t="s">
         <v>26</v>
       </c>
       <c r="I161" s="19" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="J161" s="19" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9107,10 +9212,10 @@
         <v>27</v>
       </c>
       <c r="I162" s="19" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="J162" s="19" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9130,10 +9235,10 @@
         <v>37</v>
       </c>
       <c r="I163" s="19" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="J163" s="19" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9153,10 +9258,10 @@
         <v>38</v>
       </c>
       <c r="I164" s="19" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="J164" s="19" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9176,10 +9281,10 @@
         <v>44</v>
       </c>
       <c r="I165" s="19" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="J165" s="19" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9224,7 +9329,7 @@
         <v>24</v>
       </c>
       <c r="I169" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="J169" t="s">
         <v>707</v>
@@ -9235,10 +9340,10 @@
         <v>25</v>
       </c>
       <c r="D170" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="E170" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="F170" t="s">
         <v>285</v>
@@ -9247,10 +9352,10 @@
         <v>25</v>
       </c>
       <c r="I170" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="J170" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9258,19 +9363,19 @@
         <v>26</v>
       </c>
       <c r="D171" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="E171" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="H171" t="s">
         <v>26</v>
       </c>
       <c r="I171" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="J171" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9290,10 +9395,10 @@
         <v>27</v>
       </c>
       <c r="I172" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="J172" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9313,10 +9418,10 @@
         <v>37</v>
       </c>
       <c r="I173" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="J173" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9336,10 +9441,10 @@
         <v>38</v>
       </c>
       <c r="I174" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="J174" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9359,10 +9464,10 @@
         <v>44</v>
       </c>
       <c r="I175" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="J175" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9415,7 +9520,7 @@
         <v>30</v>
       </c>
       <c r="D180" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="E180" t="s">
         <v>536</v>
@@ -9424,10 +9529,10 @@
         <v>24</v>
       </c>
       <c r="I180" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="J180" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9435,19 +9540,19 @@
         <v>25</v>
       </c>
       <c r="D181" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="E181" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="H181" t="s">
         <v>25</v>
       </c>
       <c r="I181" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="J181" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9455,19 +9560,19 @@
         <v>26</v>
       </c>
       <c r="D182" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="E182" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="H182" t="s">
         <v>26</v>
       </c>
       <c r="I182" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="J182" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9478,19 +9583,19 @@
         <v>31</v>
       </c>
       <c r="D183" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="E183" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="H183" t="s">
         <v>27</v>
       </c>
       <c r="I183" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="J183" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9501,7 +9606,7 @@
         <v>30</v>
       </c>
       <c r="D184" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="E184" t="s">
         <v>537</v>
@@ -9510,10 +9615,10 @@
         <v>37</v>
       </c>
       <c r="I184" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="J184" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9524,7 +9629,7 @@
         <v>31</v>
       </c>
       <c r="D185" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="E185" t="s">
         <v>538</v>
@@ -9533,10 +9638,10 @@
         <v>38</v>
       </c>
       <c r="I185" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="J185" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9547,7 +9652,7 @@
         <v>28</v>
       </c>
       <c r="D186" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="E186" t="s">
         <v>542</v>
@@ -9556,10 +9661,10 @@
         <v>44</v>
       </c>
       <c r="I186" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="J186" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9570,7 +9675,7 @@
         <v>31</v>
       </c>
       <c r="D187" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="E187" t="s">
         <v>539</v>
@@ -9579,10 +9684,10 @@
         <v>437</v>
       </c>
       <c r="I187" t="s">
+        <v>1637</v>
+      </c>
+      <c r="J187" t="s">
         <v>1636</v>
-      </c>
-      <c r="J187" t="s">
-        <v>1635</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9615,19 +9720,19 @@
         <v>25</v>
       </c>
       <c r="D191" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="E191" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="H191" t="s">
         <v>24</v>
       </c>
       <c r="I191" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="J191" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9635,19 +9740,19 @@
         <v>26</v>
       </c>
       <c r="D192" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="E192" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="H192" t="s">
         <v>25</v>
       </c>
       <c r="I192" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="J192" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9661,16 +9766,16 @@
         <v>543</v>
       </c>
       <c r="E193" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="H193" t="s">
         <v>26</v>
       </c>
       <c r="I193" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="J193" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9690,10 +9795,10 @@
         <v>27</v>
       </c>
       <c r="I194" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="J194" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9713,10 +9818,10 @@
         <v>37</v>
       </c>
       <c r="I195" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="J195" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9736,10 +9841,10 @@
         <v>38</v>
       </c>
       <c r="I196" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="J196" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9750,7 +9855,7 @@
         <v>28</v>
       </c>
       <c r="D197" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="E197" t="s">
         <v>544</v>
@@ -9759,10 +9864,10 @@
         <v>44</v>
       </c>
       <c r="I197" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="J197" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9791,21 +9896,54 @@
       <c r="E200" t="s">
         <v>846</v>
       </c>
+      <c r="H200" t="s">
+        <v>24</v>
+      </c>
+      <c r="I200" t="s">
+        <v>1827</v>
+      </c>
+      <c r="J200" t="s">
+        <v>1826</v>
+      </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B201" t="s">
         <v>25</v>
       </c>
+      <c r="D201" t="s">
+        <v>1819</v>
+      </c>
       <c r="E201" t="s">
-        <v>1815</v>
+        <v>1816</v>
+      </c>
+      <c r="H201" t="s">
+        <v>25</v>
+      </c>
+      <c r="I201" t="s">
+        <v>1829</v>
+      </c>
+      <c r="J201" t="s">
+        <v>1828</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B202" t="s">
         <v>26</v>
       </c>
+      <c r="D202" t="s">
+        <v>1820</v>
+      </c>
       <c r="E202" t="s">
-        <v>1816</v>
+        <v>1817</v>
+      </c>
+      <c r="H202" t="s">
+        <v>26</v>
+      </c>
+      <c r="I202" t="s">
+        <v>1831</v>
+      </c>
+      <c r="J202" t="s">
+        <v>1830</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9821,10 +9959,19 @@
       <c r="E203" t="s">
         <v>844</v>
       </c>
+      <c r="H203" t="s">
+        <v>27</v>
+      </c>
+      <c r="I203" t="s">
+        <v>1833</v>
+      </c>
+      <c r="J203" t="s">
+        <v>1832</v>
+      </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B204" t="s">
-        <v>517</v>
+        <v>37</v>
       </c>
       <c r="C204" t="s">
         <v>31</v>
@@ -9834,6 +9981,15 @@
       </c>
       <c r="E204" t="s">
         <v>849</v>
+      </c>
+      <c r="H204" t="s">
+        <v>37</v>
+      </c>
+      <c r="I204" t="s">
+        <v>1834</v>
+      </c>
+      <c r="J204" t="s">
+        <v>1678</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9843,13 +9999,25 @@
       <c r="C205" t="s">
         <v>31</v>
       </c>
+      <c r="D205" t="s">
+        <v>1821</v>
+      </c>
       <c r="E205" t="s">
-        <v>1817</v>
+        <v>1818</v>
+      </c>
+      <c r="H205" t="s">
+        <v>38</v>
+      </c>
+      <c r="I205" t="s">
+        <v>1836</v>
+      </c>
+      <c r="J205" t="s">
+        <v>1835</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B206" t="s">
-        <v>681</v>
+        <v>44</v>
       </c>
       <c r="C206" t="s">
         <v>31</v>
@@ -9860,10 +10028,19 @@
       <c r="E206" t="s">
         <v>853</v>
       </c>
+      <c r="H206" t="s">
+        <v>44</v>
+      </c>
+      <c r="I206" t="s">
+        <v>1838</v>
+      </c>
+      <c r="J206" t="s">
+        <v>1837</v>
+      </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B207" t="s">
-        <v>682</v>
+        <v>437</v>
       </c>
       <c r="C207" t="s">
         <v>31</v>
@@ -9873,6 +10050,189 @@
       </c>
       <c r="E207" t="s">
         <v>851</v>
+      </c>
+      <c r="H207" t="s">
+        <v>437</v>
+      </c>
+      <c r="I207" t="s">
+        <v>850</v>
+      </c>
+      <c r="J207" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A209" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A210" t="s">
+        <v>48</v>
+      </c>
+      <c r="B210" t="s">
+        <v>24</v>
+      </c>
+      <c r="C210" t="s">
+        <v>30</v>
+      </c>
+      <c r="D210" t="s">
+        <v>798</v>
+      </c>
+      <c r="E210" t="s">
+        <v>799</v>
+      </c>
+      <c r="H210" t="s">
+        <v>24</v>
+      </c>
+      <c r="I210" t="s">
+        <v>1840</v>
+      </c>
+      <c r="J210" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B211" t="s">
+        <v>25</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1824</v>
+      </c>
+      <c r="E211" t="s">
+        <v>1822</v>
+      </c>
+      <c r="H211" t="s">
+        <v>25</v>
+      </c>
+      <c r="I211" t="s">
+        <v>1843</v>
+      </c>
+      <c r="J211" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B212" t="s">
+        <v>26</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1823</v>
+      </c>
+      <c r="H212" t="s">
+        <v>26</v>
+      </c>
+      <c r="I212" t="s">
+        <v>1844</v>
+      </c>
+      <c r="J212" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B213" t="s">
+        <v>27</v>
+      </c>
+      <c r="C213" t="s">
+        <v>31</v>
+      </c>
+      <c r="D213" t="s">
+        <v>805</v>
+      </c>
+      <c r="E213" t="s">
+        <v>806</v>
+      </c>
+      <c r="H213" t="s">
+        <v>27</v>
+      </c>
+      <c r="I213" t="s">
+        <v>1845</v>
+      </c>
+      <c r="J213" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B214" t="s">
+        <v>517</v>
+      </c>
+      <c r="D214" t="s">
+        <v>807</v>
+      </c>
+      <c r="E214" t="s">
+        <v>808</v>
+      </c>
+      <c r="H214" t="s">
+        <v>37</v>
+      </c>
+      <c r="I214" t="s">
+        <v>1847</v>
+      </c>
+      <c r="J214" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B215" t="s">
+        <v>518</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1848</v>
+      </c>
+      <c r="E215" t="s">
+        <v>809</v>
+      </c>
+      <c r="H215" t="s">
+        <v>38</v>
+      </c>
+      <c r="I215" t="s">
+        <v>1849</v>
+      </c>
+      <c r="J215" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B216" t="s">
+        <v>519</v>
+      </c>
+      <c r="D216" t="s">
+        <v>801</v>
+      </c>
+      <c r="E216" t="s">
+        <v>810</v>
+      </c>
+      <c r="H216" t="s">
+        <v>44</v>
+      </c>
+      <c r="I216" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J216" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B217" t="s">
+        <v>516</v>
+      </c>
+      <c r="D217" t="s">
+        <v>800</v>
+      </c>
+      <c r="E217" t="s">
+        <v>811</v>
+      </c>
+      <c r="H217" t="s">
+        <v>437</v>
+      </c>
+      <c r="I217" t="s">
+        <v>1852</v>
+      </c>
+      <c r="J217" t="s">
+        <v>1851</v>
       </c>
     </row>
   </sheetData>
@@ -9900,7 +10260,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E1" s="1" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>0</v>
@@ -9925,7 +10285,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
@@ -9978,7 +10338,7 @@
         <v>78.744</v>
       </c>
       <c r="K3" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -10013,7 +10373,7 @@
         <v>72.111000000000004</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -10057,7 +10417,7 @@
         <v>79.77</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -10098,7 +10458,7 @@
         <v>91.18</v>
       </c>
       <c r="K6" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -10136,7 +10496,7 @@
         <v>62.11</v>
       </c>
       <c r="K7" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="L7">
         <v>100</v>
@@ -10180,7 +10540,7 @@
         <v>87.23</v>
       </c>
       <c r="K8" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -10212,22 +10572,22 @@
         <v>100</v>
       </c>
       <c r="F9" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G9" s="25" t="s">
         <v>1528</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="H9" s="25" t="s">
         <v>1527</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="I9" s="25" t="s">
         <v>1526</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="J9" s="25" t="s">
         <v>1525</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="K9" t="s">
         <v>1524</v>
-      </c>
-      <c r="K9" t="s">
-        <v>1523</v>
       </c>
       <c r="L9">
         <v>100</v>
@@ -10268,7 +10628,7 @@
         <v>68</v>
       </c>
       <c r="K10" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="L10">
         <v>100</v>
@@ -10291,7 +10651,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" s="1" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -10308,7 +10668,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -10355,10 +10715,10 @@
         <v>87.76</v>
       </c>
       <c r="J14" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="K14" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="L14">
         <v>100</v>
@@ -10375,19 +10735,19 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
+        <v>1516</v>
+      </c>
+      <c r="H15" t="s">
         <v>1515</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>1514</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>1513</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>1512</v>
-      </c>
-      <c r="K15" t="s">
-        <v>1511</v>
       </c>
       <c r="L15">
         <v>100</v>
@@ -10416,7 +10776,7 @@
         <v>87.6</v>
       </c>
       <c r="K16" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="L16">
         <v>100</v>
@@ -10448,7 +10808,7 @@
         <v>84.97</v>
       </c>
       <c r="K17" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="L17">
         <v>100</v>
@@ -10478,7 +10838,7 @@
         <v>81.81</v>
       </c>
       <c r="K18" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="L18">
         <v>100</v>
@@ -10508,7 +10868,7 @@
         <v>79.33</v>
       </c>
       <c r="K19" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="L19">
         <v>100</v>
@@ -10538,7 +10898,7 @@
         <v>78.84</v>
       </c>
       <c r="K20" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="L20">
         <v>100</v>
@@ -10567,7 +10927,7 @@
         <v>74.48</v>
       </c>
       <c r="K21" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="L21">
         <v>100</v>
@@ -10587,7 +10947,7 @@
         <v>42.625</v>
       </c>
       <c r="K22" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="L22">
         <v>100</v>
@@ -10613,7 +10973,7 @@
         <v>44.375</v>
       </c>
       <c r="K23" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="L23">
         <v>100</v>
@@ -10627,7 +10987,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E25" s="1" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -10644,7 +11004,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -10694,7 +11054,7 @@
         <v>47.662100000000002</v>
       </c>
       <c r="K27" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="L27">
         <v>100</v>
@@ -10727,7 +11087,7 @@
         <v>49.296900000000001</v>
       </c>
       <c r="K28" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="L28">
         <v>100</v>
@@ -10759,7 +11119,7 @@
         <v>56.28</v>
       </c>
       <c r="K29" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="L29">
         <v>100</v>
@@ -10779,19 +11139,19 @@
         <v>100</v>
       </c>
       <c r="G30" t="s">
+        <v>1540</v>
+      </c>
+      <c r="H30" t="s">
         <v>1539</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
+        <v>1542</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1541</v>
+      </c>
+      <c r="K30" t="s">
         <v>1538</v>
-      </c>
-      <c r="I30" t="s">
-        <v>1541</v>
-      </c>
-      <c r="J30" t="s">
-        <v>1540</v>
-      </c>
-      <c r="K30" t="s">
-        <v>1537</v>
       </c>
       <c r="L30">
         <v>100</v>
@@ -10823,7 +11183,7 @@
         <v>27.61</v>
       </c>
       <c r="K31" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="L31">
         <v>100</v>
@@ -10855,7 +11215,7 @@
         <v>47</v>
       </c>
       <c r="K32" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="L32">
         <v>100</v>
@@ -10890,7 +11250,7 @@
         <v>51.12</v>
       </c>
       <c r="K33" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="L33">
         <v>100</v>
@@ -10911,19 +11271,19 @@
         <v>100</v>
       </c>
       <c r="G34" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="H34" t="s">
+        <v>1548</v>
+      </c>
+      <c r="I34" t="s">
         <v>1547</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>1546</v>
       </c>
-      <c r="J34" t="s">
-        <v>1545</v>
-      </c>
       <c r="K34" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="L34">
         <v>100</v>
@@ -11032,7 +11392,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>8</v>
@@ -11067,22 +11427,22 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C4">
         <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="I4" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="L4" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="M4" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="N4">
         <v>12</v>
@@ -11091,7 +11451,7 @@
         <v>200</v>
       </c>
       <c r="P4" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="R4">
         <v>100</v>
@@ -11100,25 +11460,25 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B5" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C5">
         <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="I5" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="L5" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="M5" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="N5">
         <v>12</v>
@@ -11127,7 +11487,7 @@
         <v>200</v>
       </c>
       <c r="P5" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="R5">
         <v>100</v>
@@ -11135,22 +11495,22 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C6">
         <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="I6" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="L6" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="M6" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="N6">
         <v>12</v>
@@ -11159,7 +11519,7 @@
         <v>200</v>
       </c>
       <c r="P6" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="R6">
         <v>100</v>
@@ -11167,22 +11527,22 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C7">
         <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="I7" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="L7" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="M7" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="N7">
         <v>12</v>
@@ -11191,7 +11551,7 @@
         <v>200</v>
       </c>
       <c r="P7" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="R7">
         <v>50</v>
@@ -11199,22 +11559,22 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C8">
         <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="I8" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="L8" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="M8" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="N8">
         <v>12</v>
@@ -11223,7 +11583,7 @@
         <v>200</v>
       </c>
       <c r="P8" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="R8">
         <v>50</v>
@@ -11231,13 +11591,13 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C9">
         <v>25</v>
       </c>
       <c r="M9" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="R9">
         <v>50</v>
@@ -11245,22 +11605,22 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C10">
         <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="I10" t="s">
+        <v>1260</v>
+      </c>
+      <c r="L10" t="s">
         <v>1259</v>
       </c>
-      <c r="L10" t="s">
-        <v>1258</v>
-      </c>
       <c r="M10" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="N10">
         <v>12</v>
@@ -11269,7 +11629,7 @@
         <v>200</v>
       </c>
       <c r="P10" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="R10">
         <v>100</v>
@@ -11277,22 +11637,22 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C11">
         <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="I11" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="L11" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="M11" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="N11">
         <v>12</v>
@@ -11301,27 +11661,27 @@
         <v>200</v>
       </c>
       <c r="P11" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C12">
         <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="I12" t="s">
+        <v>1273</v>
+      </c>
+      <c r="L12" t="s">
         <v>1272</v>
       </c>
-      <c r="L12" t="s">
-        <v>1271</v>
-      </c>
       <c r="M12" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="N12">
         <v>12</v>
@@ -11330,7 +11690,7 @@
         <v>200</v>
       </c>
       <c r="P12" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="R12">
         <v>100</v>
@@ -11338,22 +11698,22 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C13">
         <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="I13" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="L13" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="M13" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="N13">
         <v>12</v>
@@ -11362,7 +11722,7 @@
         <v>200</v>
       </c>
       <c r="P13" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="R13">
         <v>50</v>
@@ -11370,22 +11730,22 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C14">
         <v>100</v>
       </c>
       <c r="H14" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="I14" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="L14" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="M14" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="N14">
         <v>12</v>
@@ -11394,7 +11754,7 @@
         <v>200</v>
       </c>
       <c r="P14" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="R14">
         <v>50</v>
@@ -11402,22 +11762,22 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C15">
         <v>100</v>
       </c>
       <c r="H15" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="I15" t="s">
+        <v>1279</v>
+      </c>
+      <c r="L15" t="s">
         <v>1278</v>
       </c>
-      <c r="L15" t="s">
-        <v>1277</v>
-      </c>
       <c r="M15" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="N15">
         <v>12</v>
@@ -11426,7 +11786,7 @@
         <v>200</v>
       </c>
       <c r="P15" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="R15">
         <v>50</v>
@@ -11434,25 +11794,25 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B17" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="C17">
         <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="I17" t="s">
+        <v>1281</v>
+      </c>
+      <c r="L17" t="s">
         <v>1280</v>
       </c>
-      <c r="L17" t="s">
-        <v>1279</v>
-      </c>
       <c r="M17" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -11461,30 +11821,30 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B18" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="C18">
         <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="I18" t="s">
+        <v>1283</v>
+      </c>
+      <c r="L18" t="s">
         <v>1282</v>
       </c>
-      <c r="L18" t="s">
-        <v>1281</v>
-      </c>
       <c r="M18" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -11493,7 +11853,7 @@
         <v>50</v>
       </c>
       <c r="P18" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="R18">
         <v>200</v>
@@ -11501,22 +11861,22 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="C19">
         <v>100</v>
       </c>
       <c r="H19" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="I19" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="L19" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="M19" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -11525,7 +11885,7 @@
         <v>50</v>
       </c>
       <c r="P19" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="R19">
         <v>100</v>
@@ -11533,22 +11893,22 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="C20">
         <v>100</v>
       </c>
       <c r="H20" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="I20" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="L20" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="M20" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -11557,7 +11917,7 @@
         <v>50</v>
       </c>
       <c r="P20" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="R20">
         <v>100</v>
@@ -11565,22 +11925,22 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="C21">
         <v>100</v>
       </c>
       <c r="H21" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="I21" t="s">
+        <v>1287</v>
+      </c>
+      <c r="L21" t="s">
         <v>1286</v>
       </c>
-      <c r="L21" t="s">
-        <v>1285</v>
-      </c>
       <c r="M21" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -11589,7 +11949,7 @@
         <v>50</v>
       </c>
       <c r="P21" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="R21">
         <v>100</v>
@@ -11610,13 +11970,13 @@
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="21" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="K25" s="21"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
@@ -11670,7 +12030,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="C27">
         <v>100</v>
@@ -11680,18 +12040,18 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="19" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="19" t="s">
+        <v>1304</v>
+      </c>
+      <c r="M27" s="19" t="s">
         <v>1303</v>
-      </c>
-      <c r="M27" s="19" t="s">
-        <v>1302</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -11702,31 +12062,31 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B28" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="C28">
         <v>100</v>
       </c>
       <c r="H28" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="I28" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="L28" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="M28" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="N28">
         <v>12</v>
       </c>
       <c r="P28" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="R28">
         <v>50</v>
@@ -11734,28 +12094,28 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="C29">
         <v>100</v>
       </c>
       <c r="H29" t="s">
+        <v>1316</v>
+      </c>
+      <c r="I29" t="s">
         <v>1315</v>
       </c>
-      <c r="I29" t="s">
-        <v>1314</v>
-      </c>
       <c r="L29" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="M29" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="N29">
         <v>12</v>
       </c>
       <c r="P29" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="R29">
         <v>50</v>
@@ -11763,28 +12123,28 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="C30">
         <v>100</v>
       </c>
       <c r="H30" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="I30" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="L30" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="M30" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="N30">
         <v>12</v>
       </c>
       <c r="P30" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="R30">
         <v>25</v>
@@ -11792,28 +12152,28 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="C31">
         <v>100</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="I31" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="L31" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="M31" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="N31">
         <v>12</v>
       </c>
       <c r="P31" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="R31">
         <v>25</v>
@@ -11821,28 +12181,28 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="C32">
         <v>100</v>
       </c>
       <c r="H32" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="I32" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="L32" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="M32" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="N32">
         <v>12</v>
       </c>
       <c r="P32" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="R32">
         <v>25</v>
@@ -11850,19 +12210,19 @@
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="C33">
         <v>100</v>
       </c>
       <c r="M33" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="N33">
         <v>12</v>
       </c>
       <c r="P33" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="R33">
         <v>25</v>
@@ -11870,45 +12230,45 @@
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C34">
         <v>30</v>
       </c>
       <c r="H34" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="I34" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="L34" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C35">
         <v>30</v>
       </c>
       <c r="H35" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="I35" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="L35" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="M35" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="N35">
         <v>12</v>
       </c>
       <c r="P35" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="R35">
         <v>50</v>
@@ -11916,28 +12276,28 @@
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C36">
         <v>30</v>
       </c>
       <c r="H36" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="I36" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="L36" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="M36" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="N36">
         <v>12</v>
       </c>
       <c r="P36" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="R36">
         <v>50</v>
@@ -11945,28 +12305,28 @@
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C37">
         <v>30</v>
       </c>
       <c r="H37" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="I37" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="L37" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="M37" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="N37">
         <v>12</v>
       </c>
       <c r="P37" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="R37">
         <v>50</v>
@@ -11974,28 +12334,28 @@
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C38">
         <v>30</v>
       </c>
       <c r="H38" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="I38" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="L38" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="M38" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="N38">
         <v>12</v>
       </c>
       <c r="P38" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="R38">
         <v>50</v>
@@ -12003,28 +12363,28 @@
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C39">
         <v>30</v>
       </c>
       <c r="H39" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="I39" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="L39" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="M39" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="N39">
         <v>12</v>
       </c>
       <c r="P39" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="R39">
         <v>50</v>
@@ -12076,10 +12436,10 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D3" t="s">
         <v>1031</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1030</v>
       </c>
       <c r="K3" t="s">
         <v>869</v>
@@ -12088,10 +12448,10 @@
         <v>30</v>
       </c>
       <c r="M3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="N3" t="s">
         <v>1021</v>
-      </c>
-      <c r="N3" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12102,10 +12462,10 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D4" t="s">
         <v>1033</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1032</v>
       </c>
       <c r="K4">
         <v>75</v>
@@ -12114,10 +12474,10 @@
         <v>30</v>
       </c>
       <c r="M4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N4" t="s">
         <v>1023</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12128,10 +12488,10 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D5" t="s">
         <v>1035</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1034</v>
       </c>
       <c r="K5">
         <v>50</v>
@@ -12140,10 +12500,10 @@
         <v>30</v>
       </c>
       <c r="M5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="N5" t="s">
         <v>1025</v>
-      </c>
-      <c r="N5" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12154,10 +12514,10 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D6" t="s">
         <v>1037</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1036</v>
       </c>
       <c r="K6">
         <v>30</v>
@@ -12166,10 +12526,10 @@
         <v>30</v>
       </c>
       <c r="M6" t="s">
+        <v>1028</v>
+      </c>
+      <c r="N6" t="s">
         <v>1027</v>
-      </c>
-      <c r="N6" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12180,10 +12540,10 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D7" t="s">
         <v>1039</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1038</v>
       </c>
       <c r="K7">
         <v>10</v>
@@ -12192,10 +12552,10 @@
         <v>30</v>
       </c>
       <c r="M7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="N7" t="s">
         <v>1029</v>
-      </c>
-      <c r="N7" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12217,10 +12577,10 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E10" t="s">
         <v>1041</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1040</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
@@ -12238,10 +12598,10 @@
         <v>28</v>
       </c>
       <c r="M10" t="s">
+        <v>1210</v>
+      </c>
+      <c r="N10" t="s">
         <v>1209</v>
-      </c>
-      <c r="N10" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12249,7 +12609,7 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="K11" t="s">
         <v>25</v>
@@ -12260,7 +12620,7 @@
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="K12" t="s">
         <v>26</v>
@@ -12271,7 +12631,7 @@
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="F13" t="s">
         <v>28</v>
@@ -12285,10 +12645,10 @@
         <v>517</v>
       </c>
       <c r="D14" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="E14" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="F14" t="s">
         <v>30</v>
@@ -12300,10 +12660,10 @@
         <v>28</v>
       </c>
       <c r="M14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="N14" t="s">
         <v>1211</v>
-      </c>
-      <c r="N14" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12311,10 +12671,10 @@
         <v>518</v>
       </c>
       <c r="D15" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E15" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="F15" t="s">
         <v>30</v>
@@ -12326,10 +12686,10 @@
         <v>28</v>
       </c>
       <c r="M15" t="s">
+        <v>1214</v>
+      </c>
+      <c r="N15" t="s">
         <v>1213</v>
-      </c>
-      <c r="N15" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12337,10 +12697,10 @@
         <v>519</v>
       </c>
       <c r="D16" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E16" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="F16" t="s">
         <v>30</v>
@@ -12352,10 +12712,10 @@
         <v>28</v>
       </c>
       <c r="M16" t="s">
+        <v>1216</v>
+      </c>
+      <c r="N16" t="s">
         <v>1215</v>
-      </c>
-      <c r="N16" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12363,10 +12723,10 @@
         <v>516</v>
       </c>
       <c r="D17" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="E17" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F17" t="s">
         <v>30</v>
@@ -12378,10 +12738,10 @@
         <v>28</v>
       </c>
       <c r="M17" t="s">
+        <v>1218</v>
+      </c>
+      <c r="N17" t="s">
         <v>1217</v>
-      </c>
-      <c r="N17" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12406,10 +12766,10 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E20" t="s">
         <v>1204</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1203</v>
       </c>
       <c r="J20" t="s">
         <v>48</v>
@@ -12421,10 +12781,10 @@
         <v>31</v>
       </c>
       <c r="M20" t="s">
+        <v>1187</v>
+      </c>
+      <c r="N20" t="s">
         <v>1186</v>
-      </c>
-      <c r="N20" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12451,10 +12811,10 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E23" t="s">
         <v>1202</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1201</v>
       </c>
       <c r="K23" t="s">
         <v>27</v>
@@ -12465,10 +12825,10 @@
         <v>37</v>
       </c>
       <c r="D24" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E24" t="s">
         <v>1207</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1206</v>
       </c>
       <c r="K24" t="s">
         <v>517</v>
@@ -12477,10 +12837,10 @@
         <v>31</v>
       </c>
       <c r="M24" t="s">
+        <v>1189</v>
+      </c>
+      <c r="N24" t="s">
         <v>1188</v>
-      </c>
-      <c r="N24" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12491,10 +12851,10 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E25" t="s">
         <v>1196</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1195</v>
       </c>
       <c r="K25" t="s">
         <v>518</v>
@@ -12503,10 +12863,10 @@
         <v>31</v>
       </c>
       <c r="M25" t="s">
+        <v>1191</v>
+      </c>
+      <c r="N25" t="s">
         <v>1190</v>
-      </c>
-      <c r="N25" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12517,10 +12877,10 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E26" t="s">
         <v>1198</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1197</v>
       </c>
       <c r="K26" t="s">
         <v>519</v>
@@ -12529,10 +12889,10 @@
         <v>31</v>
       </c>
       <c r="M26" t="s">
+        <v>1193</v>
+      </c>
+      <c r="N26" t="s">
         <v>1192</v>
-      </c>
-      <c r="N26" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12543,10 +12903,10 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E27" t="s">
         <v>1200</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1199</v>
       </c>
       <c r="K27" t="s">
         <v>516</v>
@@ -12555,10 +12915,10 @@
         <v>31</v>
       </c>
       <c r="M27" t="s">
+        <v>1195</v>
+      </c>
+      <c r="N27" t="s">
         <v>1194</v>
-      </c>
-      <c r="N27" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12580,10 +12940,10 @@
         <v>24</v>
       </c>
       <c r="D30" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E30" t="s">
         <v>1046</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1045</v>
       </c>
       <c r="F30" t="s">
         <v>30</v>
@@ -12598,10 +12958,10 @@
         <v>31</v>
       </c>
       <c r="M30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="N30" t="s">
         <v>1229</v>
-      </c>
-      <c r="N30" t="s">
-        <v>1228</v>
       </c>
       <c r="O30" t="s">
         <v>789</v>
@@ -12612,10 +12972,10 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="E31" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="K31" t="s">
         <v>25</v>
@@ -12626,10 +12986,10 @@
         <v>26</v>
       </c>
       <c r="D32" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E32" t="s">
         <v>1162</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1161</v>
       </c>
       <c r="K32" t="s">
         <v>26</v>
@@ -12640,10 +13000,10 @@
         <v>27</v>
       </c>
       <c r="D33" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E33" t="s">
         <v>1143</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1142</v>
       </c>
       <c r="F33" t="s">
         <v>28</v>
@@ -12660,10 +13020,10 @@
         <v>517</v>
       </c>
       <c r="D34" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E34" t="s">
         <v>1179</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1178</v>
       </c>
       <c r="K34" t="s">
         <v>517</v>
@@ -12677,10 +13037,10 @@
         <v>518</v>
       </c>
       <c r="D35" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E35" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="F35" t="s">
         <v>30</v>
@@ -12692,10 +13052,10 @@
         <v>31</v>
       </c>
       <c r="M35" t="s">
+        <v>1232</v>
+      </c>
+      <c r="N35" t="s">
         <v>1231</v>
-      </c>
-      <c r="N35" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12703,10 +13063,10 @@
         <v>519</v>
       </c>
       <c r="D36" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E36" t="s">
         <v>1049</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1048</v>
       </c>
       <c r="F36" t="s">
         <v>30</v>
@@ -12718,10 +13078,10 @@
         <v>31</v>
       </c>
       <c r="M36" t="s">
+        <v>1234</v>
+      </c>
+      <c r="N36" t="s">
         <v>1233</v>
-      </c>
-      <c r="N36" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12729,10 +13089,10 @@
         <v>516</v>
       </c>
       <c r="D37" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E37" t="s">
         <v>1051</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1050</v>
       </c>
       <c r="F37" t="s">
         <v>30</v>
@@ -12744,10 +13104,10 @@
         <v>31</v>
       </c>
       <c r="M37" t="s">
+        <v>1236</v>
+      </c>
+      <c r="N37" t="s">
         <v>1235</v>
-      </c>
-      <c r="N37" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12766,10 +13126,10 @@
         <v>24</v>
       </c>
       <c r="D41" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E41" t="s">
         <v>1053</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1052</v>
       </c>
       <c r="F41" t="s">
         <v>31</v>
@@ -12787,13 +13147,13 @@
         <v>30</v>
       </c>
       <c r="M41" t="s">
+        <v>1220</v>
+      </c>
+      <c r="N41" t="s">
         <v>1219</v>
       </c>
-      <c r="N41" t="s">
-        <v>1218</v>
-      </c>
       <c r="O41" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12801,10 +13161,10 @@
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="E42" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="K42" t="s">
         <v>25</v>
@@ -12815,10 +13175,10 @@
         <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="E43" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="K43" t="s">
         <v>26</v>
@@ -12829,10 +13189,10 @@
         <v>27</v>
       </c>
       <c r="D44" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E44" t="s">
         <v>1141</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1140</v>
       </c>
       <c r="F44" t="s">
         <v>31</v>
@@ -12849,10 +13209,10 @@
         <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="E45" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="K45" t="s">
         <v>37</v>
@@ -12861,10 +13221,10 @@
         <v>30</v>
       </c>
       <c r="M45" t="s">
+        <v>1222</v>
+      </c>
+      <c r="N45" t="s">
         <v>1221</v>
-      </c>
-      <c r="N45" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12872,10 +13232,10 @@
         <v>38</v>
       </c>
       <c r="D46" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E46" t="s">
         <v>1055</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1054</v>
       </c>
       <c r="F46" t="s">
         <v>31</v>
@@ -12887,10 +13247,10 @@
         <v>30</v>
       </c>
       <c r="M46" t="s">
+        <v>1224</v>
+      </c>
+      <c r="N46" t="s">
         <v>1223</v>
-      </c>
-      <c r="N46" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12898,10 +13258,10 @@
         <v>44</v>
       </c>
       <c r="D47" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E47" t="s">
         <v>1057</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1056</v>
       </c>
       <c r="F47" t="s">
         <v>31</v>
@@ -12913,10 +13273,10 @@
         <v>30</v>
       </c>
       <c r="M47" t="s">
+        <v>1226</v>
+      </c>
+      <c r="N47" t="s">
         <v>1225</v>
-      </c>
-      <c r="N47" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12924,10 +13284,10 @@
         <v>437</v>
       </c>
       <c r="D48" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E48" t="s">
         <v>1059</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1058</v>
       </c>
       <c r="F48" t="s">
         <v>31</v>
@@ -12939,10 +13299,10 @@
         <v>30</v>
       </c>
       <c r="M48" t="s">
+        <v>1228</v>
+      </c>
+      <c r="N48" t="s">
         <v>1227</v>
-      </c>
-      <c r="N48" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -12964,10 +13324,10 @@
         <v>24</v>
       </c>
       <c r="D51" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E51" t="s">
         <v>1063</v>
-      </c>
-      <c r="E51" t="s">
-        <v>1062</v>
       </c>
       <c r="F51" t="s">
         <v>30</v>
@@ -12984,10 +13344,10 @@
         <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="E52" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="K52" t="s">
         <v>25</v>
@@ -12998,10 +13358,10 @@
         <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="E53" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="K53" t="s">
         <v>26</v>
@@ -13012,10 +13372,10 @@
         <v>27</v>
       </c>
       <c r="D54" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E54" t="s">
         <v>1137</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1136</v>
       </c>
       <c r="F54" t="s">
         <v>30</v>
@@ -13029,10 +13389,10 @@
         <v>37</v>
       </c>
       <c r="D55" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E55" t="s">
         <v>1169</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1168</v>
       </c>
       <c r="K55" t="s">
         <v>37</v>
@@ -13043,10 +13403,10 @@
         <v>38</v>
       </c>
       <c r="D56" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E56" t="s">
         <v>1065</v>
-      </c>
-      <c r="E56" t="s">
-        <v>1064</v>
       </c>
       <c r="F56" t="s">
         <v>30</v>
@@ -13060,10 +13420,10 @@
         <v>44</v>
       </c>
       <c r="D57" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E57" t="s">
         <v>1067</v>
-      </c>
-      <c r="E57" t="s">
-        <v>1066</v>
       </c>
       <c r="F57" t="s">
         <v>30</v>
@@ -13077,10 +13437,10 @@
         <v>437</v>
       </c>
       <c r="D58" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E58" t="s">
         <v>1069</v>
-      </c>
-      <c r="E58" t="s">
-        <v>1068</v>
       </c>
       <c r="F58" t="s">
         <v>30</v>
@@ -13111,10 +13471,10 @@
         <v>28</v>
       </c>
       <c r="D61" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E61" t="s">
         <v>1071</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1070</v>
       </c>
       <c r="F61" t="s">
         <v>31</v>
@@ -13131,10 +13491,10 @@
         <v>25</v>
       </c>
       <c r="D62" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E62" t="s">
         <v>1159</v>
-      </c>
-      <c r="E62" t="s">
-        <v>1158</v>
       </c>
       <c r="K62" t="s">
         <v>25</v>
@@ -13145,10 +13505,10 @@
         <v>26</v>
       </c>
       <c r="D63" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E63" t="s">
         <v>1145</v>
-      </c>
-      <c r="E63" t="s">
-        <v>1144</v>
       </c>
       <c r="F63" t="s">
         <v>31</v>
@@ -13165,10 +13525,10 @@
         <v>30</v>
       </c>
       <c r="D64" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E64" t="s">
         <v>1135</v>
-      </c>
-      <c r="E64" t="s">
-        <v>1134</v>
       </c>
       <c r="F64" t="s">
         <v>31</v>
@@ -13182,10 +13542,10 @@
         <v>37</v>
       </c>
       <c r="D65" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E65" t="s">
         <v>1176</v>
-      </c>
-      <c r="E65" t="s">
-        <v>1175</v>
       </c>
       <c r="F65" t="s">
         <v>31</v>
@@ -13199,10 +13559,10 @@
         <v>38</v>
       </c>
       <c r="D66" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E66" t="s">
         <v>1073</v>
-      </c>
-      <c r="E66" t="s">
-        <v>1072</v>
       </c>
       <c r="F66" t="s">
         <v>31</v>
@@ -13216,10 +13576,10 @@
         <v>44</v>
       </c>
       <c r="D67" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E67" t="s">
         <v>1075</v>
-      </c>
-      <c r="E67" t="s">
-        <v>1074</v>
       </c>
       <c r="F67" t="s">
         <v>31</v>
@@ -13233,10 +13593,10 @@
         <v>437</v>
       </c>
       <c r="D68" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E68" t="s">
         <v>1077</v>
-      </c>
-      <c r="E68" t="s">
-        <v>1076</v>
       </c>
       <c r="F68" t="s">
         <v>31</v>
@@ -13267,10 +13627,10 @@
         <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="E71" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="F71" t="s">
         <v>30</v>
@@ -13290,10 +13650,10 @@
         <v>25</v>
       </c>
       <c r="D72" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="E72" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="K72" t="s">
         <v>25</v>
@@ -13304,10 +13664,10 @@
         <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="E73" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="K73" t="s">
         <v>26</v>
@@ -13318,10 +13678,10 @@
         <v>27</v>
       </c>
       <c r="D74" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E74" t="s">
         <v>1139</v>
-      </c>
-      <c r="E74" t="s">
-        <v>1138</v>
       </c>
       <c r="F74" t="s">
         <v>28</v>
@@ -13335,10 +13695,10 @@
         <v>37</v>
       </c>
       <c r="D75" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E75" t="s">
         <v>1171</v>
-      </c>
-      <c r="E75" t="s">
-        <v>1170</v>
       </c>
       <c r="K75" t="s">
         <v>37</v>
@@ -13349,10 +13709,10 @@
         <v>38</v>
       </c>
       <c r="D76" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E76" t="s">
         <v>1080</v>
-      </c>
-      <c r="E76" t="s">
-        <v>1079</v>
       </c>
       <c r="F76" t="s">
         <v>30</v>
@@ -13369,10 +13729,10 @@
         <v>44</v>
       </c>
       <c r="D77" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E77" t="s">
         <v>1082</v>
-      </c>
-      <c r="E77" t="s">
-        <v>1081</v>
       </c>
       <c r="F77" t="s">
         <v>30</v>
@@ -13392,7 +13752,7 @@
         <v>827</v>
       </c>
       <c r="E78" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="F78" t="s">
         <v>30</v>
@@ -13426,10 +13786,10 @@
         <v>28</v>
       </c>
       <c r="D81" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E81" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="F81" t="s">
         <v>31</v>
@@ -13458,10 +13818,10 @@
         <v>25</v>
       </c>
       <c r="D82" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E82" t="s">
         <v>1115</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1114</v>
       </c>
       <c r="K82" t="s">
         <v>25</v>
@@ -13472,10 +13832,10 @@
         <v>26</v>
       </c>
       <c r="D83" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E83" t="s">
         <v>1117</v>
-      </c>
-      <c r="E83" t="s">
-        <v>1116</v>
       </c>
       <c r="K83" t="s">
         <v>26</v>
@@ -13487,10 +13847,10 @@
       </c>
       <c r="C84" s="15"/>
       <c r="D84" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E84" t="s">
         <v>1111</v>
-      </c>
-      <c r="E84" t="s">
-        <v>1110</v>
       </c>
       <c r="F84" t="s">
         <v>30</v>
@@ -13516,10 +13876,10 @@
         <v>890</v>
       </c>
       <c r="D85" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E85" t="s">
         <v>1102</v>
-      </c>
-      <c r="E85" t="s">
-        <v>1101</v>
       </c>
       <c r="F85" t="s">
         <v>31</v>
@@ -13545,10 +13905,10 @@
         <v>890</v>
       </c>
       <c r="D86" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E86" t="s">
         <v>1104</v>
-      </c>
-      <c r="E86" t="s">
-        <v>1103</v>
       </c>
       <c r="F86" t="s">
         <v>31</v>
@@ -13574,10 +13934,10 @@
         <v>28</v>
       </c>
       <c r="D87" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E87" t="s">
         <v>1106</v>
-      </c>
-      <c r="E87" t="s">
-        <v>1105</v>
       </c>
       <c r="F87" t="s">
         <v>31</v>
@@ -13594,10 +13954,10 @@
         <v>31</v>
       </c>
       <c r="D88" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E88" t="s">
         <v>1108</v>
-      </c>
-      <c r="E88" t="s">
-        <v>1107</v>
       </c>
       <c r="F88" t="s">
         <v>31</v>
@@ -13659,10 +14019,10 @@
         <v>30</v>
       </c>
       <c r="L3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="M3" t="s">
         <v>1013</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13685,10 +14045,10 @@
         <v>31</v>
       </c>
       <c r="L4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M4" t="s">
         <v>1011</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13711,10 +14071,10 @@
         <v>31</v>
       </c>
       <c r="L5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M5" t="s">
         <v>1015</v>
-      </c>
-      <c r="M5" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13737,10 +14097,10 @@
         <v>31</v>
       </c>
       <c r="L6" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M6" t="s">
         <v>1017</v>
-      </c>
-      <c r="M6" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13763,10 +14123,10 @@
         <v>31</v>
       </c>
       <c r="L7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="M7" t="s">
         <v>1019</v>
-      </c>
-      <c r="M7" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13794,7 +14154,7 @@
         <v>929</v>
       </c>
       <c r="E11" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="F11" t="s">
         <v>841</v>
@@ -13829,10 +14189,10 @@
         <v>25</v>
       </c>
       <c r="L12" t="s">
+        <v>1090</v>
+      </c>
+      <c r="M12" t="s">
         <v>1089</v>
-      </c>
-      <c r="M12" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13852,7 +14212,7 @@
         <v>1003</v>
       </c>
       <c r="M13" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13872,10 +14232,10 @@
         <v>27</v>
       </c>
       <c r="L14" t="s">
+        <v>1093</v>
+      </c>
+      <c r="M14" t="s">
         <v>1092</v>
-      </c>
-      <c r="M14" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14036,7 +14396,7 @@
         <v>778</v>
       </c>
       <c r="M23" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14053,10 +14413,10 @@
         <v>26</v>
       </c>
       <c r="L24" t="s">
+        <v>1096</v>
+      </c>
+      <c r="M24" t="s">
         <v>1095</v>
-      </c>
-      <c r="M24" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14076,10 +14436,10 @@
         <v>27</v>
       </c>
       <c r="L25" t="s">
+        <v>1062</v>
+      </c>
+      <c r="M25" t="s">
         <v>1061</v>
-      </c>
-      <c r="M25" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -15800,7 +16160,7 @@
         <v>28</v>
       </c>
       <c r="D128" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="E128" t="s">
         <v>183</v>
@@ -16772,10 +17132,10 @@
         <v>335</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D4" s="12" t="e">
         <f t="shared" ref="D4:D14" si="0">2*B4*C4/(B4+C4)</f>
@@ -17029,8 +17389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AB8D63-802D-4AE5-AEFE-5519D92A8F09}">
   <dimension ref="A1:S88"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:E57"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -17102,10 +17462,10 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="E5" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -17615,7 +17975,7 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="E33" t="s">
         <v>538</v>
@@ -17641,7 +18001,7 @@
         <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="E34" t="s">
         <v>858</v>
@@ -17667,7 +18027,7 @@
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="E35" t="s">
         <v>859</v>
@@ -17803,10 +18163,10 @@
         <v>28</v>
       </c>
       <c r="D43" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E43" t="s">
         <v>1128</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1127</v>
       </c>
       <c r="K43" t="s">
         <v>27</v>
@@ -17832,7 +18192,7 @@
         <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="E44" t="s">
         <v>821</v>
@@ -18639,10 +18999,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -18650,16 +19010,16 @@
         <v>651</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>1662</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>1661</v>
-      </c>
       <c r="I3" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>1662</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>1661</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -18686,10 +19046,10 @@
         <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="J4" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -18697,19 +19057,19 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="E5" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="H5" t="s">
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="J5" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -18717,19 +19077,19 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="E6" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="H6" t="s">
         <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="J6" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -18749,10 +19109,10 @@
         <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="J7" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -18772,10 +19132,10 @@
         <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="J8" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -18795,10 +19155,10 @@
         <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="J9" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -18818,10 +19178,10 @@
         <v>588</v>
       </c>
       <c r="I10" t="s">
+        <v>1688</v>
+      </c>
+      <c r="J10" t="s">
         <v>1687</v>
-      </c>
-      <c r="J10" t="s">
-        <v>1686</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -18841,10 +19201,10 @@
         <v>426</v>
       </c>
       <c r="I11" t="s">
+        <v>1686</v>
+      </c>
+      <c r="J11" t="s">
         <v>1685</v>
-      </c>
-      <c r="J11" t="s">
-        <v>1684</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -18860,19 +19220,19 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="E14" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="H14" t="s">
         <v>24</v>
       </c>
       <c r="I14" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="J14" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -18883,16 +19243,16 @@
         <v>877</v>
       </c>
       <c r="E15" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="H15" t="s">
         <v>25</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -18900,19 +19260,19 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="E16" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H16" t="s">
         <v>26</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -18920,19 +19280,19 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="E17" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="H17" t="s">
         <v>27</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -18940,19 +19300,19 @@
         <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="E18" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="H18" t="s">
         <v>37</v>
       </c>
       <c r="I18" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="J18" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -18960,19 +19320,19 @@
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="E19" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="H19" t="s">
         <v>38</v>
       </c>
       <c r="I19" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="J19" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -18980,19 +19340,19 @@
         <v>588</v>
       </c>
       <c r="D20" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="E20" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="H20" t="s">
         <v>588</v>
       </c>
       <c r="I20" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="J20" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19000,10 +19360,10 @@
         <v>426</v>
       </c>
       <c r="D21" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="E21" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="H21" t="s">
         <v>426</v>
@@ -19011,7 +19371,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19025,10 +19385,10 @@
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="E24" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="F24" t="s">
         <v>652</v>
@@ -19037,10 +19397,10 @@
         <v>24</v>
       </c>
       <c r="I24" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="J24" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19048,19 +19408,19 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="E25" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="H25" t="s">
         <v>25</v>
       </c>
       <c r="I25" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="J25" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19068,19 +19428,19 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="E26" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="H26" t="s">
         <v>26</v>
       </c>
       <c r="I26" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="J26" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19091,19 +19451,19 @@
         <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="E27" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="H27" t="s">
         <v>27</v>
       </c>
       <c r="I27" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="J27" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19114,7 +19474,7 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="E28" t="s">
         <v>979</v>
@@ -19123,7 +19483,7 @@
         <v>37</v>
       </c>
       <c r="I28" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="J28" t="s">
         <v>979</v>
@@ -19134,19 +19494,19 @@
         <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="E29" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="H29" t="s">
         <v>38</v>
       </c>
       <c r="I29" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="J29" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19154,19 +19514,19 @@
         <v>588</v>
       </c>
       <c r="D30" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="E30" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="H30" t="s">
         <v>588</v>
       </c>
       <c r="I30" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="J30" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19177,19 +19537,19 @@
         <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="E31" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="H31" t="s">
         <v>426</v>
       </c>
       <c r="I31" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="J31" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19220,10 +19580,10 @@
         <v>24</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19231,19 +19591,19 @@
         <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="E35" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="H35" t="s">
         <v>25</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="J35" s="19" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19251,19 +19611,19 @@
         <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="E36" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="H36" t="s">
         <v>26</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19283,10 +19643,10 @@
         <v>27</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19300,16 +19660,16 @@
         <v>709</v>
       </c>
       <c r="E38" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="H38" t="s">
         <v>37</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="J38" s="19" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19323,16 +19683,16 @@
         <v>710</v>
       </c>
       <c r="E39" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="H39" t="s">
         <v>38</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="J39" s="19" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -19353,10 +19713,10 @@
         <v>588</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="J40" s="19" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19367,7 +19727,7 @@
         <v>872</v>
       </c>
       <c r="E41" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19383,19 +19743,19 @@
         <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="E44" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="H44" t="s">
         <v>24</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19403,19 +19763,19 @@
         <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="E45" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="H45" t="s">
         <v>25</v>
       </c>
       <c r="I45" s="19" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="J45" s="19" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19423,19 +19783,19 @@
         <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="E46" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="H46" t="s">
         <v>26</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19443,19 +19803,19 @@
         <v>27</v>
       </c>
       <c r="D47" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E47" t="s">
         <v>1413</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1412</v>
       </c>
       <c r="H47" t="s">
         <v>27</v>
       </c>
       <c r="I47" s="19" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19463,19 +19823,19 @@
         <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="E48" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="H48" t="s">
         <v>37</v>
       </c>
       <c r="I48" s="19" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="J48" s="19" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19483,19 +19843,19 @@
         <v>38</v>
       </c>
       <c r="D49" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="E49" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="H49" t="s">
         <v>38</v>
       </c>
       <c r="I49" s="19" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="J49" s="19" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19504,19 +19864,19 @@
         <v>588</v>
       </c>
       <c r="D50" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="E50" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="H50" s="14" t="s">
         <v>588</v>
       </c>
       <c r="I50" s="19" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19527,7 +19887,7 @@
         <v>872</v>
       </c>
       <c r="E51" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19555,10 +19915,10 @@
         <v>24</v>
       </c>
       <c r="I54" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J54" t="s">
         <v>1806</v>
-      </c>
-      <c r="J54" t="s">
-        <v>1805</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19566,19 +19926,19 @@
         <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="E55" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="H55" t="s">
         <v>25</v>
       </c>
       <c r="I55" t="s">
+        <v>1809</v>
+      </c>
+      <c r="J55" t="s">
         <v>1808</v>
-      </c>
-      <c r="J55" t="s">
-        <v>1807</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19586,19 +19946,19 @@
         <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="E56" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="H56" t="s">
         <v>26</v>
       </c>
       <c r="I56" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="J56" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19612,16 +19972,16 @@
         <v>711</v>
       </c>
       <c r="E57" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="H57" t="s">
         <v>27</v>
       </c>
       <c r="I57" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J57" t="s">
         <v>1810</v>
-      </c>
-      <c r="J57" t="s">
-        <v>1809</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19644,7 +20004,7 @@
         <v>722</v>
       </c>
       <c r="J58" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19664,10 +20024,10 @@
         <v>38</v>
       </c>
       <c r="I59" t="s">
+        <v>1815</v>
+      </c>
+      <c r="J59" t="s">
         <v>1814</v>
-      </c>
-      <c r="J59" t="s">
-        <v>1813</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -19720,19 +20080,19 @@
         <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="E64" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="H64" t="s">
         <v>24</v>
       </c>
       <c r="I64" t="s">
+        <v>1797</v>
+      </c>
+      <c r="J64" t="s">
         <v>1796</v>
-      </c>
-      <c r="J64" t="s">
-        <v>1795</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -19740,19 +20100,19 @@
         <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="E65" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="H65" t="s">
         <v>25</v>
       </c>
       <c r="I65" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="J65" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -19760,19 +20120,19 @@
         <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="E66" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="H66" t="s">
         <v>26</v>
       </c>
       <c r="I66" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="J66" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -19780,19 +20140,19 @@
         <v>27</v>
       </c>
       <c r="D67" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="E67" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="H67" t="s">
         <v>27</v>
       </c>
       <c r="I67" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="J67" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -19800,19 +20160,19 @@
         <v>37</v>
       </c>
       <c r="D68" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="E68" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="H68" t="s">
         <v>37</v>
       </c>
       <c r="I68" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="J68" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -19820,19 +20180,19 @@
         <v>38</v>
       </c>
       <c r="D69" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="E69" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="H69" t="s">
         <v>38</v>
       </c>
       <c r="I69" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="J69" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -19840,19 +20200,19 @@
         <v>588</v>
       </c>
       <c r="D70" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="E70" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="H70" t="s">
         <v>588</v>
       </c>
       <c r="I70" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="J70" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -19860,7 +20220,7 @@
         <v>426</v>
       </c>
       <c r="D71" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="E71" t="s">
         <v>766</v>

--- a/results_ver2.xlsx
+++ b/results_ver2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GitHub\Transfer_Learning_HAR\Create-Synthetic-IMU-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB48D5CB-1A57-43D4-8DB8-BECD69A3D62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839A7B05-1535-4249-A963-A533F2CE2C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="4" xr2:uid="{12BA48A7-0233-4943-8246-0FE27207722F}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3713" uniqueCount="2008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3769" uniqueCount="2039">
   <si>
     <t>Validation set</t>
   </si>
@@ -6029,15 +6029,6 @@
     <t>74.82+0.405</t>
   </si>
   <si>
-    <t>71.26+0.208</t>
-  </si>
-  <si>
-    <t>65.99+0.25</t>
-  </si>
-  <si>
-    <t>66.38+0.81</t>
-  </si>
-  <si>
     <t>77.93+0.423</t>
   </si>
   <si>
@@ -6066,6 +6057,108 @@
   </si>
   <si>
     <t>72.87+1.09</t>
+  </si>
+  <si>
+    <t>75.62+0.01</t>
+  </si>
+  <si>
+    <t>78.01+0.5</t>
+  </si>
+  <si>
+    <t>75.46+0,01</t>
+  </si>
+  <si>
+    <t>77,66+0,61</t>
+  </si>
+  <si>
+    <t>74.02+0,01</t>
+  </si>
+  <si>
+    <t>75,12+0,06</t>
+  </si>
+  <si>
+    <t>73.45+0.51</t>
+  </si>
+  <si>
+    <t>72.82+0.02</t>
+  </si>
+  <si>
+    <t>74.97+0,01</t>
+  </si>
+  <si>
+    <t>75,37+0,44</t>
+  </si>
+  <si>
+    <t>72.26+0.02</t>
+  </si>
+  <si>
+    <t>73.87+0.62</t>
+  </si>
+  <si>
+    <t>68.38+0.01</t>
+  </si>
+  <si>
+    <t>69.65+0.54</t>
+  </si>
+  <si>
+    <t>64.69+0.03</t>
+  </si>
+  <si>
+    <t>66.18+0.56</t>
+  </si>
+  <si>
+    <t>75.84+0.01</t>
+  </si>
+  <si>
+    <t>78.65+0.41</t>
+  </si>
+  <si>
+    <t>74.85+0,01</t>
+  </si>
+  <si>
+    <t>77,13+0,61</t>
+  </si>
+  <si>
+    <t>73.11+0,01</t>
+  </si>
+  <si>
+    <t>74,18+0,03</t>
+  </si>
+  <si>
+    <t>72.06+0.01</t>
+  </si>
+  <si>
+    <t>73.41+0.12</t>
+  </si>
+  <si>
+    <t>75.12+0.31</t>
+  </si>
+  <si>
+    <t>72.98+0.01</t>
+  </si>
+  <si>
+    <t>74.26+0.208</t>
+  </si>
+  <si>
+    <t>74.06+0.17</t>
+  </si>
+  <si>
+    <t>66.45+0.02</t>
+  </si>
+  <si>
+    <t>67.38+0.81</t>
+  </si>
+  <si>
+    <t>66.99+0.25</t>
+  </si>
+  <si>
+    <t>67.08+0.81</t>
+  </si>
+  <si>
+    <t>64.98+0.02</t>
+  </si>
+  <si>
+    <t>65.91+0.31</t>
   </si>
 </sst>
 </file>
@@ -14847,7 +14940,7 @@
   <dimension ref="A1:S265"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110"/>
+      <selection activeCell="J117" sqref="J117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -16360,7 +16453,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" t="s">
         <v>366</v>
       </c>
@@ -16381,7 +16474,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" t="s">
         <v>391</v>
       </c>
@@ -16402,15 +16495,24 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>1312</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H100" s="31" t="s">
+        <v>1312</v>
+      </c>
+      <c r="I100" s="31"/>
+      <c r="J100" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="K100" s="31"/>
+      <c r="L100" s="31"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>166</v>
       </c>
@@ -16418,7 +16520,7 @@
         <v>24</v>
       </c>
       <c r="D101" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="E101" t="s">
         <v>1980</v>
@@ -16426,63 +16528,125 @@
       <c r="G101" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H101" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="I101" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J101" s="31" t="s">
+        <v>2006</v>
+      </c>
+      <c r="K101" s="31" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" t="s">
         <v>25</v>
       </c>
       <c r="D102" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="E102" t="s">
         <v>1982</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H102" s="31"/>
+      <c r="I102" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J102" s="31" t="s">
+        <v>2008</v>
+      </c>
+      <c r="K102" s="31" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" t="s">
         <v>26</v>
       </c>
       <c r="D103" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="E103" t="s">
         <v>1984</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H103" s="31"/>
+      <c r="I103" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J103" s="31" t="s">
+        <v>2010</v>
+      </c>
+      <c r="K103" s="31" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" t="s">
         <v>27</v>
       </c>
       <c r="D104" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="E104" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>1998</v>
+      </c>
+      <c r="H104" s="31"/>
+      <c r="I104" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J104" s="31" t="s">
+        <v>2011</v>
+      </c>
+      <c r="K104" s="31" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" t="s">
         <v>37</v>
       </c>
       <c r="D105" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="E105" t="s">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>1999</v>
+      </c>
+      <c r="H105" s="31"/>
+      <c r="I105" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="J105" s="31" t="s">
+        <v>2014</v>
+      </c>
+      <c r="K105" s="31" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" t="s">
         <v>38</v>
       </c>
       <c r="D106" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="E106" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H106" s="31"/>
+      <c r="I106" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="J106" s="31" t="s">
+        <v>2016</v>
+      </c>
+      <c r="K106" s="31" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" t="s">
         <v>44</v>
       </c>
@@ -16490,10 +16654,20 @@
         <v>398</v>
       </c>
       <c r="E107" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>2000</v>
+      </c>
+      <c r="H107" s="31"/>
+      <c r="I107" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="J107" s="31" t="s">
+        <v>2018</v>
+      </c>
+      <c r="K107" s="31" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" t="s">
         <v>391</v>
       </c>
@@ -16501,10 +16675,20 @@
         <v>399</v>
       </c>
       <c r="E108" t="s">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>2001</v>
+      </c>
+      <c r="H108" s="31"/>
+      <c r="I108" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="J108" s="31" t="s">
+        <v>2020</v>
+      </c>
+      <c r="K108" s="31" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" t="s">
         <v>400</v>
       </c>
@@ -16517,16 +16701,38 @@
       <c r="F109" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H109" s="31"/>
+      <c r="I109" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="J109" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="K109" s="31" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="H110" s="31"/>
+      <c r="I110" s="31"/>
+      <c r="J110" s="31"/>
+      <c r="K110" s="31"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>1312</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H111" s="31" t="s">
+        <v>1312</v>
+      </c>
+      <c r="I111" s="31"/>
+      <c r="J111" s="31"/>
+      <c r="K111" s="31"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>48</v>
       </c>
@@ -16542,8 +16748,20 @@
       <c r="G112" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H112" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I112" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J112" s="31" t="s">
+        <v>2022</v>
+      </c>
+      <c r="K112" s="31" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" t="s">
         <v>25</v>
       </c>
@@ -16553,8 +16771,18 @@
       <c r="E113" t="s">
         <v>1983</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H113" s="31"/>
+      <c r="I113" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J113" s="31" t="s">
+        <v>2024</v>
+      </c>
+      <c r="K113" s="31" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" t="s">
         <v>26</v>
       </c>
@@ -16564,8 +16792,18 @@
       <c r="E114" t="s">
         <v>1985</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H114" s="31"/>
+      <c r="I114" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J114" s="31" t="s">
+        <v>2026</v>
+      </c>
+      <c r="K114" s="31" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" t="s">
         <v>27</v>
       </c>
@@ -16575,8 +16813,18 @@
       <c r="E115" t="s">
         <v>1991</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H115" s="31"/>
+      <c r="I115" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J115" s="31" t="s">
+        <v>2028</v>
+      </c>
+      <c r="K115" s="31" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" t="s">
         <v>37</v>
       </c>
@@ -16586,46 +16834,86 @@
       <c r="E116" s="31" t="s">
         <v>1990</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H116" s="31"/>
+      <c r="I116" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="J116" s="31" t="s">
+        <v>2029</v>
+      </c>
+      <c r="K116" s="31" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" t="s">
         <v>38</v>
       </c>
       <c r="D117" t="s">
-        <v>1995</v>
+        <v>2031</v>
       </c>
       <c r="E117" t="s">
         <v>1992</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H117" s="31"/>
+      <c r="I117" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="J117" s="31" t="s">
+        <v>2032</v>
+      </c>
+      <c r="K117" s="31" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" t="s">
         <v>44</v>
       </c>
       <c r="D118" t="s">
-        <v>1997</v>
+        <v>2034</v>
       </c>
       <c r="E118" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H118" s="31"/>
+      <c r="I118" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="J118" s="31" t="s">
+        <v>2036</v>
+      </c>
+      <c r="K118" s="31" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" t="s">
         <v>391</v>
       </c>
       <c r="D119" t="s">
-        <v>1996</v>
+        <v>2035</v>
       </c>
       <c r="E119" t="s">
         <v>1993</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H119" s="31"/>
+      <c r="I119" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="J119" s="31" t="s">
+        <v>2038</v>
+      </c>
+      <c r="K119" s="31" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>148</v>
       </c>
@@ -16639,7 +16927,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>165</v>
       </c>
@@ -16650,12 +16938,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I126" s="32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>60</v>
       </c>
@@ -16680,7 +16968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>166</v>
       </c>

--- a/results_ver2.xlsx
+++ b/results_ver2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GitHub\Transfer_Learning_HAR\Create-Synthetic-IMU-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A73699-8E17-43E2-8C45-3A887A2FF2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5E8F33-E379-4388-B782-85DA1711EE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="4" xr2:uid="{12BA48A7-0233-4943-8246-0FE27207722F}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="2023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3701" uniqueCount="2014">
   <si>
     <t>Validation set</t>
   </si>
@@ -2716,27 +2716,15 @@
     <t>76.80+0,003</t>
   </si>
   <si>
-    <t>74.82+0,003</t>
-  </si>
-  <si>
     <t>76,29+0,002</t>
   </si>
   <si>
-    <t>66.38+0,.012</t>
-  </si>
-  <si>
     <t>68.24+0.009</t>
   </si>
   <si>
-    <t>73.88+0.001</t>
-  </si>
-  <si>
     <t>75.73+0.002</t>
   </si>
   <si>
-    <t>70.29+0.006</t>
-  </si>
-  <si>
     <t>72.07+0.01</t>
   </si>
   <si>
@@ -2770,12 +2758,6 @@
     <t>77.16+0.004</t>
   </si>
   <si>
-    <t>76.04+0.006</t>
-  </si>
-  <si>
-    <t>75.52+0,004</t>
-  </si>
-  <si>
     <t>77.46+0.006</t>
   </si>
   <si>
@@ -2785,9 +2767,6 @@
     <t>68.15+0.01</t>
   </si>
   <si>
-    <t>65.18+0.03</t>
-  </si>
-  <si>
     <t>68.07+0.01</t>
   </si>
   <si>
@@ -2797,9 +2776,6 @@
     <t>72.91+0.014</t>
   </si>
   <si>
-    <t>74.75+0.004</t>
-  </si>
-  <si>
     <t>76.65+0.003</t>
   </si>
   <si>
@@ -3073,9 +3049,6 @@
     <t>75,95+0,08</t>
   </si>
   <si>
-    <t>75,23+0,06</t>
-  </si>
-  <si>
     <t>76,55+0,01</t>
   </si>
   <si>
@@ -3085,21 +3058,12 @@
     <t>76,33+0,03</t>
   </si>
   <si>
-    <t>75,69+0,01</t>
-  </si>
-  <si>
     <t>77,03+0,02</t>
   </si>
   <si>
-    <t>75,11+0,02</t>
-  </si>
-  <si>
     <t>76,83+0,03</t>
   </si>
   <si>
-    <t>74,86+0,01</t>
-  </si>
-  <si>
     <t>76,69+0,01</t>
   </si>
   <si>
@@ -3310,9 +3274,6 @@
     <t>66.11+0.04</t>
   </si>
   <si>
-    <t>65.99+0.02</t>
-  </si>
-  <si>
     <t>65.86+0.01</t>
   </si>
   <si>
@@ -6031,39 +5992,6 @@
     <t>65.91+0.31</t>
   </si>
   <si>
-    <t>75.36+0.01</t>
-  </si>
-  <si>
-    <t>74.99+0.01</t>
-  </si>
-  <si>
-    <t>74.32+0.02</t>
-  </si>
-  <si>
-    <t>73.99+0.01</t>
-  </si>
-  <si>
-    <t>67.01+0.03</t>
-  </si>
-  <si>
-    <t>75.32+0.01</t>
-  </si>
-  <si>
-    <t>75.02+0.03</t>
-  </si>
-  <si>
-    <t>74.69+0.02</t>
-  </si>
-  <si>
-    <t>74.36+0.02</t>
-  </si>
-  <si>
-    <t>68.34+0.01</t>
-  </si>
-  <si>
-    <t>66.95+0.03</t>
-  </si>
-  <si>
     <t>76.77+0.49</t>
   </si>
   <si>
@@ -6110,6 +6038,51 @@
   </si>
   <si>
     <t>68.13+0.24</t>
+  </si>
+  <si>
+    <t>75.26+0.01</t>
+  </si>
+  <si>
+    <t>73.22+0.02</t>
+  </si>
+  <si>
+    <t>72.69+0.01</t>
+  </si>
+  <si>
+    <t>73.18+0.01</t>
+  </si>
+  <si>
+    <t>71.18+0.02</t>
+  </si>
+  <si>
+    <t>65.01+0.03</t>
+  </si>
+  <si>
+    <t>64.09+0.02</t>
+  </si>
+  <si>
+    <t>75.02+0.01</t>
+  </si>
+  <si>
+    <t>74.58+0.03</t>
+  </si>
+  <si>
+    <t>74.39+0.02</t>
+  </si>
+  <si>
+    <t>72.36+0.02</t>
+  </si>
+  <si>
+    <t>73.25+0.01</t>
+  </si>
+  <si>
+    <t>71.51+0.01</t>
+  </si>
+  <si>
+    <t>66.84+0.01</t>
+  </si>
+  <si>
+    <t>64.85+0.03</t>
   </si>
 </sst>
 </file>
@@ -6771,10 +6744,10 @@
         <v>131</v>
       </c>
       <c r="J8" t="s">
-        <v>1321</v>
+        <v>1308</v>
       </c>
       <c r="K8" t="s">
-        <v>1297</v>
+        <v>1284</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -6786,7 +6759,7 @@
         <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="Q8">
         <v>100</v>
@@ -6818,7 +6791,7 @@
         <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="Q9">
         <v>100</v>
@@ -6832,10 +6805,10 @@
         <v>133</v>
       </c>
       <c r="J10" t="s">
-        <v>1301</v>
+        <v>1288</v>
       </c>
       <c r="K10" t="s">
-        <v>1276</v>
+        <v>1263</v>
       </c>
       <c r="L10">
         <v>100</v>
@@ -6847,7 +6820,7 @@
         <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="Q10">
         <v>100</v>
@@ -6876,7 +6849,7 @@
         <v>100</v>
       </c>
       <c r="O11" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="Q11">
         <v>100</v>
@@ -6890,10 +6863,10 @@
         <v>341</v>
       </c>
       <c r="J12" t="s">
-        <v>1277</v>
+        <v>1264</v>
       </c>
       <c r="K12" t="s">
-        <v>1276</v>
+        <v>1263</v>
       </c>
       <c r="L12">
         <v>100</v>
@@ -6905,7 +6878,7 @@
         <v>100</v>
       </c>
       <c r="O12" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="Q12">
         <v>100</v>
@@ -6916,13 +6889,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>1278</v>
+        <v>1265</v>
       </c>
       <c r="J14" t="s">
-        <v>1285</v>
+        <v>1272</v>
       </c>
       <c r="K14" t="s">
-        <v>1284</v>
+        <v>1271</v>
       </c>
       <c r="L14">
         <v>100</v>
@@ -6934,7 +6907,7 @@
         <v>10</v>
       </c>
       <c r="O14" t="s">
-        <v>1320</v>
+        <v>1307</v>
       </c>
       <c r="Q14">
         <v>200</v>
@@ -6945,13 +6918,13 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>1279</v>
+        <v>1266</v>
       </c>
       <c r="J15" t="s">
-        <v>1289</v>
+        <v>1276</v>
       </c>
       <c r="K15" t="s">
-        <v>1286</v>
+        <v>1273</v>
       </c>
       <c r="L15">
         <v>100</v>
@@ -6963,7 +6936,7 @@
         <v>10</v>
       </c>
       <c r="O15" t="s">
-        <v>1320</v>
+        <v>1307</v>
       </c>
       <c r="Q15">
         <v>200</v>
@@ -6974,10 +6947,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>1280</v>
+        <v>1267</v>
       </c>
       <c r="J16" t="s">
-        <v>1290</v>
+        <v>1277</v>
       </c>
       <c r="K16" t="s">
         <v>782</v>
@@ -6992,7 +6965,7 @@
         <v>10</v>
       </c>
       <c r="O16" t="s">
-        <v>1320</v>
+        <v>1307</v>
       </c>
       <c r="Q16">
         <v>200</v>
@@ -7003,13 +6976,13 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>1281</v>
+        <v>1268</v>
       </c>
       <c r="J17" t="s">
-        <v>1291</v>
+        <v>1278</v>
       </c>
       <c r="K17" t="s">
-        <v>1287</v>
+        <v>1274</v>
       </c>
       <c r="L17">
         <v>100</v>
@@ -7021,7 +6994,7 @@
         <v>10</v>
       </c>
       <c r="O17" t="s">
-        <v>1320</v>
+        <v>1307</v>
       </c>
       <c r="Q17">
         <v>200</v>
@@ -7032,13 +7005,13 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>1282</v>
+        <v>1269</v>
       </c>
       <c r="J18" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
       <c r="K18" t="s">
-        <v>1288</v>
+        <v>1275</v>
       </c>
       <c r="L18">
         <v>100</v>
@@ -7050,7 +7023,7 @@
         <v>10</v>
       </c>
       <c r="O18" t="s">
-        <v>1320</v>
+        <v>1307</v>
       </c>
       <c r="Q18">
         <v>200</v>
@@ -7061,13 +7034,13 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>1315</v>
+        <v>1302</v>
       </c>
       <c r="J20" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="K20" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="L20">
         <v>100</v>
@@ -7079,7 +7052,7 @@
         <v>35</v>
       </c>
       <c r="O20" t="s">
-        <v>1320</v>
+        <v>1307</v>
       </c>
       <c r="Q20">
         <v>200</v>
@@ -7090,13 +7063,13 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>1316</v>
+        <v>1303</v>
       </c>
       <c r="J21" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="K21" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="L21">
         <v>100</v>
@@ -7108,7 +7081,7 @@
         <v>35</v>
       </c>
       <c r="O21" t="s">
-        <v>1320</v>
+        <v>1307</v>
       </c>
       <c r="Q21">
         <v>200</v>
@@ -7119,13 +7092,13 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>1317</v>
+        <v>1304</v>
       </c>
       <c r="J22" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="K22" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="L22">
         <v>100</v>
@@ -7137,7 +7110,7 @@
         <v>35</v>
       </c>
       <c r="O22" t="s">
-        <v>1320</v>
+        <v>1307</v>
       </c>
       <c r="Q22">
         <v>200</v>
@@ -7148,13 +7121,13 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>1318</v>
+        <v>1305</v>
       </c>
       <c r="J23" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="K23" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="L23">
         <v>100</v>
@@ -7166,7 +7139,7 @@
         <v>35</v>
       </c>
       <c r="O23" t="s">
-        <v>1320</v>
+        <v>1307</v>
       </c>
       <c r="Q23">
         <v>200</v>
@@ -7177,13 +7150,13 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>1319</v>
+        <v>1306</v>
       </c>
       <c r="J24" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="K24" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="L24">
         <v>100</v>
@@ -7195,7 +7168,7 @@
         <v>35</v>
       </c>
       <c r="O24" t="s">
-        <v>1320</v>
+        <v>1307</v>
       </c>
       <c r="Q24">
         <v>200</v>
@@ -7206,13 +7179,13 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>1292</v>
+        <v>1279</v>
       </c>
       <c r="J26" t="s">
-        <v>1301</v>
+        <v>1288</v>
       </c>
       <c r="K26" t="s">
-        <v>1296</v>
+        <v>1283</v>
       </c>
       <c r="L26">
         <v>24</v>
@@ -7224,7 +7197,7 @@
         <v>100</v>
       </c>
       <c r="O26" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="Q26">
         <v>200</v>
@@ -7235,13 +7208,13 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>1293</v>
+        <v>1280</v>
       </c>
       <c r="J27" t="s">
-        <v>1302</v>
+        <v>1289</v>
       </c>
       <c r="K27" t="s">
-        <v>1297</v>
+        <v>1284</v>
       </c>
       <c r="L27">
         <v>24</v>
@@ -7253,7 +7226,7 @@
         <v>100</v>
       </c>
       <c r="O27" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="Q27">
         <v>200</v>
@@ -7264,13 +7237,13 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>1294</v>
+        <v>1281</v>
       </c>
       <c r="J28" t="s">
-        <v>1303</v>
+        <v>1290</v>
       </c>
       <c r="K28" t="s">
-        <v>1298</v>
+        <v>1285</v>
       </c>
       <c r="L28">
         <v>24</v>
@@ -7282,7 +7255,7 @@
         <v>100</v>
       </c>
       <c r="O28" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="Q28">
         <v>200</v>
@@ -7293,13 +7266,13 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>1295</v>
+        <v>1282</v>
       </c>
       <c r="J29" t="s">
-        <v>1304</v>
+        <v>1291</v>
       </c>
       <c r="K29" t="s">
-        <v>1299</v>
+        <v>1286</v>
       </c>
       <c r="L29">
         <v>24</v>
@@ -7311,7 +7284,7 @@
         <v>100</v>
       </c>
       <c r="O29" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="Q29">
         <v>200</v>
@@ -7328,7 +7301,7 @@
         <v>350</v>
       </c>
       <c r="K30" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="L30">
         <v>24</v>
@@ -7340,7 +7313,7 @@
         <v>100</v>
       </c>
       <c r="O30" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="Q30">
         <v>200</v>
@@ -7351,13 +7324,13 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>1305</v>
+        <v>1292</v>
       </c>
       <c r="J32" t="s">
-        <v>1312</v>
+        <v>1299</v>
       </c>
       <c r="K32" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
       <c r="L32">
         <v>24</v>
@@ -7369,7 +7342,7 @@
         <v>104</v>
       </c>
       <c r="O32" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="Q32">
         <v>200</v>
@@ -7380,13 +7353,13 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>1306</v>
+        <v>1293</v>
       </c>
       <c r="J33" t="s">
-        <v>1313</v>
+        <v>1300</v>
       </c>
       <c r="K33" t="s">
-        <v>1308</v>
+        <v>1295</v>
       </c>
       <c r="L33">
         <v>24</v>
@@ -7398,7 +7371,7 @@
         <v>104</v>
       </c>
       <c r="O33" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="Q33">
         <v>200</v>
@@ -7412,10 +7385,10 @@
         <v>476</v>
       </c>
       <c r="J34" t="s">
-        <v>1302</v>
+        <v>1289</v>
       </c>
       <c r="K34" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
       <c r="L34">
         <v>24</v>
@@ -7427,7 +7400,7 @@
         <v>104</v>
       </c>
       <c r="O34" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="Q34">
         <v>200</v>
@@ -7441,10 +7414,10 @@
         <v>477</v>
       </c>
       <c r="J35" t="s">
-        <v>1314</v>
+        <v>1301</v>
       </c>
       <c r="K35" t="s">
-        <v>1310</v>
+        <v>1297</v>
       </c>
       <c r="L35">
         <v>24</v>
@@ -7456,7 +7429,7 @@
         <v>104</v>
       </c>
       <c r="O35" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="Q35">
         <v>200</v>
@@ -7473,7 +7446,7 @@
         <v>638</v>
       </c>
       <c r="K36" t="s">
-        <v>1311</v>
+        <v>1298</v>
       </c>
       <c r="L36">
         <v>24</v>
@@ -7485,7 +7458,7 @@
         <v>104</v>
       </c>
       <c r="O36" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="Q36">
         <v>200</v>
@@ -7497,7 +7470,7 @@
     <row r="37" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="38" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="28" t="s">
-        <v>1831</v>
+        <v>1818</v>
       </c>
       <c r="C38" s="28" t="s">
         <v>606</v>
@@ -7605,13 +7578,13 @@
         <v>23</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I46" s="28" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
       <c r="J46" s="28" t="s">
         <v>10</v>
@@ -7674,10 +7647,10 @@
         <v>314</v>
       </c>
       <c r="I49" t="s">
-        <v>1325</v>
+        <v>1312</v>
       </c>
       <c r="J49" t="s">
-        <v>1324</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7705,7 +7678,7 @@
         <v>32</v>
       </c>
       <c r="E51" t="s">
-        <v>1322</v>
+        <v>1309</v>
       </c>
       <c r="I51" t="s">
         <v>39</v>
@@ -7725,10 +7698,10 @@
         <v>50</v>
       </c>
       <c r="I52" t="s">
-        <v>1327</v>
+        <v>1314</v>
       </c>
       <c r="J52" t="s">
-        <v>1326</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7742,10 +7715,10 @@
         <v>518</v>
       </c>
       <c r="I53" t="s">
-        <v>1329</v>
+        <v>1316</v>
       </c>
       <c r="J53" t="s">
-        <v>1328</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7846,7 +7819,7 @@
         <v>260</v>
       </c>
       <c r="E61" t="s">
-        <v>1323</v>
+        <v>1310</v>
       </c>
       <c r="I61" t="s">
         <v>57</v>
@@ -7883,10 +7856,10 @@
         <v>519</v>
       </c>
       <c r="I63" t="s">
-        <v>1331</v>
+        <v>1318</v>
       </c>
       <c r="J63" t="s">
-        <v>1330</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7900,10 +7873,10 @@
         <v>516</v>
       </c>
       <c r="I64" t="s">
-        <v>1333</v>
+        <v>1320</v>
       </c>
       <c r="J64" t="s">
-        <v>1332</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7934,10 +7907,10 @@
         <v>24</v>
       </c>
       <c r="I67" t="s">
-        <v>1384</v>
+        <v>1371</v>
       </c>
       <c r="J67" t="s">
-        <v>1385</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7945,19 +7918,19 @@
         <v>25</v>
       </c>
       <c r="D68" t="s">
-        <v>1334</v>
+        <v>1321</v>
       </c>
       <c r="E68" t="s">
-        <v>1335</v>
+        <v>1322</v>
       </c>
       <c r="H68" s="27" t="s">
         <v>25</v>
       </c>
       <c r="I68" t="s">
-        <v>1386</v>
+        <v>1373</v>
       </c>
       <c r="J68" t="s">
-        <v>1387</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7965,19 +7938,19 @@
         <v>26</v>
       </c>
       <c r="D69" t="s">
-        <v>1336</v>
+        <v>1323</v>
       </c>
       <c r="E69" t="s">
-        <v>1308</v>
+        <v>1295</v>
       </c>
       <c r="H69" s="27" t="s">
         <v>26</v>
       </c>
       <c r="I69" t="s">
-        <v>1388</v>
+        <v>1375</v>
       </c>
       <c r="J69" t="s">
-        <v>1389</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7994,10 +7967,10 @@
         <v>27</v>
       </c>
       <c r="I70" t="s">
-        <v>1397</v>
+        <v>1384</v>
       </c>
       <c r="J70" t="s">
-        <v>1396</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8014,10 +7987,10 @@
         <v>37</v>
       </c>
       <c r="I71" t="s">
-        <v>1390</v>
+        <v>1377</v>
       </c>
       <c r="J71" t="s">
-        <v>1391</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8034,10 +8007,10 @@
         <v>38</v>
       </c>
       <c r="I72" t="s">
-        <v>1392</v>
+        <v>1379</v>
       </c>
       <c r="J72" t="s">
-        <v>1393</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8054,10 +8027,10 @@
         <v>44</v>
       </c>
       <c r="I73" t="s">
-        <v>1394</v>
+        <v>1381</v>
       </c>
       <c r="J73" t="s">
-        <v>1395</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8065,7 +8038,7 @@
         <v>365</v>
       </c>
       <c r="D74" t="s">
-        <v>1069</v>
+        <v>1057</v>
       </c>
       <c r="E74" t="s">
         <v>378</v>
@@ -8105,10 +8078,10 @@
         <v>24</v>
       </c>
       <c r="I77" t="s">
-        <v>1360</v>
+        <v>1347</v>
       </c>
       <c r="J77" t="s">
-        <v>1361</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8116,19 +8089,19 @@
         <v>25</v>
       </c>
       <c r="D78" t="s">
-        <v>1339</v>
+        <v>1326</v>
       </c>
       <c r="E78" t="s">
-        <v>1338</v>
+        <v>1325</v>
       </c>
       <c r="H78" s="27" t="s">
         <v>25</v>
       </c>
       <c r="I78" t="s">
-        <v>1362</v>
+        <v>1349</v>
       </c>
       <c r="J78" t="s">
-        <v>1363</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8136,19 +8109,19 @@
         <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>1340</v>
+        <v>1327</v>
       </c>
       <c r="E79" t="s">
-        <v>1337</v>
+        <v>1324</v>
       </c>
       <c r="H79" s="27" t="s">
         <v>26</v>
       </c>
       <c r="I79" t="s">
-        <v>1373</v>
+        <v>1360</v>
       </c>
       <c r="J79" t="s">
-        <v>1372</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8165,10 +8138,10 @@
         <v>27</v>
       </c>
       <c r="I80" t="s">
-        <v>1364</v>
+        <v>1351</v>
       </c>
       <c r="J80" t="s">
-        <v>1365</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8176,19 +8149,19 @@
         <v>37</v>
       </c>
       <c r="D81" t="s">
-        <v>1342</v>
+        <v>1329</v>
       </c>
       <c r="E81" t="s">
-        <v>1341</v>
+        <v>1328</v>
       </c>
       <c r="H81" s="27" t="s">
         <v>37</v>
       </c>
       <c r="I81" t="s">
-        <v>1366</v>
+        <v>1353</v>
       </c>
       <c r="J81" t="s">
-        <v>1367</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8205,10 +8178,10 @@
         <v>38</v>
       </c>
       <c r="I82" t="s">
-        <v>1368</v>
+        <v>1355</v>
       </c>
       <c r="J82" t="s">
-        <v>1369</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8225,10 +8198,10 @@
         <v>44</v>
       </c>
       <c r="I83" t="s">
-        <v>1370</v>
+        <v>1357</v>
       </c>
       <c r="J83" t="s">
-        <v>1371</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8236,7 +8209,7 @@
         <v>354</v>
       </c>
       <c r="D84" t="s">
-        <v>1070</v>
+        <v>1058</v>
       </c>
       <c r="E84" t="s">
         <v>404</v>
@@ -8264,7 +8237,7 @@
         <v>385</v>
       </c>
       <c r="E87" t="s">
-        <v>1345</v>
+        <v>1332</v>
       </c>
       <c r="H87" s="27" t="s">
         <v>24</v>
@@ -8273,7 +8246,7 @@
         <v>339</v>
       </c>
       <c r="J87" t="s">
-        <v>1398</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8284,16 +8257,16 @@
         <v>386</v>
       </c>
       <c r="E88" t="s">
-        <v>1346</v>
+        <v>1333</v>
       </c>
       <c r="H88" s="27" t="s">
         <v>25</v>
       </c>
       <c r="I88" t="s">
-        <v>1399</v>
+        <v>1386</v>
       </c>
       <c r="J88" t="s">
-        <v>1400</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8301,19 +8274,19 @@
         <v>26</v>
       </c>
       <c r="D89" t="s">
-        <v>1344</v>
+        <v>1331</v>
       </c>
       <c r="E89" t="s">
-        <v>1343</v>
+        <v>1330</v>
       </c>
       <c r="H89" s="27" t="s">
         <v>26</v>
       </c>
       <c r="I89" t="s">
-        <v>1410</v>
+        <v>1397</v>
       </c>
       <c r="J89" t="s">
-        <v>1409</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8321,19 +8294,19 @@
         <v>27</v>
       </c>
       <c r="D90" t="s">
-        <v>1353</v>
+        <v>1340</v>
       </c>
       <c r="E90" t="s">
-        <v>1350</v>
+        <v>1337</v>
       </c>
       <c r="H90" s="27" t="s">
         <v>27</v>
       </c>
       <c r="I90" t="s">
-        <v>1401</v>
+        <v>1388</v>
       </c>
       <c r="J90" t="s">
-        <v>1402</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8341,19 +8314,19 @@
         <v>37</v>
       </c>
       <c r="D91" t="s">
-        <v>1352</v>
+        <v>1339</v>
       </c>
       <c r="E91" t="s">
-        <v>1349</v>
+        <v>1336</v>
       </c>
       <c r="H91" s="27" t="s">
         <v>37</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>1403</v>
+        <v>1390</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>1404</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8361,19 +8334,19 @@
         <v>38</v>
       </c>
       <c r="D92" t="s">
-        <v>1351</v>
+        <v>1338</v>
       </c>
       <c r="E92" t="s">
-        <v>1348</v>
+        <v>1335</v>
       </c>
       <c r="H92" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>1405</v>
+        <v>1392</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>1406</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8381,10 +8354,10 @@
         <v>44</v>
       </c>
       <c r="D93" t="s">
-        <v>1354</v>
+        <v>1341</v>
       </c>
       <c r="E93" t="s">
-        <v>1347</v>
+        <v>1334</v>
       </c>
       <c r="G93" t="s">
         <v>30</v>
@@ -8393,10 +8366,10 @@
         <v>44</v>
       </c>
       <c r="I93" t="s">
-        <v>1407</v>
+        <v>1394</v>
       </c>
       <c r="J93" t="s">
-        <v>1408</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8441,10 +8414,10 @@
         <v>24</v>
       </c>
       <c r="I97" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>1375</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8452,10 +8425,10 @@
         <v>25</v>
       </c>
       <c r="D98" t="s">
-        <v>1359</v>
+        <v>1346</v>
       </c>
       <c r="E98" t="s">
-        <v>1355</v>
+        <v>1342</v>
       </c>
       <c r="H98" s="27" t="s">
         <v>25</v>
@@ -8472,7 +8445,7 @@
         <v>26</v>
       </c>
       <c r="D99" t="s">
-        <v>1358</v>
+        <v>1345</v>
       </c>
       <c r="E99" t="s">
         <v>726</v>
@@ -8481,10 +8454,10 @@
         <v>26</v>
       </c>
       <c r="I99" t="s">
-        <v>1336</v>
+        <v>1323</v>
       </c>
       <c r="J99" t="s">
-        <v>1383</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8501,10 +8474,10 @@
         <v>27</v>
       </c>
       <c r="I100" t="s">
-        <v>1376</v>
+        <v>1363</v>
       </c>
       <c r="J100" t="s">
-        <v>1377</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8524,7 +8497,7 @@
         <v>195</v>
       </c>
       <c r="J101" t="s">
-        <v>1378</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8535,16 +8508,16 @@
         <v>398</v>
       </c>
       <c r="E102" t="s">
-        <v>1356</v>
+        <v>1343</v>
       </c>
       <c r="H102" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I102" t="s">
-        <v>1379</v>
+        <v>1366</v>
       </c>
       <c r="J102" t="s">
-        <v>1380</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8555,16 +8528,16 @@
         <v>396</v>
       </c>
       <c r="E103" t="s">
-        <v>1357</v>
+        <v>1344</v>
       </c>
       <c r="H103" s="27" t="s">
         <v>44</v>
       </c>
       <c r="I103" t="s">
-        <v>1381</v>
+        <v>1368</v>
       </c>
       <c r="J103" t="s">
-        <v>1382</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8583,7 +8556,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>1283</v>
+        <v>1270</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>29</v>
@@ -8609,10 +8582,10 @@
         <v>24</v>
       </c>
       <c r="I107" t="s">
-        <v>1412</v>
+        <v>1399</v>
       </c>
       <c r="J107" t="s">
-        <v>1411</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8629,10 +8602,10 @@
         <v>25</v>
       </c>
       <c r="I108" t="s">
-        <v>1414</v>
+        <v>1401</v>
       </c>
       <c r="J108" t="s">
-        <v>1413</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8649,10 +8622,10 @@
         <v>26</v>
       </c>
       <c r="I109" t="s">
-        <v>1416</v>
+        <v>1403</v>
       </c>
       <c r="J109" t="s">
-        <v>1415</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8669,10 +8642,10 @@
         <v>27</v>
       </c>
       <c r="I110" t="s">
-        <v>1418</v>
+        <v>1405</v>
       </c>
       <c r="J110" t="s">
-        <v>1417</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8689,10 +8662,10 @@
         <v>37</v>
       </c>
       <c r="I111" t="s">
-        <v>1420</v>
+        <v>1407</v>
       </c>
       <c r="J111" t="s">
-        <v>1419</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8700,19 +8673,19 @@
         <v>38</v>
       </c>
       <c r="D112" t="s">
-        <v>1086</v>
+        <v>1074</v>
       </c>
       <c r="E112" t="s">
-        <v>1085</v>
+        <v>1073</v>
       </c>
       <c r="H112" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I112" t="s">
-        <v>1422</v>
+        <v>1409</v>
       </c>
       <c r="J112" t="s">
-        <v>1421</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8729,10 +8702,10 @@
         <v>44</v>
       </c>
       <c r="I113" t="s">
-        <v>1424</v>
+        <v>1411</v>
       </c>
       <c r="J113" t="s">
-        <v>1423</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8749,15 +8722,15 @@
         <v>354</v>
       </c>
       <c r="I114" t="s">
-        <v>1426</v>
+        <v>1413</v>
       </c>
       <c r="J114" t="s">
-        <v>1425</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>1283</v>
+        <v>1270</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>29</v>
@@ -8774,7 +8747,7 @@
         <v>786</v>
       </c>
       <c r="E117" t="s">
-        <v>1121</v>
+        <v>1108</v>
       </c>
       <c r="G117" t="s">
         <v>249</v>
@@ -8783,10 +8756,10 @@
         <v>24</v>
       </c>
       <c r="I117" t="s">
-        <v>1428</v>
+        <v>1415</v>
       </c>
       <c r="J117" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8803,10 +8776,10 @@
         <v>25</v>
       </c>
       <c r="I118" t="s">
-        <v>1430</v>
+        <v>1417</v>
       </c>
       <c r="J118" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8823,10 +8796,10 @@
         <v>26</v>
       </c>
       <c r="I119" t="s">
-        <v>1432</v>
+        <v>1419</v>
       </c>
       <c r="J119" t="s">
-        <v>1431</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8843,10 +8816,10 @@
         <v>27</v>
       </c>
       <c r="I120" t="s">
-        <v>1433</v>
+        <v>1420</v>
       </c>
       <c r="J120" t="s">
-        <v>1434</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8863,10 +8836,10 @@
         <v>37</v>
       </c>
       <c r="I121" t="s">
-        <v>1436</v>
+        <v>1423</v>
       </c>
       <c r="J121" t="s">
-        <v>1435</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8883,10 +8856,10 @@
         <v>38</v>
       </c>
       <c r="I122" t="s">
-        <v>1438</v>
+        <v>1425</v>
       </c>
       <c r="J122" t="s">
-        <v>1437</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8903,10 +8876,10 @@
         <v>44</v>
       </c>
       <c r="I123" t="s">
-        <v>1439</v>
+        <v>1426</v>
       </c>
       <c r="J123" t="s">
-        <v>1145</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8914,19 +8887,19 @@
         <v>365</v>
       </c>
       <c r="D124" t="s">
-        <v>1088</v>
+        <v>1076</v>
       </c>
       <c r="E124" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
       <c r="H124" s="27" t="s">
         <v>354</v>
       </c>
       <c r="I124" t="s">
-        <v>1441</v>
+        <v>1428</v>
       </c>
       <c r="J124" t="s">
-        <v>1440</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -9077,10 +9050,10 @@
         <v>44</v>
       </c>
       <c r="D133" t="s">
-        <v>1490</v>
+        <v>1477</v>
       </c>
       <c r="E133" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="H133" t="s">
         <v>44</v>
@@ -9089,7 +9062,7 @@
         <v>63</v>
       </c>
       <c r="J133" t="s">
-        <v>1494</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -9100,16 +9073,16 @@
         <v>603</v>
       </c>
       <c r="E134" t="s">
-        <v>1491</v>
+        <v>1478</v>
       </c>
       <c r="H134" t="s">
         <v>365</v>
       </c>
       <c r="I134" t="s">
-        <v>1495</v>
+        <v>1482</v>
       </c>
       <c r="J134" t="s">
-        <v>1496</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -9183,7 +9156,7 @@
         <v>77</v>
       </c>
       <c r="E139" t="s">
-        <v>1492</v>
+        <v>1479</v>
       </c>
       <c r="H139" t="s">
         <v>26</v>
@@ -9283,7 +9256,7 @@
         <v>513</v>
       </c>
       <c r="E144" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="H144" t="s">
         <v>365</v>
@@ -9291,7 +9264,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
-        <v>1497</v>
+        <v>1484</v>
       </c>
       <c r="I146" s="1" t="s">
         <v>43</v>
@@ -9308,7 +9281,7 @@
         <v>826</v>
       </c>
       <c r="E147" t="s">
-        <v>1124</v>
+        <v>1111</v>
       </c>
       <c r="G147" t="s">
         <v>753</v>
@@ -9317,10 +9290,10 @@
         <v>24</v>
       </c>
       <c r="I147" t="s">
-        <v>1507</v>
+        <v>1494</v>
       </c>
       <c r="J147" t="s">
-        <v>1501</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9337,10 +9310,10 @@
         <v>25</v>
       </c>
       <c r="I148" t="s">
-        <v>1506</v>
+        <v>1493</v>
       </c>
       <c r="J148" t="s">
-        <v>1502</v>
+        <v>1489</v>
       </c>
       <c r="K148" t="s">
         <v>30</v>
@@ -9360,10 +9333,10 @@
         <v>26</v>
       </c>
       <c r="I149" t="s">
-        <v>1505</v>
+        <v>1492</v>
       </c>
       <c r="J149" t="s">
-        <v>1504</v>
+        <v>1491</v>
       </c>
       <c r="K149" t="s">
         <v>31</v>
@@ -9386,7 +9359,7 @@
         <v>114</v>
       </c>
       <c r="J150" t="s">
-        <v>1503</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9394,19 +9367,19 @@
         <v>37</v>
       </c>
       <c r="D151" t="s">
-        <v>1499</v>
+        <v>1486</v>
       </c>
       <c r="E151" t="s">
-        <v>1498</v>
+        <v>1485</v>
       </c>
       <c r="H151" t="s">
         <v>37</v>
       </c>
       <c r="I151" t="s">
-        <v>1512</v>
+        <v>1499</v>
       </c>
       <c r="J151" t="s">
-        <v>1508</v>
+        <v>1495</v>
       </c>
       <c r="K151" t="s">
         <v>30</v>
@@ -9426,10 +9399,10 @@
         <v>38</v>
       </c>
       <c r="I152" t="s">
-        <v>1511</v>
+        <v>1498</v>
       </c>
       <c r="J152" t="s">
-        <v>1509</v>
+        <v>1496</v>
       </c>
       <c r="K152" t="s">
         <v>30</v>
@@ -9452,7 +9425,7 @@
         <v>115</v>
       </c>
       <c r="J153" t="s">
-        <v>1510</v>
+        <v>1497</v>
       </c>
       <c r="K153" t="s">
         <v>31</v>
@@ -9471,7 +9444,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
-        <v>1497</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9494,10 +9467,10 @@
         <v>24</v>
       </c>
       <c r="I157" t="s">
-        <v>1520</v>
+        <v>1507</v>
       </c>
       <c r="J157" t="s">
-        <v>1513</v>
+        <v>1500</v>
       </c>
       <c r="K157" t="s">
         <v>31</v>
@@ -9517,10 +9490,10 @@
         <v>25</v>
       </c>
       <c r="I158" t="s">
-        <v>1521</v>
+        <v>1508</v>
       </c>
       <c r="J158" t="s">
-        <v>1514</v>
+        <v>1501</v>
       </c>
       <c r="K158" t="s">
         <v>31</v>
@@ -9540,10 +9513,10 @@
         <v>26</v>
       </c>
       <c r="I159" t="s">
-        <v>1522</v>
+        <v>1509</v>
       </c>
       <c r="J159" t="s">
-        <v>1515</v>
+        <v>1502</v>
       </c>
       <c r="K159" t="s">
         <v>30</v>
@@ -9563,10 +9536,10 @@
         <v>27</v>
       </c>
       <c r="I160" t="s">
-        <v>1523</v>
+        <v>1510</v>
       </c>
       <c r="J160" t="s">
-        <v>1516</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9574,19 +9547,19 @@
         <v>425</v>
       </c>
       <c r="D161" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="E161" t="s">
-        <v>1500</v>
+        <v>1487</v>
       </c>
       <c r="H161" t="s">
         <v>37</v>
       </c>
       <c r="I161" t="s">
-        <v>1524</v>
+        <v>1511</v>
       </c>
       <c r="J161" t="s">
-        <v>1517</v>
+        <v>1504</v>
       </c>
       <c r="K161" t="s">
         <v>31</v>
@@ -9606,10 +9579,10 @@
         <v>38</v>
       </c>
       <c r="I162" t="s">
-        <v>1525</v>
+        <v>1512</v>
       </c>
       <c r="J162" t="s">
-        <v>1518</v>
+        <v>1505</v>
       </c>
       <c r="K162" t="s">
         <v>30</v>
@@ -9629,10 +9602,10 @@
         <v>44</v>
       </c>
       <c r="I163" t="s">
-        <v>1526</v>
+        <v>1513</v>
       </c>
       <c r="J163" t="s">
-        <v>1519</v>
+        <v>1506</v>
       </c>
       <c r="K163" t="s">
         <v>30</v>
@@ -9683,7 +9656,7 @@
         <v>418</v>
       </c>
       <c r="J167" s="18" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9701,10 +9674,10 @@
         <v>25</v>
       </c>
       <c r="I168" s="18" t="s">
-        <v>1545</v>
+        <v>1532</v>
       </c>
       <c r="J168" s="18" t="s">
-        <v>1546</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9712,20 +9685,20 @@
         <v>26</v>
       </c>
       <c r="D169" t="s">
-        <v>1532</v>
+        <v>1519</v>
       </c>
       <c r="E169" t="s">
-        <v>1531</v>
+        <v>1518</v>
       </c>
       <c r="G169" s="27"/>
       <c r="H169" t="s">
         <v>26</v>
       </c>
       <c r="I169" s="18" t="s">
-        <v>1547</v>
+        <v>1534</v>
       </c>
       <c r="J169" s="18" t="s">
-        <v>1548</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9743,10 +9716,10 @@
         <v>27</v>
       </c>
       <c r="I170" s="18" t="s">
-        <v>1542</v>
+        <v>1529</v>
       </c>
       <c r="J170" s="18" t="s">
-        <v>1549</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9764,10 +9737,10 @@
         <v>37</v>
       </c>
       <c r="I171" s="18" t="s">
-        <v>1550</v>
+        <v>1537</v>
       </c>
       <c r="J171" s="18" t="s">
-        <v>1551</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9785,10 +9758,10 @@
         <v>38</v>
       </c>
       <c r="I172" s="18" t="s">
-        <v>1552</v>
+        <v>1539</v>
       </c>
       <c r="J172" s="18" t="s">
-        <v>1553</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9806,10 +9779,10 @@
         <v>44</v>
       </c>
       <c r="I173" s="18" t="s">
-        <v>1554</v>
+        <v>1541</v>
       </c>
       <c r="J173" s="18" t="s">
-        <v>1555</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9858,7 +9831,7 @@
         <v>24</v>
       </c>
       <c r="I177" t="s">
-        <v>1533</v>
+        <v>1520</v>
       </c>
       <c r="J177" t="s">
         <v>595</v>
@@ -9869,10 +9842,10 @@
         <v>25</v>
       </c>
       <c r="D178" t="s">
-        <v>1529</v>
+        <v>1516</v>
       </c>
       <c r="E178" t="s">
-        <v>1527</v>
+        <v>1514</v>
       </c>
       <c r="F178" t="s">
         <v>249</v>
@@ -9882,10 +9855,10 @@
         <v>25</v>
       </c>
       <c r="I178" t="s">
-        <v>1534</v>
+        <v>1521</v>
       </c>
       <c r="J178" t="s">
-        <v>1535</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9893,20 +9866,20 @@
         <v>26</v>
       </c>
       <c r="D179" t="s">
-        <v>1530</v>
+        <v>1517</v>
       </c>
       <c r="E179" t="s">
-        <v>1528</v>
+        <v>1515</v>
       </c>
       <c r="G179" s="27"/>
       <c r="H179" t="s">
         <v>26</v>
       </c>
       <c r="I179" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="J179" t="s">
-        <v>1544</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9924,10 +9897,10 @@
         <v>27</v>
       </c>
       <c r="I180" t="s">
-        <v>1536</v>
+        <v>1523</v>
       </c>
       <c r="J180" t="s">
-        <v>1537</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9945,10 +9918,10 @@
         <v>37</v>
       </c>
       <c r="I181" t="s">
-        <v>1538</v>
+        <v>1525</v>
       </c>
       <c r="J181" t="s">
-        <v>1539</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9966,10 +9939,10 @@
         <v>38</v>
       </c>
       <c r="I182" t="s">
-        <v>1540</v>
+        <v>1527</v>
       </c>
       <c r="J182" t="s">
-        <v>1541</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9987,10 +9960,10 @@
         <v>44</v>
       </c>
       <c r="I183" t="s">
-        <v>1542</v>
+        <v>1529</v>
       </c>
       <c r="J183" t="s">
-        <v>1543</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10042,7 +10015,7 @@
         <v>24</v>
       </c>
       <c r="D188" t="s">
-        <v>1058</v>
+        <v>1046</v>
       </c>
       <c r="E188" t="s">
         <v>444</v>
@@ -10054,10 +10027,10 @@
         <v>24</v>
       </c>
       <c r="I188" t="s">
-        <v>1570</v>
+        <v>1557</v>
       </c>
       <c r="J188" t="s">
-        <v>1568</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10065,20 +10038,20 @@
         <v>25</v>
       </c>
       <c r="D189" t="s">
-        <v>1559</v>
+        <v>1546</v>
       </c>
       <c r="E189" t="s">
-        <v>1308</v>
+        <v>1295</v>
       </c>
       <c r="G189" s="27"/>
       <c r="H189" t="s">
         <v>25</v>
       </c>
       <c r="I189" t="s">
-        <v>1564</v>
+        <v>1551</v>
       </c>
       <c r="J189" t="s">
-        <v>1561</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10086,19 +10059,19 @@
         <v>26</v>
       </c>
       <c r="D190" t="s">
-        <v>1560</v>
+        <v>1547</v>
       </c>
       <c r="E190" t="s">
-        <v>1557</v>
+        <v>1544</v>
       </c>
       <c r="H190" t="s">
         <v>26</v>
       </c>
       <c r="I190" t="s">
-        <v>1565</v>
+        <v>1552</v>
       </c>
       <c r="J190" t="s">
-        <v>1569</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10106,19 +10079,19 @@
         <v>27</v>
       </c>
       <c r="D191" t="s">
-        <v>1060</v>
+        <v>1048</v>
       </c>
       <c r="E191" t="s">
-        <v>1558</v>
+        <v>1545</v>
       </c>
       <c r="H191" t="s">
         <v>27</v>
       </c>
       <c r="I191" t="s">
-        <v>1578</v>
+        <v>1565</v>
       </c>
       <c r="J191" t="s">
-        <v>1571</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10126,7 +10099,7 @@
         <v>37</v>
       </c>
       <c r="D192" t="s">
-        <v>1059</v>
+        <v>1047</v>
       </c>
       <c r="E192" t="s">
         <v>445</v>
@@ -10135,10 +10108,10 @@
         <v>37</v>
       </c>
       <c r="I192" t="s">
-        <v>1577</v>
+        <v>1564</v>
       </c>
       <c r="J192" t="s">
-        <v>1572</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10146,7 +10119,7 @@
         <v>38</v>
       </c>
       <c r="D193" t="s">
-        <v>1061</v>
+        <v>1049</v>
       </c>
       <c r="E193" t="s">
         <v>446</v>
@@ -10155,10 +10128,10 @@
         <v>38</v>
       </c>
       <c r="I193" t="s">
-        <v>1566</v>
+        <v>1553</v>
       </c>
       <c r="J193" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10166,7 +10139,7 @@
         <v>44</v>
       </c>
       <c r="D194" t="s">
-        <v>1062</v>
+        <v>1050</v>
       </c>
       <c r="E194" t="s">
         <v>450</v>
@@ -10175,10 +10148,10 @@
         <v>44</v>
       </c>
       <c r="I194" t="s">
-        <v>1576</v>
+        <v>1563</v>
       </c>
       <c r="J194" t="s">
-        <v>1573</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10186,7 +10159,7 @@
         <v>365</v>
       </c>
       <c r="D195" t="s">
-        <v>1072</v>
+        <v>1060</v>
       </c>
       <c r="E195" t="s">
         <v>447</v>
@@ -10195,10 +10168,10 @@
         <v>365</v>
       </c>
       <c r="I195" t="s">
-        <v>1575</v>
+        <v>1562</v>
       </c>
       <c r="J195" t="s">
-        <v>1574</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10228,19 +10201,19 @@
         <v>25</v>
       </c>
       <c r="D199" t="s">
-        <v>1579</v>
+        <v>1566</v>
       </c>
       <c r="E199" t="s">
-        <v>1561</v>
+        <v>1548</v>
       </c>
       <c r="H199" t="s">
         <v>24</v>
       </c>
       <c r="I199" t="s">
-        <v>1581</v>
+        <v>1568</v>
       </c>
       <c r="J199" t="s">
-        <v>1582</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10248,19 +10221,19 @@
         <v>26</v>
       </c>
       <c r="D200" t="s">
-        <v>1580</v>
+        <v>1567</v>
       </c>
       <c r="E200" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="H200" t="s">
         <v>25</v>
       </c>
       <c r="I200" t="s">
-        <v>1583</v>
+        <v>1570</v>
       </c>
       <c r="J200" t="s">
-        <v>1584</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10271,16 +10244,16 @@
         <v>451</v>
       </c>
       <c r="E201" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
       <c r="H201" t="s">
         <v>26</v>
       </c>
       <c r="I201" t="s">
-        <v>1585</v>
+        <v>1572</v>
       </c>
       <c r="J201" t="s">
-        <v>1586</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10297,10 +10270,10 @@
         <v>27</v>
       </c>
       <c r="I202" t="s">
-        <v>1587</v>
+        <v>1574</v>
       </c>
       <c r="J202" t="s">
-        <v>1588</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10317,10 +10290,10 @@
         <v>37</v>
       </c>
       <c r="I203" t="s">
-        <v>1589</v>
+        <v>1576</v>
       </c>
       <c r="J203" t="s">
-        <v>1590</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10337,10 +10310,10 @@
         <v>38</v>
       </c>
       <c r="I204" t="s">
-        <v>1591</v>
+        <v>1578</v>
       </c>
       <c r="J204" t="s">
-        <v>1592</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10348,7 +10321,7 @@
         <v>365</v>
       </c>
       <c r="D205" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
       <c r="E205" t="s">
         <v>452</v>
@@ -10357,10 +10330,10 @@
         <v>44</v>
       </c>
       <c r="I205" t="s">
-        <v>1593</v>
+        <v>1580</v>
       </c>
       <c r="J205" t="s">
-        <v>1594</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10390,10 +10363,10 @@
         <v>24</v>
       </c>
       <c r="I208" t="s">
-        <v>1767</v>
+        <v>1754</v>
       </c>
       <c r="J208" t="s">
-        <v>1766</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10401,19 +10374,19 @@
         <v>25</v>
       </c>
       <c r="D209" t="s">
-        <v>1759</v>
+        <v>1746</v>
       </c>
       <c r="E209" t="s">
-        <v>1756</v>
+        <v>1743</v>
       </c>
       <c r="H209" t="s">
         <v>25</v>
       </c>
       <c r="I209" t="s">
-        <v>1769</v>
+        <v>1756</v>
       </c>
       <c r="J209" t="s">
-        <v>1768</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10421,19 +10394,19 @@
         <v>26</v>
       </c>
       <c r="D210" t="s">
-        <v>1760</v>
+        <v>1747</v>
       </c>
       <c r="E210" t="s">
-        <v>1757</v>
+        <v>1744</v>
       </c>
       <c r="H210" t="s">
         <v>26</v>
       </c>
       <c r="I210" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
       <c r="J210" t="s">
-        <v>1770</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10450,10 +10423,10 @@
         <v>27</v>
       </c>
       <c r="I211" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
       <c r="J211" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10470,10 +10443,10 @@
         <v>37</v>
       </c>
       <c r="I212" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
       <c r="J212" t="s">
-        <v>1616</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10481,19 +10454,19 @@
         <v>38</v>
       </c>
       <c r="D213" t="s">
-        <v>1761</v>
+        <v>1748</v>
       </c>
       <c r="E213" t="s">
-        <v>1758</v>
+        <v>1745</v>
       </c>
       <c r="H213" t="s">
         <v>38</v>
       </c>
       <c r="I213" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
       <c r="J213" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10510,10 +10483,10 @@
         <v>44</v>
       </c>
       <c r="I214" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
       <c r="J214" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10558,10 +10531,10 @@
         <v>24</v>
       </c>
       <c r="I218" t="s">
-        <v>1780</v>
+        <v>1767</v>
       </c>
       <c r="J218" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10569,19 +10542,19 @@
         <v>25</v>
       </c>
       <c r="D219" t="s">
-        <v>1764</v>
+        <v>1751</v>
       </c>
       <c r="E219" t="s">
-        <v>1762</v>
+        <v>1749</v>
       </c>
       <c r="H219" t="s">
         <v>25</v>
       </c>
       <c r="I219" t="s">
-        <v>1783</v>
+        <v>1770</v>
       </c>
       <c r="J219" t="s">
-        <v>1781</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10589,19 +10562,19 @@
         <v>26</v>
       </c>
       <c r="D220" t="s">
-        <v>1765</v>
+        <v>1752</v>
       </c>
       <c r="E220" t="s">
-        <v>1763</v>
+        <v>1750</v>
       </c>
       <c r="H220" t="s">
         <v>26</v>
       </c>
       <c r="I220" t="s">
-        <v>1784</v>
+        <v>1771</v>
       </c>
       <c r="J220" t="s">
-        <v>1747</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10618,10 +10591,10 @@
         <v>27</v>
       </c>
       <c r="I221" t="s">
-        <v>1785</v>
+        <v>1772</v>
       </c>
       <c r="J221" t="s">
-        <v>1782</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10638,10 +10611,10 @@
         <v>37</v>
       </c>
       <c r="I222" t="s">
-        <v>1787</v>
+        <v>1774</v>
       </c>
       <c r="J222" t="s">
-        <v>1786</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10649,7 +10622,7 @@
         <v>426</v>
       </c>
       <c r="D223" t="s">
-        <v>1788</v>
+        <v>1775</v>
       </c>
       <c r="E223" t="s">
         <v>692</v>
@@ -10658,10 +10631,10 @@
         <v>38</v>
       </c>
       <c r="I223" t="s">
-        <v>1789</v>
+        <v>1776</v>
       </c>
       <c r="J223" t="s">
-        <v>1728</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10678,10 +10651,10 @@
         <v>44</v>
       </c>
       <c r="I224" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="J224" t="s">
-        <v>1790</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10698,15 +10671,15 @@
         <v>365</v>
       </c>
       <c r="I225" t="s">
-        <v>1792</v>
+        <v>1779</v>
       </c>
       <c r="J225" t="s">
-        <v>1791</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="27" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
       <c r="B227" s="27"/>
       <c r="C227" s="27"/>
@@ -10714,7 +10687,7 @@
       <c r="E227" s="27"/>
       <c r="F227" s="27"/>
       <c r="G227" s="27" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
       <c r="H227" s="28" t="s">
         <v>43</v>
@@ -10732,7 +10705,7 @@
         <v>811</v>
       </c>
       <c r="E228" s="27" t="s">
-        <v>1125</v>
+        <v>1112</v>
       </c>
       <c r="F228" s="27" t="s">
         <v>723</v>
@@ -10744,10 +10717,10 @@
         <v>24</v>
       </c>
       <c r="I228" t="s">
-        <v>1801</v>
+        <v>1788</v>
       </c>
       <c r="J228" t="s">
-        <v>1800</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10767,10 +10740,10 @@
         <v>25</v>
       </c>
       <c r="I229" t="s">
-        <v>1803</v>
+        <v>1790</v>
       </c>
       <c r="J229" t="s">
-        <v>1802</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10783,7 +10756,7 @@
         <v>873</v>
       </c>
       <c r="E230" s="27" t="s">
-        <v>1793</v>
+        <v>1780</v>
       </c>
       <c r="F230" s="27"/>
       <c r="G230" s="27"/>
@@ -10791,10 +10764,10 @@
         <v>26</v>
       </c>
       <c r="I230" t="s">
-        <v>1805</v>
+        <v>1792</v>
       </c>
       <c r="J230" t="s">
-        <v>1804</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10815,10 +10788,10 @@
         <v>27</v>
       </c>
       <c r="I231" t="s">
-        <v>1807</v>
+        <v>1794</v>
       </c>
       <c r="J231" t="s">
-        <v>1806</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10828,10 +10801,10 @@
       </c>
       <c r="C232" s="27"/>
       <c r="D232" s="27" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
       <c r="E232" s="27" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
       <c r="F232" s="27"/>
       <c r="G232" s="27"/>
@@ -10839,10 +10812,10 @@
         <v>425</v>
       </c>
       <c r="I232" t="s">
-        <v>1809</v>
+        <v>1796</v>
       </c>
       <c r="J232" t="s">
-        <v>1808</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10863,10 +10836,10 @@
         <v>426</v>
       </c>
       <c r="I233" t="s">
-        <v>1811</v>
+        <v>1798</v>
       </c>
       <c r="J233" t="s">
-        <v>1810</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10887,10 +10860,10 @@
         <v>427</v>
       </c>
       <c r="I234" t="s">
-        <v>1813</v>
+        <v>1800</v>
       </c>
       <c r="J234" t="s">
-        <v>1812</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10911,10 +10884,10 @@
         <v>424</v>
       </c>
       <c r="I235" t="s">
-        <v>1815</v>
+        <v>1802</v>
       </c>
       <c r="J235" t="s">
-        <v>1814</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10938,7 +10911,7 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="27" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
       <c r="B238" s="27"/>
       <c r="C238" s="27"/>
@@ -10946,7 +10919,7 @@
       <c r="E238" s="27"/>
       <c r="F238" s="27"/>
       <c r="G238" s="27" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
       <c r="H238" s="28" t="s">
         <v>43</v>
@@ -10976,10 +10949,10 @@
         <v>24</v>
       </c>
       <c r="I239" t="s">
-        <v>1816</v>
+        <v>1803</v>
       </c>
       <c r="J239" t="s">
-        <v>1821</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -11000,10 +10973,10 @@
         <v>25</v>
       </c>
       <c r="I240" t="s">
-        <v>1817</v>
+        <v>1804</v>
       </c>
       <c r="J240" t="s">
-        <v>1820</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -11024,10 +10997,10 @@
         <v>26</v>
       </c>
       <c r="I241" t="s">
-        <v>1664</v>
+        <v>1651</v>
       </c>
       <c r="J241" t="s">
-        <v>1818</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -11048,10 +11021,10 @@
         <v>27</v>
       </c>
       <c r="I242" t="s">
-        <v>1826</v>
+        <v>1813</v>
       </c>
       <c r="J242" t="s">
-        <v>1825</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -11061,10 +11034,10 @@
       </c>
       <c r="C243" s="27"/>
       <c r="D243" s="27" t="s">
-        <v>1798</v>
+        <v>1785</v>
       </c>
       <c r="E243" s="27" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
       <c r="F243" s="27"/>
       <c r="G243" s="27"/>
@@ -11072,10 +11045,10 @@
         <v>37</v>
       </c>
       <c r="I243" t="s">
-        <v>1822</v>
+        <v>1809</v>
       </c>
       <c r="J243" t="s">
-        <v>1819</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -11096,10 +11069,10 @@
         <v>38</v>
       </c>
       <c r="I244" t="s">
-        <v>1824</v>
+        <v>1811</v>
       </c>
       <c r="J244" t="s">
-        <v>1823</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -11120,10 +11093,10 @@
         <v>44</v>
       </c>
       <c r="I245" t="s">
-        <v>1828</v>
+        <v>1815</v>
       </c>
       <c r="J245" t="s">
-        <v>1827</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -11144,10 +11117,10 @@
         <v>365</v>
       </c>
       <c r="I246" t="s">
-        <v>1830</v>
+        <v>1817</v>
       </c>
       <c r="J246" t="s">
-        <v>1829</v>
+        <v>1816</v>
       </c>
     </row>
   </sheetData>
@@ -11175,7 +11148,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E1" s="1" t="s">
-        <v>1183</v>
+        <v>1170</v>
       </c>
       <c r="G1" s="33" t="s">
         <v>0</v>
@@ -11200,7 +11173,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1443</v>
+        <v>1430</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
@@ -11253,7 +11226,7 @@
         <v>78.744</v>
       </c>
       <c r="K3" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -11288,7 +11261,7 @@
         <v>72.111000000000004</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -11332,7 +11305,7 @@
         <v>79.77</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -11373,7 +11346,7 @@
         <v>91.18</v>
       </c>
       <c r="K6" t="s">
-        <v>1196</v>
+        <v>1183</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -11411,7 +11384,7 @@
         <v>62.11</v>
       </c>
       <c r="K7" t="s">
-        <v>1446</v>
+        <v>1433</v>
       </c>
       <c r="L7">
         <v>100</v>
@@ -11455,7 +11428,7 @@
         <v>87.23</v>
       </c>
       <c r="K8" t="s">
-        <v>1461</v>
+        <v>1448</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -11487,22 +11460,22 @@
         <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>1467</v>
+        <v>1454</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>1466</v>
+        <v>1453</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>1465</v>
+        <v>1452</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>1464</v>
+        <v>1451</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>1463</v>
+        <v>1450</v>
       </c>
       <c r="K9" t="s">
-        <v>1462</v>
+        <v>1449</v>
       </c>
       <c r="L9">
         <v>100</v>
@@ -11543,7 +11516,7 @@
         <v>68</v>
       </c>
       <c r="K10" t="s">
-        <v>1447</v>
+        <v>1434</v>
       </c>
       <c r="L10">
         <v>100</v>
@@ -11566,7 +11539,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" s="1" t="s">
-        <v>1444</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -11583,7 +11556,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1443</v>
+        <v>1430</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -11630,10 +11603,10 @@
         <v>87.76</v>
       </c>
       <c r="J14" t="s">
-        <v>1448</v>
+        <v>1435</v>
       </c>
       <c r="K14" t="s">
-        <v>1449</v>
+        <v>1436</v>
       </c>
       <c r="L14">
         <v>100</v>
@@ -11650,19 +11623,19 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>1454</v>
+        <v>1441</v>
       </c>
       <c r="H15" t="s">
-        <v>1453</v>
+        <v>1440</v>
       </c>
       <c r="I15" t="s">
-        <v>1452</v>
+        <v>1439</v>
       </c>
       <c r="J15" t="s">
-        <v>1451</v>
+        <v>1438</v>
       </c>
       <c r="K15" t="s">
-        <v>1450</v>
+        <v>1437</v>
       </c>
       <c r="L15">
         <v>100</v>
@@ -11691,7 +11664,7 @@
         <v>87.6</v>
       </c>
       <c r="K16" t="s">
-        <v>1468</v>
+        <v>1455</v>
       </c>
       <c r="L16">
         <v>100</v>
@@ -11723,7 +11696,7 @@
         <v>84.97</v>
       </c>
       <c r="K17" t="s">
-        <v>1469</v>
+        <v>1456</v>
       </c>
       <c r="L17">
         <v>100</v>
@@ -11753,7 +11726,7 @@
         <v>81.81</v>
       </c>
       <c r="K18" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
       <c r="L18">
         <v>100</v>
@@ -11783,7 +11756,7 @@
         <v>79.33</v>
       </c>
       <c r="K19" t="s">
-        <v>1455</v>
+        <v>1442</v>
       </c>
       <c r="L19">
         <v>100</v>
@@ -11813,7 +11786,7 @@
         <v>78.84</v>
       </c>
       <c r="K20" t="s">
-        <v>1471</v>
+        <v>1458</v>
       </c>
       <c r="L20">
         <v>100</v>
@@ -11842,7 +11815,7 @@
         <v>74.48</v>
       </c>
       <c r="K21" t="s">
-        <v>1472</v>
+        <v>1459</v>
       </c>
       <c r="L21">
         <v>100</v>
@@ -11862,7 +11835,7 @@
         <v>42.625</v>
       </c>
       <c r="K22" t="s">
-        <v>1456</v>
+        <v>1443</v>
       </c>
       <c r="L22">
         <v>100</v>
@@ -11888,7 +11861,7 @@
         <v>44.375</v>
       </c>
       <c r="K23" t="s">
-        <v>1457</v>
+        <v>1444</v>
       </c>
       <c r="L23">
         <v>100</v>
@@ -11902,7 +11875,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E25" s="1" t="s">
-        <v>1177</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -11919,7 +11892,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1443</v>
+        <v>1430</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -11969,7 +11942,7 @@
         <v>47.662100000000002</v>
       </c>
       <c r="K27" t="s">
-        <v>1473</v>
+        <v>1460</v>
       </c>
       <c r="L27">
         <v>100</v>
@@ -12002,7 +11975,7 @@
         <v>49.296900000000001</v>
       </c>
       <c r="K28" t="s">
-        <v>1474</v>
+        <v>1461</v>
       </c>
       <c r="L28">
         <v>100</v>
@@ -12034,7 +12007,7 @@
         <v>56.28</v>
       </c>
       <c r="K29" t="s">
-        <v>1475</v>
+        <v>1462</v>
       </c>
       <c r="L29">
         <v>100</v>
@@ -12054,19 +12027,19 @@
         <v>100</v>
       </c>
       <c r="G30" t="s">
-        <v>1478</v>
+        <v>1465</v>
       </c>
       <c r="H30" t="s">
-        <v>1477</v>
+        <v>1464</v>
       </c>
       <c r="I30" t="s">
-        <v>1480</v>
+        <v>1467</v>
       </c>
       <c r="J30" t="s">
-        <v>1479</v>
+        <v>1466</v>
       </c>
       <c r="K30" t="s">
-        <v>1476</v>
+        <v>1463</v>
       </c>
       <c r="L30">
         <v>100</v>
@@ -12098,7 +12071,7 @@
         <v>27.61</v>
       </c>
       <c r="K31" t="s">
-        <v>1481</v>
+        <v>1468</v>
       </c>
       <c r="L31">
         <v>100</v>
@@ -12130,7 +12103,7 @@
         <v>47</v>
       </c>
       <c r="K32" t="s">
-        <v>1482</v>
+        <v>1469</v>
       </c>
       <c r="L32">
         <v>100</v>
@@ -12165,7 +12138,7 @@
         <v>51.12</v>
       </c>
       <c r="K33" t="s">
-        <v>1483</v>
+        <v>1470</v>
       </c>
       <c r="L33">
         <v>100</v>
@@ -12186,19 +12159,19 @@
         <v>100</v>
       </c>
       <c r="G34" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="H34" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="I34" t="s">
-        <v>1485</v>
+        <v>1472</v>
       </c>
       <c r="J34" t="s">
-        <v>1484</v>
+        <v>1471</v>
       </c>
       <c r="K34" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="L34">
         <v>100</v>
@@ -12307,7 +12280,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1195</v>
+        <v>1182</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>8</v>
@@ -12342,22 +12315,22 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>1184</v>
+        <v>1171</v>
       </c>
       <c r="C4">
         <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>1260</v>
+        <v>1247</v>
       </c>
       <c r="I4" t="s">
-        <v>1200</v>
+        <v>1187</v>
       </c>
       <c r="L4" t="s">
-        <v>1202</v>
+        <v>1189</v>
       </c>
       <c r="M4" t="s">
-        <v>1194</v>
+        <v>1181</v>
       </c>
       <c r="N4">
         <v>12</v>
@@ -12366,7 +12339,7 @@
         <v>200</v>
       </c>
       <c r="P4" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="R4">
         <v>100</v>
@@ -12375,25 +12348,25 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>1183</v>
+        <v>1170</v>
       </c>
       <c r="B5" t="s">
-        <v>1184</v>
+        <v>1171</v>
       </c>
       <c r="C5">
         <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>1261</v>
+        <v>1248</v>
       </c>
       <c r="I5" t="s">
-        <v>1201</v>
+        <v>1188</v>
       </c>
       <c r="L5" t="s">
-        <v>1203</v>
+        <v>1190</v>
       </c>
       <c r="M5" t="s">
-        <v>1179</v>
+        <v>1166</v>
       </c>
       <c r="N5">
         <v>12</v>
@@ -12402,7 +12375,7 @@
         <v>200</v>
       </c>
       <c r="P5" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="R5">
         <v>100</v>
@@ -12410,22 +12383,22 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>1184</v>
+        <v>1171</v>
       </c>
       <c r="C6">
         <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>1262</v>
+        <v>1249</v>
       </c>
       <c r="I6" t="s">
-        <v>1207</v>
+        <v>1194</v>
       </c>
       <c r="L6" t="s">
-        <v>1204</v>
+        <v>1191</v>
       </c>
       <c r="M6" t="s">
-        <v>1180</v>
+        <v>1167</v>
       </c>
       <c r="N6">
         <v>12</v>
@@ -12434,7 +12407,7 @@
         <v>200</v>
       </c>
       <c r="P6" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="R6">
         <v>100</v>
@@ -12442,22 +12415,22 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
-        <v>1184</v>
+        <v>1171</v>
       </c>
       <c r="C7">
         <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>1263</v>
+        <v>1250</v>
       </c>
       <c r="I7" t="s">
-        <v>1208</v>
+        <v>1195</v>
       </c>
       <c r="L7" t="s">
-        <v>1205</v>
+        <v>1192</v>
       </c>
       <c r="M7" t="s">
-        <v>1182</v>
+        <v>1169</v>
       </c>
       <c r="N7">
         <v>12</v>
@@ -12466,7 +12439,7 @@
         <v>200</v>
       </c>
       <c r="P7" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="R7">
         <v>50</v>
@@ -12474,22 +12447,22 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
-        <v>1184</v>
+        <v>1171</v>
       </c>
       <c r="C8">
         <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>1264</v>
+        <v>1251</v>
       </c>
       <c r="I8" t="s">
-        <v>1209</v>
+        <v>1196</v>
       </c>
       <c r="L8" t="s">
-        <v>1206</v>
+        <v>1193</v>
       </c>
       <c r="M8" t="s">
-        <v>1189</v>
+        <v>1176</v>
       </c>
       <c r="N8">
         <v>12</v>
@@ -12498,7 +12471,7 @@
         <v>200</v>
       </c>
       <c r="P8" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="R8">
         <v>50</v>
@@ -12506,13 +12479,13 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
-        <v>1184</v>
+        <v>1171</v>
       </c>
       <c r="C9">
         <v>25</v>
       </c>
       <c r="M9" t="s">
-        <v>1190</v>
+        <v>1177</v>
       </c>
       <c r="R9">
         <v>50</v>
@@ -12520,22 +12493,22 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
-        <v>1185</v>
+        <v>1172</v>
       </c>
       <c r="C10">
         <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>1265</v>
+        <v>1252</v>
       </c>
       <c r="I10" t="s">
-        <v>1198</v>
+        <v>1185</v>
       </c>
       <c r="L10" t="s">
-        <v>1197</v>
+        <v>1184</v>
       </c>
       <c r="M10" t="s">
-        <v>1187</v>
+        <v>1174</v>
       </c>
       <c r="N10">
         <v>12</v>
@@ -12544,7 +12517,7 @@
         <v>200</v>
       </c>
       <c r="P10" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="R10">
         <v>100</v>
@@ -12552,22 +12525,22 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>1185</v>
+        <v>1172</v>
       </c>
       <c r="C11">
         <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>1266</v>
+        <v>1253</v>
       </c>
       <c r="I11" t="s">
-        <v>1199</v>
+        <v>1186</v>
       </c>
       <c r="L11" t="s">
-        <v>1196</v>
+        <v>1183</v>
       </c>
       <c r="M11" t="s">
-        <v>1194</v>
+        <v>1181</v>
       </c>
       <c r="N11">
         <v>12</v>
@@ -12576,27 +12549,27 @@
         <v>200</v>
       </c>
       <c r="P11" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>1185</v>
+        <v>1172</v>
       </c>
       <c r="C12">
         <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>1267</v>
+        <v>1254</v>
       </c>
       <c r="I12" t="s">
-        <v>1211</v>
+        <v>1198</v>
       </c>
       <c r="L12" t="s">
-        <v>1210</v>
+        <v>1197</v>
       </c>
       <c r="M12" t="s">
-        <v>1179</v>
+        <v>1166</v>
       </c>
       <c r="N12">
         <v>12</v>
@@ -12605,7 +12578,7 @@
         <v>200</v>
       </c>
       <c r="P12" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="R12">
         <v>100</v>
@@ -12613,22 +12586,22 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>1185</v>
+        <v>1172</v>
       </c>
       <c r="C13">
         <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>1268</v>
+        <v>1255</v>
       </c>
       <c r="I13" t="s">
-        <v>1214</v>
+        <v>1201</v>
       </c>
       <c r="L13" t="s">
-        <v>1212</v>
+        <v>1199</v>
       </c>
       <c r="M13" t="s">
-        <v>1180</v>
+        <v>1167</v>
       </c>
       <c r="N13">
         <v>12</v>
@@ -12637,7 +12610,7 @@
         <v>200</v>
       </c>
       <c r="P13" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="R13">
         <v>50</v>
@@ -12645,22 +12618,22 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
-        <v>1185</v>
+        <v>1172</v>
       </c>
       <c r="C14">
         <v>100</v>
       </c>
       <c r="H14" t="s">
-        <v>1269</v>
+        <v>1256</v>
       </c>
       <c r="I14" t="s">
-        <v>1215</v>
+        <v>1202</v>
       </c>
       <c r="L14" t="s">
-        <v>1213</v>
+        <v>1200</v>
       </c>
       <c r="M14" t="s">
-        <v>1182</v>
+        <v>1169</v>
       </c>
       <c r="N14">
         <v>12</v>
@@ -12669,7 +12642,7 @@
         <v>200</v>
       </c>
       <c r="P14" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="R14">
         <v>50</v>
@@ -12677,22 +12650,22 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>1185</v>
+        <v>1172</v>
       </c>
       <c r="C15">
         <v>100</v>
       </c>
       <c r="H15" t="s">
-        <v>1270</v>
+        <v>1257</v>
       </c>
       <c r="I15" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="L15" t="s">
-        <v>1216</v>
+        <v>1203</v>
       </c>
       <c r="M15" t="s">
-        <v>1189</v>
+        <v>1176</v>
       </c>
       <c r="N15">
         <v>12</v>
@@ -12701,7 +12674,7 @@
         <v>200</v>
       </c>
       <c r="P15" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="R15">
         <v>50</v>
@@ -12709,25 +12682,25 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>1188</v>
+        <v>1175</v>
       </c>
       <c r="B17" t="s">
-        <v>1191</v>
+        <v>1178</v>
       </c>
       <c r="C17">
         <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>1271</v>
+        <v>1258</v>
       </c>
       <c r="I17" t="s">
-        <v>1219</v>
+        <v>1206</v>
       </c>
       <c r="L17" t="s">
-        <v>1218</v>
+        <v>1205</v>
       </c>
       <c r="M17" t="s">
-        <v>1194</v>
+        <v>1181</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -12736,30 +12709,30 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>1188</v>
+        <v>1175</v>
       </c>
       <c r="B18" t="s">
-        <v>1191</v>
+        <v>1178</v>
       </c>
       <c r="C18">
         <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>1272</v>
+        <v>1259</v>
       </c>
       <c r="I18" t="s">
-        <v>1221</v>
+        <v>1208</v>
       </c>
       <c r="L18" t="s">
-        <v>1220</v>
+        <v>1207</v>
       </c>
       <c r="M18" t="s">
-        <v>1179</v>
+        <v>1166</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -12768,7 +12741,7 @@
         <v>50</v>
       </c>
       <c r="P18" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="R18">
         <v>200</v>
@@ -12776,22 +12749,22 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
-        <v>1191</v>
+        <v>1178</v>
       </c>
       <c r="C19">
         <v>100</v>
       </c>
       <c r="H19" t="s">
-        <v>1273</v>
+        <v>1260</v>
       </c>
       <c r="I19" t="s">
-        <v>1227</v>
+        <v>1214</v>
       </c>
       <c r="L19" t="s">
-        <v>1222</v>
+        <v>1209</v>
       </c>
       <c r="M19" t="s">
-        <v>1180</v>
+        <v>1167</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -12800,7 +12773,7 @@
         <v>50</v>
       </c>
       <c r="P19" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="R19">
         <v>100</v>
@@ -12808,22 +12781,22 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>1191</v>
+        <v>1178</v>
       </c>
       <c r="C20">
         <v>100</v>
       </c>
       <c r="H20" t="s">
-        <v>1274</v>
+        <v>1261</v>
       </c>
       <c r="I20" t="s">
-        <v>1226</v>
+        <v>1213</v>
       </c>
       <c r="L20" t="s">
-        <v>1223</v>
+        <v>1210</v>
       </c>
       <c r="M20" t="s">
-        <v>1182</v>
+        <v>1169</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -12832,7 +12805,7 @@
         <v>50</v>
       </c>
       <c r="P20" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="R20">
         <v>100</v>
@@ -12840,22 +12813,22 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>1191</v>
+        <v>1178</v>
       </c>
       <c r="C21">
         <v>100</v>
       </c>
       <c r="H21" t="s">
-        <v>1275</v>
+        <v>1262</v>
       </c>
       <c r="I21" t="s">
-        <v>1225</v>
+        <v>1212</v>
       </c>
       <c r="L21" t="s">
-        <v>1224</v>
+        <v>1211</v>
       </c>
       <c r="M21" t="s">
-        <v>1189</v>
+        <v>1176</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -12864,7 +12837,7 @@
         <v>50</v>
       </c>
       <c r="P21" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="R21">
         <v>100</v>
@@ -12885,13 +12858,13 @@
       </c>
       <c r="I25" s="33"/>
       <c r="J25" s="33" t="s">
-        <v>1228</v>
+        <v>1215</v>
       </c>
       <c r="K25" s="33"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1" t="s">
-        <v>1193</v>
+        <v>1180</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
@@ -12945,7 +12918,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
-        <v>1178</v>
+        <v>1165</v>
       </c>
       <c r="C27">
         <v>100</v>
@@ -12955,18 +12928,18 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="18" t="s">
-        <v>1248</v>
+        <v>1235</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>1249</v>
+        <v>1236</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="18" t="s">
-        <v>1242</v>
+        <v>1229</v>
       </c>
       <c r="M27" s="18" t="s">
-        <v>1241</v>
+        <v>1228</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -12977,31 +12950,31 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>1177</v>
+        <v>1164</v>
       </c>
       <c r="B28" t="s">
-        <v>1178</v>
+        <v>1165</v>
       </c>
       <c r="C28">
         <v>100</v>
       </c>
       <c r="H28" t="s">
-        <v>1250</v>
+        <v>1237</v>
       </c>
       <c r="I28" t="s">
-        <v>1251</v>
+        <v>1238</v>
       </c>
       <c r="L28" t="s">
-        <v>1243</v>
+        <v>1230</v>
       </c>
       <c r="M28" t="s">
-        <v>1179</v>
+        <v>1166</v>
       </c>
       <c r="N28">
         <v>12</v>
       </c>
       <c r="P28" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="R28">
         <v>50</v>
@@ -13009,28 +12982,28 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
-        <v>1178</v>
+        <v>1165</v>
       </c>
       <c r="C29">
         <v>100</v>
       </c>
       <c r="H29" t="s">
-        <v>1254</v>
+        <v>1241</v>
       </c>
       <c r="I29" t="s">
-        <v>1253</v>
+        <v>1240</v>
       </c>
       <c r="L29" t="s">
-        <v>1244</v>
+        <v>1231</v>
       </c>
       <c r="M29" t="s">
-        <v>1180</v>
+        <v>1167</v>
       </c>
       <c r="N29">
         <v>12</v>
       </c>
       <c r="P29" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="R29">
         <v>50</v>
@@ -13038,28 +13011,28 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
-        <v>1178</v>
+        <v>1165</v>
       </c>
       <c r="C30">
         <v>100</v>
       </c>
       <c r="H30" t="s">
-        <v>1255</v>
+        <v>1242</v>
       </c>
       <c r="I30" t="s">
-        <v>1252</v>
+        <v>1239</v>
       </c>
       <c r="L30" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="M30" t="s">
-        <v>1182</v>
+        <v>1169</v>
       </c>
       <c r="N30">
         <v>12</v>
       </c>
       <c r="P30" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="R30">
         <v>25</v>
@@ -13067,28 +13040,28 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
-        <v>1178</v>
+        <v>1165</v>
       </c>
       <c r="C31">
         <v>100</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>1256</v>
+        <v>1243</v>
       </c>
       <c r="I31" t="s">
-        <v>1257</v>
+        <v>1244</v>
       </c>
       <c r="L31" t="s">
-        <v>1246</v>
+        <v>1233</v>
       </c>
       <c r="M31" t="s">
-        <v>1189</v>
+        <v>1176</v>
       </c>
       <c r="N31">
         <v>12</v>
       </c>
       <c r="P31" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="R31">
         <v>25</v>
@@ -13096,28 +13069,28 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
-        <v>1178</v>
+        <v>1165</v>
       </c>
       <c r="C32">
         <v>100</v>
       </c>
       <c r="H32" t="s">
-        <v>1258</v>
+        <v>1245</v>
       </c>
       <c r="I32" t="s">
-        <v>1259</v>
+        <v>1246</v>
       </c>
       <c r="L32" t="s">
-        <v>1247</v>
+        <v>1234</v>
       </c>
       <c r="M32" t="s">
-        <v>1190</v>
+        <v>1177</v>
       </c>
       <c r="N32">
         <v>12</v>
       </c>
       <c r="P32" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="R32">
         <v>25</v>
@@ -13125,19 +13098,19 @@
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
-        <v>1178</v>
+        <v>1165</v>
       </c>
       <c r="C33">
         <v>100</v>
       </c>
       <c r="M33" t="s">
-        <v>1192</v>
+        <v>1179</v>
       </c>
       <c r="N33">
         <v>12</v>
       </c>
       <c r="P33" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="R33">
         <v>25</v>
@@ -13145,45 +13118,45 @@
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
-        <v>1184</v>
+        <v>1171</v>
       </c>
       <c r="C34">
         <v>30</v>
       </c>
       <c r="H34" t="s">
-        <v>1229</v>
+        <v>1216</v>
       </c>
       <c r="I34" t="s">
-        <v>1236</v>
+        <v>1223</v>
       </c>
       <c r="L34" t="s">
-        <v>1229</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
-        <v>1184</v>
+        <v>1171</v>
       </c>
       <c r="C35">
         <v>30</v>
       </c>
       <c r="H35" t="s">
-        <v>1230</v>
+        <v>1217</v>
       </c>
       <c r="I35" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="L35" t="s">
-        <v>1230</v>
+        <v>1217</v>
       </c>
       <c r="M35" t="s">
-        <v>1179</v>
+        <v>1166</v>
       </c>
       <c r="N35">
         <v>12</v>
       </c>
       <c r="P35" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="R35">
         <v>50</v>
@@ -13191,28 +13164,28 @@
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
-        <v>1184</v>
+        <v>1171</v>
       </c>
       <c r="C36">
         <v>30</v>
       </c>
       <c r="H36" t="s">
-        <v>1231</v>
+        <v>1218</v>
       </c>
       <c r="I36" t="s">
-        <v>1237</v>
+        <v>1224</v>
       </c>
       <c r="L36" t="s">
-        <v>1231</v>
+        <v>1218</v>
       </c>
       <c r="M36" t="s">
-        <v>1186</v>
+        <v>1173</v>
       </c>
       <c r="N36">
         <v>12</v>
       </c>
       <c r="P36" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="R36">
         <v>50</v>
@@ -13220,28 +13193,28 @@
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" t="s">
-        <v>1184</v>
+        <v>1171</v>
       </c>
       <c r="C37">
         <v>30</v>
       </c>
       <c r="H37" t="s">
-        <v>1232</v>
+        <v>1219</v>
       </c>
       <c r="I37" t="s">
-        <v>1238</v>
+        <v>1225</v>
       </c>
       <c r="L37" t="s">
-        <v>1442</v>
+        <v>1429</v>
       </c>
       <c r="M37" t="s">
-        <v>1182</v>
+        <v>1169</v>
       </c>
       <c r="N37">
         <v>12</v>
       </c>
       <c r="P37" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="R37">
         <v>50</v>
@@ -13249,28 +13222,28 @@
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" t="s">
-        <v>1184</v>
+        <v>1171</v>
       </c>
       <c r="C38">
         <v>30</v>
       </c>
       <c r="H38" t="s">
-        <v>1233</v>
+        <v>1220</v>
       </c>
       <c r="I38" t="s">
-        <v>1239</v>
+        <v>1226</v>
       </c>
       <c r="L38" t="s">
-        <v>1233</v>
+        <v>1220</v>
       </c>
       <c r="M38" t="s">
-        <v>1189</v>
+        <v>1176</v>
       </c>
       <c r="N38">
         <v>12</v>
       </c>
       <c r="P38" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="R38">
         <v>50</v>
@@ -13278,28 +13251,28 @@
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" t="s">
-        <v>1184</v>
+        <v>1171</v>
       </c>
       <c r="C39">
         <v>30</v>
       </c>
       <c r="H39" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="I39" t="s">
-        <v>1240</v>
+        <v>1227</v>
       </c>
       <c r="L39" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="M39" t="s">
-        <v>1190</v>
+        <v>1177</v>
       </c>
       <c r="N39">
         <v>12</v>
       </c>
       <c r="P39" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="R39">
         <v>50</v>
@@ -13351,10 +13324,10 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="D3" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="K3" t="s">
         <v>751</v>
@@ -13363,10 +13336,10 @@
         <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="N3" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13377,10 +13350,10 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="D4" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="K4">
         <v>75</v>
@@ -13389,10 +13362,10 @@
         <v>30</v>
       </c>
       <c r="M4" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="N4" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13403,10 +13376,10 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="D5" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="K5">
         <v>50</v>
@@ -13415,10 +13388,10 @@
         <v>30</v>
       </c>
       <c r="M5" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="N5" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13429,10 +13402,10 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="D6" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="K6">
         <v>30</v>
@@ -13441,10 +13414,10 @@
         <v>30</v>
       </c>
       <c r="M6" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="N6" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13455,10 +13428,10 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="D7" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="K7">
         <v>10</v>
@@ -13467,10 +13440,10 @@
         <v>30</v>
       </c>
       <c r="M7" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N7" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13492,10 +13465,10 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="E10" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
@@ -13513,10 +13486,10 @@
         <v>28</v>
       </c>
       <c r="M10" t="s">
-        <v>1150</v>
+        <v>1137</v>
       </c>
       <c r="N10" t="s">
-        <v>1149</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13524,7 +13497,7 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
       <c r="K11" t="s">
         <v>25</v>
@@ -13535,7 +13508,7 @@
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="K12" t="s">
         <v>26</v>
@@ -13546,7 +13519,7 @@
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>1122</v>
+        <v>1109</v>
       </c>
       <c r="F13" t="s">
         <v>28</v>
@@ -13560,10 +13533,10 @@
         <v>425</v>
       </c>
       <c r="D14" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E14" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
       <c r="F14" t="s">
         <v>30</v>
@@ -13575,10 +13548,10 @@
         <v>28</v>
       </c>
       <c r="M14" t="s">
-        <v>1152</v>
+        <v>1139</v>
       </c>
       <c r="N14" t="s">
-        <v>1151</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13586,10 +13559,10 @@
         <v>426</v>
       </c>
       <c r="D15" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="E15" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="F15" t="s">
         <v>30</v>
@@ -13601,10 +13574,10 @@
         <v>28</v>
       </c>
       <c r="M15" t="s">
-        <v>1154</v>
+        <v>1141</v>
       </c>
       <c r="N15" t="s">
-        <v>1153</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13612,10 +13585,10 @@
         <v>427</v>
       </c>
       <c r="D16" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="E16" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
       <c r="F16" t="s">
         <v>30</v>
@@ -13627,10 +13600,10 @@
         <v>28</v>
       </c>
       <c r="M16" t="s">
-        <v>1156</v>
+        <v>1143</v>
       </c>
       <c r="N16" t="s">
-        <v>1155</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13638,10 +13611,10 @@
         <v>424</v>
       </c>
       <c r="D17" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="E17" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="F17" t="s">
         <v>30</v>
@@ -13653,10 +13626,10 @@
         <v>28</v>
       </c>
       <c r="M17" t="s">
-        <v>1158</v>
+        <v>1145</v>
       </c>
       <c r="N17" t="s">
-        <v>1157</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13681,10 +13654,10 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>1145</v>
+        <v>1132</v>
       </c>
       <c r="E20" t="s">
-        <v>1144</v>
+        <v>1131</v>
       </c>
       <c r="J20" t="s">
         <v>48</v>
@@ -13696,10 +13669,10 @@
         <v>31</v>
       </c>
       <c r="M20" t="s">
-        <v>1127</v>
+        <v>1114</v>
       </c>
       <c r="N20" t="s">
-        <v>1126</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13726,10 +13699,10 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>1143</v>
+        <v>1130</v>
       </c>
       <c r="E23" t="s">
-        <v>1142</v>
+        <v>1129</v>
       </c>
       <c r="K23" t="s">
         <v>27</v>
@@ -13740,10 +13713,10 @@
         <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>1148</v>
+        <v>1135</v>
       </c>
       <c r="E24" t="s">
-        <v>1147</v>
+        <v>1134</v>
       </c>
       <c r="K24" t="s">
         <v>425</v>
@@ -13752,10 +13725,10 @@
         <v>31</v>
       </c>
       <c r="M24" t="s">
-        <v>1129</v>
+        <v>1116</v>
       </c>
       <c r="N24" t="s">
-        <v>1128</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13766,10 +13739,10 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>1137</v>
+        <v>1124</v>
       </c>
       <c r="E25" t="s">
-        <v>1136</v>
+        <v>1123</v>
       </c>
       <c r="K25" t="s">
         <v>426</v>
@@ -13778,10 +13751,10 @@
         <v>31</v>
       </c>
       <c r="M25" t="s">
-        <v>1131</v>
+        <v>1118</v>
       </c>
       <c r="N25" t="s">
-        <v>1130</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13792,10 +13765,10 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>1139</v>
+        <v>1126</v>
       </c>
       <c r="E26" t="s">
-        <v>1138</v>
+        <v>1125</v>
       </c>
       <c r="K26" t="s">
         <v>427</v>
@@ -13804,10 +13777,10 @@
         <v>31</v>
       </c>
       <c r="M26" t="s">
-        <v>1133</v>
+        <v>1120</v>
       </c>
       <c r="N26" t="s">
-        <v>1132</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13818,10 +13791,10 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>1141</v>
+        <v>1128</v>
       </c>
       <c r="E27" t="s">
-        <v>1140</v>
+        <v>1127</v>
       </c>
       <c r="K27" t="s">
         <v>424</v>
@@ -13830,10 +13803,10 @@
         <v>31</v>
       </c>
       <c r="M27" t="s">
-        <v>1135</v>
+        <v>1122</v>
       </c>
       <c r="N27" t="s">
-        <v>1134</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13855,10 +13828,10 @@
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="E30" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="F30" t="s">
         <v>30</v>
@@ -13873,10 +13846,10 @@
         <v>31</v>
       </c>
       <c r="M30" t="s">
-        <v>1170</v>
+        <v>1157</v>
       </c>
       <c r="N30" t="s">
-        <v>1169</v>
+        <v>1156</v>
       </c>
       <c r="O30" t="s">
         <v>672</v>
@@ -13887,10 +13860,10 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>1104</v>
+        <v>1091</v>
       </c>
       <c r="E31" t="s">
-        <v>1101</v>
+        <v>1088</v>
       </c>
       <c r="K31" t="s">
         <v>25</v>
@@ -13901,10 +13874,10 @@
         <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="E32" t="s">
-        <v>1102</v>
+        <v>1089</v>
       </c>
       <c r="K32" t="s">
         <v>26</v>
@@ -13915,10 +13888,10 @@
         <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>1082</v>
+        <v>1070</v>
       </c>
       <c r="E33" t="s">
-        <v>1081</v>
+        <v>1069</v>
       </c>
       <c r="F33" t="s">
         <v>28</v>
@@ -13935,10 +13908,10 @@
         <v>425</v>
       </c>
       <c r="D34" t="s">
-        <v>1120</v>
+        <v>1107</v>
       </c>
       <c r="E34" t="s">
-        <v>1119</v>
+        <v>1106</v>
       </c>
       <c r="K34" t="s">
         <v>425</v>
@@ -13952,10 +13925,10 @@
         <v>426</v>
       </c>
       <c r="D35" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="E35" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="F35" t="s">
         <v>30</v>
@@ -13967,10 +13940,10 @@
         <v>31</v>
       </c>
       <c r="M35" t="s">
-        <v>1172</v>
+        <v>1159</v>
       </c>
       <c r="N35" t="s">
-        <v>1171</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13978,10 +13951,10 @@
         <v>427</v>
       </c>
       <c r="D36" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="E36" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="F36" t="s">
         <v>30</v>
@@ -13993,10 +13966,10 @@
         <v>31</v>
       </c>
       <c r="M36" t="s">
-        <v>1174</v>
+        <v>1161</v>
       </c>
       <c r="N36" t="s">
-        <v>1173</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14004,10 +13977,10 @@
         <v>424</v>
       </c>
       <c r="D37" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="E37" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="F37" t="s">
         <v>30</v>
@@ -14019,10 +13992,10 @@
         <v>31</v>
       </c>
       <c r="M37" t="s">
-        <v>1176</v>
+        <v>1163</v>
       </c>
       <c r="N37" t="s">
-        <v>1175</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14041,10 +14014,10 @@
         <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="E41" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="F41" t="s">
         <v>31</v>
@@ -14062,13 +14035,13 @@
         <v>30</v>
       </c>
       <c r="M41" t="s">
-        <v>1160</v>
+        <v>1147</v>
       </c>
       <c r="N41" t="s">
-        <v>1159</v>
+        <v>1146</v>
       </c>
       <c r="O41" t="s">
-        <v>1146</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14076,10 +14049,10 @@
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>1107</v>
+        <v>1094</v>
       </c>
       <c r="E42" t="s">
-        <v>1105</v>
+        <v>1092</v>
       </c>
       <c r="K42" t="s">
         <v>25</v>
@@ -14090,10 +14063,10 @@
         <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>1108</v>
+        <v>1095</v>
       </c>
       <c r="E43" t="s">
-        <v>1106</v>
+        <v>1093</v>
       </c>
       <c r="K43" t="s">
         <v>26</v>
@@ -14104,10 +14077,10 @@
         <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="E44" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="F44" t="s">
         <v>31</v>
@@ -14124,10 +14097,10 @@
         <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>1118</v>
+        <v>1105</v>
       </c>
       <c r="E45" t="s">
-        <v>1115</v>
+        <v>1102</v>
       </c>
       <c r="K45" t="s">
         <v>37</v>
@@ -14136,10 +14109,10 @@
         <v>30</v>
       </c>
       <c r="M45" t="s">
-        <v>1162</v>
+        <v>1149</v>
       </c>
       <c r="N45" t="s">
-        <v>1161</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14147,10 +14120,10 @@
         <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="E46" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="F46" t="s">
         <v>31</v>
@@ -14162,10 +14135,10 @@
         <v>30</v>
       </c>
       <c r="M46" t="s">
-        <v>1164</v>
+        <v>1151</v>
       </c>
       <c r="N46" t="s">
-        <v>1163</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14173,10 +14146,10 @@
         <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="E47" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="F47" t="s">
         <v>31</v>
@@ -14188,10 +14161,10 @@
         <v>30</v>
       </c>
       <c r="M47" t="s">
-        <v>1166</v>
+        <v>1153</v>
       </c>
       <c r="N47" t="s">
-        <v>1165</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14199,10 +14172,10 @@
         <v>365</v>
       </c>
       <c r="D48" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="E48" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="F48" t="s">
         <v>31</v>
@@ -14214,10 +14187,10 @@
         <v>30</v>
       </c>
       <c r="M48" t="s">
-        <v>1168</v>
+        <v>1155</v>
       </c>
       <c r="N48" t="s">
-        <v>1167</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -14239,10 +14212,10 @@
         <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="E51" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="F51" t="s">
         <v>30</v>
@@ -14259,10 +14232,10 @@
         <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>1097</v>
+        <v>1084</v>
       </c>
       <c r="E52" t="s">
-        <v>1095</v>
+        <v>1082</v>
       </c>
       <c r="K52" t="s">
         <v>25</v>
@@ -14273,10 +14246,10 @@
         <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>1098</v>
+        <v>1085</v>
       </c>
       <c r="E53" t="s">
-        <v>1096</v>
+        <v>1083</v>
       </c>
       <c r="K53" t="s">
         <v>26</v>
@@ -14287,10 +14260,10 @@
         <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
       <c r="E54" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
       <c r="F54" t="s">
         <v>30</v>
@@ -14304,10 +14277,10 @@
         <v>37</v>
       </c>
       <c r="D55" t="s">
-        <v>1110</v>
+        <v>1097</v>
       </c>
       <c r="E55" t="s">
-        <v>1109</v>
+        <v>1096</v>
       </c>
       <c r="K55" t="s">
         <v>37</v>
@@ -14318,10 +14291,10 @@
         <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="E56" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="F56" t="s">
         <v>30</v>
@@ -14335,10 +14308,10 @@
         <v>44</v>
       </c>
       <c r="D57" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="E57" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="F57" t="s">
         <v>30</v>
@@ -14352,10 +14325,10 @@
         <v>365</v>
       </c>
       <c r="D58" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="E58" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="F58" t="s">
         <v>30</v>
@@ -14386,10 +14359,10 @@
         <v>28</v>
       </c>
       <c r="D61" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="E61" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="F61" t="s">
         <v>31</v>
@@ -14406,10 +14379,10 @@
         <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>1100</v>
+        <v>1087</v>
       </c>
       <c r="E62" t="s">
-        <v>1099</v>
+        <v>1086</v>
       </c>
       <c r="K62" t="s">
         <v>25</v>
@@ -14420,10 +14393,10 @@
         <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>1084</v>
+        <v>1072</v>
       </c>
       <c r="E63" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
       <c r="F63" t="s">
         <v>31</v>
@@ -14440,10 +14413,10 @@
         <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>1074</v>
+        <v>1062</v>
       </c>
       <c r="E64" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
       <c r="F64" t="s">
         <v>31</v>
@@ -14457,10 +14430,10 @@
         <v>37</v>
       </c>
       <c r="D65" t="s">
-        <v>1117</v>
+        <v>1104</v>
       </c>
       <c r="E65" t="s">
-        <v>1116</v>
+        <v>1103</v>
       </c>
       <c r="F65" t="s">
         <v>31</v>
@@ -14474,10 +14447,10 @@
         <v>38</v>
       </c>
       <c r="D66" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="E66" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="F66" t="s">
         <v>31</v>
@@ -14491,10 +14464,10 @@
         <v>44</v>
       </c>
       <c r="D67" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="E67" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="F67" t="s">
         <v>31</v>
@@ -14508,10 +14481,10 @@
         <v>365</v>
       </c>
       <c r="D68" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="E68" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="F68" t="s">
         <v>31</v>
@@ -14542,10 +14515,10 @@
         <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="E71" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="F71" t="s">
         <v>30</v>
@@ -14565,10 +14538,10 @@
         <v>25</v>
       </c>
       <c r="D72" t="s">
-        <v>1093</v>
+        <v>1080</v>
       </c>
       <c r="E72" t="s">
-        <v>1091</v>
+        <v>1078</v>
       </c>
       <c r="K72" t="s">
         <v>25</v>
@@ -14579,10 +14552,10 @@
         <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>1094</v>
+        <v>1081</v>
       </c>
       <c r="E73" t="s">
-        <v>1092</v>
+        <v>1079</v>
       </c>
       <c r="K73" t="s">
         <v>26</v>
@@ -14593,10 +14566,10 @@
         <v>27</v>
       </c>
       <c r="D74" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="E74" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
       <c r="F74" t="s">
         <v>28</v>
@@ -14610,10 +14583,10 @@
         <v>37</v>
       </c>
       <c r="D75" t="s">
-        <v>1112</v>
+        <v>1099</v>
       </c>
       <c r="E75" t="s">
-        <v>1111</v>
+        <v>1098</v>
       </c>
       <c r="K75" t="s">
         <v>37</v>
@@ -14624,10 +14597,10 @@
         <v>38</v>
       </c>
       <c r="D76" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="E76" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="F76" t="s">
         <v>30</v>
@@ -14644,10 +14617,10 @@
         <v>44</v>
       </c>
       <c r="D77" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="E77" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="F77" t="s">
         <v>30</v>
@@ -14667,7 +14640,7 @@
         <v>709</v>
       </c>
       <c r="E78" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="F78" t="s">
         <v>30</v>
@@ -14701,10 +14674,10 @@
         <v>28</v>
       </c>
       <c r="D81" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="E81" t="s">
-        <v>1123</v>
+        <v>1110</v>
       </c>
       <c r="F81" t="s">
         <v>31</v>
@@ -14733,10 +14706,10 @@
         <v>25</v>
       </c>
       <c r="D82" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
       <c r="E82" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="K82" t="s">
         <v>25</v>
@@ -14747,10 +14720,10 @@
         <v>26</v>
       </c>
       <c r="D83" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="E83" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
       <c r="K83" t="s">
         <v>26</v>
@@ -14762,10 +14735,10 @@
       </c>
       <c r="C84" s="14"/>
       <c r="D84" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
       <c r="E84" t="s">
-        <v>1050</v>
+        <v>1038</v>
       </c>
       <c r="F84" t="s">
         <v>30</v>
@@ -14791,10 +14764,10 @@
         <v>772</v>
       </c>
       <c r="D85" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="E85" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="F85" t="s">
         <v>31</v>
@@ -14820,10 +14793,10 @@
         <v>772</v>
       </c>
       <c r="D86" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="E86" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="F86" t="s">
         <v>31</v>
@@ -14849,10 +14822,10 @@
         <v>28</v>
       </c>
       <c r="D87" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="E87" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="F87" t="s">
         <v>31</v>
@@ -14869,10 +14842,10 @@
         <v>31</v>
       </c>
       <c r="D88" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="E88" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="F88" t="s">
         <v>31</v>
@@ -14888,10 +14861,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2527C4A-E369-43B9-AF00-5597A25A9A60}">
-  <dimension ref="A1:S246"/>
+  <dimension ref="A1:S227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100:J119"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -15088,7 +15061,7 @@
         <v>493</v>
       </c>
       <c r="D10" t="s">
-        <v>1872</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -15104,7 +15077,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>1885</v>
+        <v>1872</v>
       </c>
       <c r="C13" t="s">
         <v>237</v>
@@ -15115,7 +15088,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>1279</v>
+        <v>1266</v>
       </c>
       <c r="C14" t="s">
         <v>239</v>
@@ -15126,7 +15099,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>1280</v>
+        <v>1267</v>
       </c>
       <c r="C15" t="s">
         <v>236</v>
@@ -15137,7 +15110,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>1281</v>
+        <v>1268</v>
       </c>
       <c r="C16" t="s">
         <v>234</v>
@@ -15274,21 +15247,21 @@
     <row r="31" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="28"/>
       <c r="C31" s="28" t="s">
-        <v>1832</v>
+        <v>1819</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
     </row>
     <row r="32" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="28" t="s">
-        <v>1833</v>
+        <v>1820</v>
       </c>
       <c r="C32" s="28"/>
       <c r="D32" s="28" t="s">
-        <v>1834</v>
+        <v>1821</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>1835</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -15300,10 +15273,10 @@
       </c>
       <c r="C33"/>
       <c r="D33" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="E33" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -15313,10 +15286,10 @@
       </c>
       <c r="C34"/>
       <c r="D34" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="E34" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -15326,10 +15299,10 @@
       </c>
       <c r="C35"/>
       <c r="D35" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="E35" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -15337,10 +15310,10 @@
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="E36" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -15348,10 +15321,10 @@
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="E37" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -15528,7 +15501,7 @@
         <v>490</v>
       </c>
       <c r="E47" t="s">
-        <v>1836</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -15553,10 +15526,10 @@
         <v>164</v>
       </c>
       <c r="I50" s="27" t="s">
-        <v>1838</v>
+        <v>1825</v>
       </c>
       <c r="J50" s="27" t="s">
-        <v>1675</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -15573,10 +15546,10 @@
         <v>248</v>
       </c>
       <c r="I51" s="27" t="s">
-        <v>1840</v>
+        <v>1827</v>
       </c>
       <c r="J51" s="27" t="s">
-        <v>1839</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -15590,10 +15563,10 @@
         <v>158</v>
       </c>
       <c r="I52" s="27" t="s">
-        <v>1842</v>
+        <v>1829</v>
       </c>
       <c r="J52" s="27" t="s">
-        <v>1841</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -15607,10 +15580,10 @@
         <v>156</v>
       </c>
       <c r="I53" s="27" t="s">
-        <v>1843</v>
+        <v>1830</v>
       </c>
       <c r="J53" s="27" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -15624,10 +15597,10 @@
         <v>162</v>
       </c>
       <c r="I54" s="27" t="s">
-        <v>1844</v>
+        <v>1831</v>
       </c>
       <c r="J54" s="27" t="s">
-        <v>1849</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -15641,10 +15614,10 @@
         <v>168</v>
       </c>
       <c r="I55" s="27" t="s">
-        <v>1846</v>
+        <v>1833</v>
       </c>
       <c r="J55" s="27" t="s">
-        <v>1845</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -15658,10 +15631,10 @@
         <v>160</v>
       </c>
       <c r="I56" s="27" t="s">
-        <v>1847</v>
+        <v>1834</v>
       </c>
       <c r="J56" s="27" t="s">
-        <v>1848</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -15672,7 +15645,7 @@
         <v>512</v>
       </c>
       <c r="E57" t="s">
-        <v>1837</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -15712,10 +15685,10 @@
         <v>24</v>
       </c>
       <c r="I61" t="s">
-        <v>1887</v>
+        <v>1874</v>
       </c>
       <c r="J61" t="s">
-        <v>1886</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -15733,10 +15706,10 @@
         <v>25</v>
       </c>
       <c r="I62" t="s">
-        <v>1863</v>
+        <v>1850</v>
       </c>
       <c r="J62" t="s">
-        <v>1888</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -15754,10 +15727,10 @@
         <v>26</v>
       </c>
       <c r="I63" t="s">
-        <v>1890</v>
+        <v>1877</v>
       </c>
       <c r="J63" t="s">
-        <v>1889</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -15775,10 +15748,10 @@
         <v>27</v>
       </c>
       <c r="I64" t="s">
-        <v>1892</v>
+        <v>1879</v>
       </c>
       <c r="J64" t="s">
-        <v>1891</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -15796,10 +15769,10 @@
         <v>37</v>
       </c>
       <c r="I65" t="s">
-        <v>1894</v>
+        <v>1881</v>
       </c>
       <c r="J65" t="s">
-        <v>1893</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -15817,10 +15790,10 @@
         <v>38</v>
       </c>
       <c r="I66" t="s">
-        <v>1896</v>
+        <v>1883</v>
       </c>
       <c r="J66" t="s">
-        <v>1895</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -15838,10 +15811,10 @@
         <v>44</v>
       </c>
       <c r="I67" t="s">
-        <v>1898</v>
+        <v>1885</v>
       </c>
       <c r="J67" t="s">
-        <v>1897</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -15859,10 +15832,10 @@
         <v>365</v>
       </c>
       <c r="I68" t="s">
-        <v>1900</v>
+        <v>1887</v>
       </c>
       <c r="J68" t="s">
-        <v>1899</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -15904,10 +15877,10 @@
         <v>24</v>
       </c>
       <c r="I71" t="s">
-        <v>1902</v>
+        <v>1889</v>
       </c>
       <c r="J71" t="s">
-        <v>1901</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -15925,10 +15898,10 @@
         <v>25</v>
       </c>
       <c r="I72" t="s">
-        <v>1904</v>
+        <v>1891</v>
       </c>
       <c r="J72" t="s">
-        <v>1903</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -15946,10 +15919,10 @@
         <v>26</v>
       </c>
       <c r="I73" t="s">
-        <v>1906</v>
+        <v>1893</v>
       </c>
       <c r="J73" t="s">
-        <v>1905</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -15967,10 +15940,10 @@
         <v>27</v>
       </c>
       <c r="I74" t="s">
-        <v>1908</v>
+        <v>1895</v>
       </c>
       <c r="J74" t="s">
-        <v>1907</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -15978,20 +15951,20 @@
         <v>37</v>
       </c>
       <c r="D75" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
       <c r="E75" t="s">
-        <v>1909</v>
+        <v>1896</v>
       </c>
       <c r="G75" s="27"/>
       <c r="H75" s="27" t="s">
         <v>37</v>
       </c>
       <c r="I75" t="s">
-        <v>1911</v>
+        <v>1898</v>
       </c>
       <c r="J75" t="s">
-        <v>1910</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -16009,10 +15982,10 @@
         <v>38</v>
       </c>
       <c r="I76" t="s">
-        <v>1913</v>
+        <v>1900</v>
       </c>
       <c r="J76" t="s">
-        <v>1912</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -16030,10 +16003,10 @@
         <v>44</v>
       </c>
       <c r="I77" t="s">
-        <v>1915</v>
+        <v>1902</v>
       </c>
       <c r="J77" t="s">
-        <v>1914</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -16051,10 +16024,10 @@
         <v>365</v>
       </c>
       <c r="I78" t="s">
-        <v>1917</v>
+        <v>1904</v>
       </c>
       <c r="J78" t="s">
-        <v>1916</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -16097,10 +16070,10 @@
         <v>24</v>
       </c>
       <c r="I81" s="27" t="s">
-        <v>1926</v>
+        <v>1913</v>
       </c>
       <c r="J81" s="27" t="s">
-        <v>1770</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16108,7 +16081,7 @@
         <v>25</v>
       </c>
       <c r="D82" t="s">
-        <v>1918</v>
+        <v>1905</v>
       </c>
       <c r="E82" t="s">
         <v>759</v>
@@ -16118,10 +16091,10 @@
         <v>25</v>
       </c>
       <c r="I82" s="27" t="s">
-        <v>1928</v>
+        <v>1915</v>
       </c>
       <c r="J82" s="27" t="s">
-        <v>1927</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16129,20 +16102,20 @@
         <v>26</v>
       </c>
       <c r="D83" t="s">
-        <v>1344</v>
+        <v>1331</v>
       </c>
       <c r="E83" t="s">
-        <v>1919</v>
+        <v>1906</v>
       </c>
       <c r="G83" s="27"/>
       <c r="H83" s="27" t="s">
         <v>26</v>
       </c>
       <c r="I83" s="27" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
       <c r="J83" s="27" t="s">
-        <v>1929</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16160,10 +16133,10 @@
         <v>27</v>
       </c>
       <c r="I84" s="27" t="s">
-        <v>1931</v>
+        <v>1918</v>
       </c>
       <c r="J84" s="27" t="s">
-        <v>1930</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16181,10 +16154,10 @@
         <v>37</v>
       </c>
       <c r="I85" s="27" t="s">
-        <v>1932</v>
+        <v>1919</v>
       </c>
       <c r="J85" s="27" t="s">
-        <v>1849</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16202,10 +16175,10 @@
         <v>38</v>
       </c>
       <c r="I86" s="27" t="s">
-        <v>1934</v>
+        <v>1921</v>
       </c>
       <c r="J86" s="27" t="s">
-        <v>1933</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16223,10 +16196,10 @@
         <v>44</v>
       </c>
       <c r="I87" s="27" t="s">
-        <v>1936</v>
+        <v>1923</v>
       </c>
       <c r="J87" s="27" t="s">
-        <v>1935</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16244,10 +16217,10 @@
         <v>365</v>
       </c>
       <c r="I88" s="27" t="s">
-        <v>1938</v>
+        <v>1925</v>
       </c>
       <c r="J88" s="27" t="s">
-        <v>1937</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16293,10 +16266,10 @@
         <v>24</v>
       </c>
       <c r="I91" s="27" t="s">
-        <v>1940</v>
+        <v>1927</v>
       </c>
       <c r="J91" s="27" t="s">
-        <v>1939</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16304,20 +16277,20 @@
         <v>25</v>
       </c>
       <c r="D92" t="s">
-        <v>1921</v>
+        <v>1908</v>
       </c>
       <c r="E92" t="s">
-        <v>1920</v>
+        <v>1907</v>
       </c>
       <c r="G92" s="27"/>
       <c r="H92" s="27" t="s">
         <v>25</v>
       </c>
       <c r="I92" s="27" t="s">
-        <v>1941</v>
+        <v>1928</v>
       </c>
       <c r="J92" s="27" t="s">
-        <v>1784</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16325,20 +16298,20 @@
         <v>26</v>
       </c>
       <c r="D93" t="s">
-        <v>1784</v>
+        <v>1771</v>
       </c>
       <c r="E93" t="s">
-        <v>1922</v>
+        <v>1909</v>
       </c>
       <c r="G93" s="27"/>
       <c r="H93" s="27" t="s">
         <v>26</v>
       </c>
       <c r="I93" s="27" t="s">
-        <v>1857</v>
+        <v>1844</v>
       </c>
       <c r="J93" s="27" t="s">
-        <v>1942</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16357,10 +16330,10 @@
         <v>27</v>
       </c>
       <c r="I94" s="27" t="s">
-        <v>1943</v>
+        <v>1930</v>
       </c>
       <c r="J94" s="27" t="s">
-        <v>1849</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16368,10 +16341,10 @@
         <v>37</v>
       </c>
       <c r="D95" t="s">
-        <v>1924</v>
+        <v>1911</v>
       </c>
       <c r="E95" t="s">
-        <v>1923</v>
+        <v>1910</v>
       </c>
       <c r="F95" s="27"/>
       <c r="G95" s="27"/>
@@ -16379,10 +16352,10 @@
         <v>37</v>
       </c>
       <c r="I95" s="27" t="s">
-        <v>1944</v>
+        <v>1931</v>
       </c>
       <c r="J95" s="27" t="s">
-        <v>1325</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16401,10 +16374,10 @@
         <v>38</v>
       </c>
       <c r="I96" s="27" t="s">
-        <v>1349</v>
+        <v>1336</v>
       </c>
       <c r="J96" s="27" t="s">
-        <v>1702</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16412,10 +16385,10 @@
         <v>340</v>
       </c>
       <c r="D97" t="s">
-        <v>1949</v>
+        <v>1936</v>
       </c>
       <c r="E97" t="s">
-        <v>1948</v>
+        <v>1935</v>
       </c>
       <c r="F97" s="27"/>
       <c r="G97" s="27"/>
@@ -16423,10 +16396,10 @@
         <v>340</v>
       </c>
       <c r="I97" s="27" t="s">
-        <v>1945</v>
+        <v>1932</v>
       </c>
       <c r="J97" s="27" t="s">
-        <v>1947</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16445,10 +16418,10 @@
         <v>365</v>
       </c>
       <c r="I98" s="27" t="s">
-        <v>1950</v>
+        <v>1937</v>
       </c>
       <c r="J98" s="27" t="s">
-        <v>1946</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16456,14 +16429,14 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>1283</v>
+        <v>1270</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F100" s="27"/>
       <c r="G100" s="27" t="s">
-        <v>1283</v>
+        <v>1270</v>
       </c>
       <c r="H100" s="27"/>
       <c r="I100" s="28" t="s">
@@ -16483,7 +16456,7 @@
         <v>862</v>
       </c>
       <c r="E101" t="s">
-        <v>1951</v>
+        <v>1938</v>
       </c>
       <c r="F101" t="s">
         <v>247</v>
@@ -16495,10 +16468,10 @@
         <v>24</v>
       </c>
       <c r="I101" s="27" t="s">
-        <v>1966</v>
+        <v>1953</v>
       </c>
       <c r="J101" s="27" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16506,20 +16479,20 @@
         <v>25</v>
       </c>
       <c r="D102" s="27" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="E102" t="s">
-        <v>1953</v>
+        <v>1940</v>
       </c>
       <c r="G102" s="27"/>
       <c r="H102" s="27" t="s">
         <v>25</v>
       </c>
       <c r="I102" s="27" t="s">
-        <v>1968</v>
+        <v>1955</v>
       </c>
       <c r="J102" s="27" t="s">
-        <v>1967</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16527,20 +16500,20 @@
         <v>26</v>
       </c>
       <c r="D103" s="27" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="E103" t="s">
-        <v>1955</v>
+        <v>1942</v>
       </c>
       <c r="G103" s="27"/>
       <c r="H103" s="27" t="s">
         <v>26</v>
       </c>
       <c r="I103" s="27" t="s">
-        <v>1970</v>
+        <v>1957</v>
       </c>
       <c r="J103" s="27" t="s">
-        <v>1969</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16548,20 +16521,20 @@
         <v>27</v>
       </c>
       <c r="D104" s="27" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E104" t="s">
-        <v>1961</v>
+        <v>1948</v>
       </c>
       <c r="G104" s="27"/>
       <c r="H104" s="27" t="s">
         <v>27</v>
       </c>
       <c r="I104" s="27" t="s">
-        <v>1971</v>
+        <v>1958</v>
       </c>
       <c r="J104" s="27" t="s">
-        <v>1972</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16569,20 +16542,20 @@
         <v>37</v>
       </c>
       <c r="D105" s="27" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E105" t="s">
-        <v>1962</v>
+        <v>1949</v>
       </c>
       <c r="G105" s="27"/>
       <c r="H105" s="27" t="s">
         <v>37</v>
       </c>
       <c r="I105" s="27" t="s">
-        <v>1974</v>
+        <v>1961</v>
       </c>
       <c r="J105" s="27" t="s">
-        <v>1973</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16590,20 +16563,20 @@
         <v>38</v>
       </c>
       <c r="D106" s="27" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="E106" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="G106" s="27"/>
       <c r="H106" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I106" s="27" t="s">
-        <v>1976</v>
+        <v>1963</v>
       </c>
       <c r="J106" s="27" t="s">
-        <v>1975</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16611,20 +16584,20 @@
         <v>44</v>
       </c>
       <c r="D107" s="27" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E107" t="s">
-        <v>1963</v>
+        <v>1950</v>
       </c>
       <c r="G107" s="27"/>
       <c r="H107" s="27" t="s">
         <v>44</v>
       </c>
       <c r="I107" s="27" t="s">
-        <v>1978</v>
+        <v>1965</v>
       </c>
       <c r="J107" s="27" t="s">
-        <v>1977</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16632,20 +16605,20 @@
         <v>365</v>
       </c>
       <c r="D108" s="27" t="s">
-        <v>1090</v>
+        <v>1077</v>
       </c>
       <c r="E108" t="s">
-        <v>1964</v>
+        <v>1951</v>
       </c>
       <c r="G108" s="27"/>
       <c r="H108" s="27" t="s">
         <v>365</v>
       </c>
       <c r="I108" s="27" t="s">
-        <v>1980</v>
+        <v>1967</v>
       </c>
       <c r="J108" s="27" t="s">
-        <v>1979</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16677,13 +16650,13 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>1283</v>
+        <v>1270</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>122</v>
       </c>
       <c r="G111" s="27" t="s">
-        <v>1283</v>
+        <v>1270</v>
       </c>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
@@ -16697,10 +16670,10 @@
         <v>24</v>
       </c>
       <c r="D112" s="27" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="E112" t="s">
-        <v>1952</v>
+        <v>1939</v>
       </c>
       <c r="F112" t="s">
         <v>248</v>
@@ -16712,10 +16685,10 @@
         <v>24</v>
       </c>
       <c r="I112" s="27" t="s">
-        <v>1982</v>
+        <v>1969</v>
       </c>
       <c r="J112" s="27" t="s">
-        <v>1981</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16723,20 +16696,20 @@
         <v>25</v>
       </c>
       <c r="D113" s="27" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="E113" t="s">
-        <v>1954</v>
+        <v>1941</v>
       </c>
       <c r="G113" s="27"/>
       <c r="H113" s="27" t="s">
         <v>25</v>
       </c>
       <c r="I113" s="27" t="s">
-        <v>1984</v>
+        <v>1971</v>
       </c>
       <c r="J113" s="27" t="s">
-        <v>1983</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16744,20 +16717,20 @@
         <v>26</v>
       </c>
       <c r="D114" s="27" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="E114" t="s">
-        <v>1956</v>
+        <v>1943</v>
       </c>
       <c r="G114" s="27"/>
       <c r="H114" s="27" t="s">
         <v>26</v>
       </c>
       <c r="I114" s="27" t="s">
-        <v>1986</v>
+        <v>1973</v>
       </c>
       <c r="J114" s="27" t="s">
-        <v>1985</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16765,20 +16738,20 @@
         <v>27</v>
       </c>
       <c r="D115" s="27" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="E115" t="s">
-        <v>1958</v>
+        <v>1945</v>
       </c>
       <c r="G115" s="27"/>
       <c r="H115" s="27" t="s">
         <v>27</v>
       </c>
       <c r="I115" s="27" t="s">
-        <v>1988</v>
+        <v>1975</v>
       </c>
       <c r="J115" s="27" t="s">
-        <v>1987</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16786,17 +16759,17 @@
         <v>37</v>
       </c>
       <c r="D116" s="27" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="E116" s="27" t="s">
-        <v>1957</v>
+        <v>1944</v>
       </c>
       <c r="G116" s="27"/>
       <c r="H116" s="27" t="s">
         <v>37</v>
       </c>
       <c r="I116" s="27" t="s">
-        <v>1989</v>
+        <v>1976</v>
       </c>
       <c r="J116" s="27" t="s">
         <v>824</v>
@@ -16807,20 +16780,20 @@
         <v>38</v>
       </c>
       <c r="D117" s="27" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="E117" t="s">
-        <v>1959</v>
+        <v>1946</v>
       </c>
       <c r="G117" s="27"/>
       <c r="H117" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I117" s="27" t="s">
-        <v>1991</v>
+        <v>1978</v>
       </c>
       <c r="J117" s="27" t="s">
-        <v>1990</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16828,20 +16801,20 @@
         <v>44</v>
       </c>
       <c r="D118" s="27" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="E118" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="G118" s="27"/>
       <c r="H118" s="27" t="s">
         <v>44</v>
       </c>
       <c r="I118" s="27" t="s">
-        <v>1993</v>
+        <v>1980</v>
       </c>
       <c r="J118" s="27" t="s">
-        <v>1992</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16849,20 +16822,20 @@
         <v>365</v>
       </c>
       <c r="D119" s="27" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="E119" t="s">
-        <v>1960</v>
+        <v>1947</v>
       </c>
       <c r="G119" s="27"/>
       <c r="H119" s="27" t="s">
         <v>365</v>
       </c>
       <c r="I119" s="27" t="s">
-        <v>1995</v>
+        <v>1982</v>
       </c>
       <c r="J119" s="27" t="s">
-        <v>1994</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16908,7 +16881,7 @@
         <v>122</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>1856</v>
+        <v>1843</v>
       </c>
       <c r="E127" s="28" t="s">
         <v>10</v>
@@ -16919,7 +16892,7 @@
       </c>
       <c r="H127" s="27"/>
       <c r="I127" s="28" t="s">
-        <v>1856</v>
+        <v>1843</v>
       </c>
       <c r="J127" s="28" t="s">
         <v>10</v>
@@ -16933,10 +16906,10 @@
         <v>24</v>
       </c>
       <c r="D128" t="s">
-        <v>1853</v>
+        <v>1840</v>
       </c>
       <c r="E128" t="s">
-        <v>1850</v>
+        <v>1837</v>
       </c>
       <c r="G128" s="27" t="s">
         <v>166</v>
@@ -16945,10 +16918,10 @@
         <v>24</v>
       </c>
       <c r="I128" t="s">
-        <v>1858</v>
+        <v>1845</v>
       </c>
       <c r="J128" t="s">
-        <v>1857</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16956,20 +16929,20 @@
         <v>25</v>
       </c>
       <c r="D129" t="s">
-        <v>1852</v>
+        <v>1839</v>
       </c>
       <c r="E129" t="s">
-        <v>1851</v>
+        <v>1838</v>
       </c>
       <c r="G129" s="27"/>
       <c r="H129" s="27" t="s">
         <v>25</v>
       </c>
       <c r="I129" t="s">
-        <v>1861</v>
+        <v>1848</v>
       </c>
       <c r="J129" t="s">
-        <v>1860</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16987,10 +16960,10 @@
         <v>26</v>
       </c>
       <c r="I130" t="s">
-        <v>1863</v>
+        <v>1850</v>
       </c>
       <c r="J130" t="s">
-        <v>1862</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17008,10 +16981,10 @@
         <v>27</v>
       </c>
       <c r="I131" t="s">
-        <v>1865</v>
+        <v>1852</v>
       </c>
       <c r="J131" t="s">
-        <v>1864</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17029,10 +17002,10 @@
         <v>37</v>
       </c>
       <c r="I132" t="s">
-        <v>1867</v>
+        <v>1854</v>
       </c>
       <c r="J132" t="s">
-        <v>1866</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17040,7 +17013,7 @@
         <v>38</v>
       </c>
       <c r="D133" t="s">
-        <v>1859</v>
+        <v>1846</v>
       </c>
       <c r="E133" t="s">
         <v>179</v>
@@ -17050,10 +17023,10 @@
         <v>38</v>
       </c>
       <c r="I133" t="s">
-        <v>1304</v>
+        <v>1291</v>
       </c>
       <c r="J133" t="s">
-        <v>1868</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17071,10 +17044,10 @@
         <v>44</v>
       </c>
       <c r="I134" t="s">
-        <v>1870</v>
+        <v>1857</v>
       </c>
       <c r="J134" t="s">
-        <v>1869</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17085,17 +17058,17 @@
         <v>647</v>
       </c>
       <c r="E135" t="s">
-        <v>1854</v>
+        <v>1841</v>
       </c>
       <c r="G135" s="27"/>
       <c r="H135" s="27" t="s">
         <v>365</v>
       </c>
       <c r="I135" s="27" t="s">
-        <v>1871</v>
+        <v>1858</v>
       </c>
       <c r="J135" s="27" t="s">
-        <v>1854</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17107,7 +17080,7 @@
       </c>
       <c r="H137" s="27"/>
       <c r="I137" s="28" t="s">
-        <v>1856</v>
+        <v>1843</v>
       </c>
       <c r="J137" s="28" t="s">
         <v>10</v>
@@ -17130,10 +17103,10 @@
         <v>24</v>
       </c>
       <c r="I138" s="27" t="s">
-        <v>1874</v>
+        <v>1861</v>
       </c>
       <c r="J138" s="27" t="s">
-        <v>1873</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17153,10 +17126,10 @@
         <v>25</v>
       </c>
       <c r="I139" s="27" t="s">
-        <v>1875</v>
+        <v>1862</v>
       </c>
       <c r="J139" s="27" t="s">
-        <v>1761</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17173,10 +17146,10 @@
         <v>26</v>
       </c>
       <c r="I140" s="27" t="s">
-        <v>1876</v>
+        <v>1863</v>
       </c>
       <c r="J140" s="27" t="s">
-        <v>1877</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17193,10 +17166,10 @@
         <v>27</v>
       </c>
       <c r="I141" s="27" t="s">
-        <v>1879</v>
+        <v>1866</v>
       </c>
       <c r="J141" s="27" t="s">
-        <v>1878</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17213,10 +17186,10 @@
         <v>37</v>
       </c>
       <c r="I142" s="27" t="s">
-        <v>1881</v>
+        <v>1868</v>
       </c>
       <c r="J142" s="27" t="s">
-        <v>1880</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17233,10 +17206,10 @@
         <v>38</v>
       </c>
       <c r="I143" s="27" t="s">
-        <v>1882</v>
+        <v>1869</v>
       </c>
       <c r="J143" s="27" t="s">
-        <v>1753</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17253,10 +17226,10 @@
         <v>44</v>
       </c>
       <c r="I144" s="27" t="s">
-        <v>1884</v>
+        <v>1871</v>
       </c>
       <c r="J144" s="27" t="s">
-        <v>1883</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17264,19 +17237,19 @@
         <v>365</v>
       </c>
       <c r="D145" s="27" t="s">
-        <v>1855</v>
+        <v>1842</v>
       </c>
       <c r="E145" s="27" t="s">
-        <v>1854</v>
+        <v>1841</v>
       </c>
       <c r="H145" s="27" t="s">
         <v>365</v>
       </c>
       <c r="I145" s="27" t="s">
-        <v>1871</v>
+        <v>1858</v>
       </c>
       <c r="J145" s="27" t="s">
-        <v>1854</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17693,7 +17666,7 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
-        <v>1497</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17704,19 +17677,19 @@
         <v>24</v>
       </c>
       <c r="D188" s="27" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="E188" s="27" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="G188" t="s">
         <v>245</v>
       </c>
       <c r="I188" s="27" t="s">
-        <v>2007</v>
+        <v>1983</v>
       </c>
       <c r="J188" s="27" t="s">
-        <v>1996</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17724,16 +17697,16 @@
         <v>25</v>
       </c>
       <c r="D189" s="27" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="E189" s="27" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
       <c r="I189" s="27" t="s">
-        <v>2008</v>
+        <v>1984</v>
       </c>
       <c r="J189" s="27" t="s">
-        <v>1997</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17741,16 +17714,16 @@
         <v>26</v>
       </c>
       <c r="D190" s="27" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
       <c r="E190" s="27" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
       <c r="I190" s="27" t="s">
-        <v>2009</v>
+        <v>1985</v>
       </c>
       <c r="J190" s="27" t="s">
-        <v>1998</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17758,16 +17731,16 @@
         <v>27</v>
       </c>
       <c r="D191" s="27" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="E191" s="27" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="I191" s="27" t="s">
-        <v>2010</v>
+        <v>1986</v>
       </c>
       <c r="J191" s="27" t="s">
-        <v>1999</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17775,16 +17748,16 @@
         <v>37</v>
       </c>
       <c r="D192" s="27" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="E192" s="27" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="I192" s="27" t="s">
-        <v>2011</v>
+        <v>1987</v>
       </c>
       <c r="J192" s="27" t="s">
-        <v>905</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17792,16 +17765,16 @@
         <v>38</v>
       </c>
       <c r="D193" s="27" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="E193" s="27" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="I193" s="27" t="s">
-        <v>2012</v>
+        <v>1988</v>
       </c>
       <c r="J193" s="27" t="s">
-        <v>903</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17809,16 +17782,16 @@
         <v>44</v>
       </c>
       <c r="D194" s="27" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="E194" s="27" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="I194" s="27" t="s">
-        <v>2013</v>
+        <v>1989</v>
       </c>
       <c r="J194" s="27" t="s">
-        <v>2000</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="195" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -17826,16 +17799,16 @@
         <v>365</v>
       </c>
       <c r="D195" s="27" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="E195" s="27" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="I195" s="27" t="s">
-        <v>2014</v>
+        <v>1990</v>
       </c>
       <c r="J195" s="27" t="s">
-        <v>899</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17846,7 +17819,7 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
-        <v>1497</v>
+        <v>1484</v>
       </c>
       <c r="D197" s="27"/>
       <c r="E197" s="27"/>
@@ -17861,19 +17834,19 @@
         <v>24</v>
       </c>
       <c r="D198" s="27" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="E198" s="27" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="G198" t="s">
         <v>242</v>
       </c>
       <c r="I198" s="27" t="s">
-        <v>2015</v>
+        <v>1991</v>
       </c>
       <c r="J198" s="27" t="s">
-        <v>2001</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17881,16 +17854,16 @@
         <v>25</v>
       </c>
       <c r="D199" s="27" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
       <c r="E199" s="27" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
       <c r="I199" s="27" t="s">
-        <v>2016</v>
+        <v>1992</v>
       </c>
       <c r="J199" s="27" t="s">
-        <v>2002</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17898,16 +17871,16 @@
         <v>26</v>
       </c>
       <c r="D200" s="27" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="E200" s="27" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
       <c r="I200" s="27" t="s">
-        <v>2017</v>
+        <v>1993</v>
       </c>
       <c r="J200" s="27" t="s">
-        <v>2003</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17915,16 +17888,16 @@
         <v>27</v>
       </c>
       <c r="D201" s="27" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="E201" s="27" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="I201" s="27" t="s">
-        <v>2018</v>
+        <v>1994</v>
       </c>
       <c r="J201" s="27" t="s">
-        <v>2004</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17932,16 +17905,16 @@
         <v>37</v>
       </c>
       <c r="D202" s="27" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="E202" s="27" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="I202" s="27" t="s">
-        <v>2019</v>
+        <v>1995</v>
       </c>
       <c r="J202" s="27" t="s">
-        <v>925</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17949,16 +17922,16 @@
         <v>38</v>
       </c>
       <c r="D203" s="27" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="E203" s="27" t="s">
         <v>847</v>
       </c>
       <c r="I203" s="27" t="s">
-        <v>2020</v>
+        <v>1996</v>
       </c>
       <c r="J203" s="27" t="s">
-        <v>847</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17966,16 +17939,16 @@
         <v>44</v>
       </c>
       <c r="D204" s="27" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E204" s="27" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="I204" s="27" t="s">
-        <v>2021</v>
+        <v>1997</v>
       </c>
       <c r="J204" s="27" t="s">
-        <v>2005</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17983,482 +17956,245 @@
         <v>365</v>
       </c>
       <c r="D205" s="27" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="E205" s="27" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="I205" s="27" t="s">
-        <v>2022</v>
+        <v>1998</v>
       </c>
       <c r="J205" s="27" t="s">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A207" s="27" t="s">
-        <v>1283</v>
-      </c>
-      <c r="B207" s="27"/>
-      <c r="C207" s="27"/>
-      <c r="D207" s="27"/>
-      <c r="E207" s="27"/>
+        <v>2013</v>
+      </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B208" s="27" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B208" s="27"/>
+      <c r="C208" s="27"/>
+      <c r="D208" s="27"/>
+      <c r="E208" s="27"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A209" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B209" s="27" t="s">
         <v>24</v>
-      </c>
-      <c r="C208" s="27"/>
-      <c r="D208" s="27" t="s">
-        <v>911</v>
-      </c>
-      <c r="E208" s="27" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A209" s="27"/>
-      <c r="B209" s="27" t="s">
-        <v>25</v>
       </c>
       <c r="C209" s="27"/>
       <c r="D209" s="27" t="s">
-        <v>1015</v>
+        <v>890</v>
       </c>
       <c r="E209" s="27" t="s">
-        <v>1014</v>
+        <v>889</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="27"/>
       <c r="B210" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C210" s="27"/>
       <c r="D210" s="27" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="E210" s="27" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="27"/>
       <c r="B211" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C211" s="27"/>
       <c r="D211" s="27" t="s">
-        <v>1019</v>
+        <v>884</v>
       </c>
       <c r="E211" s="27" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="27"/>
-      <c r="B212" s="27" t="s">
-        <v>37</v>
+      <c r="B212" s="29" t="s">
+        <v>27</v>
       </c>
       <c r="C212" s="27"/>
       <c r="D212" s="27" t="s">
-        <v>919</v>
+        <v>1012</v>
       </c>
       <c r="E212" s="27" t="s">
-        <v>918</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="27"/>
       <c r="B213" s="27" t="s">
-        <v>38</v>
+        <v>425</v>
       </c>
       <c r="C213" s="27"/>
       <c r="D213" s="27" t="s">
-        <v>917</v>
+        <v>861</v>
       </c>
       <c r="E213" s="27" t="s">
-        <v>916</v>
+        <v>860</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="27"/>
       <c r="B214" s="27" t="s">
-        <v>44</v>
+        <v>426</v>
       </c>
       <c r="C214" s="27"/>
       <c r="D214" s="27" t="s">
-        <v>913</v>
+        <v>859</v>
       </c>
       <c r="E214" s="27" t="s">
-        <v>912</v>
+        <v>858</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="27"/>
       <c r="B215" s="27" t="s">
-        <v>365</v>
+        <v>427</v>
       </c>
       <c r="C215" s="27"/>
       <c r="D215" s="27" t="s">
-        <v>915</v>
+        <v>857</v>
       </c>
       <c r="E215" s="27" t="s">
-        <v>914</v>
+        <v>856</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="27"/>
-      <c r="B216" s="27"/>
+      <c r="B216" s="27" t="s">
+        <v>424</v>
+      </c>
       <c r="C216" s="27"/>
-      <c r="D216" s="27"/>
-      <c r="E216" s="27"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A217" s="27" t="s">
-        <v>1283</v>
-      </c>
-      <c r="B217" s="27"/>
-      <c r="C217" s="27"/>
-      <c r="D217" s="27"/>
-      <c r="E217" s="27"/>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A218" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B218" s="27" t="s">
+      <c r="D216" s="27" t="s">
+        <v>855</v>
+      </c>
+      <c r="E216" s="27" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A219" s="27" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B219" s="27"/>
+      <c r="C219" s="27"/>
+      <c r="D219" s="27"/>
+      <c r="E219" s="27"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A220" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B220" s="27" t="s">
         <v>24</v>
-      </c>
-      <c r="C218" s="27"/>
-      <c r="D218" s="27" t="s">
-        <v>862</v>
-      </c>
-      <c r="E218" s="27" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A219" s="27"/>
-      <c r="B219" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C219" s="27"/>
-      <c r="D219" s="27" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E219" s="27" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A220" s="27"/>
-      <c r="B220" s="27" t="s">
-        <v>26</v>
       </c>
       <c r="C220" s="27"/>
       <c r="D220" s="27" t="s">
-        <v>1013</v>
+        <v>844</v>
       </c>
       <c r="E220" s="27" t="s">
-        <v>1012</v>
+        <v>845</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="27"/>
       <c r="B221" s="27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C221" s="27"/>
       <c r="D221" s="27" t="s">
-        <v>892</v>
+        <v>662</v>
       </c>
       <c r="E221" s="27" t="s">
-        <v>891</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="27"/>
       <c r="B222" s="27" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C222" s="27"/>
       <c r="D222" s="27" t="s">
-        <v>896</v>
+        <v>1015</v>
       </c>
       <c r="E222" s="27" t="s">
-        <v>895</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="27"/>
-      <c r="B223" s="27" t="s">
-        <v>38</v>
+      <c r="B223" s="29" t="s">
+        <v>27</v>
       </c>
       <c r="C223" s="27"/>
       <c r="D223" s="27" t="s">
-        <v>898</v>
+        <v>976</v>
       </c>
       <c r="E223" s="27" t="s">
-        <v>897</v>
+        <v>975</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="27"/>
       <c r="B224" s="27" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C224" s="27"/>
       <c r="D224" s="27" t="s">
-        <v>894</v>
+        <v>852</v>
       </c>
       <c r="E224" s="27" t="s">
-        <v>893</v>
+        <v>851</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="27"/>
       <c r="B225" s="27" t="s">
-        <v>365</v>
+        <v>38</v>
       </c>
       <c r="C225" s="27"/>
       <c r="D225" s="27" t="s">
-        <v>1090</v>
+        <v>848</v>
       </c>
       <c r="E225" s="27" t="s">
-        <v>1089</v>
+        <v>847</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A226" s="27"/>
+      <c r="B226" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C226" s="27"/>
+      <c r="D226" s="27" t="s">
+        <v>846</v>
+      </c>
+      <c r="E226" s="27" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A227" s="27" t="s">
-        <v>1796</v>
-      </c>
-      <c r="B227" s="27"/>
+      <c r="A227" s="27"/>
+      <c r="B227" s="27" t="s">
+        <v>365</v>
+      </c>
       <c r="C227" s="27"/>
-      <c r="D227" s="27"/>
-      <c r="E227" s="27"/>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A228" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B228" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C228" s="27"/>
-      <c r="D228" s="27" t="s">
-        <v>890</v>
-      </c>
-      <c r="E228" s="27" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A229" s="27"/>
-      <c r="B229" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C229" s="27"/>
-      <c r="D229" s="27" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E229" s="27" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A230" s="27"/>
-      <c r="B230" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C230" s="27"/>
-      <c r="D230" s="27" t="s">
-        <v>884</v>
-      </c>
-      <c r="E230" s="27" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A231" s="27"/>
-      <c r="B231" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C231" s="27"/>
-      <c r="D231" s="27" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E231" s="27" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A232" s="27"/>
-      <c r="B232" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="C232" s="27"/>
-      <c r="D232" s="27" t="s">
-        <v>861</v>
-      </c>
-      <c r="E232" s="27" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A233" s="27"/>
-      <c r="B233" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="C233" s="27"/>
-      <c r="D233" s="27" t="s">
-        <v>859</v>
-      </c>
-      <c r="E233" s="27" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A234" s="27"/>
-      <c r="B234" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="C234" s="27"/>
-      <c r="D234" s="27" t="s">
-        <v>857</v>
-      </c>
-      <c r="E234" s="27" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A235" s="27"/>
-      <c r="B235" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="C235" s="27"/>
-      <c r="D235" s="27" t="s">
-        <v>855</v>
-      </c>
-      <c r="E235" s="27" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A238" s="27" t="s">
-        <v>1796</v>
-      </c>
-      <c r="B238" s="27"/>
-      <c r="C238" s="27"/>
-      <c r="D238" s="27"/>
-      <c r="E238" s="27"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A239" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B239" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C239" s="27"/>
-      <c r="D239" s="27" t="s">
-        <v>844</v>
-      </c>
-      <c r="E239" s="27" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A240" s="27"/>
-      <c r="B240" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C240" s="27"/>
-      <c r="D240" s="27" t="s">
-        <v>662</v>
-      </c>
-      <c r="E240" s="27" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A241" s="27"/>
-      <c r="B241" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C241" s="27"/>
-      <c r="D241" s="27" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E241" s="27" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A242" s="27"/>
-      <c r="B242" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C242" s="27"/>
-      <c r="D242" s="27" t="s">
-        <v>984</v>
-      </c>
-      <c r="E242" s="27" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A243" s="27"/>
-      <c r="B243" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C243" s="27"/>
-      <c r="D243" s="27" t="s">
-        <v>852</v>
-      </c>
-      <c r="E243" s="27" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A244" s="27"/>
-      <c r="B244" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C244" s="27"/>
-      <c r="D244" s="27" t="s">
-        <v>848</v>
-      </c>
-      <c r="E244" s="27" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A245" s="27"/>
-      <c r="B245" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C245" s="27"/>
-      <c r="D245" s="27" t="s">
-        <v>846</v>
-      </c>
-      <c r="E245" s="27" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A246" s="27"/>
-      <c r="B246" s="27" t="s">
-        <v>365</v>
-      </c>
-      <c r="C246" s="27"/>
-      <c r="D246" s="27" t="s">
+      <c r="D227" s="27" t="s">
         <v>850</v>
       </c>
-      <c r="E246" s="27" t="s">
+      <c r="E227" s="27" t="s">
         <v>849</v>
       </c>
     </row>
@@ -18510,7 +18246,7 @@
         <v>310</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>1925</v>
+        <v>1912</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>309</v>
@@ -18909,10 +18645,10 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>1113</v>
+        <v>1100</v>
       </c>
       <c r="E5" t="s">
-        <v>1114</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -19424,7 +19160,7 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
       <c r="E33" t="s">
         <v>446</v>
@@ -19450,7 +19186,7 @@
         <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="E34" t="s">
         <v>740</v>
@@ -19476,7 +19212,7 @@
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>1065</v>
+        <v>1053</v>
       </c>
       <c r="E35" t="s">
         <v>741</v>
@@ -19609,10 +19345,10 @@
         <v>28</v>
       </c>
       <c r="D43" t="s">
-        <v>1067</v>
+        <v>1055</v>
       </c>
       <c r="E43" t="s">
-        <v>1066</v>
+        <v>1054</v>
       </c>
       <c r="K43" t="s">
         <v>27</v>
@@ -19638,7 +19374,7 @@
         <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>1068</v>
+        <v>1056</v>
       </c>
       <c r="E44" t="s">
         <v>703</v>
@@ -20069,10 +19805,10 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
       <c r="J70" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
       <c r="O70" t="s">
         <v>672</v>
@@ -20264,10 +20000,10 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
       <c r="J80" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
       <c r="O80" t="s">
         <v>575</v>
@@ -20445,10 +20181,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
-        <v>1599</v>
+        <v>1586</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1602</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -20456,16 +20192,16 @@
         <v>539</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1601</v>
+        <v>1588</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1600</v>
+        <v>1587</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1601</v>
+        <v>1588</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1600</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20492,10 +20228,10 @@
         <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>1603</v>
+        <v>1590</v>
       </c>
       <c r="J4" t="s">
-        <v>1630</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20503,19 +20239,19 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>1597</v>
+        <v>1584</v>
       </c>
       <c r="E5" t="s">
-        <v>1595</v>
+        <v>1582</v>
       </c>
       <c r="H5" t="s">
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>1631</v>
+        <v>1618</v>
       </c>
       <c r="J5" t="s">
-        <v>1627</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20523,19 +20259,19 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>1598</v>
+        <v>1585</v>
       </c>
       <c r="E6" t="s">
-        <v>1596</v>
+        <v>1583</v>
       </c>
       <c r="H6" t="s">
         <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>1632</v>
+        <v>1619</v>
       </c>
       <c r="J6" t="s">
-        <v>1628</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20555,10 +20291,10 @@
         <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>1633</v>
+        <v>1620</v>
       </c>
       <c r="J7" t="s">
-        <v>1629</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20578,10 +20314,10 @@
         <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>1604</v>
+        <v>1591</v>
       </c>
       <c r="J8" t="s">
-        <v>1605</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20601,10 +20337,10 @@
         <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>1606</v>
+        <v>1593</v>
       </c>
       <c r="J9" t="s">
-        <v>1607</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20624,10 +20360,10 @@
         <v>491</v>
       </c>
       <c r="I10" t="s">
-        <v>1626</v>
+        <v>1613</v>
       </c>
       <c r="J10" t="s">
-        <v>1625</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20647,10 +20383,10 @@
         <v>354</v>
       </c>
       <c r="I11" t="s">
-        <v>1624</v>
+        <v>1611</v>
       </c>
       <c r="J11" t="s">
-        <v>1623</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20666,19 +20402,19 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>1616</v>
+        <v>1603</v>
       </c>
       <c r="E14" t="s">
-        <v>1608</v>
+        <v>1595</v>
       </c>
       <c r="H14" t="s">
         <v>24</v>
       </c>
       <c r="I14" t="s">
-        <v>1641</v>
+        <v>1628</v>
       </c>
       <c r="J14" t="s">
-        <v>1634</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20689,16 +20425,16 @@
         <v>759</v>
       </c>
       <c r="E15" t="s">
-        <v>1615</v>
+        <v>1602</v>
       </c>
       <c r="H15" t="s">
         <v>25</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>1642</v>
+        <v>1629</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>1635</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20706,19 +20442,19 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>1617</v>
+        <v>1604</v>
       </c>
       <c r="E16" t="s">
-        <v>1609</v>
+        <v>1596</v>
       </c>
       <c r="H16" t="s">
         <v>26</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>1643</v>
+        <v>1630</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>1636</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20726,19 +20462,19 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
       <c r="E17" t="s">
-        <v>1610</v>
+        <v>1597</v>
       </c>
       <c r="H17" t="s">
         <v>27</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>1644</v>
+        <v>1631</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>1637</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20746,19 +20482,19 @@
         <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>1619</v>
+        <v>1606</v>
       </c>
       <c r="E18" t="s">
-        <v>1611</v>
+        <v>1598</v>
       </c>
       <c r="H18" t="s">
         <v>37</v>
       </c>
       <c r="I18" t="s">
-        <v>1645</v>
+        <v>1632</v>
       </c>
       <c r="J18" t="s">
-        <v>1638</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20766,19 +20502,19 @@
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>1620</v>
+        <v>1607</v>
       </c>
       <c r="E19" t="s">
-        <v>1612</v>
+        <v>1599</v>
       </c>
       <c r="H19" t="s">
         <v>38</v>
       </c>
       <c r="I19" t="s">
-        <v>1646</v>
+        <v>1633</v>
       </c>
       <c r="J19" t="s">
-        <v>1639</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20786,19 +20522,19 @@
         <v>491</v>
       </c>
       <c r="D20" t="s">
-        <v>1621</v>
+        <v>1608</v>
       </c>
       <c r="E20" t="s">
-        <v>1613</v>
+        <v>1600</v>
       </c>
       <c r="H20" t="s">
         <v>491</v>
       </c>
       <c r="I20" t="s">
-        <v>1647</v>
+        <v>1634</v>
       </c>
       <c r="J20" t="s">
-        <v>1640</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20806,10 +20542,10 @@
         <v>354</v>
       </c>
       <c r="D21" t="s">
-        <v>1622</v>
+        <v>1609</v>
       </c>
       <c r="E21" t="s">
-        <v>1614</v>
+        <v>1601</v>
       </c>
       <c r="H21" t="s">
         <v>354</v>
@@ -20817,7 +20553,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>1648</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20831,10 +20567,10 @@
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>1666</v>
+        <v>1653</v>
       </c>
       <c r="E24" t="s">
-        <v>1649</v>
+        <v>1636</v>
       </c>
       <c r="F24" t="s">
         <v>540</v>
@@ -20843,10 +20579,10 @@
         <v>24</v>
       </c>
       <c r="I24" t="s">
-        <v>1666</v>
+        <v>1653</v>
       </c>
       <c r="J24" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20854,19 +20590,19 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>1652</v>
+        <v>1639</v>
       </c>
       <c r="E25" t="s">
-        <v>1650</v>
+        <v>1637</v>
       </c>
       <c r="H25" t="s">
         <v>25</v>
       </c>
       <c r="I25" t="s">
-        <v>1665</v>
+        <v>1652</v>
       </c>
       <c r="J25" t="s">
-        <v>1661</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20874,19 +20610,19 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>1653</v>
+        <v>1640</v>
       </c>
       <c r="E26" t="s">
-        <v>1411</v>
+        <v>1398</v>
       </c>
       <c r="H26" t="s">
         <v>26</v>
       </c>
       <c r="I26" t="s">
-        <v>1668</v>
+        <v>1655</v>
       </c>
       <c r="J26" t="s">
-        <v>1662</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20897,19 +20633,19 @@
         <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="E27" t="s">
-        <v>1651</v>
+        <v>1638</v>
       </c>
       <c r="H27" t="s">
         <v>27</v>
       </c>
       <c r="I27" t="s">
-        <v>1667</v>
+        <v>1654</v>
       </c>
       <c r="J27" t="s">
-        <v>1663</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20920,7 +20656,7 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>1657</v>
+        <v>1644</v>
       </c>
       <c r="E28" t="s">
         <v>860</v>
@@ -20929,7 +20665,7 @@
         <v>37</v>
       </c>
       <c r="I28" t="s">
-        <v>1657</v>
+        <v>1644</v>
       </c>
       <c r="J28" t="s">
         <v>860</v>
@@ -20940,19 +20676,19 @@
         <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>1658</v>
+        <v>1645</v>
       </c>
       <c r="E29" t="s">
-        <v>1654</v>
+        <v>1641</v>
       </c>
       <c r="H29" t="s">
         <v>38</v>
       </c>
       <c r="I29" t="s">
-        <v>1658</v>
+        <v>1645</v>
       </c>
       <c r="J29" t="s">
-        <v>1654</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20960,19 +20696,19 @@
         <v>491</v>
       </c>
       <c r="D30" t="s">
-        <v>1659</v>
+        <v>1646</v>
       </c>
       <c r="E30" t="s">
-        <v>1655</v>
+        <v>1642</v>
       </c>
       <c r="H30" t="s">
         <v>491</v>
       </c>
       <c r="I30" t="s">
-        <v>1659</v>
+        <v>1646</v>
       </c>
       <c r="J30" t="s">
-        <v>1655</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20983,19 +20719,19 @@
         <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>1660</v>
+        <v>1647</v>
       </c>
       <c r="E31" t="s">
-        <v>1656</v>
+        <v>1643</v>
       </c>
       <c r="H31" t="s">
         <v>354</v>
       </c>
       <c r="I31" t="s">
-        <v>1660</v>
+        <v>1647</v>
       </c>
       <c r="J31" t="s">
-        <v>1656</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21026,10 +20762,10 @@
         <v>24</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>1696</v>
+        <v>1683</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>1708</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21037,19 +20773,19 @@
         <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>1350</v>
+        <v>1337</v>
       </c>
       <c r="E35" t="s">
-        <v>1669</v>
+        <v>1656</v>
       </c>
       <c r="H35" t="s">
         <v>25</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>1697</v>
+        <v>1684</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>1707</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21057,19 +20793,19 @@
         <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>1674</v>
+        <v>1661</v>
       </c>
       <c r="E36" t="s">
-        <v>1670</v>
+        <v>1657</v>
       </c>
       <c r="H36" t="s">
         <v>26</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>1698</v>
+        <v>1685</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>1709</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21089,10 +20825,10 @@
         <v>27</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>1699</v>
+        <v>1686</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>1706</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21106,16 +20842,16 @@
         <v>597</v>
       </c>
       <c r="E38" t="s">
-        <v>1671</v>
+        <v>1658</v>
       </c>
       <c r="H38" t="s">
         <v>37</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>1700</v>
+        <v>1687</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>1705</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21129,16 +20865,16 @@
         <v>598</v>
       </c>
       <c r="E39" t="s">
-        <v>1672</v>
+        <v>1659</v>
       </c>
       <c r="H39" t="s">
         <v>38</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>1701</v>
+        <v>1688</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>1704</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -21159,10 +20895,10 @@
         <v>491</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>1702</v>
+        <v>1689</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>1703</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21173,7 +20909,7 @@
         <v>754</v>
       </c>
       <c r="E41" t="s">
-        <v>1673</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21189,19 +20925,19 @@
         <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>1683</v>
+        <v>1670</v>
       </c>
       <c r="E44" t="s">
-        <v>1676</v>
+        <v>1663</v>
       </c>
       <c r="H44" t="s">
         <v>24</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>1689</v>
+        <v>1676</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>1350</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21209,19 +20945,19 @@
         <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>1684</v>
+        <v>1671</v>
       </c>
       <c r="E45" t="s">
-        <v>1677</v>
+        <v>1664</v>
       </c>
       <c r="H45" t="s">
         <v>25</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>1690</v>
+        <v>1677</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21229,19 +20965,19 @@
         <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>1685</v>
+        <v>1672</v>
       </c>
       <c r="E46" t="s">
-        <v>1678</v>
+        <v>1665</v>
       </c>
       <c r="H46" t="s">
         <v>26</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>1691</v>
+        <v>1678</v>
       </c>
       <c r="J46" s="18" t="s">
-        <v>1711</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21249,19 +20985,19 @@
         <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>1352</v>
+        <v>1339</v>
       </c>
       <c r="E47" t="s">
-        <v>1351</v>
+        <v>1338</v>
       </c>
       <c r="H47" t="s">
         <v>27</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>1692</v>
+        <v>1679</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>1713</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21269,19 +21005,19 @@
         <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>1686</v>
+        <v>1673</v>
       </c>
       <c r="E48" t="s">
-        <v>1679</v>
+        <v>1666</v>
       </c>
       <c r="H48" t="s">
         <v>37</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>1693</v>
+        <v>1680</v>
       </c>
       <c r="J48" s="18" t="s">
-        <v>1712</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21289,19 +21025,19 @@
         <v>38</v>
       </c>
       <c r="D49" t="s">
-        <v>1687</v>
+        <v>1674</v>
       </c>
       <c r="E49" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="H49" t="s">
         <v>38</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>1694</v>
+        <v>1681</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>1714</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21310,19 +21046,19 @@
         <v>491</v>
       </c>
       <c r="D50" t="s">
-        <v>1688</v>
+        <v>1675</v>
       </c>
       <c r="E50" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>491</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>1695</v>
+        <v>1682</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>1715</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21333,7 +21069,7 @@
         <v>754</v>
       </c>
       <c r="E51" t="s">
-        <v>1682</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21361,10 +21097,10 @@
         <v>24</v>
       </c>
       <c r="I54" t="s">
-        <v>1747</v>
+        <v>1734</v>
       </c>
       <c r="J54" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21372,19 +21108,19 @@
         <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>1718</v>
+        <v>1705</v>
       </c>
       <c r="E55" t="s">
-        <v>1335</v>
+        <v>1322</v>
       </c>
       <c r="H55" t="s">
         <v>25</v>
       </c>
       <c r="I55" t="s">
-        <v>1749</v>
+        <v>1736</v>
       </c>
       <c r="J55" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21392,19 +21128,19 @@
         <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>1719</v>
+        <v>1706</v>
       </c>
       <c r="E56" t="s">
-        <v>1716</v>
+        <v>1703</v>
       </c>
       <c r="H56" t="s">
         <v>26</v>
       </c>
       <c r="I56" t="s">
-        <v>1720</v>
+        <v>1707</v>
       </c>
       <c r="J56" t="s">
-        <v>1753</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21418,16 +21154,16 @@
         <v>599</v>
       </c>
       <c r="E57" t="s">
-        <v>1717</v>
+        <v>1704</v>
       </c>
       <c r="H57" t="s">
         <v>27</v>
       </c>
       <c r="I57" t="s">
-        <v>1751</v>
+        <v>1738</v>
       </c>
       <c r="J57" t="s">
-        <v>1750</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21450,7 +21186,7 @@
         <v>609</v>
       </c>
       <c r="J58" t="s">
-        <v>1752</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21470,10 +21206,10 @@
         <v>38</v>
       </c>
       <c r="I59" t="s">
-        <v>1755</v>
+        <v>1742</v>
       </c>
       <c r="J59" t="s">
-        <v>1754</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21526,19 +21262,19 @@
         <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>1385</v>
+        <v>1372</v>
       </c>
       <c r="E64" t="s">
-        <v>1720</v>
+        <v>1707</v>
       </c>
       <c r="H64" t="s">
         <v>24</v>
       </c>
       <c r="I64" t="s">
-        <v>1737</v>
+        <v>1724</v>
       </c>
       <c r="J64" t="s">
-        <v>1736</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -21546,19 +21282,19 @@
         <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>1727</v>
+        <v>1714</v>
       </c>
       <c r="E65" t="s">
-        <v>1721</v>
+        <v>1708</v>
       </c>
       <c r="H65" t="s">
         <v>25</v>
       </c>
       <c r="I65" t="s">
-        <v>1738</v>
+        <v>1725</v>
       </c>
       <c r="J65" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -21566,19 +21302,19 @@
         <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>1728</v>
+        <v>1715</v>
       </c>
       <c r="E66" t="s">
-        <v>1722</v>
+        <v>1709</v>
       </c>
       <c r="H66" t="s">
         <v>26</v>
       </c>
       <c r="I66" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="J66" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -21586,19 +21322,19 @@
         <v>27</v>
       </c>
       <c r="D67" t="s">
-        <v>1729</v>
+        <v>1716</v>
       </c>
       <c r="E67" t="s">
-        <v>1723</v>
+        <v>1710</v>
       </c>
       <c r="H67" t="s">
         <v>27</v>
       </c>
       <c r="I67" t="s">
-        <v>1739</v>
+        <v>1726</v>
       </c>
       <c r="J67" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -21606,19 +21342,19 @@
         <v>37</v>
       </c>
       <c r="D68" t="s">
-        <v>1730</v>
+        <v>1717</v>
       </c>
       <c r="E68" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="H68" t="s">
         <v>37</v>
       </c>
       <c r="I68" t="s">
-        <v>1736</v>
+        <v>1723</v>
       </c>
       <c r="J68" t="s">
-        <v>1745</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -21626,19 +21362,19 @@
         <v>38</v>
       </c>
       <c r="D69" t="s">
-        <v>1731</v>
+        <v>1718</v>
       </c>
       <c r="E69" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
       <c r="H69" t="s">
         <v>38</v>
       </c>
       <c r="I69" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
       <c r="J69" t="s">
-        <v>1736</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -21646,19 +21382,19 @@
         <v>491</v>
       </c>
       <c r="D70" t="s">
-        <v>1732</v>
+        <v>1719</v>
       </c>
       <c r="E70" t="s">
-        <v>1726</v>
+        <v>1713</v>
       </c>
       <c r="H70" t="s">
         <v>491</v>
       </c>
       <c r="I70" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
       <c r="J70" t="s">
-        <v>1744</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -21666,7 +21402,7 @@
         <v>354</v>
       </c>
       <c r="D71" t="s">
-        <v>1733</v>
+        <v>1720</v>
       </c>
       <c r="E71" t="s">
         <v>650</v>

--- a/results_ver2.xlsx
+++ b/results_ver2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GitHub\Transfer_Learning_HAR\Create-Synthetic-IMU-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927B86F7-2A10-479D-A672-A8D544C74E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD801A1-433F-4C2E-BA2F-80E53D5CF480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="3" xr2:uid="{12BA48A7-0233-4943-8246-0FE27207722F}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3680" uniqueCount="2031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3702" uniqueCount="2053">
   <si>
     <t>Validation set</t>
   </si>
@@ -3484,9 +3484,6 @@
     <t>67.62+0.004</t>
   </si>
   <si>
-    <t>64.14+0.003</t>
-  </si>
-  <si>
     <t>66.66+0.002</t>
   </si>
   <si>
@@ -6124,6 +6121,9 @@
     <t>66.97+0.02</t>
   </si>
   <si>
+    <t>65.31+0.03</t>
+  </si>
+  <si>
     <t>62.61+0.02</t>
   </si>
   <si>
@@ -6134,6 +6134,72 @@
   </si>
   <si>
     <t>58.15+0.54</t>
+  </si>
+  <si>
+    <t>64.65+0.01</t>
+  </si>
+  <si>
+    <t>63.82+0.02</t>
+  </si>
+  <si>
+    <t>62.16+0.02</t>
+  </si>
+  <si>
+    <t>66.31+0.03</t>
+  </si>
+  <si>
+    <t>65.79+0.03</t>
+  </si>
+  <si>
+    <t>64.13+0.03</t>
+  </si>
+  <si>
+    <t>62.08+0.02</t>
+  </si>
+  <si>
+    <t>63.81+0.03</t>
+  </si>
+  <si>
+    <t>63.56+0.02</t>
+  </si>
+  <si>
+    <t>66.51+0.04</t>
+  </si>
+  <si>
+    <t>62.87+0.03</t>
+  </si>
+  <si>
+    <t>62.25+0.02</t>
+  </si>
+  <si>
+    <t>64.23+0.03</t>
+  </si>
+  <si>
+    <t>63.54+0.003</t>
+  </si>
+  <si>
+    <t>58.31+0.03</t>
+  </si>
+  <si>
+    <t>58.65+0.03</t>
+  </si>
+  <si>
+    <t>62.57+0.03</t>
+  </si>
+  <si>
+    <t>62.99+0.09</t>
+  </si>
+  <si>
+    <t>51.10+0.03</t>
+  </si>
+  <si>
+    <t>57.24+0.03</t>
+  </si>
+  <si>
+    <t>47.64+0.03</t>
+  </si>
+  <si>
+    <t>54.97+0.04</t>
   </si>
 </sst>
 </file>
@@ -6796,10 +6862,10 @@
         <v>131</v>
       </c>
       <c r="J8" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="K8" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -6811,7 +6877,7 @@
         <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q8">
         <v>100</v>
@@ -6843,7 +6909,7 @@
         <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q9">
         <v>100</v>
@@ -6857,10 +6923,10 @@
         <v>133</v>
       </c>
       <c r="J10" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="K10" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="L10">
         <v>100</v>
@@ -6872,7 +6938,7 @@
         <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q10">
         <v>100</v>
@@ -6901,7 +6967,7 @@
         <v>100</v>
       </c>
       <c r="O11" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q11">
         <v>100</v>
@@ -6915,10 +6981,10 @@
         <v>341</v>
       </c>
       <c r="J12" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="K12" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="L12">
         <v>100</v>
@@ -6930,7 +6996,7 @@
         <v>100</v>
       </c>
       <c r="O12" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q12">
         <v>100</v>
@@ -6941,13 +7007,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="J14" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="K14" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="L14">
         <v>100</v>
@@ -6959,7 +7025,7 @@
         <v>10</v>
       </c>
       <c r="O14" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="Q14">
         <v>200</v>
@@ -6970,13 +7036,13 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J15" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="K15" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="L15">
         <v>100</v>
@@ -6988,7 +7054,7 @@
         <v>10</v>
       </c>
       <c r="O15" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="Q15">
         <v>200</v>
@@ -6999,10 +7065,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="J16" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K16" t="s">
         <v>781</v>
@@ -7017,7 +7083,7 @@
         <v>10</v>
       </c>
       <c r="O16" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="Q16">
         <v>200</v>
@@ -7028,13 +7094,13 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="J17" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="K17" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="L17">
         <v>100</v>
@@ -7046,7 +7112,7 @@
         <v>10</v>
       </c>
       <c r="O17" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="Q17">
         <v>200</v>
@@ -7057,13 +7123,13 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="J18" t="s">
         <v>1039</v>
       </c>
       <c r="K18" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="L18">
         <v>100</v>
@@ -7075,7 +7141,7 @@
         <v>10</v>
       </c>
       <c r="O18" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="Q18">
         <v>200</v>
@@ -7086,7 +7152,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="J20" t="s">
         <v>943</v>
@@ -7104,7 +7170,7 @@
         <v>35</v>
       </c>
       <c r="O20" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="Q20">
         <v>200</v>
@@ -7115,7 +7181,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="J21" t="s">
         <v>945</v>
@@ -7133,7 +7199,7 @@
         <v>35</v>
       </c>
       <c r="O21" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="Q21">
         <v>200</v>
@@ -7144,7 +7210,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="J22" t="s">
         <v>947</v>
@@ -7162,7 +7228,7 @@
         <v>35</v>
       </c>
       <c r="O22" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="Q22">
         <v>200</v>
@@ -7173,7 +7239,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="J23" t="s">
         <v>949</v>
@@ -7191,7 +7257,7 @@
         <v>35</v>
       </c>
       <c r="O23" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="Q23">
         <v>200</v>
@@ -7202,7 +7268,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="J24" t="s">
         <v>951</v>
@@ -7220,7 +7286,7 @@
         <v>35</v>
       </c>
       <c r="O24" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="Q24">
         <v>200</v>
@@ -7231,13 +7297,13 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="J26" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="K26" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="L26">
         <v>24</v>
@@ -7249,7 +7315,7 @@
         <v>100</v>
       </c>
       <c r="O26" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q26">
         <v>200</v>
@@ -7260,13 +7326,13 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="J27" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="K27" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="L27">
         <v>24</v>
@@ -7278,7 +7344,7 @@
         <v>100</v>
       </c>
       <c r="O27" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q27">
         <v>200</v>
@@ -7289,13 +7355,13 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="J28" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="K28" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="L28">
         <v>24</v>
@@ -7307,7 +7373,7 @@
         <v>100</v>
       </c>
       <c r="O28" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q28">
         <v>200</v>
@@ -7318,13 +7384,13 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="J29" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="K29" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="L29">
         <v>24</v>
@@ -7336,7 +7402,7 @@
         <v>100</v>
       </c>
       <c r="O29" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q29">
         <v>200</v>
@@ -7353,7 +7419,7 @@
         <v>350</v>
       </c>
       <c r="K30" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="L30">
         <v>24</v>
@@ -7365,7 +7431,7 @@
         <v>100</v>
       </c>
       <c r="O30" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q30">
         <v>200</v>
@@ -7376,13 +7442,13 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="J32" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="K32" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="L32">
         <v>24</v>
@@ -7394,7 +7460,7 @@
         <v>104</v>
       </c>
       <c r="O32" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q32">
         <v>200</v>
@@ -7405,13 +7471,13 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="J33" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="K33" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="L33">
         <v>24</v>
@@ -7423,7 +7489,7 @@
         <v>104</v>
       </c>
       <c r="O33" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q33">
         <v>200</v>
@@ -7437,10 +7503,10 @@
         <v>476</v>
       </c>
       <c r="J34" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="K34" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="L34">
         <v>24</v>
@@ -7452,7 +7518,7 @@
         <v>104</v>
       </c>
       <c r="O34" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q34">
         <v>200</v>
@@ -7466,10 +7532,10 @@
         <v>477</v>
       </c>
       <c r="J35" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="K35" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="L35">
         <v>24</v>
@@ -7481,7 +7547,7 @@
         <v>104</v>
       </c>
       <c r="O35" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q35">
         <v>200</v>
@@ -7498,7 +7564,7 @@
         <v>638</v>
       </c>
       <c r="K36" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="L36">
         <v>24</v>
@@ -7510,7 +7576,7 @@
         <v>104</v>
       </c>
       <c r="O36" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q36">
         <v>200</v>
@@ -7522,7 +7588,7 @@
     <row r="37" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="38" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="28" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="C38" s="28" t="s">
         <v>606</v>
@@ -7630,13 +7696,13 @@
         <v>23</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I46" s="28" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="J46" s="28" t="s">
         <v>10</v>
@@ -7699,10 +7765,10 @@
         <v>314</v>
       </c>
       <c r="I49" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="J49" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7730,7 +7796,7 @@
         <v>32</v>
       </c>
       <c r="E51" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="I51" t="s">
         <v>39</v>
@@ -7750,10 +7816,10 @@
         <v>50</v>
       </c>
       <c r="I52" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="J52" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7767,10 +7833,10 @@
         <v>518</v>
       </c>
       <c r="I53" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="J53" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7871,7 +7937,7 @@
         <v>260</v>
       </c>
       <c r="E61" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I61" t="s">
         <v>57</v>
@@ -7908,10 +7974,10 @@
         <v>519</v>
       </c>
       <c r="I63" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="J63" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7925,10 +7991,10 @@
         <v>516</v>
       </c>
       <c r="I64" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="J64" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7959,10 +8025,10 @@
         <v>24</v>
       </c>
       <c r="I67" t="s">
+        <v>1369</v>
+      </c>
+      <c r="J67" t="s">
         <v>1370</v>
-      </c>
-      <c r="J67" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7970,19 +8036,19 @@
         <v>25</v>
       </c>
       <c r="D68" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E68" t="s">
         <v>1320</v>
-      </c>
-      <c r="E68" t="s">
-        <v>1321</v>
       </c>
       <c r="H68" s="27" t="s">
         <v>25</v>
       </c>
       <c r="I68" t="s">
+        <v>1371</v>
+      </c>
+      <c r="J68" t="s">
         <v>1372</v>
-      </c>
-      <c r="J68" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -7990,19 +8056,19 @@
         <v>26</v>
       </c>
       <c r="D69" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E69" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H69" s="27" t="s">
         <v>26</v>
       </c>
       <c r="I69" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J69" t="s">
         <v>1374</v>
-      </c>
-      <c r="J69" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8019,10 +8085,10 @@
         <v>27</v>
       </c>
       <c r="I70" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="J70" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8039,10 +8105,10 @@
         <v>37</v>
       </c>
       <c r="I71" t="s">
+        <v>1375</v>
+      </c>
+      <c r="J71" t="s">
         <v>1376</v>
-      </c>
-      <c r="J71" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8059,10 +8125,10 @@
         <v>38</v>
       </c>
       <c r="I72" t="s">
+        <v>1377</v>
+      </c>
+      <c r="J72" t="s">
         <v>1378</v>
-      </c>
-      <c r="J72" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8079,10 +8145,10 @@
         <v>44</v>
       </c>
       <c r="I73" t="s">
+        <v>1379</v>
+      </c>
+      <c r="J73" t="s">
         <v>1380</v>
-      </c>
-      <c r="J73" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8130,10 +8196,10 @@
         <v>24</v>
       </c>
       <c r="I77" t="s">
+        <v>1345</v>
+      </c>
+      <c r="J77" t="s">
         <v>1346</v>
-      </c>
-      <c r="J77" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8141,19 +8207,19 @@
         <v>25</v>
       </c>
       <c r="D78" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E78" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H78" s="27" t="s">
         <v>25</v>
       </c>
       <c r="I78" t="s">
+        <v>1347</v>
+      </c>
+      <c r="J78" t="s">
         <v>1348</v>
-      </c>
-      <c r="J78" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8161,19 +8227,19 @@
         <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E79" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="H79" s="27" t="s">
         <v>26</v>
       </c>
       <c r="I79" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="J79" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8190,10 +8256,10 @@
         <v>27</v>
       </c>
       <c r="I80" t="s">
+        <v>1349</v>
+      </c>
+      <c r="J80" t="s">
         <v>1350</v>
-      </c>
-      <c r="J80" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8201,19 +8267,19 @@
         <v>37</v>
       </c>
       <c r="D81" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="E81" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="H81" s="27" t="s">
         <v>37</v>
       </c>
       <c r="I81" t="s">
+        <v>1351</v>
+      </c>
+      <c r="J81" t="s">
         <v>1352</v>
-      </c>
-      <c r="J81" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8230,10 +8296,10 @@
         <v>38</v>
       </c>
       <c r="I82" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J82" t="s">
         <v>1354</v>
-      </c>
-      <c r="J82" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8250,10 +8316,10 @@
         <v>44</v>
       </c>
       <c r="I83" t="s">
+        <v>1355</v>
+      </c>
+      <c r="J83" t="s">
         <v>1356</v>
-      </c>
-      <c r="J83" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8289,7 +8355,7 @@
         <v>385</v>
       </c>
       <c r="E87" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H87" s="27" t="s">
         <v>24</v>
@@ -8298,7 +8364,7 @@
         <v>339</v>
       </c>
       <c r="J87" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8309,16 +8375,16 @@
         <v>386</v>
       </c>
       <c r="E88" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H88" s="27" t="s">
         <v>25</v>
       </c>
       <c r="I88" t="s">
+        <v>1384</v>
+      </c>
+      <c r="J88" t="s">
         <v>1385</v>
-      </c>
-      <c r="J88" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8326,19 +8392,19 @@
         <v>26</v>
       </c>
       <c r="D89" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="E89" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="H89" s="27" t="s">
         <v>26</v>
       </c>
       <c r="I89" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="J89" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8346,19 +8412,19 @@
         <v>27</v>
       </c>
       <c r="D90" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E90" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H90" s="27" t="s">
         <v>27</v>
       </c>
       <c r="I90" t="s">
+        <v>1386</v>
+      </c>
+      <c r="J90" t="s">
         <v>1387</v>
-      </c>
-      <c r="J90" t="s">
-        <v>1388</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8366,19 +8432,19 @@
         <v>37</v>
       </c>
       <c r="D91" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E91" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H91" s="27" t="s">
         <v>37</v>
       </c>
       <c r="I91" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J91" s="1" t="s">
         <v>1389</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8386,19 +8452,19 @@
         <v>38</v>
       </c>
       <c r="D92" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E92" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="H92" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I92" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="J92" s="1" t="s">
         <v>1391</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8406,10 +8472,10 @@
         <v>44</v>
       </c>
       <c r="D93" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E93" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="G93" t="s">
         <v>30</v>
@@ -8418,10 +8484,10 @@
         <v>44</v>
       </c>
       <c r="I93" t="s">
+        <v>1392</v>
+      </c>
+      <c r="J93" t="s">
         <v>1393</v>
-      </c>
-      <c r="J93" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8466,10 +8532,10 @@
         <v>24</v>
       </c>
       <c r="I97" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J97" s="1" t="s">
         <v>1360</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8477,10 +8543,10 @@
         <v>25</v>
       </c>
       <c r="D98" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="E98" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="H98" s="27" t="s">
         <v>25</v>
@@ -8497,7 +8563,7 @@
         <v>26</v>
       </c>
       <c r="D99" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E99" t="s">
         <v>726</v>
@@ -8506,10 +8572,10 @@
         <v>26</v>
       </c>
       <c r="I99" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="J99" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8526,10 +8592,10 @@
         <v>27</v>
       </c>
       <c r="I100" t="s">
+        <v>1361</v>
+      </c>
+      <c r="J100" t="s">
         <v>1362</v>
-      </c>
-      <c r="J100" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8549,7 +8615,7 @@
         <v>195</v>
       </c>
       <c r="J101" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8560,16 +8626,16 @@
         <v>398</v>
       </c>
       <c r="E102" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="H102" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I102" t="s">
+        <v>1364</v>
+      </c>
+      <c r="J102" t="s">
         <v>1365</v>
-      </c>
-      <c r="J102" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8580,16 +8646,16 @@
         <v>396</v>
       </c>
       <c r="E103" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="H103" s="27" t="s">
         <v>44</v>
       </c>
       <c r="I103" t="s">
+        <v>1366</v>
+      </c>
+      <c r="J103" t="s">
         <v>1367</v>
-      </c>
-      <c r="J103" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8608,7 +8674,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>29</v>
@@ -8634,10 +8700,10 @@
         <v>24</v>
       </c>
       <c r="I107" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J107" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8654,10 +8720,10 @@
         <v>25</v>
       </c>
       <c r="I108" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J108" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8674,10 +8740,10 @@
         <v>26</v>
       </c>
       <c r="I109" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="J109" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8694,10 +8760,10 @@
         <v>27</v>
       </c>
       <c r="I110" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="J110" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8714,10 +8780,10 @@
         <v>37</v>
       </c>
       <c r="I111" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J111" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -8734,10 +8800,10 @@
         <v>38</v>
       </c>
       <c r="I112" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="J112" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8754,10 +8820,10 @@
         <v>44</v>
       </c>
       <c r="I113" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="J113" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8774,15 +8840,15 @@
         <v>354</v>
       </c>
       <c r="I114" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="J114" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>29</v>
@@ -8808,10 +8874,10 @@
         <v>24</v>
       </c>
       <c r="I117" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="J117" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8828,10 +8894,10 @@
         <v>25</v>
       </c>
       <c r="I118" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="J118" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8848,10 +8914,10 @@
         <v>26</v>
       </c>
       <c r="I119" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="J119" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8868,10 +8934,10 @@
         <v>27</v>
       </c>
       <c r="I120" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J120" t="s">
         <v>1419</v>
-      </c>
-      <c r="J120" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8888,10 +8954,10 @@
         <v>37</v>
       </c>
       <c r="I121" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="J121" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8908,10 +8974,10 @@
         <v>38</v>
       </c>
       <c r="I122" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="J122" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8928,7 +8994,7 @@
         <v>44</v>
       </c>
       <c r="I123" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="J123" t="s">
         <v>1131</v>
@@ -8948,10 +9014,10 @@
         <v>354</v>
       </c>
       <c r="I124" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="J124" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -9102,10 +9168,10 @@
         <v>44</v>
       </c>
       <c r="D133" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E133" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H133" t="s">
         <v>44</v>
@@ -9114,7 +9180,7 @@
         <v>63</v>
       </c>
       <c r="J133" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -9125,16 +9191,16 @@
         <v>603</v>
       </c>
       <c r="E134" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H134" t="s">
         <v>365</v>
       </c>
       <c r="I134" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J134" t="s">
         <v>1481</v>
-      </c>
-      <c r="J134" t="s">
-        <v>1482</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -9208,7 +9274,7 @@
         <v>77</v>
       </c>
       <c r="E139" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="H139" t="s">
         <v>26</v>
@@ -9308,7 +9374,7 @@
         <v>513</v>
       </c>
       <c r="E144" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H144" t="s">
         <v>365</v>
@@ -9316,7 +9382,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="I146" s="1" t="s">
         <v>43</v>
@@ -9342,10 +9408,10 @@
         <v>24</v>
       </c>
       <c r="I147" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="J147" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9362,10 +9428,10 @@
         <v>25</v>
       </c>
       <c r="I148" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="J148" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="K148" t="s">
         <v>30</v>
@@ -9385,10 +9451,10 @@
         <v>26</v>
       </c>
       <c r="I149" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="J149" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="K149" t="s">
         <v>31</v>
@@ -9411,7 +9477,7 @@
         <v>114</v>
       </c>
       <c r="J150" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9419,19 +9485,19 @@
         <v>37</v>
       </c>
       <c r="D151" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E151" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H151" t="s">
         <v>37</v>
       </c>
       <c r="I151" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="J151" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="K151" t="s">
         <v>30</v>
@@ -9451,10 +9517,10 @@
         <v>38</v>
       </c>
       <c r="I152" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="J152" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="K152" t="s">
         <v>30</v>
@@ -9477,7 +9543,7 @@
         <v>115</v>
       </c>
       <c r="J153" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="K153" t="s">
         <v>31</v>
@@ -9496,7 +9562,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9519,10 +9585,10 @@
         <v>24</v>
       </c>
       <c r="I157" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="J157" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="K157" t="s">
         <v>31</v>
@@ -9542,10 +9608,10 @@
         <v>25</v>
       </c>
       <c r="I158" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="J158" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="K158" t="s">
         <v>31</v>
@@ -9565,10 +9631,10 @@
         <v>26</v>
       </c>
       <c r="I159" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J159" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="K159" t="s">
         <v>30</v>
@@ -9588,10 +9654,10 @@
         <v>27</v>
       </c>
       <c r="I160" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="J160" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9602,16 +9668,16 @@
         <v>1000</v>
       </c>
       <c r="E161" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="H161" t="s">
         <v>37</v>
       </c>
       <c r="I161" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="J161" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="K161" t="s">
         <v>31</v>
@@ -9631,10 +9697,10 @@
         <v>38</v>
       </c>
       <c r="I162" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="J162" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="K162" t="s">
         <v>30</v>
@@ -9654,10 +9720,10 @@
         <v>44</v>
       </c>
       <c r="I163" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="J163" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="K163" t="s">
         <v>30</v>
@@ -9708,7 +9774,7 @@
         <v>418</v>
       </c>
       <c r="J167" s="18" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9726,10 +9792,10 @@
         <v>25</v>
       </c>
       <c r="I168" s="18" t="s">
+        <v>1530</v>
+      </c>
+      <c r="J168" s="18" t="s">
         <v>1531</v>
-      </c>
-      <c r="J168" s="18" t="s">
-        <v>1532</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9737,20 +9803,20 @@
         <v>26</v>
       </c>
       <c r="D169" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E169" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="G169" s="27"/>
       <c r="H169" t="s">
         <v>26</v>
       </c>
       <c r="I169" s="18" t="s">
+        <v>1532</v>
+      </c>
+      <c r="J169" s="18" t="s">
         <v>1533</v>
-      </c>
-      <c r="J169" s="18" t="s">
-        <v>1534</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9768,10 +9834,10 @@
         <v>27</v>
       </c>
       <c r="I170" s="18" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="J170" s="18" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9789,10 +9855,10 @@
         <v>37</v>
       </c>
       <c r="I171" s="18" t="s">
+        <v>1535</v>
+      </c>
+      <c r="J171" s="18" t="s">
         <v>1536</v>
-      </c>
-      <c r="J171" s="18" t="s">
-        <v>1537</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9810,10 +9876,10 @@
         <v>38</v>
       </c>
       <c r="I172" s="18" t="s">
+        <v>1537</v>
+      </c>
+      <c r="J172" s="18" t="s">
         <v>1538</v>
-      </c>
-      <c r="J172" s="18" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9831,10 +9897,10 @@
         <v>44</v>
       </c>
       <c r="I173" s="18" t="s">
+        <v>1539</v>
+      </c>
+      <c r="J173" s="18" t="s">
         <v>1540</v>
-      </c>
-      <c r="J173" s="18" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9883,7 +9949,7 @@
         <v>24</v>
       </c>
       <c r="I177" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="J177" t="s">
         <v>595</v>
@@ -9894,10 +9960,10 @@
         <v>25</v>
       </c>
       <c r="D178" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E178" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="F178" t="s">
         <v>249</v>
@@ -9907,10 +9973,10 @@
         <v>25</v>
       </c>
       <c r="I178" t="s">
+        <v>1519</v>
+      </c>
+      <c r="J178" t="s">
         <v>1520</v>
-      </c>
-      <c r="J178" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9918,20 +9984,20 @@
         <v>26</v>
       </c>
       <c r="D179" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="E179" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="G179" s="27"/>
       <c r="H179" t="s">
         <v>26</v>
       </c>
       <c r="I179" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="J179" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9949,10 +10015,10 @@
         <v>27</v>
       </c>
       <c r="I180" t="s">
+        <v>1521</v>
+      </c>
+      <c r="J180" t="s">
         <v>1522</v>
-      </c>
-      <c r="J180" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9970,10 +10036,10 @@
         <v>37</v>
       </c>
       <c r="I181" t="s">
+        <v>1523</v>
+      </c>
+      <c r="J181" t="s">
         <v>1524</v>
-      </c>
-      <c r="J181" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9991,10 +10057,10 @@
         <v>38</v>
       </c>
       <c r="I182" t="s">
+        <v>1525</v>
+      </c>
+      <c r="J182" t="s">
         <v>1526</v>
-      </c>
-      <c r="J182" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10012,10 +10078,10 @@
         <v>44</v>
       </c>
       <c r="I183" t="s">
+        <v>1527</v>
+      </c>
+      <c r="J183" t="s">
         <v>1528</v>
-      </c>
-      <c r="J183" t="s">
-        <v>1529</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10079,10 +10145,10 @@
         <v>24</v>
       </c>
       <c r="I188" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="J188" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10090,20 +10156,20 @@
         <v>25</v>
       </c>
       <c r="D189" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="E189" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G189" s="27"/>
       <c r="H189" t="s">
         <v>25</v>
       </c>
       <c r="I189" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="J189" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10111,19 +10177,19 @@
         <v>26</v>
       </c>
       <c r="D190" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="E190" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H190" t="s">
         <v>26</v>
       </c>
       <c r="I190" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="J190" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10134,16 +10200,16 @@
         <v>1047</v>
       </c>
       <c r="E191" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H191" t="s">
         <v>27</v>
       </c>
       <c r="I191" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="J191" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10160,10 +10226,10 @@
         <v>37</v>
       </c>
       <c r="I192" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="J192" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10180,10 +10246,10 @@
         <v>38</v>
       </c>
       <c r="I193" t="s">
+        <v>1551</v>
+      </c>
+      <c r="J193" t="s">
         <v>1552</v>
-      </c>
-      <c r="J193" t="s">
-        <v>1553</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10200,10 +10266,10 @@
         <v>44</v>
       </c>
       <c r="I194" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="J194" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10220,10 +10286,10 @@
         <v>365</v>
       </c>
       <c r="I195" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="J195" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10253,19 +10319,19 @@
         <v>25</v>
       </c>
       <c r="D199" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="E199" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H199" t="s">
         <v>24</v>
       </c>
       <c r="I199" t="s">
+        <v>1566</v>
+      </c>
+      <c r="J199" t="s">
         <v>1567</v>
-      </c>
-      <c r="J199" t="s">
-        <v>1568</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10273,19 +10339,19 @@
         <v>26</v>
       </c>
       <c r="D200" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="E200" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H200" t="s">
         <v>25</v>
       </c>
       <c r="I200" t="s">
+        <v>1568</v>
+      </c>
+      <c r="J200" t="s">
         <v>1569</v>
-      </c>
-      <c r="J200" t="s">
-        <v>1570</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10296,16 +10362,16 @@
         <v>451</v>
       </c>
       <c r="E201" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H201" t="s">
         <v>26</v>
       </c>
       <c r="I201" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J201" t="s">
         <v>1571</v>
-      </c>
-      <c r="J201" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10322,10 +10388,10 @@
         <v>27</v>
       </c>
       <c r="I202" t="s">
+        <v>1572</v>
+      </c>
+      <c r="J202" t="s">
         <v>1573</v>
-      </c>
-      <c r="J202" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10342,10 +10408,10 @@
         <v>37</v>
       </c>
       <c r="I203" t="s">
+        <v>1574</v>
+      </c>
+      <c r="J203" t="s">
         <v>1575</v>
-      </c>
-      <c r="J203" t="s">
-        <v>1576</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10362,10 +10428,10 @@
         <v>38</v>
       </c>
       <c r="I204" t="s">
+        <v>1576</v>
+      </c>
+      <c r="J204" t="s">
         <v>1577</v>
-      </c>
-      <c r="J204" t="s">
-        <v>1578</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10382,10 +10448,10 @@
         <v>44</v>
       </c>
       <c r="I205" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J205" t="s">
         <v>1579</v>
-      </c>
-      <c r="J205" t="s">
-        <v>1580</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10415,10 +10481,10 @@
         <v>24</v>
       </c>
       <c r="I208" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="J208" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10426,19 +10492,19 @@
         <v>25</v>
       </c>
       <c r="D209" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="E209" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="H209" t="s">
         <v>25</v>
       </c>
       <c r="I209" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J209" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10446,19 +10512,19 @@
         <v>26</v>
       </c>
       <c r="D210" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="E210" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="H210" t="s">
         <v>26</v>
       </c>
       <c r="I210" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="J210" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10475,10 +10541,10 @@
         <v>27</v>
       </c>
       <c r="I211" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="J211" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10495,10 +10561,10 @@
         <v>37</v>
       </c>
       <c r="I212" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="J212" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10506,19 +10572,19 @@
         <v>38</v>
       </c>
       <c r="D213" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="E213" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="H213" t="s">
         <v>38</v>
       </c>
       <c r="I213" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="J213" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10535,10 +10601,10 @@
         <v>44</v>
       </c>
       <c r="I214" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="J214" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10583,10 +10649,10 @@
         <v>24</v>
       </c>
       <c r="I218" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="J218" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10594,19 +10660,19 @@
         <v>25</v>
       </c>
       <c r="D219" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="E219" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="H219" t="s">
         <v>25</v>
       </c>
       <c r="I219" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="J219" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10614,19 +10680,19 @@
         <v>26</v>
       </c>
       <c r="D220" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="E220" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H220" t="s">
         <v>26</v>
       </c>
       <c r="I220" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="J220" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10643,10 +10709,10 @@
         <v>27</v>
       </c>
       <c r="I221" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="J221" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10663,10 +10729,10 @@
         <v>37</v>
       </c>
       <c r="I222" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="J222" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10674,7 +10740,7 @@
         <v>426</v>
       </c>
       <c r="D223" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="E223" t="s">
         <v>692</v>
@@ -10683,10 +10749,10 @@
         <v>38</v>
       </c>
       <c r="I223" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="J223" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10706,7 +10772,7 @@
         <v>898</v>
       </c>
       <c r="J224" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10723,15 +10789,15 @@
         <v>365</v>
       </c>
       <c r="I225" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="J225" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="27" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B227" s="27"/>
       <c r="C227" s="27"/>
@@ -10739,7 +10805,7 @@
       <c r="E227" s="27"/>
       <c r="F227" s="27"/>
       <c r="G227" s="27" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="H227" s="28" t="s">
         <v>43</v>
@@ -10769,10 +10835,10 @@
         <v>24</v>
       </c>
       <c r="I228" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="J228" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10792,10 +10858,10 @@
         <v>25</v>
       </c>
       <c r="I229" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="J229" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10808,7 +10874,7 @@
         <v>872</v>
       </c>
       <c r="E230" s="27" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="F230" s="27"/>
       <c r="G230" s="27"/>
@@ -10816,10 +10882,10 @@
         <v>26</v>
       </c>
       <c r="I230" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="J230" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10840,10 +10906,10 @@
         <v>27</v>
       </c>
       <c r="I231" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="J231" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10853,10 +10919,10 @@
       </c>
       <c r="C232" s="27"/>
       <c r="D232" s="27" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="E232" s="27" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="F232" s="27"/>
       <c r="G232" s="27"/>
@@ -10864,10 +10930,10 @@
         <v>425</v>
       </c>
       <c r="I232" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J232" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10888,10 +10954,10 @@
         <v>426</v>
       </c>
       <c r="I233" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="J233" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10912,10 +10978,10 @@
         <v>427</v>
       </c>
       <c r="I234" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="J234" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10936,10 +11002,10 @@
         <v>424</v>
       </c>
       <c r="I235" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="J235" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -10963,7 +11029,7 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="27" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B238" s="27"/>
       <c r="C238" s="27"/>
@@ -10971,7 +11037,7 @@
       <c r="E238" s="27"/>
       <c r="F238" s="27"/>
       <c r="G238" s="27" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="H238" s="28" t="s">
         <v>43</v>
@@ -11001,10 +11067,10 @@
         <v>24</v>
       </c>
       <c r="I239" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="J239" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -11025,10 +11091,10 @@
         <v>25</v>
       </c>
       <c r="I240" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="J240" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -11049,10 +11115,10 @@
         <v>26</v>
       </c>
       <c r="I241" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="J241" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -11073,10 +11139,10 @@
         <v>27</v>
       </c>
       <c r="I242" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="J242" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -11086,10 +11152,10 @@
       </c>
       <c r="C243" s="27"/>
       <c r="D243" s="27" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="E243" s="27" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="F243" s="27"/>
       <c r="G243" s="27"/>
@@ -11097,10 +11163,10 @@
         <v>37</v>
       </c>
       <c r="I243" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="J243" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -11121,10 +11187,10 @@
         <v>38</v>
       </c>
       <c r="I244" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="J244" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -11145,10 +11211,10 @@
         <v>44</v>
       </c>
       <c r="I245" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="J245" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -11169,10 +11235,10 @@
         <v>365</v>
       </c>
       <c r="I246" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="J246" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
   </sheetData>
@@ -11200,7 +11266,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E1" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G1" s="33" t="s">
         <v>0</v>
@@ -11225,7 +11291,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
@@ -11278,7 +11344,7 @@
         <v>78.744</v>
       </c>
       <c r="K3" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -11313,7 +11379,7 @@
         <v>72.111000000000004</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -11357,7 +11423,7 @@
         <v>79.77</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -11398,7 +11464,7 @@
         <v>91.18</v>
       </c>
       <c r="K6" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -11436,7 +11502,7 @@
         <v>62.11</v>
       </c>
       <c r="K7" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="L7">
         <v>100</v>
@@ -11480,7 +11546,7 @@
         <v>87.23</v>
       </c>
       <c r="K8" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -11512,22 +11578,22 @@
         <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="K9" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="L9">
         <v>100</v>
@@ -11568,7 +11634,7 @@
         <v>68</v>
       </c>
       <c r="K10" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="L10">
         <v>100</v>
@@ -11591,7 +11657,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" s="1" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -11608,7 +11674,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -11655,10 +11721,10 @@
         <v>87.76</v>
       </c>
       <c r="J14" t="s">
+        <v>1433</v>
+      </c>
+      <c r="K14" t="s">
         <v>1434</v>
-      </c>
-      <c r="K14" t="s">
-        <v>1435</v>
       </c>
       <c r="L14">
         <v>100</v>
@@ -11675,19 +11741,19 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H15" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="I15" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="J15" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="K15" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="L15">
         <v>100</v>
@@ -11716,7 +11782,7 @@
         <v>87.6</v>
       </c>
       <c r="K16" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="L16">
         <v>100</v>
@@ -11748,7 +11814,7 @@
         <v>84.97</v>
       </c>
       <c r="K17" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="L17">
         <v>100</v>
@@ -11778,7 +11844,7 @@
         <v>81.81</v>
       </c>
       <c r="K18" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="L18">
         <v>100</v>
@@ -11808,7 +11874,7 @@
         <v>79.33</v>
       </c>
       <c r="K19" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="L19">
         <v>100</v>
@@ -11838,7 +11904,7 @@
         <v>78.84</v>
       </c>
       <c r="K20" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="L20">
         <v>100</v>
@@ -11867,7 +11933,7 @@
         <v>74.48</v>
       </c>
       <c r="K21" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="L21">
         <v>100</v>
@@ -11887,7 +11953,7 @@
         <v>42.625</v>
       </c>
       <c r="K22" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="L22">
         <v>100</v>
@@ -11913,7 +11979,7 @@
         <v>44.375</v>
       </c>
       <c r="K23" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="L23">
         <v>100</v>
@@ -11927,7 +11993,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E25" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -11944,7 +12010,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -11994,7 +12060,7 @@
         <v>47.662100000000002</v>
       </c>
       <c r="K27" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="L27">
         <v>100</v>
@@ -12027,7 +12093,7 @@
         <v>49.296900000000001</v>
       </c>
       <c r="K28" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="L28">
         <v>100</v>
@@ -12059,7 +12125,7 @@
         <v>56.28</v>
       </c>
       <c r="K29" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="L29">
         <v>100</v>
@@ -12079,19 +12145,19 @@
         <v>100</v>
       </c>
       <c r="G30" t="s">
+        <v>1463</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1465</v>
+      </c>
+      <c r="J30" t="s">
         <v>1464</v>
       </c>
-      <c r="H30" t="s">
-        <v>1463</v>
-      </c>
-      <c r="I30" t="s">
-        <v>1466</v>
-      </c>
-      <c r="J30" t="s">
-        <v>1465</v>
-      </c>
       <c r="K30" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="L30">
         <v>100</v>
@@ -12123,7 +12189,7 @@
         <v>27.61</v>
       </c>
       <c r="K31" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L31">
         <v>100</v>
@@ -12155,7 +12221,7 @@
         <v>47</v>
       </c>
       <c r="K32" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="L32">
         <v>100</v>
@@ -12190,7 +12256,7 @@
         <v>51.12</v>
       </c>
       <c r="K33" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="L33">
         <v>100</v>
@@ -12211,19 +12277,19 @@
         <v>100</v>
       </c>
       <c r="G34" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="H34" t="s">
+        <v>1471</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1469</v>
+      </c>
+      <c r="K34" t="s">
         <v>1472</v>
-      </c>
-      <c r="I34" t="s">
-        <v>1471</v>
-      </c>
-      <c r="J34" t="s">
-        <v>1470</v>
-      </c>
-      <c r="K34" t="s">
-        <v>1473</v>
       </c>
       <c r="L34">
         <v>100</v>
@@ -12332,7 +12398,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>8</v>
@@ -12367,22 +12433,22 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C4">
         <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="I4" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="L4" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="M4" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="N4">
         <v>12</v>
@@ -12391,7 +12457,7 @@
         <v>200</v>
       </c>
       <c r="P4" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R4">
         <v>100</v>
@@ -12400,25 +12466,25 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B5" t="s">
         <v>1169</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1170</v>
       </c>
       <c r="C5">
         <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="I5" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L5" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="M5" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="N5">
         <v>12</v>
@@ -12427,7 +12493,7 @@
         <v>200</v>
       </c>
       <c r="P5" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R5">
         <v>100</v>
@@ -12435,22 +12501,22 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C6">
         <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="I6" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="L6" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="M6" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="N6">
         <v>12</v>
@@ -12459,7 +12525,7 @@
         <v>200</v>
       </c>
       <c r="P6" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R6">
         <v>100</v>
@@ -12467,22 +12533,22 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C7">
         <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I7" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="L7" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="M7" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="N7">
         <v>12</v>
@@ -12491,7 +12557,7 @@
         <v>200</v>
       </c>
       <c r="P7" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R7">
         <v>50</v>
@@ -12499,22 +12565,22 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C8">
         <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I8" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="L8" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="M8" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="N8">
         <v>12</v>
@@ -12523,7 +12589,7 @@
         <v>200</v>
       </c>
       <c r="P8" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R8">
         <v>50</v>
@@ -12531,13 +12597,13 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C9">
         <v>25</v>
       </c>
       <c r="M9" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="R9">
         <v>50</v>
@@ -12545,22 +12611,22 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C10">
         <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="I10" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="L10" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="M10" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="N10">
         <v>12</v>
@@ -12569,7 +12635,7 @@
         <v>200</v>
       </c>
       <c r="P10" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R10">
         <v>100</v>
@@ -12577,22 +12643,22 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C11">
         <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="I11" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="L11" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="M11" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="N11">
         <v>12</v>
@@ -12601,27 +12667,27 @@
         <v>200</v>
       </c>
       <c r="P11" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C12">
         <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I12" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="L12" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="M12" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="N12">
         <v>12</v>
@@ -12630,7 +12696,7 @@
         <v>200</v>
       </c>
       <c r="P12" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R12">
         <v>100</v>
@@ -12638,22 +12704,22 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C13">
         <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="I13" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="L13" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="M13" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="N13">
         <v>12</v>
@@ -12662,7 +12728,7 @@
         <v>200</v>
       </c>
       <c r="P13" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R13">
         <v>50</v>
@@ -12670,22 +12736,22 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C14">
         <v>100</v>
       </c>
       <c r="H14" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I14" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="L14" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="M14" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="N14">
         <v>12</v>
@@ -12694,7 +12760,7 @@
         <v>200</v>
       </c>
       <c r="P14" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R14">
         <v>50</v>
@@ -12702,22 +12768,22 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C15">
         <v>100</v>
       </c>
       <c r="H15" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="I15" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="L15" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="M15" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="N15">
         <v>12</v>
@@ -12726,7 +12792,7 @@
         <v>200</v>
       </c>
       <c r="P15" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R15">
         <v>50</v>
@@ -12734,25 +12800,25 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B17" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C17">
         <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I17" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="L17" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="M17" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -12761,30 +12827,30 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B18" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C18">
         <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="I18" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="L18" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="M18" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -12793,7 +12859,7 @@
         <v>50</v>
       </c>
       <c r="P18" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R18">
         <v>200</v>
@@ -12801,22 +12867,22 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C19">
         <v>100</v>
       </c>
       <c r="H19" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="I19" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="L19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="M19" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -12825,7 +12891,7 @@
         <v>50</v>
       </c>
       <c r="P19" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R19">
         <v>100</v>
@@ -12833,22 +12899,22 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C20">
         <v>100</v>
       </c>
       <c r="H20" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="I20" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="L20" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="M20" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -12857,7 +12923,7 @@
         <v>50</v>
       </c>
       <c r="P20" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R20">
         <v>100</v>
@@ -12865,22 +12931,22 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C21">
         <v>100</v>
       </c>
       <c r="H21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I21" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="L21" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="M21" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -12889,7 +12955,7 @@
         <v>50</v>
       </c>
       <c r="P21" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R21">
         <v>100</v>
@@ -12910,13 +12976,13 @@
       </c>
       <c r="I25" s="33"/>
       <c r="J25" s="33" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="K25" s="33"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
@@ -12970,7 +13036,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C27">
         <v>100</v>
@@ -12980,18 +13046,18 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="18" t="s">
+        <v>1233</v>
+      </c>
+      <c r="I27" s="18" t="s">
         <v>1234</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>1235</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="18" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="M27" s="18" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -13002,31 +13068,31 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B28" t="s">
         <v>1163</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1164</v>
       </c>
       <c r="C28">
         <v>100</v>
       </c>
       <c r="H28" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I28" t="s">
         <v>1236</v>
       </c>
-      <c r="I28" t="s">
-        <v>1237</v>
-      </c>
       <c r="L28" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="M28" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="N28">
         <v>12</v>
       </c>
       <c r="P28" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R28">
         <v>50</v>
@@ -13034,28 +13100,28 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C29">
         <v>100</v>
       </c>
       <c r="H29" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="I29" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="L29" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="M29" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="N29">
         <v>12</v>
       </c>
       <c r="P29" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R29">
         <v>50</v>
@@ -13063,28 +13129,28 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C30">
         <v>100</v>
       </c>
       <c r="H30" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="I30" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="L30" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="M30" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="N30">
         <v>12</v>
       </c>
       <c r="P30" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R30">
         <v>25</v>
@@ -13092,28 +13158,28 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C31">
         <v>100</v>
       </c>
       <c r="H31" s="17" t="s">
+        <v>1241</v>
+      </c>
+      <c r="I31" t="s">
         <v>1242</v>
       </c>
-      <c r="I31" t="s">
-        <v>1243</v>
-      </c>
       <c r="L31" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="M31" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="N31">
         <v>12</v>
       </c>
       <c r="P31" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R31">
         <v>25</v>
@@ -13121,28 +13187,28 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C32">
         <v>100</v>
       </c>
       <c r="H32" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I32" t="s">
         <v>1244</v>
       </c>
-      <c r="I32" t="s">
-        <v>1245</v>
-      </c>
       <c r="L32" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="M32" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="N32">
         <v>12</v>
       </c>
       <c r="P32" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R32">
         <v>25</v>
@@ -13150,19 +13216,19 @@
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C33">
         <v>100</v>
       </c>
       <c r="M33" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="N33">
         <v>12</v>
       </c>
       <c r="P33" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R33">
         <v>25</v>
@@ -13170,45 +13236,45 @@
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C34">
         <v>30</v>
       </c>
       <c r="H34" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="I34" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="L34" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C35">
         <v>30</v>
       </c>
       <c r="H35" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I35" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="L35" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="M35" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="N35">
         <v>12</v>
       </c>
       <c r="P35" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R35">
         <v>50</v>
@@ -13216,28 +13282,28 @@
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C36">
         <v>30</v>
       </c>
       <c r="H36" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I36" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="L36" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="M36" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="N36">
         <v>12</v>
       </c>
       <c r="P36" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R36">
         <v>50</v>
@@ -13245,28 +13311,28 @@
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C37">
         <v>30</v>
       </c>
       <c r="H37" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="I37" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="L37" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="M37" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="N37">
         <v>12</v>
       </c>
       <c r="P37" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R37">
         <v>50</v>
@@ -13274,28 +13340,28 @@
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C38">
         <v>30</v>
       </c>
       <c r="H38" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I38" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="L38" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="M38" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="N38">
         <v>12</v>
       </c>
       <c r="P38" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R38">
         <v>50</v>
@@ -13303,28 +13369,28 @@
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C39">
         <v>30</v>
       </c>
       <c r="H39" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="I39" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="L39" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="M39" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="N39">
         <v>12</v>
       </c>
       <c r="P39" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R39">
         <v>50</v>
@@ -13347,8 +13413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4036222F-1D3A-4403-9FBA-92840ACAEEC1}">
   <dimension ref="A2:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="M88" sqref="M88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -13369,7 +13435,7 @@
         <v>116</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>10</v>
@@ -13498,7 +13564,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>10</v>
@@ -13547,7 +13613,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E11" t="s">
         <v>1023</v>
@@ -13556,10 +13622,10 @@
         <v>25</v>
       </c>
       <c r="M11" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="N11" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13576,10 +13642,10 @@
         <v>26</v>
       </c>
       <c r="M12" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="N12" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13587,7 +13653,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E13" t="s">
         <v>1108</v>
@@ -13596,10 +13662,10 @@
         <v>27</v>
       </c>
       <c r="M13" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="N13" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13690,7 +13756,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="E19" s="28" t="s">
         <v>10</v>
@@ -13739,19 +13805,19 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E21" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="K21" t="s">
         <v>25</v>
       </c>
       <c r="M21" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="N21" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13759,10 +13825,10 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E22" t="s">
         <v>2016</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2017</v>
       </c>
       <c r="K22" t="s">
         <v>26</v>
@@ -13807,8 +13873,8 @@
       <c r="E24" t="s">
         <v>1133</v>
       </c>
-      <c r="K24" t="s">
-        <v>425</v>
+      <c r="K24" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="M24" t="s">
         <v>1115</v>
@@ -13830,8 +13896,8 @@
       <c r="E25" t="s">
         <v>1122</v>
       </c>
-      <c r="K25" t="s">
-        <v>426</v>
+      <c r="K25" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="M25" t="s">
         <v>1117</v>
@@ -13853,8 +13919,8 @@
       <c r="E26" t="s">
         <v>1124</v>
       </c>
-      <c r="K26" t="s">
-        <v>427</v>
+      <c r="K26" s="27" t="s">
+        <v>44</v>
       </c>
       <c r="M26" t="s">
         <v>1119</v>
@@ -13876,8 +13942,8 @@
       <c r="E27" t="s">
         <v>1126</v>
       </c>
-      <c r="K27" t="s">
-        <v>424</v>
+      <c r="K27" s="27" t="s">
+        <v>365</v>
       </c>
       <c r="M27" t="s">
         <v>1121</v>
@@ -13917,10 +13983,10 @@
         <v>24</v>
       </c>
       <c r="M30" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="N30" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="O30" t="s">
         <v>672</v>
@@ -13939,6 +14005,12 @@
       <c r="K31" t="s">
         <v>25</v>
       </c>
+      <c r="M31" t="s">
+        <v>2034</v>
+      </c>
+      <c r="N31" t="s">
+        <v>2031</v>
+      </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
@@ -13953,6 +14025,12 @@
       <c r="K32" t="s">
         <v>26</v>
       </c>
+      <c r="M32" t="s">
+        <v>2035</v>
+      </c>
+      <c r="N32" t="s">
+        <v>2032</v>
+      </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
@@ -13967,10 +14045,16 @@
       <c r="K33" t="s">
         <v>27</v>
       </c>
+      <c r="M33" t="s">
+        <v>2036</v>
+      </c>
+      <c r="N33" t="s">
+        <v>2033</v>
+      </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" t="s">
-        <v>425</v>
+      <c r="B34" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="D34" t="s">
         <v>1106</v>
@@ -13981,10 +14065,16 @@
       <c r="K34" t="s">
         <v>425</v>
       </c>
+      <c r="M34" t="s">
+        <v>2038</v>
+      </c>
+      <c r="N34" t="s">
+        <v>2037</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" t="s">
-        <v>426</v>
+      <c r="B35" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="D35" t="s">
         <v>961</v>
@@ -13996,15 +14086,15 @@
         <v>426</v>
       </c>
       <c r="M35" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="N35" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" t="s">
-        <v>427</v>
+      <c r="B36" s="27" t="s">
+        <v>44</v>
       </c>
       <c r="D36" t="s">
         <v>963</v>
@@ -14016,15 +14106,15 @@
         <v>427</v>
       </c>
       <c r="M36" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="N36" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" t="s">
-        <v>424</v>
+      <c r="B37" s="27" t="s">
+        <v>365</v>
       </c>
       <c r="D37" t="s">
         <v>965</v>
@@ -14036,10 +14126,10 @@
         <v>424</v>
       </c>
       <c r="M37" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="N37" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14095,6 +14185,12 @@
       <c r="K42" t="s">
         <v>25</v>
       </c>
+      <c r="M42" t="s">
+        <v>2040</v>
+      </c>
+      <c r="N42" t="s">
+        <v>2039</v>
+      </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" t="s">
@@ -14109,6 +14205,12 @@
       <c r="K43" t="s">
         <v>26</v>
       </c>
+      <c r="M43" t="s">
+        <v>2026</v>
+      </c>
+      <c r="N43" t="s">
+        <v>2041</v>
+      </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
@@ -14123,6 +14225,12 @@
       <c r="K44" t="s">
         <v>27</v>
       </c>
+      <c r="M44" t="s">
+        <v>2043</v>
+      </c>
+      <c r="N44" t="s">
+        <v>2042</v>
+      </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" t="s">
@@ -14134,14 +14242,14 @@
       <c r="E45" t="s">
         <v>1101</v>
       </c>
-      <c r="K45" t="s">
-        <v>37</v>
+      <c r="K45" s="27" t="s">
+        <v>425</v>
       </c>
       <c r="M45" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="N45" t="s">
-        <v>1147</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14154,14 +14262,14 @@
       <c r="E46" t="s">
         <v>968</v>
       </c>
-      <c r="K46" t="s">
-        <v>38</v>
+      <c r="K46" s="27" t="s">
+        <v>426</v>
       </c>
       <c r="M46" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="N46" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14174,14 +14282,14 @@
       <c r="E47" t="s">
         <v>970</v>
       </c>
-      <c r="K47" t="s">
-        <v>44</v>
+      <c r="K47" s="27" t="s">
+        <v>427</v>
       </c>
       <c r="M47" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="N47" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14194,14 +14302,14 @@
       <c r="E48" t="s">
         <v>972</v>
       </c>
-      <c r="K48" t="s">
-        <v>365</v>
+      <c r="K48" s="27" t="s">
+        <v>424</v>
       </c>
       <c r="M48" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="N48" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -14212,7 +14320,7 @@
         <v>43</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="E50" s="28" t="s">
         <v>10</v>
@@ -14485,7 +14593,7 @@
         <v>43</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="E70" s="28" t="s">
         <v>10</v>
@@ -14671,6 +14779,12 @@
       <c r="K82" t="s">
         <v>25</v>
       </c>
+      <c r="M82" t="s">
+        <v>2047</v>
+      </c>
+      <c r="N82" t="s">
+        <v>2045</v>
+      </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" t="s">
@@ -14685,6 +14799,12 @@
       <c r="K83" t="s">
         <v>26</v>
       </c>
+      <c r="M83" t="s">
+        <v>2048</v>
+      </c>
+      <c r="N83" t="s">
+        <v>2046</v>
+      </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" t="s">
@@ -14759,6 +14879,12 @@
       <c r="K87" t="s">
         <v>44</v>
       </c>
+      <c r="M87" t="s">
+        <v>2050</v>
+      </c>
+      <c r="N87" t="s">
+        <v>2049</v>
+      </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" t="s">
@@ -14772,6 +14898,12 @@
       </c>
       <c r="K88" t="s">
         <v>365</v>
+      </c>
+      <c r="M88" t="s">
+        <v>2052</v>
+      </c>
+      <c r="N88" t="s">
+        <v>2051</v>
       </c>
     </row>
   </sheetData>
@@ -14981,7 +15113,7 @@
         <v>493</v>
       </c>
       <c r="D10" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -14997,7 +15129,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="C13" t="s">
         <v>237</v>
@@ -15008,7 +15140,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C14" t="s">
         <v>239</v>
@@ -15019,7 +15151,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C15" t="s">
         <v>236</v>
@@ -15030,7 +15162,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C16" t="s">
         <v>234</v>
@@ -15167,21 +15299,21 @@
     <row r="31" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="28"/>
       <c r="C31" s="28" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
     </row>
     <row r="32" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="28" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="C32" s="28"/>
       <c r="D32" s="28" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E32" s="28" t="s">
         <v>1820</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>1821</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -15421,7 +15553,7 @@
         <v>490</v>
       </c>
       <c r="E47" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -15446,10 +15578,10 @@
         <v>164</v>
       </c>
       <c r="I50" s="27" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="J50" s="27" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -15466,10 +15598,10 @@
         <v>248</v>
       </c>
       <c r="I51" s="27" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="J51" s="27" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -15483,10 +15615,10 @@
         <v>158</v>
       </c>
       <c r="I52" s="27" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="J52" s="27" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -15500,7 +15632,7 @@
         <v>156</v>
       </c>
       <c r="I53" s="27" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="J53" s="27" t="s">
         <v>968</v>
@@ -15517,10 +15649,10 @@
         <v>162</v>
       </c>
       <c r="I54" s="27" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="J54" s="27" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -15534,10 +15666,10 @@
         <v>168</v>
       </c>
       <c r="I55" s="27" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="J55" s="27" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -15551,10 +15683,10 @@
         <v>160</v>
       </c>
       <c r="I56" s="27" t="s">
+        <v>1832</v>
+      </c>
+      <c r="J56" s="27" t="s">
         <v>1833</v>
-      </c>
-      <c r="J56" s="27" t="s">
-        <v>1834</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -15565,7 +15697,7 @@
         <v>512</v>
       </c>
       <c r="E57" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -15605,10 +15737,10 @@
         <v>24</v>
       </c>
       <c r="I61" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="J61" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -15626,10 +15758,10 @@
         <v>25</v>
       </c>
       <c r="I62" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="J62" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -15647,10 +15779,10 @@
         <v>26</v>
       </c>
       <c r="I63" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="J63" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -15668,10 +15800,10 @@
         <v>27</v>
       </c>
       <c r="I64" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="J64" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -15689,10 +15821,10 @@
         <v>37</v>
       </c>
       <c r="I65" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="J65" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -15710,10 +15842,10 @@
         <v>38</v>
       </c>
       <c r="I66" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="J66" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -15731,10 +15863,10 @@
         <v>44</v>
       </c>
       <c r="I67" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="J67" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -15752,10 +15884,10 @@
         <v>365</v>
       </c>
       <c r="I68" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="J68" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -15797,10 +15929,10 @@
         <v>24</v>
       </c>
       <c r="I71" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="J71" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -15818,10 +15950,10 @@
         <v>25</v>
       </c>
       <c r="I72" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="J72" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -15839,10 +15971,10 @@
         <v>26</v>
       </c>
       <c r="I73" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="J73" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -15860,10 +15992,10 @@
         <v>27</v>
       </c>
       <c r="I74" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="J74" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -15871,20 +16003,20 @@
         <v>37</v>
       </c>
       <c r="D75" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E75" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="G75" s="27"/>
       <c r="H75" s="27" t="s">
         <v>37</v>
       </c>
       <c r="I75" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="J75" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -15902,10 +16034,10 @@
         <v>38</v>
       </c>
       <c r="I76" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="J76" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -15923,10 +16055,10 @@
         <v>44</v>
       </c>
       <c r="I77" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="J77" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -15944,10 +16076,10 @@
         <v>365</v>
       </c>
       <c r="I78" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="J78" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -15990,10 +16122,10 @@
         <v>24</v>
       </c>
       <c r="I81" s="27" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="J81" s="27" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16001,7 +16133,7 @@
         <v>25</v>
       </c>
       <c r="D82" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="E82" t="s">
         <v>759</v>
@@ -16011,10 +16143,10 @@
         <v>25</v>
       </c>
       <c r="I82" s="27" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="J82" s="27" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16022,20 +16154,20 @@
         <v>26</v>
       </c>
       <c r="D83" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="E83" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="G83" s="27"/>
       <c r="H83" s="27" t="s">
         <v>26</v>
       </c>
       <c r="I83" s="27" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="J83" s="27" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16053,10 +16185,10 @@
         <v>27</v>
       </c>
       <c r="I84" s="27" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="J84" s="27" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16074,10 +16206,10 @@
         <v>37</v>
       </c>
       <c r="I85" s="27" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="J85" s="27" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16095,10 +16227,10 @@
         <v>38</v>
       </c>
       <c r="I86" s="27" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="J86" s="27" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16116,10 +16248,10 @@
         <v>44</v>
       </c>
       <c r="I87" s="27" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="J87" s="27" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16137,10 +16269,10 @@
         <v>365</v>
       </c>
       <c r="I88" s="27" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="J88" s="27" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16186,10 +16318,10 @@
         <v>24</v>
       </c>
       <c r="I91" s="27" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="J91" s="27" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16197,20 +16329,20 @@
         <v>25</v>
       </c>
       <c r="D92" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="E92" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="G92" s="27"/>
       <c r="H92" s="27" t="s">
         <v>25</v>
       </c>
       <c r="I92" s="27" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="J92" s="27" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16218,20 +16350,20 @@
         <v>26</v>
       </c>
       <c r="D93" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="E93" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="G93" s="27"/>
       <c r="H93" s="27" t="s">
         <v>26</v>
       </c>
       <c r="I93" s="27" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="J93" s="27" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16250,10 +16382,10 @@
         <v>27</v>
       </c>
       <c r="I94" s="27" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="J94" s="27" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16261,10 +16393,10 @@
         <v>37</v>
       </c>
       <c r="D95" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="E95" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="F95" s="27"/>
       <c r="G95" s="27"/>
@@ -16272,10 +16404,10 @@
         <v>37</v>
       </c>
       <c r="I95" s="27" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="J95" s="27" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16294,10 +16426,10 @@
         <v>38</v>
       </c>
       <c r="I96" s="27" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="J96" s="27" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16305,10 +16437,10 @@
         <v>340</v>
       </c>
       <c r="D97" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E97" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="F97" s="27"/>
       <c r="G97" s="27"/>
@@ -16316,10 +16448,10 @@
         <v>340</v>
       </c>
       <c r="I97" s="27" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="J97" s="27" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16338,10 +16470,10 @@
         <v>365</v>
       </c>
       <c r="I98" s="27" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="J98" s="27" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16349,14 +16481,14 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F100" s="27"/>
       <c r="G100" s="27" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H100" s="27"/>
       <c r="I100" s="28" t="s">
@@ -16376,7 +16508,7 @@
         <v>861</v>
       </c>
       <c r="E101" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F101" t="s">
         <v>247</v>
@@ -16388,10 +16520,10 @@
         <v>24</v>
       </c>
       <c r="I101" s="27" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="J101" s="27" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16402,17 +16534,17 @@
         <v>1001</v>
       </c>
       <c r="E102" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="G102" s="27"/>
       <c r="H102" s="27" t="s">
         <v>25</v>
       </c>
       <c r="I102" s="27" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="J102" s="27" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16423,17 +16555,17 @@
         <v>1003</v>
       </c>
       <c r="E103" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="G103" s="27"/>
       <c r="H103" s="27" t="s">
         <v>26</v>
       </c>
       <c r="I103" s="27" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="J103" s="27" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16444,17 +16576,17 @@
         <v>890</v>
       </c>
       <c r="E104" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="G104" s="27"/>
       <c r="H104" s="27" t="s">
         <v>27</v>
       </c>
       <c r="I104" s="27" t="s">
+        <v>1956</v>
+      </c>
+      <c r="J104" s="27" t="s">
         <v>1957</v>
-      </c>
-      <c r="J104" s="27" t="s">
-        <v>1958</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16465,17 +16597,17 @@
         <v>892</v>
       </c>
       <c r="E105" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="G105" s="27"/>
       <c r="H105" s="27" t="s">
         <v>37</v>
       </c>
       <c r="I105" s="27" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="J105" s="27" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16493,10 +16625,10 @@
         <v>38</v>
       </c>
       <c r="I106" s="27" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="J106" s="27" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16507,17 +16639,17 @@
         <v>891</v>
       </c>
       <c r="E107" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="G107" s="27"/>
       <c r="H107" s="27" t="s">
         <v>44</v>
       </c>
       <c r="I107" s="27" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="J107" s="27" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16528,17 +16660,17 @@
         <v>1076</v>
       </c>
       <c r="E108" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G108" s="27"/>
       <c r="H108" s="27" t="s">
         <v>365</v>
       </c>
       <c r="I108" s="27" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="J108" s="27" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16570,13 +16702,13 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>122</v>
       </c>
       <c r="G111" s="27" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
@@ -16593,7 +16725,7 @@
         <v>904</v>
       </c>
       <c r="E112" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="F112" t="s">
         <v>248</v>
@@ -16605,10 +16737,10 @@
         <v>24</v>
       </c>
       <c r="I112" s="27" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="J112" s="27" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16619,17 +16751,17 @@
         <v>1004</v>
       </c>
       <c r="E113" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="G113" s="27"/>
       <c r="H113" s="27" t="s">
         <v>25</v>
       </c>
       <c r="I113" s="27" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="J113" s="27" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16640,17 +16772,17 @@
         <v>1005</v>
       </c>
       <c r="E114" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="G114" s="27"/>
       <c r="H114" s="27" t="s">
         <v>26</v>
       </c>
       <c r="I114" s="27" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="J114" s="27" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16661,17 +16793,17 @@
         <v>1006</v>
       </c>
       <c r="E115" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="G115" s="27"/>
       <c r="H115" s="27" t="s">
         <v>27</v>
       </c>
       <c r="I115" s="27" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="J115" s="27" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16682,14 +16814,14 @@
         <v>910</v>
       </c>
       <c r="E116" s="27" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="G116" s="27"/>
       <c r="H116" s="27" t="s">
         <v>37</v>
       </c>
       <c r="I116" s="27" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="J116" s="27" t="s">
         <v>823</v>
@@ -16703,17 +16835,17 @@
         <v>909</v>
       </c>
       <c r="E117" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="G117" s="27"/>
       <c r="H117" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I117" s="27" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="J117" s="27" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16731,10 +16863,10 @@
         <v>44</v>
       </c>
       <c r="I118" s="27" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="J118" s="27" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16745,17 +16877,17 @@
         <v>907</v>
       </c>
       <c r="E119" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="G119" s="27"/>
       <c r="H119" s="27" t="s">
         <v>365</v>
       </c>
       <c r="I119" s="27" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="J119" s="27" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16801,7 +16933,7 @@
         <v>122</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="E127" s="28" t="s">
         <v>10</v>
@@ -16812,7 +16944,7 @@
       </c>
       <c r="H127" s="27"/>
       <c r="I127" s="28" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="J127" s="28" t="s">
         <v>10</v>
@@ -16826,10 +16958,10 @@
         <v>24</v>
       </c>
       <c r="D128" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="E128" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="G128" s="27" t="s">
         <v>166</v>
@@ -16838,10 +16970,10 @@
         <v>24</v>
       </c>
       <c r="I128" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="J128" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16849,20 +16981,20 @@
         <v>25</v>
       </c>
       <c r="D129" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="E129" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="G129" s="27"/>
       <c r="H129" s="27" t="s">
         <v>25</v>
       </c>
       <c r="I129" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="J129" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16880,10 +17012,10 @@
         <v>26</v>
       </c>
       <c r="I130" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="J130" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16901,10 +17033,10 @@
         <v>27</v>
       </c>
       <c r="I131" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="J131" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16922,10 +17054,10 @@
         <v>37</v>
       </c>
       <c r="I132" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="J132" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16933,7 +17065,7 @@
         <v>38</v>
       </c>
       <c r="D133" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E133" t="s">
         <v>179</v>
@@ -16943,10 +17075,10 @@
         <v>38</v>
       </c>
       <c r="I133" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="J133" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16964,10 +17096,10 @@
         <v>44</v>
       </c>
       <c r="I134" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="J134" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -16978,17 +17110,17 @@
         <v>647</v>
       </c>
       <c r="E135" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="G135" s="27"/>
       <c r="H135" s="27" t="s">
         <v>365</v>
       </c>
       <c r="I135" s="27" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="J135" s="27" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17000,7 +17132,7 @@
       </c>
       <c r="H137" s="27"/>
       <c r="I137" s="28" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="J137" s="28" t="s">
         <v>10</v>
@@ -17023,10 +17155,10 @@
         <v>24</v>
       </c>
       <c r="I138" s="27" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="J138" s="27" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17046,10 +17178,10 @@
         <v>25</v>
       </c>
       <c r="I139" s="27" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="J139" s="27" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17066,10 +17198,10 @@
         <v>26</v>
       </c>
       <c r="I140" s="27" t="s">
+        <v>1861</v>
+      </c>
+      <c r="J140" s="27" t="s">
         <v>1862</v>
-      </c>
-      <c r="J140" s="27" t="s">
-        <v>1863</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17086,10 +17218,10 @@
         <v>27</v>
       </c>
       <c r="I141" s="27" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="J141" s="27" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17106,10 +17238,10 @@
         <v>37</v>
       </c>
       <c r="I142" s="27" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="J142" s="27" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17126,10 +17258,10 @@
         <v>38</v>
       </c>
       <c r="I143" s="27" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="J143" s="27" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17146,10 +17278,10 @@
         <v>44</v>
       </c>
       <c r="I144" s="27" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="J144" s="27" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17157,19 +17289,19 @@
         <v>365</v>
       </c>
       <c r="D145" s="27" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="E145" s="27" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="H145" s="27" t="s">
         <v>365</v>
       </c>
       <c r="I145" s="27" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="J145" s="27" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17279,7 +17411,7 @@
         <v>122</v>
       </c>
       <c r="D157" s="28" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="E157" s="28" t="s">
         <v>10</v>
@@ -17597,16 +17729,16 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D187" s="28" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="E187" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I187" s="28" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="J187" s="28" t="s">
         <v>10</v>
@@ -17632,10 +17764,10 @@
         <v>24</v>
       </c>
       <c r="I188" s="27" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="J188" s="27" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17652,10 +17784,10 @@
         <v>25</v>
       </c>
       <c r="I189" s="27" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="J189" s="27" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17672,10 +17804,10 @@
         <v>26</v>
       </c>
       <c r="I190" s="27" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="J190" s="27" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17692,10 +17824,10 @@
         <v>27</v>
       </c>
       <c r="I191" s="27" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="J191" s="27" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17712,10 +17844,10 @@
         <v>37</v>
       </c>
       <c r="I192" s="27" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="J192" s="27" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17732,10 +17864,10 @@
         <v>38</v>
       </c>
       <c r="I193" s="27" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="J193" s="27" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17752,10 +17884,10 @@
         <v>44</v>
       </c>
       <c r="I194" s="27" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="J194" s="27" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="195" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -17772,10 +17904,10 @@
         <v>365</v>
       </c>
       <c r="I195" s="27" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="J195" s="27" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17787,7 +17919,7 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D197" s="27"/>
       <c r="E197" s="27"/>
@@ -17815,10 +17947,10 @@
         <v>24</v>
       </c>
       <c r="I198" s="27" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="J198" s="27" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17835,10 +17967,10 @@
         <v>25</v>
       </c>
       <c r="I199" s="27" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="J199" s="27" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17855,10 +17987,10 @@
         <v>26</v>
       </c>
       <c r="I200" s="27" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="J200" s="27" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17875,10 +18007,10 @@
         <v>27</v>
       </c>
       <c r="I201" s="27" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="J201" s="27" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17895,10 +18027,10 @@
         <v>37</v>
       </c>
       <c r="I202" s="27" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="J202" s="27" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17915,10 +18047,10 @@
         <v>38</v>
       </c>
       <c r="I203" s="27" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="J203" s="27" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17935,10 +18067,10 @@
         <v>44</v>
       </c>
       <c r="I204" s="27" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="J204" s="27" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -17955,15 +18087,15 @@
         <v>365</v>
       </c>
       <c r="I205" s="27" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="J205" s="27" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="27" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B208" s="27"/>
       <c r="C208" s="27"/>
@@ -18078,7 +18210,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="27" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B219" s="27"/>
       <c r="C219" s="27"/>
@@ -18239,7 +18371,7 @@
         <v>310</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>309</v>
@@ -19798,10 +19930,10 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="J70" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="O70" t="s">
         <v>672</v>
@@ -19993,10 +20125,10 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="J80" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="O80" t="s">
         <v>575</v>
@@ -20174,10 +20306,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -20185,16 +20317,16 @@
         <v>539</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>1586</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>1587</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20221,10 +20353,10 @@
         <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="J4" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20232,19 +20364,19 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E5" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H5" t="s">
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="J5" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20252,19 +20384,19 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="E6" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H6" t="s">
         <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="J6" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20284,10 +20416,10 @@
         <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="J7" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20307,10 +20439,10 @@
         <v>37</v>
       </c>
       <c r="I8" t="s">
+        <v>1589</v>
+      </c>
+      <c r="J8" t="s">
         <v>1590</v>
-      </c>
-      <c r="J8" t="s">
-        <v>1591</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20330,10 +20462,10 @@
         <v>38</v>
       </c>
       <c r="I9" t="s">
+        <v>1591</v>
+      </c>
+      <c r="J9" t="s">
         <v>1592</v>
-      </c>
-      <c r="J9" t="s">
-        <v>1593</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20353,10 +20485,10 @@
         <v>491</v>
       </c>
       <c r="I10" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="J10" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20376,10 +20508,10 @@
         <v>354</v>
       </c>
       <c r="I11" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="J11" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20395,19 +20527,19 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E14" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H14" t="s">
         <v>24</v>
       </c>
       <c r="I14" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="J14" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20418,16 +20550,16 @@
         <v>759</v>
       </c>
       <c r="E15" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H15" t="s">
         <v>25</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20435,19 +20567,19 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="E16" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H16" t="s">
         <v>26</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20455,19 +20587,19 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="E17" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H17" t="s">
         <v>27</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20475,19 +20607,19 @@
         <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E18" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H18" t="s">
         <v>37</v>
       </c>
       <c r="I18" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="J18" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20495,19 +20627,19 @@
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="E19" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H19" t="s">
         <v>38</v>
       </c>
       <c r="I19" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="J19" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20515,19 +20647,19 @@
         <v>491</v>
       </c>
       <c r="D20" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E20" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H20" t="s">
         <v>491</v>
       </c>
       <c r="I20" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="J20" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20535,10 +20667,10 @@
         <v>354</v>
       </c>
       <c r="D21" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="E21" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H21" t="s">
         <v>354</v>
@@ -20546,7 +20678,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20560,10 +20692,10 @@
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="E24" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="F24" t="s">
         <v>540</v>
@@ -20572,7 +20704,7 @@
         <v>24</v>
       </c>
       <c r="I24" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="J24" t="s">
         <v>999</v>
@@ -20583,19 +20715,19 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="E25" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H25" t="s">
         <v>25</v>
       </c>
       <c r="I25" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="J25" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20603,19 +20735,19 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="E26" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H26" t="s">
         <v>26</v>
       </c>
       <c r="I26" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="J26" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20629,16 +20761,16 @@
         <v>1002</v>
       </c>
       <c r="E27" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="H27" t="s">
         <v>27</v>
       </c>
       <c r="I27" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="J27" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20649,7 +20781,7 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="E28" t="s">
         <v>859</v>
@@ -20658,7 +20790,7 @@
         <v>37</v>
       </c>
       <c r="I28" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="J28" t="s">
         <v>859</v>
@@ -20669,19 +20801,19 @@
         <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="E29" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H29" t="s">
         <v>38</v>
       </c>
       <c r="I29" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="J29" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20689,19 +20821,19 @@
         <v>491</v>
       </c>
       <c r="D30" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="E30" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H30" t="s">
         <v>491</v>
       </c>
       <c r="I30" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="J30" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20712,19 +20844,19 @@
         <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="E31" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H31" t="s">
         <v>354</v>
       </c>
       <c r="I31" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="J31" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20755,10 +20887,10 @@
         <v>24</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20766,19 +20898,19 @@
         <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="E35" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H35" t="s">
         <v>25</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20786,19 +20918,19 @@
         <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E36" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H36" t="s">
         <v>26</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20818,10 +20950,10 @@
         <v>27</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20835,16 +20967,16 @@
         <v>597</v>
       </c>
       <c r="E38" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="H38" t="s">
         <v>37</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20858,16 +20990,16 @@
         <v>598</v>
       </c>
       <c r="E39" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H39" t="s">
         <v>38</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -20888,10 +21020,10 @@
         <v>491</v>
       </c>
       <c r="I40" s="18" t="s">
+        <v>1687</v>
+      </c>
+      <c r="J40" s="18" t="s">
         <v>1688</v>
-      </c>
-      <c r="J40" s="18" t="s">
-        <v>1689</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20902,7 +21034,7 @@
         <v>754</v>
       </c>
       <c r="E41" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20918,19 +21050,19 @@
         <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E44" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="H44" t="s">
         <v>24</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20938,19 +21070,19 @@
         <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="E45" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H45" t="s">
         <v>25</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20958,19 +21090,19 @@
         <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="E46" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H46" t="s">
         <v>26</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="J46" s="18" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20978,19 +21110,19 @@
         <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E47" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H47" t="s">
         <v>27</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -20998,19 +21130,19 @@
         <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="E48" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H48" t="s">
         <v>37</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="J48" s="18" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21018,19 +21150,19 @@
         <v>38</v>
       </c>
       <c r="D49" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="E49" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H49" t="s">
         <v>38</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21039,19 +21171,19 @@
         <v>491</v>
       </c>
       <c r="D50" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="E50" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>491</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21062,7 +21194,7 @@
         <v>754</v>
       </c>
       <c r="E51" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21090,10 +21222,10 @@
         <v>24</v>
       </c>
       <c r="I54" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="J54" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21101,19 +21233,19 @@
         <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E55" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="H55" t="s">
         <v>25</v>
       </c>
       <c r="I55" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="J55" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21121,19 +21253,19 @@
         <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E56" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="H56" t="s">
         <v>26</v>
       </c>
       <c r="I56" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="J56" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21147,16 +21279,16 @@
         <v>599</v>
       </c>
       <c r="E57" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="H57" t="s">
         <v>27</v>
       </c>
       <c r="I57" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="J57" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21179,7 +21311,7 @@
         <v>609</v>
       </c>
       <c r="J58" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21199,10 +21331,10 @@
         <v>38</v>
       </c>
       <c r="I59" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="J59" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -21255,19 +21387,19 @@
         <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E64" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="H64" t="s">
         <v>24</v>
       </c>
       <c r="I64" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="J64" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -21275,19 +21407,19 @@
         <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="E65" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="H65" t="s">
         <v>25</v>
       </c>
       <c r="I65" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="J65" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -21295,19 +21427,19 @@
         <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="E66" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="H66" t="s">
         <v>26</v>
       </c>
       <c r="I66" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="J66" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -21315,19 +21447,19 @@
         <v>27</v>
       </c>
       <c r="D67" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="E67" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="H67" t="s">
         <v>27</v>
       </c>
       <c r="I67" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="J67" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -21335,19 +21467,19 @@
         <v>37</v>
       </c>
       <c r="D68" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="E68" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H68" t="s">
         <v>37</v>
       </c>
       <c r="I68" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="J68" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -21355,19 +21487,19 @@
         <v>38</v>
       </c>
       <c r="D69" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="E69" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="H69" t="s">
         <v>38</v>
       </c>
       <c r="I69" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="J69" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -21375,19 +21507,19 @@
         <v>491</v>
       </c>
       <c r="D70" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="E70" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="H70" t="s">
         <v>491</v>
       </c>
       <c r="I70" t="s">
+        <v>1728</v>
+      </c>
+      <c r="J70" t="s">
         <v>1729</v>
-      </c>
-      <c r="J70" t="s">
-        <v>1730</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -21395,7 +21527,7 @@
         <v>354</v>
       </c>
       <c r="D71" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="E71" t="s">
         <v>650</v>

--- a/results_ver2.xlsx
+++ b/results_ver2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GitHub\Transfer_Learning_HAR\Create-Synthetic-IMU-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9968B56F-727F-428E-BFA6-EB666519E9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EF5300-5BD4-418B-838C-381EBD17A5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="4" xr2:uid="{12BA48A7-0233-4943-8246-0FE27207722F}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="7" xr2:uid="{12BA48A7-0233-4943-8246-0FE27207722F}"/>
   </bookViews>
   <sheets>
     <sheet name="CNN" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3730" uniqueCount="2142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3749" uniqueCount="2142">
   <si>
     <t>Validation set</t>
   </si>
@@ -15319,8 +15319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2527C4A-E369-43B9-AF00-5597A25A9A60}">
   <dimension ref="A1:S227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="I224" sqref="I224"/>
+    <sheetView topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="H219" sqref="H219:J219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -18824,6 +18824,9 @@
       <c r="E209" s="26" t="s">
         <v>2099</v>
       </c>
+      <c r="H209" s="26" t="s">
+        <v>24</v>
+      </c>
       <c r="I209" s="26" t="s">
         <v>2104</v>
       </c>
@@ -18843,6 +18846,9 @@
       <c r="E210" s="26" t="s">
         <v>900</v>
       </c>
+      <c r="H210" s="26" t="s">
+        <v>25</v>
+      </c>
       <c r="I210" s="26" t="s">
         <v>2105</v>
       </c>
@@ -18862,6 +18868,9 @@
       <c r="E211" s="26" t="s">
         <v>902</v>
       </c>
+      <c r="H211" s="26" t="s">
+        <v>26</v>
+      </c>
       <c r="I211" s="26" t="s">
         <v>2107</v>
       </c>
@@ -18881,6 +18890,9 @@
       <c r="E212" s="26" t="s">
         <v>903</v>
       </c>
+      <c r="H212" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="I212" s="26" t="s">
         <v>2108</v>
       </c>
@@ -18900,6 +18912,9 @@
       <c r="E213" s="26" t="s">
         <v>758</v>
       </c>
+      <c r="H213" s="26" t="s">
+        <v>37</v>
+      </c>
       <c r="I213" s="26" t="s">
         <v>2112</v>
       </c>
@@ -18919,6 +18934,9 @@
       <c r="E214" s="26" t="s">
         <v>756</v>
       </c>
+      <c r="H214" s="26" t="s">
+        <v>38</v>
+      </c>
       <c r="I214" s="26" t="s">
         <v>2114</v>
       </c>
@@ -18938,6 +18956,9 @@
       <c r="E215" s="26" t="s">
         <v>754</v>
       </c>
+      <c r="H215" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="I215" s="26" t="s">
         <v>2116</v>
       </c>
@@ -18957,6 +18978,9 @@
       <c r="E216" s="26" t="s">
         <v>753</v>
       </c>
+      <c r="H216" s="26" t="s">
+        <v>319</v>
+      </c>
       <c r="I216" s="26" t="s">
         <v>2118</v>
       </c>
@@ -18980,8 +19004,15 @@
       <c r="C219" s="26"/>
       <c r="D219" s="26"/>
       <c r="E219" s="26"/>
-      <c r="I219" s="26"/>
-      <c r="J219" s="26"/>
+      <c r="H219" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="I219" s="27" t="s">
+        <v>1732</v>
+      </c>
+      <c r="J219" s="27" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="26" t="s">
@@ -18996,6 +19027,9 @@
       </c>
       <c r="E220" s="26" t="s">
         <v>2120</v>
+      </c>
+      <c r="H220" s="26" t="s">
+        <v>24</v>
       </c>
       <c r="I220" s="26" t="s">
         <v>2128</v>
@@ -19016,6 +19050,9 @@
       <c r="E221" s="26" t="s">
         <v>905</v>
       </c>
+      <c r="H221" s="26" t="s">
+        <v>25</v>
+      </c>
       <c r="I221" s="26" t="s">
         <v>2130</v>
       </c>
@@ -19035,6 +19072,9 @@
       <c r="E222" s="26" t="s">
         <v>906</v>
       </c>
+      <c r="H222" s="26" t="s">
+        <v>26</v>
+      </c>
       <c r="I222" s="26" t="s">
         <v>2132</v>
       </c>
@@ -19054,6 +19094,9 @@
       <c r="E223" s="26" t="s">
         <v>2121</v>
       </c>
+      <c r="H223" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="I223" s="26" t="s">
         <v>2131</v>
       </c>
@@ -19073,6 +19116,9 @@
       <c r="E224" s="26" t="s">
         <v>2122</v>
       </c>
+      <c r="H224" s="26" t="s">
+        <v>37</v>
+      </c>
       <c r="I224" s="26" t="s">
         <v>2135</v>
       </c>
@@ -19092,6 +19138,9 @@
       <c r="E225" s="26" t="s">
         <v>749</v>
       </c>
+      <c r="H225" s="26" t="s">
+        <v>38</v>
+      </c>
       <c r="I225" s="26" t="s">
         <v>2137</v>
       </c>
@@ -19111,6 +19160,9 @@
       <c r="E226" s="26" t="s">
         <v>752</v>
       </c>
+      <c r="H226" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="I226" s="26" t="s">
         <v>2139</v>
       </c>
@@ -19129,6 +19181,9 @@
       </c>
       <c r="E227" s="26" t="s">
         <v>750</v>
+      </c>
+      <c r="H227" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="I227" s="26" t="s">
         <v>2141</v>
@@ -20602,7 +20657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7AC182E-5169-4094-9DE7-3B580E149E8E}">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>

--- a/results_ver2.xlsx
+++ b/results_ver2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GitHub\Transfer_Learning_HAR\Create-Synthetic-IMU-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EF5300-5BD4-418B-838C-381EBD17A5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8A4D6B-9CD3-4F1A-AEB3-DDDE1EBACD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="7" xr2:uid="{12BA48A7-0233-4943-8246-0FE27207722F}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3749" uniqueCount="2142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3743" uniqueCount="2142">
   <si>
     <t>Validation set</t>
   </si>
@@ -20657,8 +20657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7AC182E-5169-4094-9DE7-3B580E149E8E}">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -20709,9 +20709,6 @@
       <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
       <c r="D4" t="s">
         <v>500</v>
       </c>
@@ -20776,9 +20773,6 @@
       <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
       <c r="D7" t="s">
         <v>503</v>
       </c>
@@ -20799,9 +20793,6 @@
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
       <c r="D8" t="s">
         <v>507</v>
       </c>
@@ -20822,9 +20813,6 @@
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
       <c r="D9" t="s">
         <v>505</v>
       </c>
@@ -20845,9 +20833,6 @@
       <c r="B10" t="s">
         <v>518</v>
       </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
       <c r="D10" t="s">
         <v>602</v>
       </c>
@@ -20867,9 +20852,6 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
         <v>519</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>498</v>
